--- a/notebooks/playbook.xlsx
+++ b/notebooks/playbook.xlsx
@@ -37,6 +37,7 @@
     <font>
       <b val="1"/>
       <sz val="16"/>
+      <u val="single"/>
     </font>
     <font>
       <b val="1"/>
@@ -21021,13 +21022,13 @@
         </is>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="E3" s="13" t="n">
         <v>0</v>
@@ -21059,13 +21060,13 @@
         </is>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.39</v>
+        <v>0.51</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>0</v>
@@ -21146,11 +21147,11 @@
     <row r="10" ht="25" customHeight="1">
       <c r="A10" s="13" t="inlineStr">
         <is>
-          <t>Hierarchical</t>
+          <t>Birch</t>
         </is>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="C10" s="13" t="n">
         <v>0.5</v>
@@ -21165,39 +21166,39 @@
     <row r="11" ht="25" customHeight="1">
       <c r="A11" s="13" t="inlineStr">
         <is>
-          <t>Birch</t>
+          <t>KMeans</t>
         </is>
       </c>
       <c r="B11" s="13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="C11" s="13" t="n">
         <v>0.5</v>
       </c>
       <c r="D11" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="13" t="n">
         <v>3</v>
-      </c>
-      <c r="E11" s="13" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
         <is>
-          <t>KMeans</t>
+          <t>Hierarchical</t>
         </is>
       </c>
       <c r="B12" s="13" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="C12" s="13" t="n">
         <v>0.5</v>
       </c>
       <c r="D12" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="13" t="n">
         <v>4</v>
-      </c>
-      <c r="E12" s="13" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -21216,7 +21217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21235,243 +21236,219 @@
     <col width="25" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1">
-      <c r="A1" s="34" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="33" t="inlineStr">
+        <is>
+          <t>Distribution of Clusters</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="25" customHeight="1">
+      <c r="A2" s="34" t="inlineStr">
         <is>
           <t>Feature</t>
         </is>
       </c>
-      <c r="B1" s="34" t="inlineStr">
+      <c r="B2" s="34" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="C1" s="34" t="inlineStr">
+      <c r="C2" s="34" t="inlineStr">
         <is>
           <t>mean</t>
         </is>
       </c>
-      <c r="D1" s="34" t="inlineStr">
+      <c r="D2" s="34" t="inlineStr">
         <is>
           <t>std</t>
         </is>
       </c>
-      <c r="E1" s="34" t="inlineStr">
+      <c r="E2" s="34" t="inlineStr">
         <is>
           <t>min</t>
         </is>
       </c>
-      <c r="F1" s="34" t="inlineStr">
+      <c r="F2" s="34" t="inlineStr">
         <is>
           <t>25%</t>
         </is>
       </c>
-      <c r="G1" s="34" t="inlineStr">
+      <c r="G2" s="34" t="inlineStr">
         <is>
           <t>50%</t>
         </is>
       </c>
-      <c r="H1" s="34" t="inlineStr">
+      <c r="H2" s="34" t="inlineStr">
         <is>
           <t>75%</t>
         </is>
       </c>
-      <c r="I1" s="34" t="inlineStr">
+      <c r="I2" s="34" t="inlineStr">
         <is>
           <t>max</t>
         </is>
-      </c>
-    </row>
-    <row r="2" ht="25" customHeight="1">
-      <c r="A2" s="13" t="inlineStr">
-        <is>
-          <t>individual_id</t>
-        </is>
-      </c>
-      <c r="B2" s="13" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C2" s="13" t="n">
-        <v>5000.5</v>
-      </c>
-      <c r="D2" s="13" t="n">
-        <v>2886.895679907168</v>
-      </c>
-      <c r="E2" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13" t="n">
-        <v>2500.75</v>
-      </c>
-      <c r="G2" s="13" t="n">
-        <v>5000.5</v>
-      </c>
-      <c r="H2" s="13" t="n">
-        <v>7500.25</v>
-      </c>
-      <c r="I2" s="13" t="n">
-        <v>10000</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>age_nbr</t>
+          <t>individual_id</t>
         </is>
       </c>
       <c r="B3" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>42.5002</v>
+        <v>5000.5</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>22.86419202787863</v>
+        <v>2886.895679907168</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>23</v>
+        <v>2500.75</v>
       </c>
       <c r="G3" s="13" t="n">
-        <v>43</v>
+        <v>5000.5</v>
       </c>
       <c r="H3" s="13" t="n">
-        <v>61</v>
+        <v>7500.25</v>
       </c>
       <c r="I3" s="13" t="n">
-        <v>102</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>marital</t>
+          <t>age_nbr</t>
         </is>
       </c>
       <c r="B4" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.6155</v>
+        <v>42.5002</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>0.4865012007609377</v>
+        <v>22.86419202787863</v>
       </c>
       <c r="E4" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G4" s="13" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="H4" s="13" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="I4" s="13" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>marital</t>
         </is>
       </c>
       <c r="B5" s="13" t="n">
-        <v>9856</v>
+        <v>10000</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>99993.69310448458</v>
+        <v>0.6155</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>72994.15639057248</v>
+        <v>0.4865012007609377</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>69408.31479999999</v>
+        <v>0</v>
       </c>
       <c r="G5" s="13" t="n">
-        <v>87000</v>
+        <v>1</v>
       </c>
       <c r="H5" s="13" t="n">
-        <v>101593.5244</v>
+        <v>1</v>
       </c>
       <c r="I5" s="13" t="n">
-        <v>500000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>aetna_family_size</t>
+          <t>income</t>
         </is>
       </c>
       <c r="B6" s="13" t="n">
-        <v>10000</v>
+        <v>9856</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>2.7091</v>
+        <v>99993.69310448458</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>1.709552411289193</v>
+        <v>72994.15639057248</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>1</v>
+        <v>69408.31479999999</v>
       </c>
       <c r="G6" s="13" t="n">
-        <v>2</v>
+        <v>87000</v>
       </c>
       <c r="H6" s="13" t="n">
-        <v>4</v>
+        <v>101593.5244</v>
       </c>
       <c r="I6" s="13" t="n">
-        <v>12</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>aetna_num_children</t>
+          <t>aetna_family_size</t>
         </is>
       </c>
       <c r="B7" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>1.1786</v>
+        <v>2.7091</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.389134626125542</v>
+        <v>1.709552411289193</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1">
       <c r="A8" s="13" t="inlineStr">
         <is>
-          <t>aetna_num_children_modif</t>
+          <t>aetna_num_children</t>
         </is>
       </c>
       <c r="B8" s="13" t="n">
@@ -21502,60 +21479,60 @@
     <row r="9" ht="25" customHeight="1">
       <c r="A9" s="13" t="inlineStr">
         <is>
-          <t>active_medical_ind</t>
+          <t>aetna_num_children_modif</t>
         </is>
       </c>
       <c r="B9" s="13" t="n">
-        <v>9580</v>
+        <v>10000</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>0.7662839248434238</v>
+        <v>1.1786</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.4232157461340539</v>
+        <v>1.389134626125542</v>
       </c>
       <c r="E9" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="13" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
       <c r="A10" s="13" t="inlineStr">
         <is>
-          <t>active_dental_ind</t>
+          <t>active_medical_ind</t>
         </is>
       </c>
       <c r="B10" s="13" t="n">
         <v>9580</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.1927974947807933</v>
+        <v>0.7662839248434238</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>0.3945159913525852</v>
+        <v>0.4232157461340539</v>
       </c>
       <c r="E10" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="13" t="n">
         <v>1</v>
@@ -21564,17 +21541,17 @@
     <row r="11" ht="25" customHeight="1">
       <c r="A11" s="13" t="inlineStr">
         <is>
-          <t>active_pharmacy_ind</t>
+          <t>active_dental_ind</t>
         </is>
       </c>
       <c r="B11" s="13" t="n">
         <v>9580</v>
       </c>
       <c r="C11" s="13" t="n">
-        <v>0.3615866388308977</v>
+        <v>0.1927974947807933</v>
       </c>
       <c r="D11" s="13" t="n">
-        <v>0.4804850051568513</v>
+        <v>0.3945159913525852</v>
       </c>
       <c r="E11" s="13" t="n">
         <v>0</v>
@@ -21586,7 +21563,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="13" t="n">
         <v>1</v>
@@ -21595,17 +21572,17 @@
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
         <is>
-          <t>active_vision_ind</t>
+          <t>active_pharmacy_ind</t>
         </is>
       </c>
       <c r="B12" s="13" t="n">
         <v>9580</v>
       </c>
       <c r="C12" s="13" t="n">
-        <v>0.09780793319415448</v>
+        <v>0.3615866388308977</v>
       </c>
       <c r="D12" s="13" t="n">
-        <v>0.2970702835641326</v>
+        <v>0.4804850051568513</v>
       </c>
       <c r="E12" s="13" t="n">
         <v>0</v>
@@ -21617,7 +21594,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="13" t="n">
         <v>1</v>
@@ -21626,17 +21603,17 @@
     <row r="13" ht="25" customHeight="1">
       <c r="A13" s="13" t="inlineStr">
         <is>
-          <t>active_medicare_ind</t>
+          <t>active_vision_ind</t>
         </is>
       </c>
       <c r="B13" s="13" t="n">
         <v>9580</v>
       </c>
       <c r="C13" s="13" t="n">
-        <v>0.1435281837160751</v>
+        <v>0.09780793319415448</v>
       </c>
       <c r="D13" s="13" t="n">
-        <v>0.3506289737761559</v>
+        <v>0.2970702835641326</v>
       </c>
       <c r="E13" s="13" t="n">
         <v>0</v>
@@ -21657,57 +21634,57 @@
     <row r="14" ht="25" customHeight="1">
       <c r="A14" s="13" t="inlineStr">
         <is>
-          <t>med_mths</t>
+          <t>active_medicare_ind</t>
         </is>
       </c>
       <c r="B14" s="13" t="n">
-        <v>10000</v>
+        <v>9580</v>
       </c>
       <c r="C14" s="13" t="n">
-        <v>12</v>
+        <v>0.1435281837160751</v>
       </c>
       <c r="D14" s="13" t="n">
-        <v>0</v>
+        <v>0.3506289737761559</v>
       </c>
       <c r="E14" s="13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F14" s="13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G14" s="13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H14" s="13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I14" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
       <c r="A15" s="13" t="inlineStr">
         <is>
-          <t>rx_mths</t>
+          <t>med_mths</t>
         </is>
       </c>
       <c r="B15" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="C15" s="13" t="n">
-        <v>4.5545</v>
+        <v>12</v>
       </c>
       <c r="D15" s="13" t="n">
-        <v>5.812934609203606</v>
+        <v>0</v>
       </c>
       <c r="E15" s="13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G15" s="13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H15" s="13" t="n">
         <v>12</v>
@@ -21719,57 +21696,57 @@
     <row r="16" ht="25" customHeight="1">
       <c r="A16" s="13" t="inlineStr">
         <is>
-          <t>a2020_medical_ind</t>
+          <t>rx_mths</t>
         </is>
       </c>
       <c r="B16" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="C16" s="13" t="n">
-        <v>1</v>
+        <v>4.5545</v>
       </c>
       <c r="D16" s="13" t="n">
-        <v>0</v>
+        <v>5.812934609203606</v>
       </c>
       <c r="E16" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I16" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
       <c r="A17" s="13" t="inlineStr">
         <is>
-          <t>a2020_dental_ind</t>
+          <t>a2020_medical_ind</t>
         </is>
       </c>
       <c r="B17" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="C17" s="13" t="n">
-        <v>0.2988</v>
+        <v>1</v>
       </c>
       <c r="D17" s="13" t="n">
-        <v>0.4577548622913745</v>
+        <v>0</v>
       </c>
       <c r="E17" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="13" t="n">
         <v>1</v>
@@ -21781,17 +21758,17 @@
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="13" t="inlineStr">
         <is>
-          <t>a2020_vision_ind</t>
+          <t>a2020_dental_ind</t>
         </is>
       </c>
       <c r="B18" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="C18" s="13" t="n">
-        <v>0.0887</v>
+        <v>0.2988</v>
       </c>
       <c r="D18" s="13" t="n">
-        <v>0.2843244520603248</v>
+        <v>0.4577548622913745</v>
       </c>
       <c r="E18" s="13" t="n">
         <v>0</v>
@@ -21803,7 +21780,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="13" t="n">
         <v>1</v>
@@ -21812,17 +21789,17 @@
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="13" t="inlineStr">
         <is>
-          <t>a2020_rx_ind</t>
+          <t>a2020_vision_ind</t>
         </is>
       </c>
       <c r="B19" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="C19" s="13" t="n">
-        <v>0.3816</v>
+        <v>0.0887</v>
       </c>
       <c r="D19" s="13" t="n">
-        <v>0.4858034998886385</v>
+        <v>0.2843244520603248</v>
       </c>
       <c r="E19" s="13" t="n">
         <v>0</v>
@@ -21834,7 +21811,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="13" t="n">
         <v>1</v>
@@ -21843,17 +21820,17 @@
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="13" t="inlineStr">
         <is>
-          <t>a2020_medicare_ind</t>
+          <t>a2020_rx_ind</t>
         </is>
       </c>
       <c r="B20" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="C20" s="13" t="n">
-        <v>0.154</v>
+        <v>0.3816</v>
       </c>
       <c r="D20" s="13" t="n">
-        <v>0.3609667986158426</v>
+        <v>0.4858034998886385</v>
       </c>
       <c r="E20" s="13" t="n">
         <v>0</v>
@@ -21865,7 +21842,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="13" t="n">
         <v>1</v>
@@ -21874,110 +21851,110 @@
     <row r="21" ht="25" customHeight="1">
       <c r="A21" s="13" t="inlineStr">
         <is>
-          <t>final_total_tenure</t>
+          <t>a2020_medicare_ind</t>
         </is>
       </c>
       <c r="B21" s="13" t="n">
-        <v>7080</v>
+        <v>10000</v>
       </c>
       <c r="C21" s="13" t="n">
-        <v>66.02840919647598</v>
+        <v>0.154</v>
       </c>
       <c r="D21" s="13" t="n">
-        <v>27.21074095152929</v>
+        <v>0.3609667986158426</v>
       </c>
       <c r="E21" s="13" t="n">
-        <v>10.52</v>
+        <v>0</v>
       </c>
       <c r="F21" s="13" t="n">
-        <v>46.565</v>
+        <v>0</v>
       </c>
       <c r="G21" s="13" t="n">
-        <v>60.285</v>
+        <v>0</v>
       </c>
       <c r="H21" s="13" t="n">
-        <v>82.59</v>
+        <v>0</v>
       </c>
       <c r="I21" s="13" t="n">
-        <v>240</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
       <c r="A22" s="13" t="inlineStr">
         <is>
-          <t>final_future_tenure</t>
+          <t>final_total_tenure</t>
         </is>
       </c>
       <c r="B22" s="13" t="n">
         <v>7080</v>
       </c>
       <c r="C22" s="13" t="n">
-        <v>18.82468055325424</v>
+        <v>66.02840919647598</v>
       </c>
       <c r="D22" s="13" t="n">
-        <v>12.17211818919247</v>
+        <v>27.21074095152929</v>
       </c>
       <c r="E22" s="13" t="n">
-        <v>0</v>
+        <v>10.52</v>
       </c>
       <c r="F22" s="13" t="n">
-        <v>12.0175</v>
+        <v>46.565</v>
       </c>
       <c r="G22" s="13" t="n">
-        <v>18.19</v>
+        <v>60.285</v>
       </c>
       <c r="H22" s="13" t="n">
-        <v>25.03225806</v>
+        <v>82.59</v>
       </c>
       <c r="I22" s="13" t="n">
-        <v>144.0322581</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
       <c r="A23" s="13" t="inlineStr">
         <is>
-          <t>dsnp_ind</t>
+          <t>final_future_tenure</t>
         </is>
       </c>
       <c r="B23" s="13" t="n">
-        <v>10000</v>
+        <v>7080</v>
       </c>
       <c r="C23" s="13" t="n">
-        <v>0.0018</v>
+        <v>18.82468055325424</v>
       </c>
       <c r="D23" s="13" t="n">
-        <v>0.0423903254760965</v>
+        <v>12.17211818919247</v>
       </c>
       <c r="E23" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="13" t="n">
-        <v>0</v>
+        <v>12.0175</v>
       </c>
       <c r="G23" s="13" t="n">
-        <v>0</v>
+        <v>18.19</v>
       </c>
       <c r="H23" s="13" t="n">
-        <v>0</v>
+        <v>25.03225806</v>
       </c>
       <c r="I23" s="13" t="n">
-        <v>1</v>
+        <v>144.0322581</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
       <c r="A24" s="13" t="inlineStr">
         <is>
-          <t>mmp_ind</t>
+          <t>dsnp_ind</t>
         </is>
       </c>
       <c r="B24" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="C24" s="13" t="n">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
       <c r="D24" s="13" t="n">
-        <v>0</v>
+        <v>0.0423903254760965</v>
       </c>
       <c r="E24" s="13" t="n">
         <v>0</v>
@@ -21992,302 +21969,302 @@
         <v>0</v>
       </c>
       <c r="I24" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
       <c r="A25" s="13" t="inlineStr">
         <is>
-          <t>tot_allow_amt</t>
+          <t>mmp_ind</t>
         </is>
       </c>
       <c r="B25" s="13" t="n">
-        <v>7417</v>
+        <v>10000</v>
       </c>
       <c r="C25" s="13" t="n">
-        <v>5865.036853175137</v>
+        <v>0</v>
       </c>
       <c r="D25" s="13" t="n">
-        <v>18878.7659882156</v>
+        <v>0</v>
       </c>
       <c r="E25" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="13" t="n">
-        <v>423.06</v>
+        <v>0</v>
       </c>
       <c r="G25" s="13" t="n">
-        <v>1210.86</v>
+        <v>0</v>
       </c>
       <c r="H25" s="13" t="n">
-        <v>3787.66</v>
+        <v>0</v>
       </c>
       <c r="I25" s="13" t="n">
-        <v>378173.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
       <c r="A26" s="13" t="inlineStr">
         <is>
-          <t>tot_paid_amt</t>
+          <t>tot_allow_amt</t>
         </is>
       </c>
       <c r="B26" s="13" t="n">
-        <v>7455</v>
+        <v>7417</v>
       </c>
       <c r="C26" s="13" t="n">
-        <v>5167.761498323272</v>
+        <v>5865.036853175137</v>
       </c>
       <c r="D26" s="13" t="n">
-        <v>18329.88602187026</v>
+        <v>18878.7659882156</v>
       </c>
       <c r="E26" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="13" t="n">
-        <v>269.925</v>
+        <v>423.06</v>
       </c>
       <c r="G26" s="13" t="n">
-        <v>829.35</v>
+        <v>1210.86</v>
       </c>
       <c r="H26" s="13" t="n">
-        <v>2904.36</v>
+        <v>3787.66</v>
       </c>
       <c r="I26" s="13" t="n">
-        <v>372599.19</v>
+        <v>378173.18</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
       <c r="A27" s="13" t="inlineStr">
         <is>
-          <t>srv_copay_amt</t>
+          <t>tot_paid_amt</t>
         </is>
       </c>
       <c r="B27" s="13" t="n">
-        <v>7457</v>
+        <v>7455</v>
       </c>
       <c r="C27" s="13" t="n">
-        <v>154.0585168298243</v>
+        <v>5167.761498323272</v>
       </c>
       <c r="D27" s="13" t="n">
-        <v>368.4028180180377</v>
+        <v>18329.88602187026</v>
       </c>
       <c r="E27" s="13" t="n">
-        <v>-772.36</v>
+        <v>0</v>
       </c>
       <c r="F27" s="13" t="n">
-        <v>0</v>
+        <v>269.925</v>
       </c>
       <c r="G27" s="13" t="n">
-        <v>25</v>
+        <v>829.35</v>
       </c>
       <c r="H27" s="13" t="n">
-        <v>150</v>
+        <v>2904.36</v>
       </c>
       <c r="I27" s="13" t="n">
-        <v>5692.33</v>
+        <v>372599.19</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="13" t="inlineStr">
         <is>
-          <t>rx_allowed_amt</t>
+          <t>srv_copay_amt</t>
         </is>
       </c>
       <c r="B28" s="13" t="n">
-        <v>2804</v>
+        <v>7457</v>
       </c>
       <c r="C28" s="13" t="n">
-        <v>3391.113569900143</v>
+        <v>154.0585168298243</v>
       </c>
       <c r="D28" s="13" t="n">
-        <v>27988.76039721873</v>
+        <v>368.4028180180377</v>
       </c>
       <c r="E28" s="13" t="n">
-        <v>0.42</v>
+        <v>-772.36</v>
       </c>
       <c r="F28" s="13" t="n">
-        <v>53.125</v>
+        <v>0</v>
       </c>
       <c r="G28" s="13" t="n">
-        <v>251.065</v>
+        <v>25</v>
       </c>
       <c r="H28" s="13" t="n">
-        <v>1129.6125</v>
+        <v>150</v>
       </c>
       <c r="I28" s="13" t="n">
-        <v>958012.1800000001</v>
+        <v>5692.33</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="13" t="inlineStr">
         <is>
-          <t>rx_paid_amt</t>
+          <t>rx_allowed_amt</t>
         </is>
       </c>
       <c r="B29" s="13" t="n">
         <v>2804</v>
       </c>
       <c r="C29" s="13" t="n">
-        <v>3090.458102710414</v>
+        <v>3391.113569900143</v>
       </c>
       <c r="D29" s="13" t="n">
-        <v>27313.64800838165</v>
+        <v>27988.76039721873</v>
       </c>
       <c r="E29" s="13" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="F29" s="13" t="n">
-        <v>11.5</v>
+        <v>53.125</v>
       </c>
       <c r="G29" s="13" t="n">
-        <v>102.605</v>
+        <v>251.065</v>
       </c>
       <c r="H29" s="13" t="n">
-        <v>821.035</v>
+        <v>1129.6125</v>
       </c>
       <c r="I29" s="13" t="n">
-        <v>957775.36</v>
+        <v>958012.1800000001</v>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1">
       <c r="A30" s="13" t="inlineStr">
         <is>
-          <t>rx_copay</t>
+          <t>rx_paid_amt</t>
         </is>
       </c>
       <c r="B30" s="13" t="n">
         <v>2804</v>
       </c>
       <c r="C30" s="13" t="n">
-        <v>300.6554671897289</v>
+        <v>3090.458102710414</v>
       </c>
       <c r="D30" s="13" t="n">
-        <v>1118.672217460939</v>
+        <v>27313.64800838165</v>
       </c>
       <c r="E30" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="13" t="n">
-        <v>13.425</v>
+        <v>11.5</v>
       </c>
       <c r="G30" s="13" t="n">
-        <v>76.065</v>
+        <v>102.605</v>
       </c>
       <c r="H30" s="13" t="n">
-        <v>280.345</v>
+        <v>821.035</v>
       </c>
       <c r="I30" s="13" t="n">
-        <v>49556.59</v>
+        <v>957775.36</v>
       </c>
     </row>
     <row r="31" ht="25" customHeight="1">
       <c r="A31" s="13" t="inlineStr">
         <is>
-          <t>pcp_visit_cnt</t>
+          <t>rx_copay</t>
         </is>
       </c>
       <c r="B31" s="13" t="n">
-        <v>7457</v>
+        <v>2804</v>
       </c>
       <c r="C31" s="13" t="n">
-        <v>2.380313799114925</v>
+        <v>300.6554671897289</v>
       </c>
       <c r="D31" s="13" t="n">
-        <v>2.788874424570484</v>
+        <v>1118.672217460939</v>
       </c>
       <c r="E31" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="13" t="n">
-        <v>1</v>
+        <v>13.425</v>
       </c>
       <c r="G31" s="13" t="n">
-        <v>2</v>
+        <v>76.065</v>
       </c>
       <c r="H31" s="13" t="n">
-        <v>3</v>
+        <v>280.345</v>
       </c>
       <c r="I31" s="13" t="n">
-        <v>46</v>
+        <v>49556.59</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
       <c r="A32" s="13" t="inlineStr">
         <is>
-          <t>pcp_allowed_amt</t>
+          <t>pcp_visit_cnt</t>
         </is>
       </c>
       <c r="B32" s="13" t="n">
-        <v>7454</v>
+        <v>7457</v>
       </c>
       <c r="C32" s="13" t="n">
-        <v>272.2940984706198</v>
+        <v>2.380313799114925</v>
       </c>
       <c r="D32" s="13" t="n">
-        <v>343.6528138701798</v>
+        <v>2.788874424570484</v>
       </c>
       <c r="E32" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="13" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G32" s="13" t="n">
-        <v>185.92</v>
+        <v>2</v>
       </c>
       <c r="H32" s="13" t="n">
-        <v>372.1225</v>
+        <v>3</v>
       </c>
       <c r="I32" s="13" t="n">
-        <v>5093.52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
       <c r="A33" s="13" t="inlineStr">
         <is>
-          <t>spclty_visit_cnt</t>
+          <t>pcp_allowed_amt</t>
         </is>
       </c>
       <c r="B33" s="13" t="n">
-        <v>7457</v>
+        <v>7454</v>
       </c>
       <c r="C33" s="13" t="n">
-        <v>1.534933619417997</v>
+        <v>272.2940984706198</v>
       </c>
       <c r="D33" s="13" t="n">
-        <v>2.567677037541463</v>
+        <v>343.6528138701798</v>
       </c>
       <c r="E33" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G33" s="13" t="n">
-        <v>1</v>
+        <v>185.92</v>
       </c>
       <c r="H33" s="13" t="n">
-        <v>2</v>
+        <v>372.1225</v>
       </c>
       <c r="I33" s="13" t="n">
-        <v>31</v>
+        <v>5093.52</v>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
       <c r="A34" s="13" t="inlineStr">
         <is>
-          <t>immunization_visit_cnt</t>
+          <t>spclty_visit_cnt</t>
         </is>
       </c>
       <c r="B34" s="13" t="n">
         <v>7457</v>
       </c>
       <c r="C34" s="13" t="n">
-        <v>0.4594340887756471</v>
+        <v>1.534933619417997</v>
       </c>
       <c r="D34" s="13" t="n">
-        <v>0.7572945347218341</v>
+        <v>2.567677037541463</v>
       </c>
       <c r="E34" s="13" t="n">
         <v>0</v>
@@ -22296,29 +22273,29 @@
         <v>0</v>
       </c>
       <c r="G34" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="13" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
       <c r="A35" s="13" t="inlineStr">
         <is>
-          <t>hosop_rad_visit_cnt</t>
+          <t>immunization_visit_cnt</t>
         </is>
       </c>
       <c r="B35" s="13" t="n">
         <v>7457</v>
       </c>
       <c r="C35" s="13" t="n">
-        <v>0.2790666487863752</v>
+        <v>0.4594340887756471</v>
       </c>
       <c r="D35" s="13" t="n">
-        <v>0.7687448579572222</v>
+        <v>0.7572945347218341</v>
       </c>
       <c r="E35" s="13" t="n">
         <v>0</v>
@@ -22330,150 +22307,150 @@
         <v>0</v>
       </c>
       <c r="H35" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" ht="25" customHeight="1">
       <c r="A36" s="13" t="inlineStr">
         <is>
-          <t>hosop_rad_allowed_amt</t>
+          <t>hosop_rad_visit_cnt</t>
         </is>
       </c>
       <c r="B36" s="13" t="n">
-        <v>1304</v>
+        <v>7457</v>
       </c>
       <c r="C36" s="13" t="n">
-        <v>871.1787269938651</v>
+        <v>0.2790666487863752</v>
       </c>
       <c r="D36" s="13" t="n">
-        <v>1542.223424736027</v>
+        <v>0.7687448579572222</v>
       </c>
       <c r="E36" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="13" t="n">
-        <v>156.365</v>
+        <v>0</v>
       </c>
       <c r="G36" s="13" t="n">
-        <v>348.03</v>
+        <v>0</v>
       </c>
       <c r="H36" s="13" t="n">
-        <v>869.1675</v>
+        <v>0</v>
       </c>
       <c r="I36" s="13" t="n">
-        <v>22849.9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="25" customHeight="1">
       <c r="A37" s="13" t="inlineStr">
         <is>
-          <t>hosop_lab_visit_cnt</t>
+          <t>hosop_rad_allowed_amt</t>
         </is>
       </c>
       <c r="B37" s="13" t="n">
-        <v>7457</v>
+        <v>1304</v>
       </c>
       <c r="C37" s="13" t="n">
-        <v>0.5248759554780743</v>
+        <v>871.1787269938651</v>
       </c>
       <c r="D37" s="13" t="n">
-        <v>1.622982219941783</v>
+        <v>1542.223424736027</v>
       </c>
       <c r="E37" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F37" s="13" t="n">
-        <v>0</v>
+        <v>156.365</v>
       </c>
       <c r="G37" s="13" t="n">
-        <v>0</v>
+        <v>348.03</v>
       </c>
       <c r="H37" s="13" t="n">
-        <v>0</v>
+        <v>869.1675</v>
       </c>
       <c r="I37" s="13" t="n">
-        <v>54</v>
+        <v>22849.9</v>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
       <c r="A38" s="13" t="inlineStr">
         <is>
-          <t>hosop_lab_allowed_amt</t>
+          <t>hosop_lab_visit_cnt</t>
         </is>
       </c>
       <c r="B38" s="13" t="n">
-        <v>1700</v>
+        <v>7457</v>
       </c>
       <c r="C38" s="13" t="n">
-        <v>352.4093235294118</v>
+        <v>0.5248759554780743</v>
       </c>
       <c r="D38" s="13" t="n">
-        <v>682.0641144318591</v>
+        <v>1.622982219941783</v>
       </c>
       <c r="E38" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F38" s="13" t="n">
-        <v>58.945</v>
+        <v>0</v>
       </c>
       <c r="G38" s="13" t="n">
-        <v>133.73</v>
+        <v>0</v>
       </c>
       <c r="H38" s="13" t="n">
-        <v>331.39</v>
+        <v>0</v>
       </c>
       <c r="I38" s="13" t="n">
-        <v>9016.389999999999</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
       <c r="A39" s="13" t="inlineStr">
         <is>
-          <t>op_rehab_visit_cnt</t>
+          <t>hosop_lab_allowed_amt</t>
         </is>
       </c>
       <c r="B39" s="13" t="n">
-        <v>7457</v>
+        <v>1700</v>
       </c>
       <c r="C39" s="13" t="n">
-        <v>0.4529971838540968</v>
+        <v>352.4093235294118</v>
       </c>
       <c r="D39" s="13" t="n">
-        <v>0.7539039589435367</v>
+        <v>682.0641144318591</v>
       </c>
       <c r="E39" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F39" s="13" t="n">
-        <v>0</v>
+        <v>58.945</v>
       </c>
       <c r="G39" s="13" t="n">
-        <v>0</v>
+        <v>133.73</v>
       </c>
       <c r="H39" s="13" t="n">
-        <v>1</v>
+        <v>331.39</v>
       </c>
       <c r="I39" s="13" t="n">
-        <v>7</v>
+        <v>9016.389999999999</v>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
       <c r="A40" s="13" t="inlineStr">
         <is>
-          <t>op_rehab_allowed_amt</t>
+          <t>op_rehab_visit_cnt</t>
         </is>
       </c>
       <c r="B40" s="13" t="n">
-        <v>7456</v>
+        <v>7457</v>
       </c>
       <c r="C40" s="13" t="n">
-        <v>59.64984978540773</v>
+        <v>0.4529971838540968</v>
       </c>
       <c r="D40" s="13" t="n">
-        <v>227.1839081880326</v>
+        <v>0.7539039589435367</v>
       </c>
       <c r="E40" s="13" t="n">
         <v>0</v>
@@ -22485,26 +22462,26 @@
         <v>0</v>
       </c>
       <c r="H40" s="13" t="n">
-        <v>38.57</v>
+        <v>1</v>
       </c>
       <c r="I40" s="13" t="n">
-        <v>9420.08</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
       <c r="A41" s="13" t="inlineStr">
         <is>
-          <t>op_prenatal_visit_cnt</t>
+          <t>op_rehab_allowed_amt</t>
         </is>
       </c>
       <c r="B41" s="13" t="n">
-        <v>7457</v>
+        <v>7456</v>
       </c>
       <c r="C41" s="13" t="n">
-        <v>0.001341021858656296</v>
+        <v>59.64984978540773</v>
       </c>
       <c r="D41" s="13" t="n">
-        <v>0.0400954296555957</v>
+        <v>227.1839081880326</v>
       </c>
       <c r="E41" s="13" t="n">
         <v>0</v>
@@ -22516,26 +22493,26 @@
         <v>0</v>
       </c>
       <c r="H41" s="13" t="n">
-        <v>0</v>
+        <v>38.57</v>
       </c>
       <c r="I41" s="13" t="n">
-        <v>2</v>
+        <v>9420.08</v>
       </c>
     </row>
     <row r="42" ht="25" customHeight="1">
       <c r="A42" s="13" t="inlineStr">
         <is>
-          <t>op_prenatal_allowed_amt</t>
+          <t>op_prenatal_visit_cnt</t>
         </is>
       </c>
       <c r="B42" s="13" t="n">
         <v>7457</v>
       </c>
       <c r="C42" s="13" t="n">
-        <v>1.208028697867775</v>
+        <v>0.001341021858656296</v>
       </c>
       <c r="D42" s="13" t="n">
-        <v>38.20916545878201</v>
+        <v>0.0400954296555957</v>
       </c>
       <c r="E42" s="13" t="n">
         <v>0</v>
@@ -22550,23 +22527,23 @@
         <v>0</v>
       </c>
       <c r="I42" s="13" t="n">
-        <v>1747.24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="25" customHeight="1">
       <c r="A43" s="13" t="inlineStr">
         <is>
-          <t>op_fertility_visit_cnt</t>
+          <t>op_prenatal_allowed_amt</t>
         </is>
       </c>
       <c r="B43" s="13" t="n">
         <v>7457</v>
       </c>
       <c r="C43" s="13" t="n">
-        <v>0.0006705109293281481</v>
+        <v>1.208028697867775</v>
       </c>
       <c r="D43" s="13" t="n">
-        <v>0.04175059983467187</v>
+        <v>38.20916545878201</v>
       </c>
       <c r="E43" s="13" t="n">
         <v>0</v>
@@ -22581,23 +22558,23 @@
         <v>0</v>
       </c>
       <c r="I43" s="13" t="n">
-        <v>3</v>
+        <v>1747.24</v>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
       <c r="A44" s="13" t="inlineStr">
         <is>
-          <t>op_fertility_allowed_amt</t>
+          <t>op_fertility_visit_cnt</t>
         </is>
       </c>
       <c r="B44" s="13" t="n">
         <v>7457</v>
       </c>
       <c r="C44" s="13" t="n">
-        <v>3.594474989942336</v>
+        <v>0.0006705109293281481</v>
       </c>
       <c r="D44" s="13" t="n">
-        <v>238.4862821464691</v>
+        <v>0.04175059983467187</v>
       </c>
       <c r="E44" s="13" t="n">
         <v>0</v>
@@ -22612,23 +22589,23 @@
         <v>0</v>
       </c>
       <c r="I44" s="13" t="n">
-        <v>19100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
       <c r="A45" s="13" t="inlineStr">
         <is>
-          <t>ucc_visit_cnt</t>
+          <t>op_fertility_allowed_amt</t>
         </is>
       </c>
       <c r="B45" s="13" t="n">
         <v>7457</v>
       </c>
       <c r="C45" s="13" t="n">
-        <v>0.2864422690089848</v>
+        <v>3.594474989942336</v>
       </c>
       <c r="D45" s="13" t="n">
-        <v>0.7059829495675118</v>
+        <v>238.4862821464691</v>
       </c>
       <c r="E45" s="13" t="n">
         <v>0</v>
@@ -22643,23 +22620,23 @@
         <v>0</v>
       </c>
       <c r="I45" s="13" t="n">
-        <v>11</v>
+        <v>19100</v>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
       <c r="A46" s="13" t="inlineStr">
         <is>
-          <t>ucc_allowed_amt</t>
+          <t>ucc_visit_cnt</t>
         </is>
       </c>
       <c r="B46" s="13" t="n">
-        <v>7456</v>
+        <v>7457</v>
       </c>
       <c r="C46" s="13" t="n">
-        <v>49.30437231759656</v>
+        <v>0.2864422690089848</v>
       </c>
       <c r="D46" s="13" t="n">
-        <v>167.0040184021022</v>
+        <v>0.7059829495675118</v>
       </c>
       <c r="E46" s="13" t="n">
         <v>0</v>
@@ -22674,85 +22651,85 @@
         <v>0</v>
       </c>
       <c r="I46" s="13" t="n">
-        <v>8734.549999999999</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
       <c r="A47" s="13" t="inlineStr">
         <is>
-          <t>total_rx_scripts</t>
+          <t>ucc_allowed_amt</t>
         </is>
       </c>
       <c r="B47" s="13" t="n">
-        <v>2804</v>
+        <v>7456</v>
       </c>
       <c r="C47" s="13" t="n">
-        <v>28.61447931526391</v>
+        <v>49.30437231759656</v>
       </c>
       <c r="D47" s="13" t="n">
-        <v>31.76511554948618</v>
+        <v>167.0040184021022</v>
       </c>
       <c r="E47" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G47" s="13" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H47" s="13" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I47" s="13" t="n">
-        <v>222</v>
+        <v>8734.549999999999</v>
       </c>
     </row>
     <row r="48" ht="25" customHeight="1">
       <c r="A48" s="13" t="inlineStr">
         <is>
-          <t>total_spec_rx_scripts</t>
+          <t>total_rx_scripts</t>
         </is>
       </c>
       <c r="B48" s="13" t="n">
         <v>2804</v>
       </c>
       <c r="C48" s="13" t="n">
-        <v>0.3277460770328103</v>
+        <v>28.61447931526391</v>
       </c>
       <c r="D48" s="13" t="n">
-        <v>2.238364400439955</v>
+        <v>31.76511554948618</v>
       </c>
       <c r="E48" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G48" s="13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H48" s="13" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I48" s="13" t="n">
-        <v>54</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
       <c r="A49" s="13" t="inlineStr">
         <is>
-          <t>total_mail_rx_scripts</t>
+          <t>total_spec_rx_scripts</t>
         </is>
       </c>
       <c r="B49" s="13" t="n">
         <v>2804</v>
       </c>
       <c r="C49" s="13" t="n">
-        <v>2.4839514978602</v>
+        <v>0.3277460770328103</v>
       </c>
       <c r="D49" s="13" t="n">
-        <v>11.98902872552442</v>
+        <v>2.238364400439955</v>
       </c>
       <c r="E49" s="13" t="n">
         <v>0</v>
@@ -22767,23 +22744,23 @@
         <v>0</v>
       </c>
       <c r="I49" s="13" t="n">
-        <v>152</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
       <c r="A50" s="13" t="inlineStr">
         <is>
-          <t>cvs_rx_scripts</t>
+          <t>total_mail_rx_scripts</t>
         </is>
       </c>
       <c r="B50" s="13" t="n">
         <v>2804</v>
       </c>
       <c r="C50" s="13" t="n">
-        <v>12.00285306704708</v>
+        <v>2.4839514978602</v>
       </c>
       <c r="D50" s="13" t="n">
-        <v>24.0030469671809</v>
+        <v>11.98902872552442</v>
       </c>
       <c r="E50" s="13" t="n">
         <v>0</v>
@@ -22795,26 +22772,26 @@
         <v>0</v>
       </c>
       <c r="H50" s="13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I50" s="13" t="n">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1">
       <c r="A51" s="13" t="inlineStr">
         <is>
-          <t>cvs_rx_retail_scripts</t>
+          <t>cvs_rx_scripts</t>
         </is>
       </c>
       <c r="B51" s="13" t="n">
         <v>2804</v>
       </c>
       <c r="C51" s="13" t="n">
-        <v>9.280670470756062</v>
+        <v>12.00285306704708</v>
       </c>
       <c r="D51" s="13" t="n">
-        <v>21.00362770714463</v>
+        <v>24.0030469671809</v>
       </c>
       <c r="E51" s="13" t="n">
         <v>0</v>
@@ -22826,7 +22803,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I51" s="13" t="n">
         <v>169</v>
@@ -22835,17 +22812,17 @@
     <row r="52" ht="25" customHeight="1">
       <c r="A52" s="13" t="inlineStr">
         <is>
-          <t>cvs_rx_mail_scripts</t>
+          <t>cvs_rx_retail_scripts</t>
         </is>
       </c>
       <c r="B52" s="13" t="n">
         <v>2804</v>
       </c>
       <c r="C52" s="13" t="n">
-        <v>2.4839514978602</v>
+        <v>9.280670470756062</v>
       </c>
       <c r="D52" s="13" t="n">
-        <v>11.98902872552442</v>
+        <v>21.00362770714463</v>
       </c>
       <c r="E52" s="13" t="n">
         <v>0</v>
@@ -22857,26 +22834,26 @@
         <v>0</v>
       </c>
       <c r="H52" s="13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I52" s="13" t="n">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" ht="25" customHeight="1">
       <c r="A53" s="13" t="inlineStr">
         <is>
-          <t>cvs_rx_spec_scripts</t>
+          <t>cvs_rx_mail_scripts</t>
         </is>
       </c>
       <c r="B53" s="13" t="n">
         <v>2804</v>
       </c>
       <c r="C53" s="13" t="n">
-        <v>0.1383737517831669</v>
+        <v>2.4839514978602</v>
       </c>
       <c r="D53" s="13" t="n">
-        <v>1.283600974091202</v>
+        <v>11.98902872552442</v>
       </c>
       <c r="E53" s="13" t="n">
         <v>0</v>
@@ -22891,178 +22868,178 @@
         <v>0</v>
       </c>
       <c r="I53" s="13" t="n">
-        <v>27</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
       <c r="A54" s="13" t="inlineStr">
         <is>
-          <t>total_dentalclean_visit_cnt</t>
+          <t>cvs_rx_spec_scripts</t>
         </is>
       </c>
       <c r="B54" s="13" t="n">
-        <v>1203</v>
+        <v>2804</v>
       </c>
       <c r="C54" s="13" t="n">
-        <v>1.422277639235245</v>
+        <v>0.1383737517831669</v>
       </c>
       <c r="D54" s="13" t="n">
-        <v>0.5392135143277569</v>
+        <v>1.283600974091202</v>
       </c>
       <c r="E54" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" s="13" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="25" customHeight="1">
       <c r="A55" s="13" t="inlineStr">
         <is>
-          <t>total_dentalclean_allowed_amt</t>
+          <t>total_dentalclean_visit_cnt</t>
         </is>
       </c>
       <c r="B55" s="13" t="n">
         <v>1203</v>
       </c>
       <c r="C55" s="13" t="n">
-        <v>111.6577057356608</v>
+        <v>1.422277639235245</v>
       </c>
       <c r="D55" s="13" t="n">
-        <v>61.85369307065714</v>
+        <v>0.5392135143277569</v>
       </c>
       <c r="E55" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="13" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="G55" s="13" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="H55" s="13" t="n">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="I55" s="13" t="n">
-        <v>462</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="25" customHeight="1">
       <c r="A56" s="13" t="inlineStr">
         <is>
-          <t>eyeexam_visit_cnt</t>
+          <t>total_dentalclean_allowed_amt</t>
         </is>
       </c>
       <c r="B56" s="13" t="n">
-        <v>1223</v>
+        <v>1203</v>
       </c>
       <c r="C56" s="13" t="n">
-        <v>1.436631234668847</v>
+        <v>111.6577057356608</v>
       </c>
       <c r="D56" s="13" t="n">
-        <v>1.257006198558086</v>
+        <v>61.85369307065714</v>
       </c>
       <c r="E56" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="13" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="G56" s="13" t="n">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="H56" s="13" t="n">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="I56" s="13" t="n">
-        <v>22</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57" ht="25" customHeight="1">
       <c r="A57" s="13" t="inlineStr">
         <is>
-          <t>eyeexam_allowed_amt</t>
+          <t>eyeexam_visit_cnt</t>
         </is>
       </c>
       <c r="B57" s="13" t="n">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="C57" s="13" t="n">
-        <v>141.1158784893268</v>
+        <v>1.436631234668847</v>
       </c>
       <c r="D57" s="13" t="n">
-        <v>136.1409782052427</v>
+        <v>1.257006198558086</v>
       </c>
       <c r="E57" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="13" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G57" s="13" t="n">
-        <v>113.06</v>
+        <v>1</v>
       </c>
       <c r="H57" s="13" t="n">
-        <v>158.91</v>
+        <v>1</v>
       </c>
       <c r="I57" s="13" t="n">
-        <v>1824.73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="25" customHeight="1">
       <c r="A58" s="13" t="inlineStr">
         <is>
-          <t>ucc_mcable_visit_count</t>
+          <t>eyeexam_allowed_amt</t>
         </is>
       </c>
       <c r="B58" s="13" t="n">
-        <v>5832</v>
+        <v>1218</v>
       </c>
       <c r="C58" s="13" t="n">
-        <v>0.1709533607681756</v>
+        <v>141.1158784893268</v>
       </c>
       <c r="D58" s="13" t="n">
-        <v>0.5113292873299081</v>
+        <v>136.1409782052427</v>
       </c>
       <c r="E58" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F58" s="13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G58" s="13" t="n">
-        <v>0</v>
+        <v>113.06</v>
       </c>
       <c r="H58" s="13" t="n">
-        <v>0</v>
+        <v>158.91</v>
       </c>
       <c r="I58" s="13" t="n">
-        <v>6</v>
+        <v>1824.73</v>
       </c>
     </row>
     <row r="59" ht="25" customHeight="1">
       <c r="A59" s="13" t="inlineStr">
         <is>
-          <t>er_mcable_visit_count</t>
+          <t>ucc_mcable_visit_count</t>
         </is>
       </c>
       <c r="B59" s="13" t="n">
         <v>5832</v>
       </c>
       <c r="C59" s="13" t="n">
-        <v>0.01320301783264746</v>
+        <v>0.1709533607681756</v>
       </c>
       <c r="D59" s="13" t="n">
-        <v>0.1171192606654041</v>
+        <v>0.5113292873299081</v>
       </c>
       <c r="E59" s="13" t="n">
         <v>0</v>
@@ -23077,23 +23054,23 @@
         <v>0</v>
       </c>
       <c r="I59" s="13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="13" t="inlineStr">
         <is>
-          <t>er_case_cnt</t>
+          <t>er_mcable_visit_count</t>
         </is>
       </c>
       <c r="B60" s="13" t="n">
-        <v>4377</v>
+        <v>5832</v>
       </c>
       <c r="C60" s="13" t="n">
-        <v>0.3673749143248801</v>
+        <v>0.01320301783264746</v>
       </c>
       <c r="D60" s="13" t="n">
-        <v>1.061980181236677</v>
+        <v>0.1171192606654041</v>
       </c>
       <c r="E60" s="13" t="n">
         <v>0</v>
@@ -23108,23 +23085,23 @@
         <v>0</v>
       </c>
       <c r="I60" s="13" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="13" t="inlineStr">
         <is>
-          <t>er_allowed_amt</t>
+          <t>er_case_cnt</t>
         </is>
       </c>
       <c r="B61" s="13" t="n">
         <v>4377</v>
       </c>
       <c r="C61" s="13" t="n">
-        <v>877.0039639022161</v>
+        <v>0.3673749143248801</v>
       </c>
       <c r="D61" s="13" t="n">
-        <v>2780.325182948235</v>
+        <v>1.061980181236677</v>
       </c>
       <c r="E61" s="13" t="n">
         <v>0</v>
@@ -23139,23 +23116,23 @@
         <v>0</v>
       </c>
       <c r="I61" s="13" t="n">
-        <v>34335.62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" ht="25" customHeight="1">
       <c r="A62" s="13" t="inlineStr">
         <is>
-          <t>avoider_case_cnt</t>
+          <t>er_allowed_amt</t>
         </is>
       </c>
       <c r="B62" s="13" t="n">
         <v>4377</v>
       </c>
       <c r="C62" s="13" t="n">
-        <v>0.1373086588987891</v>
+        <v>877.0039639022161</v>
       </c>
       <c r="D62" s="13" t="n">
-        <v>0.5311325676212919</v>
+        <v>2780.325182948235</v>
       </c>
       <c r="E62" s="13" t="n">
         <v>0</v>
@@ -23170,23 +23147,23 @@
         <v>0</v>
       </c>
       <c r="I62" s="13" t="n">
-        <v>21</v>
+        <v>34335.62</v>
       </c>
     </row>
     <row r="63" ht="25" customHeight="1">
       <c r="A63" s="13" t="inlineStr">
         <is>
-          <t>avoider_allowed_amt</t>
+          <t>avoider_case_cnt</t>
         </is>
       </c>
       <c r="B63" s="13" t="n">
         <v>4377</v>
       </c>
       <c r="C63" s="13" t="n">
-        <v>257.8278775416953</v>
+        <v>0.1373086588987891</v>
       </c>
       <c r="D63" s="13" t="n">
-        <v>1284.204606268787</v>
+        <v>0.5311325676212919</v>
       </c>
       <c r="E63" s="13" t="n">
         <v>0</v>
@@ -23201,23 +23178,23 @@
         <v>0</v>
       </c>
       <c r="I63" s="13" t="n">
-        <v>33106.11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="13" t="inlineStr">
         <is>
-          <t>ip_case_cnt</t>
+          <t>avoider_allowed_amt</t>
         </is>
       </c>
       <c r="B64" s="13" t="n">
         <v>4377</v>
       </c>
       <c r="C64" s="13" t="n">
-        <v>0.1126342243545808</v>
+        <v>257.8278775416953</v>
       </c>
       <c r="D64" s="13" t="n">
-        <v>0.391135589305651</v>
+        <v>1284.204606268787</v>
       </c>
       <c r="E64" s="13" t="n">
         <v>0</v>
@@ -23232,23 +23209,23 @@
         <v>0</v>
       </c>
       <c r="I64" s="13" t="n">
-        <v>5</v>
+        <v>33106.11</v>
       </c>
     </row>
     <row r="65" ht="25" customHeight="1">
       <c r="A65" s="13" t="inlineStr">
         <is>
-          <t>ip_allowed_amt</t>
+          <t>ip_case_cnt</t>
         </is>
       </c>
       <c r="B65" s="13" t="n">
         <v>4377</v>
       </c>
       <c r="C65" s="13" t="n">
-        <v>2814.016876856294</v>
+        <v>0.1126342243545808</v>
       </c>
       <c r="D65" s="13" t="n">
-        <v>14321.7315166863</v>
+        <v>0.391135589305651</v>
       </c>
       <c r="E65" s="13" t="n">
         <v>0</v>
@@ -23263,23 +23240,23 @@
         <v>0</v>
       </c>
       <c r="I65" s="13" t="n">
-        <v>286682.44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" ht="25" customHeight="1">
       <c r="A66" s="13" t="inlineStr">
         <is>
-          <t>impactip_case_cnt</t>
+          <t>ip_allowed_amt</t>
         </is>
       </c>
       <c r="B66" s="13" t="n">
         <v>4377</v>
       </c>
       <c r="C66" s="13" t="n">
-        <v>0.05643134567055061</v>
+        <v>2814.016876856294</v>
       </c>
       <c r="D66" s="13" t="n">
-        <v>0.2725486797248958</v>
+        <v>14321.7315166863</v>
       </c>
       <c r="E66" s="13" t="n">
         <v>0</v>
@@ -23294,23 +23271,23 @@
         <v>0</v>
       </c>
       <c r="I66" s="13" t="n">
-        <v>3</v>
+        <v>286682.44</v>
       </c>
     </row>
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="13" t="inlineStr">
         <is>
-          <t>impactip_allowed_amt</t>
+          <t>impactip_case_cnt</t>
         </is>
       </c>
       <c r="B67" s="13" t="n">
         <v>4377</v>
       </c>
       <c r="C67" s="13" t="n">
-        <v>1208.12441169751</v>
+        <v>0.05643134567055061</v>
       </c>
       <c r="D67" s="13" t="n">
-        <v>9359.285676830053</v>
+        <v>0.2725486797248958</v>
       </c>
       <c r="E67" s="13" t="n">
         <v>0</v>
@@ -23325,23 +23302,23 @@
         <v>0</v>
       </c>
       <c r="I67" s="13" t="n">
-        <v>259822.17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" ht="25" customHeight="1">
       <c r="A68" s="13" t="inlineStr">
         <is>
-          <t>readmit_case_cnt</t>
+          <t>impactip_allowed_amt</t>
         </is>
       </c>
       <c r="B68" s="13" t="n">
         <v>4377</v>
       </c>
       <c r="C68" s="13" t="n">
-        <v>0.006397075622572538</v>
+        <v>1208.12441169751</v>
       </c>
       <c r="D68" s="13" t="n">
-        <v>0.09775926701651838</v>
+        <v>9359.285676830053</v>
       </c>
       <c r="E68" s="13" t="n">
         <v>0</v>
@@ -23356,23 +23333,23 @@
         <v>0</v>
       </c>
       <c r="I68" s="13" t="n">
-        <v>2</v>
+        <v>259822.17</v>
       </c>
     </row>
     <row r="69" ht="25" customHeight="1">
       <c r="A69" s="13" t="inlineStr">
         <is>
-          <t>readmit_allowed_amt</t>
+          <t>readmit_case_cnt</t>
         </is>
       </c>
       <c r="B69" s="13" t="n">
         <v>4377</v>
       </c>
       <c r="C69" s="13" t="n">
-        <v>151.6009092986064</v>
+        <v>0.006397075622572538</v>
       </c>
       <c r="D69" s="13" t="n">
-        <v>3479.798407021007</v>
+        <v>0.09775926701651838</v>
       </c>
       <c r="E69" s="13" t="n">
         <v>0</v>
@@ -23387,116 +23364,116 @@
         <v>0</v>
       </c>
       <c r="I69" s="13" t="n">
-        <v>161838.43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="25" customHeight="1">
       <c r="A70" s="13" t="inlineStr">
         <is>
-          <t>homecare_visit_cnt</t>
+          <t>readmit_allowed_amt</t>
         </is>
       </c>
       <c r="B70" s="13" t="n">
-        <v>34</v>
+        <v>4377</v>
       </c>
       <c r="C70" s="13" t="n">
-        <v>11.64705882352941</v>
+        <v>151.6009092986064</v>
       </c>
       <c r="D70" s="13" t="n">
-        <v>12.30393470679856</v>
+        <v>3479.798407021007</v>
       </c>
       <c r="E70" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G70" s="13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H70" s="13" t="n">
-        <v>13.75</v>
+        <v>0</v>
       </c>
       <c r="I70" s="13" t="n">
-        <v>53</v>
+        <v>161838.43</v>
       </c>
     </row>
     <row r="71" ht="25" customHeight="1">
       <c r="A71" s="13" t="inlineStr">
         <is>
-          <t>homecare_allowed_amt</t>
+          <t>homecare_visit_cnt</t>
         </is>
       </c>
       <c r="B71" s="13" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C71" s="13" t="n">
-        <v>1954.524545454545</v>
+        <v>11.64705882352941</v>
       </c>
       <c r="D71" s="13" t="n">
-        <v>2222.471877586546</v>
+        <v>12.30393470679856</v>
       </c>
       <c r="E71" s="13" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="F71" s="13" t="n">
-        <v>384</v>
+        <v>4</v>
       </c>
       <c r="G71" s="13" t="n">
-        <v>1050.61</v>
+        <v>7</v>
       </c>
       <c r="H71" s="13" t="n">
-        <v>2176</v>
+        <v>13.75</v>
       </c>
       <c r="I71" s="13" t="n">
-        <v>9475</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" ht="25" customHeight="1">
       <c r="A72" s="13" t="inlineStr">
         <is>
-          <t>hc_physicaltherapy_visit_cnt</t>
+          <t>homecare_allowed_amt</t>
         </is>
       </c>
       <c r="B72" s="13" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C72" s="13" t="n">
-        <v>3.088235294117647</v>
+        <v>1954.524545454545</v>
       </c>
       <c r="D72" s="13" t="n">
-        <v>5.621213322378566</v>
+        <v>2222.471877586546</v>
       </c>
       <c r="E72" s="13" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F72" s="13" t="n">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="G72" s="13" t="n">
-        <v>0</v>
+        <v>1050.61</v>
       </c>
       <c r="H72" s="13" t="n">
-        <v>5</v>
+        <v>2176</v>
       </c>
       <c r="I72" s="13" t="n">
-        <v>27</v>
+        <v>9475</v>
       </c>
     </row>
     <row r="73" ht="25" customHeight="1">
       <c r="A73" s="13" t="inlineStr">
         <is>
-          <t>hc_physicaltherapy_allowed_amt</t>
+          <t>hc_physicaltherapy_visit_cnt</t>
         </is>
       </c>
       <c r="B73" s="13" t="n">
         <v>34</v>
       </c>
       <c r="C73" s="13" t="n">
-        <v>416.7370588235294</v>
+        <v>3.088235294117647</v>
       </c>
       <c r="D73" s="13" t="n">
-        <v>674.1164369550008</v>
+        <v>5.621213322378566</v>
       </c>
       <c r="E73" s="13" t="n">
         <v>0</v>
@@ -23508,26 +23485,26 @@
         <v>0</v>
       </c>
       <c r="H73" s="13" t="n">
-        <v>744.2249999999999</v>
+        <v>5</v>
       </c>
       <c r="I73" s="13" t="n">
-        <v>2854.8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25" customHeight="1">
       <c r="A74" s="13" t="inlineStr">
         <is>
-          <t>hc_drugadmin_visit_cnt</t>
+          <t>hc_physicaltherapy_allowed_amt</t>
         </is>
       </c>
       <c r="B74" s="13" t="n">
         <v>34</v>
       </c>
       <c r="C74" s="13" t="n">
-        <v>5.088235294117647</v>
+        <v>416.7370588235294</v>
       </c>
       <c r="D74" s="13" t="n">
-        <v>11.77147977891409</v>
+        <v>674.1164369550008</v>
       </c>
       <c r="E74" s="13" t="n">
         <v>0</v>
@@ -23539,26 +23516,26 @@
         <v>0</v>
       </c>
       <c r="H74" s="13" t="n">
-        <v>5</v>
+        <v>744.2249999999999</v>
       </c>
       <c r="I74" s="13" t="n">
-        <v>53</v>
+        <v>2854.8</v>
       </c>
     </row>
     <row r="75" ht="25" customHeight="1">
       <c r="A75" s="13" t="inlineStr">
         <is>
-          <t>hc_drugadmin_allowed_amt</t>
+          <t>hc_drugadmin_visit_cnt</t>
         </is>
       </c>
       <c r="B75" s="13" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C75" s="13" t="n">
-        <v>672.2390909090909</v>
+        <v>5.088235294117647</v>
       </c>
       <c r="D75" s="13" t="n">
-        <v>1513.127760485635</v>
+        <v>11.77147977891409</v>
       </c>
       <c r="E75" s="13" t="n">
         <v>0</v>
@@ -23570,26 +23547,26 @@
         <v>0</v>
       </c>
       <c r="H75" s="13" t="n">
-        <v>645</v>
+        <v>5</v>
       </c>
       <c r="I75" s="13" t="n">
-        <v>6908</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="25" customHeight="1">
       <c r="A76" s="13" t="inlineStr">
         <is>
-          <t>hc_medicaltest_visit_cnt</t>
+          <t>hc_drugadmin_allowed_amt</t>
         </is>
       </c>
       <c r="B76" s="13" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C76" s="13" t="n">
-        <v>0</v>
+        <v>672.2390909090909</v>
       </c>
       <c r="D76" s="13" t="n">
-        <v>0</v>
+        <v>1513.127760485635</v>
       </c>
       <c r="E76" s="13" t="n">
         <v>0</v>
@@ -23601,16 +23578,16 @@
         <v>0</v>
       </c>
       <c r="H76" s="13" t="n">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="I76" s="13" t="n">
-        <v>0</v>
+        <v>6908</v>
       </c>
     </row>
     <row r="77" ht="25" customHeight="1">
       <c r="A77" s="13" t="inlineStr">
         <is>
-          <t>hc_medicaltest_allowed_amt</t>
+          <t>hc_medicaltest_visit_cnt</t>
         </is>
       </c>
       <c r="B77" s="13" t="n">
@@ -23641,17 +23618,17 @@
     <row r="78" ht="25" customHeight="1">
       <c r="A78" s="13" t="inlineStr">
         <is>
-          <t>hc_healthmonitor_visit_cnt</t>
+          <t>hc_medicaltest_allowed_amt</t>
         </is>
       </c>
       <c r="B78" s="13" t="n">
         <v>34</v>
       </c>
       <c r="C78" s="13" t="n">
-        <v>4.735294117647059</v>
+        <v>0</v>
       </c>
       <c r="D78" s="13" t="n">
-        <v>6.03177858854057</v>
+        <v>0</v>
       </c>
       <c r="E78" s="13" t="n">
         <v>0</v>
@@ -23660,29 +23637,29 @@
         <v>0</v>
       </c>
       <c r="G78" s="13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78" s="13" t="n">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="I78" s="13" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" ht="25" customHeight="1">
       <c r="A79" s="13" t="inlineStr">
         <is>
-          <t>hc_healthmonitor_allowed_amt</t>
+          <t>hc_healthmonitor_visit_cnt</t>
         </is>
       </c>
       <c r="B79" s="13" t="n">
         <v>34</v>
       </c>
       <c r="C79" s="13" t="n">
-        <v>827.8341176470589</v>
+        <v>4.735294117647059</v>
       </c>
       <c r="D79" s="13" t="n">
-        <v>1658.322004278253</v>
+        <v>6.03177858854057</v>
       </c>
       <c r="E79" s="13" t="n">
         <v>0</v>
@@ -23691,29 +23668,29 @@
         <v>0</v>
       </c>
       <c r="G79" s="13" t="n">
-        <v>443.6</v>
+        <v>2</v>
       </c>
       <c r="H79" s="13" t="n">
-        <v>775.75</v>
+        <v>6.75</v>
       </c>
       <c r="I79" s="13" t="n">
-        <v>9475</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="25" customHeight="1">
       <c r="A80" s="13" t="inlineStr">
         <is>
-          <t>hc_woundcare_visit_cnt</t>
+          <t>hc_healthmonitor_allowed_amt</t>
         </is>
       </c>
       <c r="B80" s="13" t="n">
         <v>34</v>
       </c>
       <c r="C80" s="13" t="n">
-        <v>0</v>
+        <v>827.8341176470589</v>
       </c>
       <c r="D80" s="13" t="n">
-        <v>0</v>
+        <v>1658.322004278253</v>
       </c>
       <c r="E80" s="13" t="n">
         <v>0</v>
@@ -23722,19 +23699,19 @@
         <v>0</v>
       </c>
       <c r="G80" s="13" t="n">
-        <v>0</v>
+        <v>443.6</v>
       </c>
       <c r="H80" s="13" t="n">
-        <v>0</v>
+        <v>775.75</v>
       </c>
       <c r="I80" s="13" t="n">
-        <v>0</v>
+        <v>9475</v>
       </c>
     </row>
     <row r="81" ht="25" customHeight="1">
       <c r="A81" s="13" t="inlineStr">
         <is>
-          <t>hc_woundcare_allowed_amt</t>
+          <t>hc_woundcare_visit_cnt</t>
         </is>
       </c>
       <c r="B81" s="13" t="n">
@@ -23765,141 +23742,141 @@
     <row r="82" ht="25" customHeight="1">
       <c r="A82" s="13" t="inlineStr">
         <is>
-          <t>mc_visit_cnt</t>
+          <t>hc_woundcare_allowed_amt</t>
         </is>
       </c>
       <c r="B82" s="13" t="n">
-        <v>404</v>
+        <v>34</v>
       </c>
       <c r="C82" s="13" t="n">
-        <v>1.405940594059406</v>
+        <v>0</v>
       </c>
       <c r="D82" s="13" t="n">
-        <v>1.323040470201952</v>
+        <v>0</v>
       </c>
       <c r="E82" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" s="13" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="13" t="inlineStr">
         <is>
-          <t>mc_allowed_amt</t>
+          <t>mc_visit_cnt</t>
         </is>
       </c>
       <c r="B83" s="13" t="n">
         <v>404</v>
       </c>
       <c r="C83" s="13" t="n">
-        <v>59.69915841584159</v>
+        <v>1.405940594059406</v>
       </c>
       <c r="D83" s="13" t="n">
-        <v>66.02133403060557</v>
+        <v>1.323040470201952</v>
       </c>
       <c r="E83" s="13" t="n">
-        <v>6.06</v>
+        <v>1</v>
       </c>
       <c r="F83" s="13" t="n">
-        <v>23.46</v>
+        <v>1</v>
       </c>
       <c r="G83" s="13" t="n">
-        <v>38.45</v>
+        <v>1</v>
       </c>
       <c r="H83" s="13" t="n">
-        <v>70.38</v>
+        <v>1</v>
       </c>
       <c r="I83" s="13" t="n">
-        <v>503.12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="13" t="inlineStr">
         <is>
-          <t>mc_paid_amt</t>
+          <t>mc_allowed_amt</t>
         </is>
       </c>
       <c r="B84" s="13" t="n">
         <v>404</v>
       </c>
       <c r="C84" s="13" t="n">
-        <v>50.61450495049505</v>
+        <v>59.69915841584159</v>
       </c>
       <c r="D84" s="13" t="n">
-        <v>57.73440671825733</v>
+        <v>66.02133403060557</v>
       </c>
       <c r="E84" s="13" t="n">
-        <v>0</v>
+        <v>6.06</v>
       </c>
       <c r="F84" s="13" t="n">
         <v>23.46</v>
       </c>
       <c r="G84" s="13" t="n">
-        <v>27.5</v>
+        <v>38.45</v>
       </c>
       <c r="H84" s="13" t="n">
-        <v>55.69</v>
+        <v>70.38</v>
       </c>
       <c r="I84" s="13" t="n">
-        <v>501.2</v>
+        <v>503.12</v>
       </c>
     </row>
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="13" t="inlineStr">
         <is>
-          <t>mc_covid_cnt</t>
+          <t>mc_paid_amt</t>
         </is>
       </c>
       <c r="B85" s="13" t="n">
         <v>404</v>
       </c>
       <c r="C85" s="13" t="n">
-        <v>0.8985148514851485</v>
+        <v>50.61450495049505</v>
       </c>
       <c r="D85" s="13" t="n">
-        <v>1.33555976026085</v>
+        <v>57.73440671825733</v>
       </c>
       <c r="E85" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F85" s="13" t="n">
-        <v>0</v>
+        <v>23.46</v>
       </c>
       <c r="G85" s="13" t="n">
-        <v>1</v>
+        <v>27.5</v>
       </c>
       <c r="H85" s="13" t="n">
-        <v>1</v>
+        <v>55.69</v>
       </c>
       <c r="I85" s="13" t="n">
-        <v>22</v>
+        <v>501.2</v>
       </c>
     </row>
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="13" t="inlineStr">
         <is>
-          <t>mc_covid_allowed_amt</t>
+          <t>mc_covid_cnt</t>
         </is>
       </c>
       <c r="B86" s="13" t="n">
         <v>404</v>
       </c>
       <c r="C86" s="13" t="n">
-        <v>25.33242574257426</v>
+        <v>0.8985148514851485</v>
       </c>
       <c r="D86" s="13" t="n">
-        <v>35.89382023515854</v>
+        <v>1.33555976026085</v>
       </c>
       <c r="E86" s="13" t="n">
         <v>0</v>
@@ -23908,29 +23885,29 @@
         <v>0</v>
       </c>
       <c r="G86" s="13" t="n">
-        <v>23.46</v>
+        <v>1</v>
       </c>
       <c r="H86" s="13" t="n">
-        <v>27.345</v>
+        <v>1</v>
       </c>
       <c r="I86" s="13" t="n">
-        <v>501.2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="13" t="inlineStr">
         <is>
-          <t>mc_covid_paid_amt</t>
+          <t>mc_covid_allowed_amt</t>
         </is>
       </c>
       <c r="B87" s="13" t="n">
         <v>404</v>
       </c>
       <c r="C87" s="13" t="n">
-        <v>25.3330198019802</v>
+        <v>25.33242574257426</v>
       </c>
       <c r="D87" s="13" t="n">
-        <v>35.89379115478925</v>
+        <v>35.89382023515854</v>
       </c>
       <c r="E87" s="13" t="n">
         <v>0</v>
@@ -23942,7 +23919,7 @@
         <v>23.46</v>
       </c>
       <c r="H87" s="13" t="n">
-        <v>27.525</v>
+        <v>27.345</v>
       </c>
       <c r="I87" s="13" t="n">
         <v>501.2</v>
@@ -23951,17 +23928,17 @@
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="13" t="inlineStr">
         <is>
-          <t>mc_non_covid_cnt</t>
+          <t>mc_covid_paid_amt</t>
         </is>
       </c>
       <c r="B88" s="13" t="n">
         <v>404</v>
       </c>
       <c r="C88" s="13" t="n">
-        <v>0.5074257425742574</v>
+        <v>25.3330198019802</v>
       </c>
       <c r="D88" s="13" t="n">
-        <v>0.826030783636019</v>
+        <v>35.89379115478925</v>
       </c>
       <c r="E88" s="13" t="n">
         <v>0</v>
@@ -23970,29 +23947,29 @@
         <v>0</v>
       </c>
       <c r="G88" s="13" t="n">
-        <v>0</v>
+        <v>23.46</v>
       </c>
       <c r="H88" s="13" t="n">
-        <v>1</v>
+        <v>27.525</v>
       </c>
       <c r="I88" s="13" t="n">
-        <v>7</v>
+        <v>501.2</v>
       </c>
     </row>
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="13" t="inlineStr">
         <is>
-          <t>mc_non_covid_allowed_amt</t>
+          <t>mc_non_covid_cnt</t>
         </is>
       </c>
       <c r="B89" s="13" t="n">
         <v>404</v>
       </c>
       <c r="C89" s="13" t="n">
-        <v>34.36673267326733</v>
+        <v>0.5074257425742574</v>
       </c>
       <c r="D89" s="13" t="n">
-        <v>67.01580625166808</v>
+        <v>0.826030783636019</v>
       </c>
       <c r="E89" s="13" t="n">
         <v>0</v>
@@ -24004,26 +23981,26 @@
         <v>0</v>
       </c>
       <c r="H89" s="13" t="n">
-        <v>45.06</v>
+        <v>1</v>
       </c>
       <c r="I89" s="13" t="n">
-        <v>503.12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="13" t="inlineStr">
         <is>
-          <t>mc_non_covid_paid_amt</t>
+          <t>mc_non_covid_allowed_amt</t>
         </is>
       </c>
       <c r="B90" s="13" t="n">
         <v>404</v>
       </c>
       <c r="C90" s="13" t="n">
-        <v>25.28148514851485</v>
+        <v>34.36673267326733</v>
       </c>
       <c r="D90" s="13" t="n">
-        <v>55.92851017055651</v>
+        <v>67.01580625166808</v>
       </c>
       <c r="E90" s="13" t="n">
         <v>0</v>
@@ -24035,398 +24012,398 @@
         <v>0</v>
       </c>
       <c r="H90" s="13" t="n">
-        <v>27.9</v>
+        <v>45.06</v>
       </c>
       <c r="I90" s="13" t="n">
-        <v>443.12</v>
+        <v>503.12</v>
       </c>
     </row>
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="13" t="inlineStr">
         <is>
-          <t>cp_mbr_total_med_cost</t>
+          <t>mc_non_covid_paid_amt</t>
         </is>
       </c>
       <c r="B91" s="13" t="n">
-        <v>1119</v>
+        <v>404</v>
       </c>
       <c r="C91" s="13" t="n">
-        <v>5953.422125915997</v>
+        <v>25.28148514851485</v>
       </c>
       <c r="D91" s="13" t="n">
-        <v>20999.25355620693</v>
+        <v>55.92851017055651</v>
       </c>
       <c r="E91" s="13" t="n">
-        <v>0.0101</v>
+        <v>0</v>
       </c>
       <c r="F91" s="13" t="n">
-        <v>261.24645</v>
+        <v>0</v>
       </c>
       <c r="G91" s="13" t="n">
-        <v>888.96</v>
+        <v>0</v>
       </c>
       <c r="H91" s="13" t="n">
-        <v>3231.815</v>
+        <v>27.9</v>
       </c>
       <c r="I91" s="13" t="n">
-        <v>336573.9</v>
+        <v>443.12</v>
       </c>
     </row>
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="13" t="inlineStr">
         <is>
-          <t>cp_premium_fi</t>
+          <t>cp_mbr_total_med_cost</t>
         </is>
       </c>
       <c r="B92" s="13" t="n">
         <v>1119</v>
       </c>
       <c r="C92" s="13" t="n">
-        <v>4189.886407506702</v>
+        <v>5953.422125915997</v>
       </c>
       <c r="D92" s="13" t="n">
-        <v>3412.775919882892</v>
+        <v>20999.25355620693</v>
       </c>
       <c r="E92" s="13" t="n">
-        <v>9.68</v>
+        <v>0.0101</v>
       </c>
       <c r="F92" s="13" t="n">
-        <v>1166.205</v>
+        <v>261.24645</v>
       </c>
       <c r="G92" s="13" t="n">
-        <v>3899.9</v>
+        <v>888.96</v>
       </c>
       <c r="H92" s="13" t="n">
-        <v>6275.405</v>
+        <v>3231.815</v>
       </c>
       <c r="I92" s="13" t="n">
-        <v>25168.44</v>
+        <v>336573.9</v>
       </c>
     </row>
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="13" t="inlineStr">
         <is>
-          <t>me_mbr_total_med_cost</t>
+          <t>cp_premium_fi</t>
         </is>
       </c>
       <c r="B93" s="13" t="n">
-        <v>1525</v>
+        <v>1119</v>
       </c>
       <c r="C93" s="13" t="n">
-        <v>8860.222874967179</v>
+        <v>4189.886407506702</v>
       </c>
       <c r="D93" s="13" t="n">
-        <v>21061.27488500684</v>
+        <v>3412.775919882892</v>
       </c>
       <c r="E93" s="13" t="n">
-        <v>9.295614748</v>
+        <v>9.68</v>
       </c>
       <c r="F93" s="13" t="n">
-        <v>1265.162</v>
+        <v>1166.205</v>
       </c>
       <c r="G93" s="13" t="n">
-        <v>2816.414994</v>
+        <v>3899.9</v>
       </c>
       <c r="H93" s="13" t="n">
-        <v>7475.952159</v>
+        <v>6275.405</v>
       </c>
       <c r="I93" s="13" t="n">
-        <v>367095.7831</v>
+        <v>25168.44</v>
       </c>
     </row>
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="13" t="inlineStr">
         <is>
-          <t>me_premium_or_fees</t>
+          <t>me_mbr_total_med_cost</t>
         </is>
       </c>
       <c r="B94" s="13" t="n">
         <v>1525</v>
       </c>
       <c r="C94" s="13" t="n">
-        <v>11317.47766993456</v>
+        <v>8860.222874967179</v>
       </c>
       <c r="D94" s="13" t="n">
-        <v>9679.28352712185</v>
+        <v>21061.27488500684</v>
       </c>
       <c r="E94" s="13" t="n">
-        <v>156.9749562</v>
+        <v>9.295614748</v>
       </c>
       <c r="F94" s="13" t="n">
-        <v>5555.32</v>
+        <v>1265.162</v>
       </c>
       <c r="G94" s="13" t="n">
-        <v>8161.595593</v>
+        <v>2816.414994</v>
       </c>
       <c r="H94" s="13" t="n">
-        <v>13471.04</v>
+        <v>7475.952159</v>
       </c>
       <c r="I94" s="13" t="n">
-        <v>100457.36</v>
+        <v>367095.7831</v>
       </c>
     </row>
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="13" t="inlineStr">
         <is>
-          <t>mbr2_me</t>
+          <t>me_premium_or_fees</t>
         </is>
       </c>
       <c r="B95" s="13" t="n">
         <v>1525</v>
       </c>
       <c r="C95" s="13" t="n">
-        <v>0.7785926200708198</v>
+        <v>11317.47766993456</v>
       </c>
       <c r="D95" s="13" t="n">
-        <v>1.44458738756599</v>
+        <v>9679.28352712185</v>
       </c>
       <c r="E95" s="13" t="n">
-        <v>0.006005315</v>
+        <v>156.9749562</v>
       </c>
       <c r="F95" s="13" t="n">
-        <v>0.159465167</v>
+        <v>5555.32</v>
       </c>
       <c r="G95" s="13" t="n">
-        <v>0.331576785</v>
+        <v>8161.595593</v>
       </c>
       <c r="H95" s="13" t="n">
-        <v>0.7435557779999999</v>
+        <v>13471.04</v>
       </c>
       <c r="I95" s="13" t="n">
-        <v>18.05000417</v>
+        <v>100457.36</v>
       </c>
     </row>
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="13" t="inlineStr">
         <is>
-          <t>medical_allowed_pmpm</t>
+          <t>mbr2_me</t>
         </is>
       </c>
       <c r="B96" s="13" t="n">
-        <v>7417</v>
+        <v>1525</v>
       </c>
       <c r="C96" s="13" t="n">
-        <v>488.7530711002154</v>
+        <v>0.7785926200708198</v>
       </c>
       <c r="D96" s="13" t="n">
-        <v>1573.230499049135</v>
+        <v>1.44458738756599</v>
       </c>
       <c r="E96" s="13" t="n">
-        <v>0</v>
+        <v>0.006005315</v>
       </c>
       <c r="F96" s="13" t="n">
-        <v>35.255</v>
+        <v>0.159465167</v>
       </c>
       <c r="G96" s="13" t="n">
-        <v>100.905</v>
+        <v>0.331576785</v>
       </c>
       <c r="H96" s="13" t="n">
-        <v>315.6383333</v>
+        <v>0.7435557779999999</v>
       </c>
       <c r="I96" s="13" t="n">
-        <v>31514.43167</v>
+        <v>18.05000417</v>
       </c>
     </row>
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="13" t="inlineStr">
         <is>
-          <t>medical_paid_pmpm</t>
+          <t>medical_allowed_pmpm</t>
         </is>
       </c>
       <c r="B97" s="13" t="n">
-        <v>7455</v>
+        <v>7417</v>
       </c>
       <c r="C97" s="13" t="n">
-        <v>430.6467915299415</v>
+        <v>488.7530711002154</v>
       </c>
       <c r="D97" s="13" t="n">
-        <v>1527.490501829642</v>
+        <v>1573.230499049135</v>
       </c>
       <c r="E97" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F97" s="13" t="n">
-        <v>22.49375</v>
+        <v>35.255</v>
       </c>
       <c r="G97" s="13" t="n">
-        <v>69.1125</v>
+        <v>100.905</v>
       </c>
       <c r="H97" s="13" t="n">
-        <v>242.03</v>
+        <v>315.6383333</v>
       </c>
       <c r="I97" s="13" t="n">
-        <v>31049.9325</v>
+        <v>31514.43167</v>
       </c>
     </row>
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="13" t="inlineStr">
         <is>
-          <t>medical_copay_pmpm</t>
+          <t>medical_paid_pmpm</t>
         </is>
       </c>
       <c r="B98" s="13" t="n">
-        <v>7457</v>
+        <v>7455</v>
       </c>
       <c r="C98" s="13" t="n">
-        <v>12.83820973586188</v>
+        <v>430.6467915299415</v>
       </c>
       <c r="D98" s="13" t="n">
-        <v>30.70023483500967</v>
+        <v>1527.490501829642</v>
       </c>
       <c r="E98" s="13" t="n">
-        <v>-64.36333333</v>
+        <v>0</v>
       </c>
       <c r="F98" s="13" t="n">
-        <v>0</v>
+        <v>22.49375</v>
       </c>
       <c r="G98" s="13" t="n">
-        <v>2.083333333</v>
+        <v>69.1125</v>
       </c>
       <c r="H98" s="13" t="n">
-        <v>12.5</v>
+        <v>242.03</v>
       </c>
       <c r="I98" s="13" t="n">
-        <v>474.3608333</v>
+        <v>31049.9325</v>
       </c>
     </row>
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="13" t="inlineStr">
         <is>
-          <t>rx_allowed_pmpm</t>
+          <t>medical_copay_pmpm</t>
         </is>
       </c>
       <c r="B99" s="13" t="n">
-        <v>2803</v>
+        <v>7457</v>
       </c>
       <c r="C99" s="13" t="n">
-        <v>283.8439057434777</v>
+        <v>12.83820973586188</v>
       </c>
       <c r="D99" s="13" t="n">
-        <v>2334.990129837172</v>
+        <v>30.70023483500967</v>
       </c>
       <c r="E99" s="13" t="n">
-        <v>0.035</v>
+        <v>-64.36333333</v>
       </c>
       <c r="F99" s="13" t="n">
-        <v>4.4641666665</v>
+        <v>0</v>
       </c>
       <c r="G99" s="13" t="n">
-        <v>21.0375</v>
+        <v>2.083333333</v>
       </c>
       <c r="H99" s="13" t="n">
-        <v>95.64458333499999</v>
+        <v>12.5</v>
       </c>
       <c r="I99" s="13" t="n">
-        <v>79834.34832999999</v>
+        <v>474.3608333</v>
       </c>
     </row>
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="13" t="inlineStr">
         <is>
-          <t>rx_paid_pmpm</t>
+          <t>rx_allowed_pmpm</t>
         </is>
       </c>
       <c r="B100" s="13" t="n">
         <v>2803</v>
       </c>
       <c r="C100" s="13" t="n">
-        <v>258.7482048368256</v>
+        <v>283.8439057434777</v>
       </c>
       <c r="D100" s="13" t="n">
-        <v>2278.750318635919</v>
+        <v>2334.990129837172</v>
       </c>
       <c r="E100" s="13" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="F100" s="13" t="n">
-        <v>0.9733333335000001</v>
+        <v>4.4641666665</v>
       </c>
       <c r="G100" s="13" t="n">
-        <v>8.541666666999999</v>
+        <v>21.0375</v>
       </c>
       <c r="H100" s="13" t="n">
-        <v>69.10666667</v>
+        <v>95.64458333499999</v>
       </c>
       <c r="I100" s="13" t="n">
-        <v>79814.61332999999</v>
+        <v>79834.34832999999</v>
       </c>
     </row>
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="13" t="inlineStr">
         <is>
-          <t>rx_copay_pmpm</t>
+          <t>rx_paid_pmpm</t>
         </is>
       </c>
       <c r="B101" s="13" t="n">
         <v>2803</v>
       </c>
       <c r="C101" s="13" t="n">
-        <v>25.09570091128398</v>
+        <v>258.7482048368256</v>
       </c>
       <c r="D101" s="13" t="n">
-        <v>93.24025432724481</v>
+        <v>2278.750318635919</v>
       </c>
       <c r="E101" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F101" s="13" t="n">
-        <v>1.1341666665</v>
+        <v>0.9733333335000001</v>
       </c>
       <c r="G101" s="13" t="n">
-        <v>6.358333333</v>
+        <v>8.541666666999999</v>
       </c>
       <c r="H101" s="13" t="n">
-        <v>23.46625</v>
+        <v>69.10666667</v>
       </c>
       <c r="I101" s="13" t="n">
-        <v>4129.715833</v>
+        <v>79814.61332999999</v>
       </c>
     </row>
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="13" t="inlineStr">
         <is>
-          <t>er_allowed_pmpm</t>
+          <t>rx_copay_pmpm</t>
         </is>
       </c>
       <c r="B102" s="13" t="n">
-        <v>4377</v>
+        <v>2803</v>
       </c>
       <c r="C102" s="13" t="n">
-        <v>73.08366365916062</v>
+        <v>25.09570091128398</v>
       </c>
       <c r="D102" s="13" t="n">
-        <v>231.6937652522394</v>
+        <v>93.24025432724481</v>
       </c>
       <c r="E102" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F102" s="13" t="n">
-        <v>0</v>
+        <v>1.1341666665</v>
       </c>
       <c r="G102" s="13" t="n">
-        <v>0</v>
+        <v>6.358333333</v>
       </c>
       <c r="H102" s="13" t="n">
-        <v>0</v>
+        <v>23.46625</v>
       </c>
       <c r="I102" s="13" t="n">
-        <v>2861.301667</v>
+        <v>4129.715833</v>
       </c>
     </row>
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="13" t="inlineStr">
         <is>
-          <t>avoider_allowed_pmpm</t>
+          <t>er_allowed_pmpm</t>
         </is>
       </c>
       <c r="B103" s="13" t="n">
         <v>4377</v>
       </c>
       <c r="C103" s="13" t="n">
-        <v>21.48565646164953</v>
+        <v>73.08366365916062</v>
       </c>
       <c r="D103" s="13" t="n">
-        <v>107.0170505212891</v>
+        <v>231.6937652522394</v>
       </c>
       <c r="E103" s="13" t="n">
         <v>0</v>
@@ -24441,23 +24418,23 @@
         <v>0</v>
       </c>
       <c r="I103" s="13" t="n">
-        <v>2758.8425</v>
+        <v>2861.301667</v>
       </c>
     </row>
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="13" t="inlineStr">
         <is>
-          <t>ip_allowed_pmpm</t>
+          <t>avoider_allowed_pmpm</t>
         </is>
       </c>
       <c r="B104" s="13" t="n">
         <v>4377</v>
       </c>
       <c r="C104" s="13" t="n">
-        <v>234.5014064031529</v>
+        <v>21.48565646164953</v>
       </c>
       <c r="D104" s="13" t="n">
-        <v>1193.477626356215</v>
+        <v>107.0170505212891</v>
       </c>
       <c r="E104" s="13" t="n">
         <v>0</v>
@@ -24472,23 +24449,23 @@
         <v>0</v>
       </c>
       <c r="I104" s="13" t="n">
-        <v>23890.20333</v>
+        <v>2758.8425</v>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="13" t="inlineStr">
         <is>
-          <t>impactip_allowed_pmpm</t>
+          <t>ip_allowed_pmpm</t>
         </is>
       </c>
       <c r="B105" s="13" t="n">
         <v>4377</v>
       </c>
       <c r="C105" s="13" t="n">
-        <v>100.6770343068997</v>
+        <v>234.5014064031529</v>
       </c>
       <c r="D105" s="13" t="n">
-        <v>779.9404730553146</v>
+        <v>1193.477626356215</v>
       </c>
       <c r="E105" s="13" t="n">
         <v>0</v>
@@ -24503,23 +24480,23 @@
         <v>0</v>
       </c>
       <c r="I105" s="13" t="n">
-        <v>21651.8475</v>
+        <v>23890.20333</v>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="13" t="inlineStr">
         <is>
-          <t>readmit_allowed_pmpm</t>
+          <t>impactip_allowed_pmpm</t>
         </is>
       </c>
       <c r="B106" s="13" t="n">
         <v>4377</v>
       </c>
       <c r="C106" s="13" t="n">
-        <v>12.6334091072127</v>
+        <v>100.6770343068997</v>
       </c>
       <c r="D106" s="13" t="n">
-        <v>289.9832005484554</v>
+        <v>779.9404730553146</v>
       </c>
       <c r="E106" s="13" t="n">
         <v>0</v>
@@ -24534,128 +24511,128 @@
         <v>0</v>
       </c>
       <c r="I106" s="13" t="n">
-        <v>13486.53583</v>
+        <v>21651.8475</v>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="13" t="inlineStr">
         <is>
-          <t>hosop_rad_allowed_pmpm</t>
+          <t>readmit_allowed_pmpm</t>
         </is>
       </c>
       <c r="B107" s="13" t="n">
-        <v>1304</v>
+        <v>4377</v>
       </c>
       <c r="C107" s="13" t="n">
-        <v>72.59822724888267</v>
+        <v>12.6334091072127</v>
       </c>
       <c r="D107" s="13" t="n">
-        <v>128.5186187217004</v>
+        <v>289.9832005484554</v>
       </c>
       <c r="E107" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F107" s="13" t="n">
-        <v>13.0304166675</v>
+        <v>0</v>
       </c>
       <c r="G107" s="13" t="n">
-        <v>29.0025</v>
+        <v>0</v>
       </c>
       <c r="H107" s="13" t="n">
-        <v>72.43062500250001</v>
+        <v>0</v>
       </c>
       <c r="I107" s="13" t="n">
-        <v>1904.158333</v>
+        <v>13486.53583</v>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="13" t="inlineStr">
         <is>
-          <t>hosop_lab_allowed_pmpm</t>
+          <t>hosop_rad_allowed_pmpm</t>
         </is>
       </c>
       <c r="B108" s="13" t="n">
-        <v>1700</v>
+        <v>1304</v>
       </c>
       <c r="C108" s="13" t="n">
-        <v>29.36744362731882</v>
+        <v>72.59822724888267</v>
       </c>
       <c r="D108" s="13" t="n">
-        <v>56.8386762017368</v>
+        <v>128.5186187217004</v>
       </c>
       <c r="E108" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F108" s="13" t="n">
-        <v>4.912083333</v>
+        <v>13.0304166675</v>
       </c>
       <c r="G108" s="13" t="n">
-        <v>11.144166665</v>
+        <v>29.0025</v>
       </c>
       <c r="H108" s="13" t="n">
-        <v>27.6158333325</v>
+        <v>72.43062500250001</v>
       </c>
       <c r="I108" s="13" t="n">
-        <v>751.3658333</v>
+        <v>1904.158333</v>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="13" t="inlineStr">
         <is>
-          <t>max_pulse</t>
+          <t>hosop_lab_allowed_pmpm</t>
         </is>
       </c>
       <c r="B109" s="13" t="n">
-        <v>8295</v>
+        <v>1700</v>
       </c>
       <c r="C109" s="13" t="n">
-        <v>8.43937987944545</v>
+        <v>29.36744362731882</v>
       </c>
       <c r="D109" s="13" t="n">
-        <v>1.025699232254979</v>
+        <v>56.8386762017368</v>
       </c>
       <c r="E109" s="13" t="n">
-        <v>4.9707</v>
+        <v>0</v>
       </c>
       <c r="F109" s="13" t="n">
-        <v>7.685549999999999</v>
+        <v>4.912083333</v>
       </c>
       <c r="G109" s="13" t="n">
-        <v>8.329499999999999</v>
+        <v>11.144166665</v>
       </c>
       <c r="H109" s="13" t="n">
-        <v>9.085999999999999</v>
+        <v>27.6158333325</v>
       </c>
       <c r="I109" s="13" t="n">
-        <v>14.1747</v>
+        <v>751.3658333</v>
       </c>
     </row>
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="13" t="inlineStr">
         <is>
-          <t>first_pulse</t>
+          <t>max_pulse</t>
         </is>
       </c>
       <c r="B110" s="13" t="n">
         <v>8295</v>
       </c>
       <c r="C110" s="13" t="n">
-        <v>8.108504653405666</v>
+        <v>8.43937987944545</v>
       </c>
       <c r="D110" s="13" t="n">
-        <v>1.039221362850857</v>
+        <v>1.025699232254979</v>
       </c>
       <c r="E110" s="13" t="n">
-        <v>0</v>
+        <v>4.9707</v>
       </c>
       <c r="F110" s="13" t="n">
-        <v>7.3444</v>
+        <v>7.685549999999999</v>
       </c>
       <c r="G110" s="13" t="n">
-        <v>7.9917</v>
+        <v>8.329499999999999</v>
       </c>
       <c r="H110" s="13" t="n">
-        <v>8.7714</v>
+        <v>9.085999999999999</v>
       </c>
       <c r="I110" s="13" t="n">
         <v>14.1747</v>
@@ -24664,48 +24641,48 @@
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="13" t="inlineStr">
         <is>
-          <t>alg</t>
+          <t>first_pulse</t>
         </is>
       </c>
       <c r="B111" s="13" t="n">
         <v>8295</v>
       </c>
       <c r="C111" s="13" t="n">
-        <v>0.0595539481615431</v>
+        <v>8.108504653405666</v>
       </c>
       <c r="D111" s="13" t="n">
-        <v>0.2366728293782937</v>
+        <v>1.039221362850857</v>
       </c>
       <c r="E111" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F111" s="13" t="n">
-        <v>0</v>
+        <v>7.3444</v>
       </c>
       <c r="G111" s="13" t="n">
-        <v>0</v>
+        <v>7.9917</v>
       </c>
       <c r="H111" s="13" t="n">
-        <v>0</v>
+        <v>8.7714</v>
       </c>
       <c r="I111" s="13" t="n">
-        <v>1</v>
+        <v>14.1747</v>
       </c>
     </row>
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="13" t="inlineStr">
         <is>
-          <t>hyp</t>
+          <t>alg</t>
         </is>
       </c>
       <c r="B112" s="13" t="n">
         <v>8295</v>
       </c>
       <c r="C112" s="13" t="n">
-        <v>0.2538878842676311</v>
+        <v>0.0595539481615431</v>
       </c>
       <c r="D112" s="13" t="n">
-        <v>0.435260457370326</v>
+        <v>0.2366728293782937</v>
       </c>
       <c r="E112" s="13" t="n">
         <v>0</v>
@@ -24717,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" s="13" t="n">
         <v>1</v>
@@ -24726,17 +24703,17 @@
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="13" t="inlineStr">
         <is>
-          <t>hyc</t>
+          <t>hyp</t>
         </is>
       </c>
       <c r="B113" s="13" t="n">
         <v>8295</v>
       </c>
       <c r="C113" s="13" t="n">
-        <v>0.2420735382760699</v>
+        <v>0.2538878842676311</v>
       </c>
       <c r="D113" s="13" t="n">
-        <v>0.4283644028486515</v>
+        <v>0.435260457370326</v>
       </c>
       <c r="E113" s="13" t="n">
         <v>0</v>
@@ -24748,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" s="13" t="n">
         <v>1</v>
@@ -24757,17 +24734,17 @@
     <row r="114" ht="25" customHeight="1">
       <c r="A114" s="13" t="inlineStr">
         <is>
-          <t>dia</t>
+          <t>hyc</t>
         </is>
       </c>
       <c r="B114" s="13" t="n">
         <v>8295</v>
       </c>
       <c r="C114" s="13" t="n">
-        <v>0.09306811332127787</v>
+        <v>0.2420735382760699</v>
       </c>
       <c r="D114" s="13" t="n">
-        <v>0.2905453775426113</v>
+        <v>0.4283644028486515</v>
       </c>
       <c r="E114" s="13" t="n">
         <v>0</v>
@@ -24788,17 +24765,17 @@
     <row r="115" ht="25" customHeight="1">
       <c r="A115" s="13" t="inlineStr">
         <is>
-          <t>dep</t>
+          <t>dia</t>
         </is>
       </c>
       <c r="B115" s="13" t="n">
         <v>8295</v>
       </c>
       <c r="C115" s="13" t="n">
-        <v>0.08583484026522001</v>
+        <v>0.09306811332127787</v>
       </c>
       <c r="D115" s="13" t="n">
-        <v>0.2801368972179906</v>
+        <v>0.2905453775426113</v>
       </c>
       <c r="E115" s="13" t="n">
         <v>0</v>
@@ -24819,17 +24796,17 @@
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="13" t="inlineStr">
         <is>
-          <t>anx</t>
+          <t>dep</t>
         </is>
       </c>
       <c r="B116" s="13" t="n">
         <v>8295</v>
       </c>
       <c r="C116" s="13" t="n">
-        <v>0.08282097649186257</v>
+        <v>0.08583484026522001</v>
       </c>
       <c r="D116" s="13" t="n">
-        <v>0.2756280482334906</v>
+        <v>0.2801368972179906</v>
       </c>
       <c r="E116" s="13" t="n">
         <v>0</v>
@@ -24850,17 +24827,17 @@
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="13" t="inlineStr">
         <is>
-          <t>lbp</t>
+          <t>anx</t>
         </is>
       </c>
       <c r="B117" s="13" t="n">
         <v>8295</v>
       </c>
       <c r="C117" s="13" t="n">
-        <v>0.08342374924653406</v>
+        <v>0.08282097649186257</v>
       </c>
       <c r="D117" s="13" t="n">
-        <v>0.2765383274162739</v>
+        <v>0.2756280482334906</v>
       </c>
       <c r="E117" s="13" t="n">
         <v>0</v>
@@ -24881,17 +24858,17 @@
     <row r="118" ht="25" customHeight="1">
       <c r="A118" s="13" t="inlineStr">
         <is>
-          <t>ctd</t>
+          <t>lbp</t>
         </is>
       </c>
       <c r="B118" s="13" t="n">
         <v>8295</v>
       </c>
       <c r="C118" s="13" t="n">
-        <v>0.09246534056660639</v>
+        <v>0.08342374924653406</v>
       </c>
       <c r="D118" s="13" t="n">
-        <v>0.2896991870472118</v>
+        <v>0.2765383274162739</v>
       </c>
       <c r="E118" s="13" t="n">
         <v>0</v>
@@ -24912,17 +24889,17 @@
     <row r="119" ht="25" customHeight="1">
       <c r="A119" s="13" t="inlineStr">
         <is>
-          <t>ngd</t>
+          <t>ctd</t>
         </is>
       </c>
       <c r="B119" s="13" t="n">
         <v>8295</v>
       </c>
       <c r="C119" s="13" t="n">
-        <v>0.1154912597950573</v>
+        <v>0.09246534056660639</v>
       </c>
       <c r="D119" s="13" t="n">
-        <v>0.3196331415909807</v>
+        <v>0.2896991870472118</v>
       </c>
       <c r="E119" s="13" t="n">
         <v>0</v>
@@ -24943,17 +24920,17 @@
     <row r="120" ht="25" customHeight="1">
       <c r="A120" s="13" t="inlineStr">
         <is>
-          <t>obe</t>
+          <t>ngd</t>
         </is>
       </c>
       <c r="B120" s="13" t="n">
         <v>8295</v>
       </c>
       <c r="C120" s="13" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.1154912597950573</v>
       </c>
       <c r="D120" s="13" t="n">
-        <v>0.2935612195547387</v>
+        <v>0.3196331415909807</v>
       </c>
       <c r="E120" s="13" t="n">
         <v>0</v>
@@ -24974,29 +24951,29 @@
     <row r="121" ht="25" customHeight="1">
       <c r="A121" s="13" t="inlineStr">
         <is>
-          <t>cm_targeted</t>
+          <t>obe</t>
         </is>
       </c>
       <c r="B121" s="13" t="n">
-        <v>799</v>
+        <v>8295</v>
       </c>
       <c r="C121" s="13" t="n">
-        <v>0.951188986232791</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="D121" s="13" t="n">
-        <v>0.2156076987917971</v>
+        <v>0.2935612195547387</v>
       </c>
       <c r="E121" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F121" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" s="13" t="n">
         <v>1</v>
@@ -25005,29 +24982,29 @@
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="13" t="inlineStr">
         <is>
-          <t>cm_engaged</t>
+          <t>cm_targeted</t>
         </is>
       </c>
       <c r="B122" s="13" t="n">
         <v>799</v>
       </c>
       <c r="C122" s="13" t="n">
-        <v>0.2453066332916145</v>
+        <v>0.951188986232791</v>
       </c>
       <c r="D122" s="13" t="n">
-        <v>0.4305383642036821</v>
+        <v>0.2156076987917971</v>
       </c>
       <c r="E122" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F122" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" s="13" t="n">
         <v>1</v>
@@ -25036,116 +25013,116 @@
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="13" t="inlineStr">
         <is>
-          <t>pulse</t>
+          <t>cm_engaged</t>
         </is>
       </c>
       <c r="B123" s="13" t="n">
-        <v>8378</v>
+        <v>799</v>
       </c>
       <c r="C123" s="13" t="n">
-        <v>8.164461733110528</v>
+        <v>0.2453066332916145</v>
       </c>
       <c r="D123" s="13" t="n">
-        <v>1.059912865191837</v>
+        <v>0.4305383642036821</v>
       </c>
       <c r="E123" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F123" s="13" t="n">
-        <v>7.38015</v>
+        <v>0</v>
       </c>
       <c r="G123" s="13" t="n">
-        <v>8.0707</v>
+        <v>0</v>
       </c>
       <c r="H123" s="13" t="n">
-        <v>8.834675000000001</v>
+        <v>0</v>
       </c>
       <c r="I123" s="13" t="n">
-        <v>13.7074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" ht="25" customHeight="1">
       <c r="A124" s="13" t="inlineStr">
         <is>
-          <t>strat_score_value</t>
+          <t>pulse</t>
         </is>
       </c>
       <c r="B124" s="13" t="n">
-        <v>8385</v>
+        <v>8378</v>
       </c>
       <c r="C124" s="13" t="n">
-        <v>49.15396541443053</v>
+        <v>8.164461733110528</v>
       </c>
       <c r="D124" s="13" t="n">
-        <v>31.45916684011339</v>
+        <v>1.059912865191837</v>
       </c>
       <c r="E124" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F124" s="13" t="n">
-        <v>22</v>
+        <v>7.38015</v>
       </c>
       <c r="G124" s="13" t="n">
-        <v>47</v>
+        <v>8.0707</v>
       </c>
       <c r="H124" s="13" t="n">
-        <v>74</v>
+        <v>8.834675000000001</v>
       </c>
       <c r="I124" s="13" t="n">
-        <v>166</v>
+        <v>13.7074</v>
       </c>
     </row>
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="13" t="inlineStr">
         <is>
-          <t>pcp_flag</t>
+          <t>strat_score_value</t>
         </is>
       </c>
       <c r="B125" s="13" t="n">
-        <v>10000</v>
+        <v>8385</v>
       </c>
       <c r="C125" s="13" t="n">
-        <v>0.6808</v>
+        <v>49.15396541443053</v>
       </c>
       <c r="D125" s="13" t="n">
-        <v>0.466189975556458</v>
+        <v>31.45916684011339</v>
       </c>
       <c r="E125" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F125" s="13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G125" s="13" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="H125" s="13" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="I125" s="13" t="n">
-        <v>1</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="13" t="inlineStr">
         <is>
-          <t>teledoc_visit</t>
+          <t>pcp_flag</t>
         </is>
       </c>
       <c r="B126" s="13" t="n">
-        <v>208</v>
+        <v>10000</v>
       </c>
       <c r="C126" s="13" t="n">
-        <v>3.581730769230769</v>
+        <v>0.6808</v>
       </c>
       <c r="D126" s="13" t="n">
-        <v>9.587282885428605</v>
+        <v>0.466189975556458</v>
       </c>
       <c r="E126" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" s="13" t="n">
         <v>1</v>
@@ -25154,26 +25131,26 @@
         <v>1</v>
       </c>
       <c r="I126" s="13" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="13" t="inlineStr">
         <is>
-          <t>cvs_rx_inrange_ind</t>
+          <t>teledoc_visit</t>
         </is>
       </c>
       <c r="B127" s="13" t="n">
-        <v>10000</v>
+        <v>208</v>
       </c>
       <c r="C127" s="13" t="n">
-        <v>0.7648</v>
+        <v>3.581730769230769</v>
       </c>
       <c r="D127" s="13" t="n">
-        <v>0.4241449633026302</v>
+        <v>9.587282885428605</v>
       </c>
       <c r="E127" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" s="13" t="n">
         <v>1</v>
@@ -25185,32 +25162,32 @@
         <v>1</v>
       </c>
       <c r="I127" s="13" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="13" t="inlineStr">
         <is>
-          <t>cvs_mc_inrange_ind</t>
+          <t>cvs_rx_inrange_ind</t>
         </is>
       </c>
       <c r="B128" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="C128" s="13" t="n">
-        <v>0.4585</v>
+        <v>0.7648</v>
       </c>
       <c r="D128" s="13" t="n">
-        <v>0.4982996892012134</v>
+        <v>0.4241449633026302</v>
       </c>
       <c r="E128" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F128" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" s="13" t="n">
         <v>1</v>
@@ -25222,17 +25199,17 @@
     <row r="129" ht="25" customHeight="1">
       <c r="A129" s="13" t="inlineStr">
         <is>
-          <t>cvs_hh_inrange_ind</t>
+          <t>cvs_mc_inrange_ind</t>
         </is>
       </c>
       <c r="B129" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="C129" s="13" t="n">
-        <v>0.5844</v>
+        <v>0.4585</v>
       </c>
       <c r="D129" s="13" t="n">
-        <v>0.4928498048016346</v>
+        <v>0.4982996892012134</v>
       </c>
       <c r="E129" s="13" t="n">
         <v>0</v>
@@ -25241,7 +25218,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129" s="13" t="n">
         <v>1</v>
@@ -25253,23 +25230,23 @@
     <row r="130" ht="25" customHeight="1">
       <c r="A130" s="13" t="inlineStr">
         <is>
-          <t>nba_targeted_ind</t>
+          <t>cvs_hh_inrange_ind</t>
         </is>
       </c>
       <c r="B130" s="13" t="n">
-        <v>1237</v>
+        <v>10000</v>
       </c>
       <c r="C130" s="13" t="n">
-        <v>1</v>
+        <v>0.5844</v>
       </c>
       <c r="D130" s="13" t="n">
-        <v>0</v>
+        <v>0.4928498048016346</v>
       </c>
       <c r="E130" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" s="13" t="n">
         <v>1</v>
@@ -25284,11 +25261,11 @@
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="13" t="inlineStr">
         <is>
-          <t>star_gap_ind</t>
+          <t>nba_targeted_ind</t>
         </is>
       </c>
       <c r="B131" s="13" t="n">
-        <v>490</v>
+        <v>1237</v>
       </c>
       <c r="C131" s="13" t="n">
         <v>1</v>
@@ -25315,66 +25292,100 @@
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="13" t="inlineStr">
         <is>
-          <t>mbr_total_med_cost</t>
+          <t>star_gap_ind</t>
         </is>
       </c>
       <c r="B132" s="13" t="n">
-        <v>2642</v>
+        <v>490</v>
       </c>
       <c r="C132" s="13" t="n">
-        <v>7635.775640887566</v>
+        <v>1</v>
       </c>
       <c r="D132" s="13" t="n">
-        <v>21087.04074107653</v>
+        <v>0</v>
       </c>
       <c r="E132" s="13" t="n">
-        <v>0.0101</v>
+        <v>1</v>
       </c>
       <c r="F132" s="13" t="n">
-        <v>660.3867</v>
+        <v>1</v>
       </c>
       <c r="G132" s="13" t="n">
-        <v>1901.55</v>
+        <v>1</v>
       </c>
       <c r="H132" s="13" t="n">
-        <v>5413.409900000001</v>
+        <v>1</v>
       </c>
       <c r="I132" s="13" t="n">
-        <v>367095.7831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="13" t="inlineStr">
         <is>
-          <t>mbr_premium_or_fees</t>
+          <t>mbr_total_med_cost</t>
         </is>
       </c>
       <c r="B133" s="13" t="n">
         <v>2642</v>
       </c>
       <c r="C133" s="13" t="n">
+        <v>7635.775640887566</v>
+      </c>
+      <c r="D133" s="13" t="n">
+        <v>21087.04074107653</v>
+      </c>
+      <c r="E133" s="13" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="F133" s="13" t="n">
+        <v>660.3867</v>
+      </c>
+      <c r="G133" s="13" t="n">
+        <v>1901.55</v>
+      </c>
+      <c r="H133" s="13" t="n">
+        <v>5413.409900000001</v>
+      </c>
+      <c r="I133" s="13" t="n">
+        <v>367095.7831</v>
+      </c>
+    </row>
+    <row r="134" ht="25" customHeight="1">
+      <c r="A134" s="13" t="inlineStr">
+        <is>
+          <t>mbr_premium_or_fees</t>
+        </is>
+      </c>
+      <c r="B134" s="13" t="n">
+        <v>2642</v>
+      </c>
+      <c r="C134" s="13" t="n">
         <v>8307.205275038681</v>
       </c>
-      <c r="D133" s="13" t="n">
+      <c r="D134" s="13" t="n">
         <v>8448.659251792711</v>
       </c>
-      <c r="E133" s="13" t="n">
+      <c r="E134" s="13" t="n">
         <v>9.68</v>
       </c>
-      <c r="F133" s="13" t="n">
+      <c r="F134" s="13" t="n">
         <v>3871.48266625</v>
       </c>
-      <c r="G133" s="13" t="n">
+      <c r="G134" s="13" t="n">
         <v>6177.925</v>
       </c>
-      <c r="H133" s="13" t="n">
+      <c r="H134" s="13" t="n">
         <v>10099.6775</v>
       </c>
-      <c r="I133" s="13" t="n">
+      <c r="I134" s="13" t="n">
         <v>100457.36</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -25387,7 +25398,7 @@
   </sheetPr>
   <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -28714,41 +28725,41 @@
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="13" t="inlineStr">
         <is>
-          <t>medical_allowed_pmpm_processed</t>
+          <t>tot_paid_amt_processed</t>
         </is>
       </c>
       <c r="B125" s="13" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="13" t="inlineStr">
         <is>
-          <t>op_rehab_allowed_amt_processed</t>
+          <t>srv_copay_amt_processed</t>
         </is>
       </c>
       <c r="B126" s="13" t="n">
-        <v>0.88</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="13" t="inlineStr">
         <is>
-          <t>srv_copay_amt_processed</t>
+          <t>hosop_rad_visit_cnt_processed</t>
         </is>
       </c>
       <c r="B127" s="13" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.8099999999999999</v>
       </c>
     </row>
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="13" t="inlineStr">
         <is>
-          <t>hosop_rad_visit_cnt_processed</t>
+          <t>op_rehab_allowed_amt_processed</t>
         </is>
       </c>
       <c r="B128" s="13" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="129" ht="25" customHeight="1">
@@ -29211,12 +29222,12 @@
       </c>
       <c r="C174" s="34" t="inlineStr">
         <is>
+          <t>lob</t>
+        </is>
+      </c>
+      <c r="D174" s="34" t="inlineStr">
+        <is>
           <t>urbsubr</t>
-        </is>
-      </c>
-      <c r="D174" s="34" t="inlineStr">
-        <is>
-          <t>lob</t>
         </is>
       </c>
     </row>
@@ -29230,20 +29241,20 @@
         <v>1</v>
       </c>
       <c r="C175" s="13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D175" s="13" t="n">
         <v>0.1</v>
-      </c>
-      <c r="D175" s="13" t="n">
-        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="176" ht="25" customHeight="1">
       <c r="A176" s="13" t="inlineStr">
         <is>
-          <t>urbsubr</t>
+          <t>lob</t>
         </is>
       </c>
       <c r="B176" s="13" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C176" s="13" t="n">
         <v>1</v>
@@ -29255,11 +29266,11 @@
     <row r="177" ht="25" customHeight="1">
       <c r="A177" s="13" t="inlineStr">
         <is>
-          <t>lob</t>
+          <t>urbsubr</t>
         </is>
       </c>
       <c r="B177" s="13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C177" s="13" t="n">
         <v>0.01</v>

--- a/notebooks/playbook.xlsx
+++ b/notebooks/playbook.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Distribution" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Describe" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Analysis" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Charts" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9757,12 +9758,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Distribution'!$A$3:$A$6</f>
+              <f>'Distribution'!$A$3:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Distribution'!$B$3:$B$6</f>
+              <f>'Distribution'!$B$3:$B$8</f>
             </numRef>
           </val>
         </ser>
@@ -9781,12 +9782,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Distribution'!$A$3:$A$6</f>
+              <f>'Distribution'!$A$3:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Distribution'!$C$3:$C$6</f>
+              <f>'Distribution'!$C$3:$C$8</f>
             </numRef>
           </val>
         </ser>
@@ -9805,12 +9806,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Distribution'!$A$3:$A$6</f>
+              <f>'Distribution'!$A$3:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Distribution'!$D$3:$D$6</f>
+              <f>'Distribution'!$D$3:$D$8</f>
             </numRef>
           </val>
         </ser>
@@ -9829,12 +9830,36 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Distribution'!$A$3:$A$6</f>
+              <f>'Distribution'!$A$3:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Distribution'!$E$3:$E$6</f>
+              <f>'Distribution'!$E$3:$E$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'Distribution'!F2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribution'!$A$3:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribution'!$F$3:$F$8</f>
             </numRef>
           </val>
         </ser>
@@ -11725,7 +11750,7 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>6</col>
+      <col>7</col>
       <colOff>0</colOff>
       <row>0</row>
       <rowOff>0</rowOff>
@@ -11743,6 +11768,186 @@
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>81</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="11906250" cy="5715000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
     <clientData/>
   </oneCellAnchor>
 </wsDr>
@@ -20969,7 +21174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20983,16 +21188,17 @@
     <col width="25" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
     <col width="25" customWidth="1" min="8" max="8"/>
     <col width="25" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
       <c r="A1" s="33" t="inlineStr">
         <is>
-          <t>Distribution of Clusters</t>
+          <t>Distribution of Clusters (0-1 Scale)</t>
         </is>
       </c>
     </row>
@@ -21014,6 +21220,9 @@
       <c r="E2" s="34" t="n">
         <v>3</v>
       </c>
+      <c r="F2" s="34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" ht="25" customHeight="1">
       <c r="A3" s="13" t="inlineStr">
@@ -21022,15 +21231,18 @@
         </is>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="C3" s="13" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D3" s="13" t="n">
         <v>0.28</v>
       </c>
-      <c r="D3" s="13" t="n">
-        <v>0.27</v>
-      </c>
       <c r="E3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21052,6 +21264,9 @@
       <c r="E4" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="F4" s="13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="25" customHeight="1">
       <c r="A5" s="13" t="inlineStr">
@@ -21060,10 +21275,10 @@
         </is>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="D5" s="13" t="n">
         <v>0.24</v>
@@ -21071,6 +21286,9 @@
       <c r="E5" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="F5" s="13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="25" customHeight="1">
       <c r="A6" s="13" t="inlineStr">
@@ -21090,106 +21308,115 @@
       <c r="E6" s="13" t="n">
         <v>0.25</v>
       </c>
+      <c r="F6" s="13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="25" customHeight="1">
-      <c r="A7" s="33" t="inlineStr">
+      <c r="A7" s="13" t="inlineStr">
+        <is>
+          <t>Kmedoids</t>
+        </is>
+      </c>
+      <c r="B7" s="13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="13" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1">
+      <c r="A8" s="13" t="inlineStr">
+        <is>
+          <t>MiniBatchKmeans</t>
+        </is>
+      </c>
+      <c r="B8" s="13" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C8" s="13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F8" s="13" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1">
+      <c r="A9" s="33" t="inlineStr">
         <is>
           <t>Score of Clusters</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1">
-      <c r="A8" s="34" t="inlineStr">
+    <row r="10" ht="25" customHeight="1">
+      <c r="A10" s="34" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="B8" s="34" t="inlineStr">
+      <c r="B10" s="34" t="inlineStr">
         <is>
           <t>Silhouette</t>
         </is>
       </c>
-      <c r="C8" s="34" t="inlineStr">
+      <c r="C10" s="34" t="inlineStr">
         <is>
           <t>Davies Bouldin</t>
         </is>
       </c>
-      <c r="D8" s="34" t="inlineStr">
+      <c r="D10" s="34" t="inlineStr">
         <is>
           <t>n_clusters</t>
         </is>
       </c>
-      <c r="E8" s="34" t="inlineStr">
+      <c r="E10" s="34" t="inlineStr">
         <is>
           <t>Rank</t>
         </is>
-      </c>
-    </row>
-    <row r="9" ht="25" customHeight="1">
-      <c r="A9" s="13" t="inlineStr">
-        <is>
-          <t>GMM</t>
-        </is>
-      </c>
-      <c r="B9" s="13" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="C9" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="25" customHeight="1">
-      <c r="A10" s="13" t="inlineStr">
-        <is>
-          <t>Birch</t>
-        </is>
-      </c>
-      <c r="B10" s="13" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
       <c r="A11" s="13" t="inlineStr">
         <is>
-          <t>KMeans</t>
+          <t>GMM</t>
         </is>
       </c>
       <c r="B11" s="13" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="C11" s="13" t="n">
         <v>0.5</v>
       </c>
       <c r="D11" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
         <is>
-          <t>Hierarchical</t>
+          <t>Birch</t>
         </is>
       </c>
       <c r="B12" s="13" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="C12" s="13" t="n">
         <v>0.5</v>
@@ -21198,13 +21425,89 @@
         <v>3</v>
       </c>
       <c r="E12" s="13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" ht="25" customHeight="1">
+      <c r="A13" s="13" t="inlineStr">
+        <is>
+          <t>KMeans</t>
+        </is>
+      </c>
+      <c r="B13" s="13" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="13" t="n">
         <v>4</v>
+      </c>
+      <c r="E13" s="13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="25" customHeight="1">
+      <c r="A14" s="13" t="inlineStr">
+        <is>
+          <t>Hierarchical</t>
+        </is>
+      </c>
+      <c r="B14" s="13" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" ht="25" customHeight="1">
+      <c r="A15" s="13" t="inlineStr">
+        <is>
+          <t>Kmedoids</t>
+        </is>
+      </c>
+      <c r="B15" s="13" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" ht="25" customHeight="1">
+      <c r="A16" s="13" t="inlineStr">
+        <is>
+          <t>MiniBatchKmeans</t>
+        </is>
+      </c>
+      <c r="B16" s="13" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C16" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="13" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -25396,7 +25699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25411,10 +25714,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
     <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="50" max="50"/>
-    <col width="25" customWidth="1" min="51" max="51"/>
-    <col width="25" customWidth="1" min="52" max="52"/>
-    <col width="25" customWidth="1" min="53" max="53"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="122" max="122"/>
     <col width="25" customWidth="1" min="123" max="123"/>
   </cols>
@@ -28706,7 +29007,7 @@
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="33" t="inlineStr">
         <is>
-          <t>Outlier Percentage</t>
+          <t>Outlier Percentage (in %)</t>
         </is>
       </c>
     </row>
@@ -28725,567 +29026,146 @@
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="13" t="inlineStr">
         <is>
-          <t>tot_paid_amt_processed</t>
+          <t>op_rehab_allowed_amt_processed</t>
         </is>
       </c>
       <c r="B125" s="13" t="n">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="13" t="inlineStr">
         <is>
-          <t>srv_copay_amt_processed</t>
+          <t>hosop_rad_visit_cnt_processed</t>
         </is>
       </c>
       <c r="B126" s="13" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="13" t="inlineStr">
         <is>
-          <t>hosop_rad_visit_cnt_processed</t>
+          <t>srv_copay_amt_processed</t>
         </is>
       </c>
       <c r="B127" s="13" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="13" t="inlineStr">
         <is>
-          <t>op_rehab_allowed_amt_processed</t>
+          <t>medical_allowed_pmpm_processed</t>
         </is>
       </c>
       <c r="B128" s="13" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="129" ht="25" customHeight="1">
-      <c r="A129" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_AE</t>
-        </is>
-      </c>
-      <c r="B129" s="13" t="n">
-        <v>0.09</v>
+      <c r="A129" s="33" t="inlineStr">
+        <is>
+          <t>Cramers Matrix</t>
+        </is>
       </c>
     </row>
     <row r="130" ht="25" customHeight="1">
-      <c r="A130" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_AK</t>
-        </is>
-      </c>
-      <c r="B130" s="13" t="n">
-        <v>0.79</v>
+      <c r="A130" s="34" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="B130" s="34" t="inlineStr">
+        <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="C130" s="34" t="inlineStr">
+        <is>
+          <t>lob</t>
+        </is>
+      </c>
+      <c r="D130" s="34" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
       </c>
     </row>
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="13" t="inlineStr">
         <is>
-          <t>state_cd_AL</t>
+          <t>urbsubr</t>
         </is>
       </c>
       <c r="B131" s="13" t="n">
-        <v>0.31</v>
+        <v>1</v>
+      </c>
+      <c r="C131" s="13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D131" s="13" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="13" t="inlineStr">
         <is>
-          <t>state_cd_AP</t>
+          <t>lob</t>
         </is>
       </c>
       <c r="B132" s="13" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
+      </c>
+      <c r="C132" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" s="13" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="13" t="inlineStr">
         <is>
-          <t>state_cd_AR</t>
+          <t>state_cd</t>
         </is>
       </c>
       <c r="B133" s="13" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="134" ht="25" customHeight="1">
-      <c r="A134" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_CO</t>
-        </is>
-      </c>
-      <c r="B134" s="13" t="n">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="135" ht="25" customHeight="1">
-      <c r="A135" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_CT</t>
-        </is>
-      </c>
-      <c r="B135" s="13" t="n">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="136" ht="25" customHeight="1">
-      <c r="A136" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_DC</t>
-        </is>
-      </c>
-      <c r="B136" s="13" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="137" ht="25" customHeight="1">
-      <c r="A137" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_DE</t>
-        </is>
-      </c>
-      <c r="B137" s="13" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="138" ht="25" customHeight="1">
-      <c r="A138" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_GU</t>
-        </is>
-      </c>
-      <c r="B138" s="13" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="139" ht="25" customHeight="1">
-      <c r="A139" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_HI</t>
-        </is>
-      </c>
-      <c r="B139" s="13" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="140" ht="25" customHeight="1">
-      <c r="A140" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_IA</t>
-        </is>
-      </c>
-      <c r="B140" s="13" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="141" ht="25" customHeight="1">
-      <c r="A141" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_ID</t>
-        </is>
-      </c>
-      <c r="B141" s="13" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="142" ht="25" customHeight="1">
-      <c r="A142" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_IN</t>
-        </is>
-      </c>
-      <c r="B142" s="13" t="n">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="143" ht="25" customHeight="1">
-      <c r="A143" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_KS</t>
-        </is>
-      </c>
-      <c r="B143" s="13" t="n">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="144" ht="25" customHeight="1">
-      <c r="A144" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_KY</t>
-        </is>
-      </c>
-      <c r="B144" s="13" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="145" ht="25" customHeight="1">
-      <c r="A145" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_LA</t>
-        </is>
-      </c>
-      <c r="B145" s="13" t="n">
-        <v>0.5599999999999999</v>
-      </c>
-    </row>
-    <row r="146" ht="25" customHeight="1">
-      <c r="A146" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MA</t>
-        </is>
-      </c>
-      <c r="B146" s="13" t="n">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="147" ht="25" customHeight="1">
-      <c r="A147" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MD</t>
-        </is>
-      </c>
-      <c r="B147" s="13" t="n">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="148" ht="25" customHeight="1">
-      <c r="A148" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_ME</t>
-        </is>
-      </c>
-      <c r="B148" s="13" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="149" ht="25" customHeight="1">
-      <c r="A149" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MI</t>
-        </is>
-      </c>
-      <c r="B149" s="13" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="150" ht="25" customHeight="1">
-      <c r="A150" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MN</t>
-        </is>
-      </c>
-      <c r="B150" s="13" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="151" ht="25" customHeight="1">
-      <c r="A151" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MO</t>
-        </is>
-      </c>
-      <c r="B151" s="13" t="n">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="152" ht="25" customHeight="1">
-      <c r="A152" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MP</t>
-        </is>
-      </c>
-      <c r="B152" s="13" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="153" ht="25" customHeight="1">
-      <c r="A153" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MS</t>
-        </is>
-      </c>
-      <c r="B153" s="13" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="154" ht="25" customHeight="1">
-      <c r="A154" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MT</t>
-        </is>
-      </c>
-      <c r="B154" s="13" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="155" ht="25" customHeight="1">
-      <c r="A155" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_NC</t>
-        </is>
-      </c>
-      <c r="B155" s="13" t="n">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="156" ht="25" customHeight="1">
-      <c r="A156" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_ND</t>
-        </is>
-      </c>
-      <c r="B156" s="13" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="157" ht="25" customHeight="1">
-      <c r="A157" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_NE</t>
-        </is>
-      </c>
-      <c r="B157" s="13" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="158" ht="25" customHeight="1">
-      <c r="A158" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_NH</t>
-        </is>
-      </c>
-      <c r="B158" s="13" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="159" ht="25" customHeight="1">
-      <c r="A159" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_NM</t>
-        </is>
-      </c>
-      <c r="B159" s="13" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="160" ht="25" customHeight="1">
-      <c r="A160" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_NV</t>
-        </is>
-      </c>
-      <c r="B160" s="13" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="161" ht="25" customHeight="1">
-      <c r="A161" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_OK</t>
-        </is>
-      </c>
-      <c r="B161" s="13" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="162" ht="25" customHeight="1">
-      <c r="A162" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_OR</t>
-        </is>
-      </c>
-      <c r="B162" s="13" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="163" ht="25" customHeight="1">
-      <c r="A163" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_RI</t>
-        </is>
-      </c>
-      <c r="B163" s="13" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="164" ht="25" customHeight="1">
-      <c r="A164" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_SC</t>
-        </is>
-      </c>
-      <c r="B164" s="13" t="n">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="165" ht="25" customHeight="1">
-      <c r="A165" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_SD</t>
-        </is>
-      </c>
-      <c r="B165" s="13" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="166" ht="25" customHeight="1">
-      <c r="A166" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_TN</t>
-        </is>
-      </c>
-      <c r="B166" s="13" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="167" ht="25" customHeight="1">
-      <c r="A167" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_UT</t>
-        </is>
-      </c>
-      <c r="B167" s="13" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="168" ht="25" customHeight="1">
-      <c r="A168" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_VT</t>
-        </is>
-      </c>
-      <c r="B168" s="13" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="169" ht="25" customHeight="1">
-      <c r="A169" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_WA</t>
-        </is>
-      </c>
-      <c r="B169" s="13" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="170" ht="25" customHeight="1">
-      <c r="A170" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_WI</t>
-        </is>
-      </c>
-      <c r="B170" s="13" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="171" ht="25" customHeight="1">
-      <c r="A171" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_WV</t>
-        </is>
-      </c>
-      <c r="B171" s="13" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="172" ht="25" customHeight="1">
-      <c r="A172" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_WY</t>
-        </is>
-      </c>
-      <c r="B172" s="13" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="173" ht="25" customHeight="1">
-      <c r="A173" s="33" t="inlineStr">
-        <is>
-          <t>Cramers Matrix</t>
-        </is>
-      </c>
-    </row>
-    <row r="174" ht="25" customHeight="1">
-      <c r="A174" s="34" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="B174" s="34" t="inlineStr">
-        <is>
-          <t>state_cd</t>
-        </is>
-      </c>
-      <c r="C174" s="34" t="inlineStr">
-        <is>
-          <t>lob</t>
-        </is>
-      </c>
-      <c r="D174" s="34" t="inlineStr">
-        <is>
-          <t>urbsubr</t>
-        </is>
-      </c>
-    </row>
-    <row r="175" ht="25" customHeight="1">
-      <c r="A175" s="13" t="inlineStr">
-        <is>
-          <t>state_cd</t>
-        </is>
-      </c>
-      <c r="B175" s="13" t="n">
+      <c r="C133" s="13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D133" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C175" s="13" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D175" s="13" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="176" ht="25" customHeight="1">
-      <c r="A176" s="13" t="inlineStr">
-        <is>
-          <t>lob</t>
-        </is>
-      </c>
-      <c r="B176" s="13" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="C176" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D176" s="13" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="177" ht="25" customHeight="1">
-      <c r="A177" s="13" t="inlineStr">
-        <is>
-          <t>urbsubr</t>
-        </is>
-      </c>
-      <c r="B177" s="13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C177" s="13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D177" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" ht="25" customHeight="1"/>
+    </row>
+    <row r="134" ht="25" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A129:D129"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>
--- a/notebooks/playbook.xlsx
+++ b/notebooks/playbook.xlsx
@@ -21231,13 +21231,13 @@
         </is>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="C3" s="13" t="n">
         <v>0.34</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="E3" s="13" t="n">
         <v>0</v>
@@ -21275,13 +21275,13 @@
         </is>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>0</v>
@@ -21341,19 +21341,19 @@
         </is>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E8" s="13" t="n">
         <v>0.22</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -21416,7 +21416,7 @@
         </is>
       </c>
       <c r="B12" s="13" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="C12" s="13" t="n">
         <v>0.5</v>
@@ -21431,17 +21431,17 @@
     <row r="13" ht="25" customHeight="1">
       <c r="A13" s="13" t="inlineStr">
         <is>
-          <t>KMeans</t>
+          <t>Hierarchical</t>
         </is>
       </c>
       <c r="B13" s="13" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="C13" s="13" t="n">
         <v>0.5</v>
       </c>
       <c r="D13" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="13" t="n">
         <v>3</v>
@@ -21450,17 +21450,17 @@
     <row r="14" ht="25" customHeight="1">
       <c r="A14" s="13" t="inlineStr">
         <is>
-          <t>Hierarchical</t>
+          <t>KMeans</t>
         </is>
       </c>
       <c r="B14" s="13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="C14" s="13" t="n">
         <v>0.5</v>
       </c>
       <c r="D14" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="13" t="n">
         <v>4</v>
@@ -21501,7 +21501,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -25699,7 +25699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25714,8 +25714,10 @@
     <col width="25" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
     <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="50" max="50"/>
+    <col width="25" customWidth="1" min="51" max="51"/>
+    <col width="25" customWidth="1" min="52" max="52"/>
+    <col width="25" customWidth="1" min="53" max="53"/>
     <col width="25" customWidth="1" min="122" max="122"/>
     <col width="25" customWidth="1" min="123" max="123"/>
   </cols>
@@ -29026,11 +29028,11 @@
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="13" t="inlineStr">
         <is>
-          <t>op_rehab_allowed_amt_processed</t>
+          <t>tot_paid_amt_processed</t>
         </is>
       </c>
       <c r="B125" s="13" t="n">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="126" ht="25" customHeight="1">
@@ -29056,96 +29058,536 @@
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="13" t="inlineStr">
         <is>
-          <t>medical_allowed_pmpm_processed</t>
+          <t>op_rehab_allowed_amt_processed</t>
         </is>
       </c>
       <c r="B128" s="13" t="n">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="129" ht="25" customHeight="1">
-      <c r="A129" s="33" t="inlineStr">
-        <is>
-          <t>Cramers Matrix</t>
-        </is>
+      <c r="A129" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_AE</t>
+        </is>
+      </c>
+      <c r="B129" s="13" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="130" ht="25" customHeight="1">
-      <c r="A130" s="34" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="B130" s="34" t="inlineStr">
-        <is>
-          <t>urbsubr</t>
-        </is>
-      </c>
-      <c r="C130" s="34" t="inlineStr">
-        <is>
-          <t>lob</t>
-        </is>
-      </c>
-      <c r="D130" s="34" t="inlineStr">
-        <is>
-          <t>state_cd</t>
-        </is>
+      <c r="A130" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_AK</t>
+        </is>
+      </c>
+      <c r="B130" s="13" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="13" t="inlineStr">
         <is>
-          <t>urbsubr</t>
+          <t>state_cd_AL</t>
         </is>
       </c>
       <c r="B131" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C131" s="13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D131" s="13" t="n">
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="13" t="inlineStr">
         <is>
-          <t>lob</t>
+          <t>state_cd_AP</t>
         </is>
       </c>
       <c r="B132" s="13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C132" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D132" s="13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="13" t="inlineStr">
         <is>
+          <t>state_cd_AR</t>
+        </is>
+      </c>
+      <c r="B133" s="13" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="134" ht="25" customHeight="1">
+      <c r="A134" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_CO</t>
+        </is>
+      </c>
+      <c r="B134" s="13" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="135" ht="25" customHeight="1">
+      <c r="A135" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_CT</t>
+        </is>
+      </c>
+      <c r="B135" s="13" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="136" ht="25" customHeight="1">
+      <c r="A136" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_DC</t>
+        </is>
+      </c>
+      <c r="B136" s="13" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="137" ht="25" customHeight="1">
+      <c r="A137" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_DE</t>
+        </is>
+      </c>
+      <c r="B137" s="13" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="138" ht="25" customHeight="1">
+      <c r="A138" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_GU</t>
+        </is>
+      </c>
+      <c r="B138" s="13" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="139" ht="25" customHeight="1">
+      <c r="A139" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_HI</t>
+        </is>
+      </c>
+      <c r="B139" s="13" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="140" ht="25" customHeight="1">
+      <c r="A140" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_IA</t>
+        </is>
+      </c>
+      <c r="B140" s="13" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="141" ht="25" customHeight="1">
+      <c r="A141" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_ID</t>
+        </is>
+      </c>
+      <c r="B141" s="13" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="142" ht="25" customHeight="1">
+      <c r="A142" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_IN</t>
+        </is>
+      </c>
+      <c r="B142" s="13" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="143" ht="25" customHeight="1">
+      <c r="A143" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_KS</t>
+        </is>
+      </c>
+      <c r="B143" s="13" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="144" ht="25" customHeight="1">
+      <c r="A144" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_KY</t>
+        </is>
+      </c>
+      <c r="B144" s="13" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="145" ht="25" customHeight="1">
+      <c r="A145" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_LA</t>
+        </is>
+      </c>
+      <c r="B145" s="13" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="146" ht="25" customHeight="1">
+      <c r="A146" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_MA</t>
+        </is>
+      </c>
+      <c r="B146" s="13" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="147" ht="25" customHeight="1">
+      <c r="A147" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_MD</t>
+        </is>
+      </c>
+      <c r="B147" s="13" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="148" ht="25" customHeight="1">
+      <c r="A148" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_ME</t>
+        </is>
+      </c>
+      <c r="B148" s="13" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="149" ht="25" customHeight="1">
+      <c r="A149" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_MI</t>
+        </is>
+      </c>
+      <c r="B149" s="13" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="150" ht="25" customHeight="1">
+      <c r="A150" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_MN</t>
+        </is>
+      </c>
+      <c r="B150" s="13" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="151" ht="25" customHeight="1">
+      <c r="A151" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_MO</t>
+        </is>
+      </c>
+      <c r="B151" s="13" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="152" ht="25" customHeight="1">
+      <c r="A152" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_MP</t>
+        </is>
+      </c>
+      <c r="B152" s="13" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="153" ht="25" customHeight="1">
+      <c r="A153" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_MS</t>
+        </is>
+      </c>
+      <c r="B153" s="13" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="154" ht="25" customHeight="1">
+      <c r="A154" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_MT</t>
+        </is>
+      </c>
+      <c r="B154" s="13" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="155" ht="25" customHeight="1">
+      <c r="A155" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_NC</t>
+        </is>
+      </c>
+      <c r="B155" s="13" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="156" ht="25" customHeight="1">
+      <c r="A156" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_ND</t>
+        </is>
+      </c>
+      <c r="B156" s="13" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="157" ht="25" customHeight="1">
+      <c r="A157" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_NE</t>
+        </is>
+      </c>
+      <c r="B157" s="13" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="158" ht="25" customHeight="1">
+      <c r="A158" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_NH</t>
+        </is>
+      </c>
+      <c r="B158" s="13" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="159" ht="25" customHeight="1">
+      <c r="A159" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_NM</t>
+        </is>
+      </c>
+      <c r="B159" s="13" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="160" ht="25" customHeight="1">
+      <c r="A160" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_NV</t>
+        </is>
+      </c>
+      <c r="B160" s="13" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="161" ht="25" customHeight="1">
+      <c r="A161" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_OK</t>
+        </is>
+      </c>
+      <c r="B161" s="13" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="162" ht="25" customHeight="1">
+      <c r="A162" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_OR</t>
+        </is>
+      </c>
+      <c r="B162" s="13" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="163" ht="25" customHeight="1">
+      <c r="A163" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_RI</t>
+        </is>
+      </c>
+      <c r="B163" s="13" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="164" ht="25" customHeight="1">
+      <c r="A164" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_SC</t>
+        </is>
+      </c>
+      <c r="B164" s="13" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="165" ht="25" customHeight="1">
+      <c r="A165" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_SD</t>
+        </is>
+      </c>
+      <c r="B165" s="13" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="166" ht="25" customHeight="1">
+      <c r="A166" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_TN</t>
+        </is>
+      </c>
+      <c r="B166" s="13" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="167" ht="25" customHeight="1">
+      <c r="A167" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_UT</t>
+        </is>
+      </c>
+      <c r="B167" s="13" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="168" ht="25" customHeight="1">
+      <c r="A168" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_VT</t>
+        </is>
+      </c>
+      <c r="B168" s="13" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="169" ht="25" customHeight="1">
+      <c r="A169" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_WA</t>
+        </is>
+      </c>
+      <c r="B169" s="13" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="170" ht="25" customHeight="1">
+      <c r="A170" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_WI</t>
+        </is>
+      </c>
+      <c r="B170" s="13" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="171" ht="25" customHeight="1">
+      <c r="A171" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_WV</t>
+        </is>
+      </c>
+      <c r="B171" s="13" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="172" ht="25" customHeight="1">
+      <c r="A172" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_WY</t>
+        </is>
+      </c>
+      <c r="B172" s="13" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="173" ht="25" customHeight="1">
+      <c r="A173" s="33" t="inlineStr">
+        <is>
+          <t>Cramers Matrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="174" ht="25" customHeight="1">
+      <c r="A174" s="34" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="B174" s="34" t="inlineStr">
+        <is>
           <t>state_cd</t>
         </is>
       </c>
-      <c r="B133" s="13" t="n">
+      <c r="C174" s="34" t="inlineStr">
+        <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="D174" s="34" t="inlineStr">
+        <is>
+          <t>lob</t>
+        </is>
+      </c>
+    </row>
+    <row r="175" ht="25" customHeight="1">
+      <c r="A175" s="13" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B175" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="C133" s="13" t="n">
+      <c r="D175" s="13" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D133" s="13" t="n">
+    </row>
+    <row r="176" ht="25" customHeight="1">
+      <c r="A176" s="13" t="inlineStr">
+        <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="B176" s="13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C176" s="13" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" ht="25" customHeight="1"/>
+      <c r="D176" s="13" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="177" ht="25" customHeight="1">
+      <c r="A177" s="13" t="inlineStr">
+        <is>
+          <t>lob</t>
+        </is>
+      </c>
+      <c r="B177" s="13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C177" s="13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D177" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" ht="25" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A173:D173"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/playbook.xlsx
+++ b/notebooks/playbook.xlsx
@@ -12,6 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Describe" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Analysis" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Charts" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster Average" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster-wise Feature Analysis" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -64,7 +66,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -198,11 +200,29 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -294,6 +314,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -21231,13 +21265,13 @@
         </is>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="E3" s="13" t="n">
         <v>0</v>
@@ -21275,13 +21309,13 @@
         </is>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="C5" s="13" t="n">
         <v>0.33</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>0</v>
@@ -21341,19 +21375,19 @@
         </is>
       </c>
       <c r="B8" s="13" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C8" s="13" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F8" s="13" t="n">
         <v>0.19</v>
-      </c>
-      <c r="C8" s="13" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E8" s="13" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="F8" s="13" t="n">
-        <v>0.18</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -21412,17 +21446,17 @@
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
         <is>
-          <t>Birch</t>
+          <t>KMeans</t>
         </is>
       </c>
       <c r="B12" s="13" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="C12" s="13" t="n">
         <v>0.5</v>
       </c>
       <c r="D12" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="13" t="n">
         <v>2</v>
@@ -21435,7 +21469,7 @@
         </is>
       </c>
       <c r="B13" s="13" t="n">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="C13" s="13" t="n">
         <v>0.5</v>
@@ -21450,17 +21484,17 @@
     <row r="14" ht="25" customHeight="1">
       <c r="A14" s="13" t="inlineStr">
         <is>
-          <t>KMeans</t>
+          <t>Birch</t>
         </is>
       </c>
       <c r="B14" s="13" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="C14" s="13" t="n">
         <v>0.5</v>
       </c>
       <c r="D14" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="13" t="n">
         <v>4</v>
@@ -21482,7 +21516,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -21501,7 +21535,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -21542,7 +21576,7 @@
     <row r="1">
       <c r="A1" s="33" t="inlineStr">
         <is>
-          <t>Distribution of Clusters</t>
+          <t>Describe</t>
         </is>
       </c>
     </row>
@@ -25699,7 +25733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25714,10 +25748,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
     <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="50" max="50"/>
-    <col width="25" customWidth="1" min="51" max="51"/>
-    <col width="25" customWidth="1" min="52" max="52"/>
-    <col width="25" customWidth="1" min="53" max="53"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="122" max="122"/>
     <col width="25" customWidth="1" min="123" max="123"/>
   </cols>
@@ -29028,7 +29060,7 @@
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="13" t="inlineStr">
         <is>
-          <t>tot_paid_amt_processed</t>
+          <t>medical_paid_pmpm_processed</t>
         </is>
       </c>
       <c r="B125" s="13" t="n">
@@ -29038,556 +29070,116 @@
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="13" t="inlineStr">
         <is>
-          <t>hosop_rad_visit_cnt_processed</t>
+          <t>medical_copay_pmpm_processed</t>
         </is>
       </c>
       <c r="B126" s="13" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="13" t="inlineStr">
         <is>
-          <t>srv_copay_amt_processed</t>
+          <t>op_rehab_allowed_amt_processed</t>
         </is>
       </c>
       <c r="B127" s="13" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="13" t="inlineStr">
         <is>
-          <t>op_rehab_allowed_amt_processed</t>
+          <t>hosop_rad_visit_cnt_processed</t>
         </is>
       </c>
       <c r="B128" s="13" t="n">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="129" ht="25" customHeight="1">
-      <c r="A129" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_AE</t>
-        </is>
-      </c>
-      <c r="B129" s="13" t="n">
-        <v>0.09</v>
+      <c r="A129" s="33" t="inlineStr">
+        <is>
+          <t>Cramers Matrix</t>
+        </is>
       </c>
     </row>
     <row r="130" ht="25" customHeight="1">
-      <c r="A130" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_AK</t>
-        </is>
-      </c>
-      <c r="B130" s="13" t="n">
-        <v>0.79</v>
+      <c r="A130" s="34" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="B130" s="34" t="inlineStr">
+        <is>
+          <t>lob</t>
+        </is>
+      </c>
+      <c r="C130" s="34" t="inlineStr">
+        <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="D130" s="34" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
       </c>
     </row>
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="13" t="inlineStr">
         <is>
-          <t>state_cd_AL</t>
+          <t>lob</t>
         </is>
       </c>
       <c r="B131" s="13" t="n">
-        <v>0.31</v>
+        <v>1</v>
+      </c>
+      <c r="C131" s="13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D131" s="13" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="13" t="inlineStr">
         <is>
-          <t>state_cd_AP</t>
+          <t>urbsubr</t>
         </is>
       </c>
       <c r="B132" s="13" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
+      </c>
+      <c r="C132" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" s="13" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="13" t="inlineStr">
         <is>
-          <t>state_cd_AR</t>
+          <t>state_cd</t>
         </is>
       </c>
       <c r="B133" s="13" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="134" ht="25" customHeight="1">
-      <c r="A134" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_CO</t>
-        </is>
-      </c>
-      <c r="B134" s="13" t="n">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="135" ht="25" customHeight="1">
-      <c r="A135" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_CT</t>
-        </is>
-      </c>
-      <c r="B135" s="13" t="n">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="136" ht="25" customHeight="1">
-      <c r="A136" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_DC</t>
-        </is>
-      </c>
-      <c r="B136" s="13" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="137" ht="25" customHeight="1">
-      <c r="A137" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_DE</t>
-        </is>
-      </c>
-      <c r="B137" s="13" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="138" ht="25" customHeight="1">
-      <c r="A138" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_GU</t>
-        </is>
-      </c>
-      <c r="B138" s="13" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="139" ht="25" customHeight="1">
-      <c r="A139" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_HI</t>
-        </is>
-      </c>
-      <c r="B139" s="13" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="140" ht="25" customHeight="1">
-      <c r="A140" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_IA</t>
-        </is>
-      </c>
-      <c r="B140" s="13" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="141" ht="25" customHeight="1">
-      <c r="A141" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_ID</t>
-        </is>
-      </c>
-      <c r="B141" s="13" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="142" ht="25" customHeight="1">
-      <c r="A142" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_IN</t>
-        </is>
-      </c>
-      <c r="B142" s="13" t="n">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="143" ht="25" customHeight="1">
-      <c r="A143" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_KS</t>
-        </is>
-      </c>
-      <c r="B143" s="13" t="n">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="144" ht="25" customHeight="1">
-      <c r="A144" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_KY</t>
-        </is>
-      </c>
-      <c r="B144" s="13" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="145" ht="25" customHeight="1">
-      <c r="A145" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_LA</t>
-        </is>
-      </c>
-      <c r="B145" s="13" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="146" ht="25" customHeight="1">
-      <c r="A146" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MA</t>
-        </is>
-      </c>
-      <c r="B146" s="13" t="n">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="147" ht="25" customHeight="1">
-      <c r="A147" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MD</t>
-        </is>
-      </c>
-      <c r="B147" s="13" t="n">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="148" ht="25" customHeight="1">
-      <c r="A148" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_ME</t>
-        </is>
-      </c>
-      <c r="B148" s="13" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="149" ht="25" customHeight="1">
-      <c r="A149" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MI</t>
-        </is>
-      </c>
-      <c r="B149" s="13" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="150" ht="25" customHeight="1">
-      <c r="A150" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MN</t>
-        </is>
-      </c>
-      <c r="B150" s="13" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="151" ht="25" customHeight="1">
-      <c r="A151" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MO</t>
-        </is>
-      </c>
-      <c r="B151" s="13" t="n">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="152" ht="25" customHeight="1">
-      <c r="A152" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MP</t>
-        </is>
-      </c>
-      <c r="B152" s="13" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="153" ht="25" customHeight="1">
-      <c r="A153" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MS</t>
-        </is>
-      </c>
-      <c r="B153" s="13" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="154" ht="25" customHeight="1">
-      <c r="A154" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_MT</t>
-        </is>
-      </c>
-      <c r="B154" s="13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C133" s="13" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="155" ht="25" customHeight="1">
-      <c r="A155" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_NC</t>
-        </is>
-      </c>
-      <c r="B155" s="13" t="n">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="156" ht="25" customHeight="1">
-      <c r="A156" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_ND</t>
-        </is>
-      </c>
-      <c r="B156" s="13" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="157" ht="25" customHeight="1">
-      <c r="A157" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_NE</t>
-        </is>
-      </c>
-      <c r="B157" s="13" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="158" ht="25" customHeight="1">
-      <c r="A158" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_NH</t>
-        </is>
-      </c>
-      <c r="B158" s="13" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="159" ht="25" customHeight="1">
-      <c r="A159" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_NM</t>
-        </is>
-      </c>
-      <c r="B159" s="13" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="160" ht="25" customHeight="1">
-      <c r="A160" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_NV</t>
-        </is>
-      </c>
-      <c r="B160" s="13" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="161" ht="25" customHeight="1">
-      <c r="A161" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_OK</t>
-        </is>
-      </c>
-      <c r="B161" s="13" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="162" ht="25" customHeight="1">
-      <c r="A162" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_OR</t>
-        </is>
-      </c>
-      <c r="B162" s="13" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="163" ht="25" customHeight="1">
-      <c r="A163" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_RI</t>
-        </is>
-      </c>
-      <c r="B163" s="13" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="164" ht="25" customHeight="1">
-      <c r="A164" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_SC</t>
-        </is>
-      </c>
-      <c r="B164" s="13" t="n">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="165" ht="25" customHeight="1">
-      <c r="A165" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_SD</t>
-        </is>
-      </c>
-      <c r="B165" s="13" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="166" ht="25" customHeight="1">
-      <c r="A166" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_TN</t>
-        </is>
-      </c>
-      <c r="B166" s="13" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="167" ht="25" customHeight="1">
-      <c r="A167" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_UT</t>
-        </is>
-      </c>
-      <c r="B167" s="13" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="168" ht="25" customHeight="1">
-      <c r="A168" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_VT</t>
-        </is>
-      </c>
-      <c r="B168" s="13" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="169" ht="25" customHeight="1">
-      <c r="A169" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_WA</t>
-        </is>
-      </c>
-      <c r="B169" s="13" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="170" ht="25" customHeight="1">
-      <c r="A170" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_WI</t>
-        </is>
-      </c>
-      <c r="B170" s="13" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="171" ht="25" customHeight="1">
-      <c r="A171" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_WV</t>
-        </is>
-      </c>
-      <c r="B171" s="13" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="172" ht="25" customHeight="1">
-      <c r="A172" s="13" t="inlineStr">
-        <is>
-          <t>state_cd_WY</t>
-        </is>
-      </c>
-      <c r="B172" s="13" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="173" ht="25" customHeight="1">
-      <c r="A173" s="33" t="inlineStr">
-        <is>
-          <t>Cramers Matrix</t>
-        </is>
-      </c>
-    </row>
-    <row r="174" ht="25" customHeight="1">
-      <c r="A174" s="34" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="B174" s="34" t="inlineStr">
-        <is>
-          <t>state_cd</t>
-        </is>
-      </c>
-      <c r="C174" s="34" t="inlineStr">
-        <is>
-          <t>urbsubr</t>
-        </is>
-      </c>
-      <c r="D174" s="34" t="inlineStr">
-        <is>
-          <t>lob</t>
-        </is>
-      </c>
-    </row>
-    <row r="175" ht="25" customHeight="1">
-      <c r="A175" s="13" t="inlineStr">
-        <is>
-          <t>state_cd</t>
-        </is>
-      </c>
-      <c r="B175" s="13" t="n">
+      <c r="D133" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C175" s="13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D175" s="13" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="176" ht="25" customHeight="1">
-      <c r="A176" s="13" t="inlineStr">
-        <is>
-          <t>urbsubr</t>
-        </is>
-      </c>
-      <c r="B176" s="13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C176" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D176" s="13" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="177" ht="25" customHeight="1">
-      <c r="A177" s="13" t="inlineStr">
-        <is>
-          <t>lob</t>
-        </is>
-      </c>
-      <c r="B177" s="13" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="C177" s="13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D177" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" ht="25" customHeight="1"/>
+    </row>
+    <row r="134" ht="25" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A129:D129"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29610,4 +29202,7787 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="33" t="inlineStr">
+        <is>
+          <t>Cluster Average of Best Clustering Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="25" customHeight="1">
+      <c r="A2" s="34" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="B2" s="34" t="inlineStr">
+        <is>
+          <t>age_nbr</t>
+        </is>
+      </c>
+      <c r="C2" s="34" t="inlineStr">
+        <is>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="D2" s="34" t="inlineStr">
+        <is>
+          <t>first_pulse</t>
+        </is>
+      </c>
+      <c r="E2" s="34" t="inlineStr">
+        <is>
+          <t>pulse</t>
+        </is>
+      </c>
+      <c r="F2" s="34" t="inlineStr">
+        <is>
+          <t>max_pulse</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="25" customHeight="1">
+      <c r="A3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="n">
+        <v>42.12848158131177</v>
+      </c>
+      <c r="C3" s="13" t="n">
+        <v>100950.4507659882</v>
+      </c>
+      <c r="D3" s="13" t="n">
+        <v>8.112627299058651</v>
+      </c>
+      <c r="E3" s="13" t="n">
+        <v>8.155929817661786</v>
+      </c>
+      <c r="F3" s="13" t="n">
+        <v>8.442924873280226</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1">
+      <c r="A4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>42.47776442307692</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>98526.81742952489</v>
+      </c>
+      <c r="D4" s="13" t="n">
+        <v>8.102436389787842</v>
+      </c>
+      <c r="E4" s="13" t="n">
+        <v>8.16999586305278</v>
+      </c>
+      <c r="F4" s="13" t="n">
+        <v>8.4301362099964</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1">
+      <c r="A5" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>42.8949894989499</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <v>100501.1697362975</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>8.11049923691861</v>
+      </c>
+      <c r="E5" s="13" t="n">
+        <v>8.167467158804449</v>
+      </c>
+      <c r="F5" s="13" t="n">
+        <v>8.445163081395346</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F360"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="35" t="inlineStr">
+        <is>
+          <t>Cluster Wise Feature Analysis</t>
+        </is>
+      </c>
+      <c r="B1" s="36" t="n"/>
+      <c r="C1" s="36" t="n"/>
+      <c r="D1" s="36" t="n"/>
+      <c r="E1" s="36" t="n"/>
+    </row>
+    <row r="2" ht="25" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>counts</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="F2" s="37" t="n"/>
+    </row>
+    <row r="3" ht="25" customHeight="1">
+      <c r="A3" s="38" t="inlineStr">
+        <is>
+          <t>lob</t>
+        </is>
+      </c>
+      <c r="B3" s="38" t="inlineStr">
+        <is>
+          <t>CFI</t>
+        </is>
+      </c>
+      <c r="C3" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38" t="n">
+        <v>381</v>
+      </c>
+      <c r="E3" s="39" t="n">
+        <v>31.82957393483709</v>
+      </c>
+      <c r="F3" s="37" t="n"/>
+    </row>
+    <row r="4" ht="25" customHeight="1">
+      <c r="A4" s="38" t="inlineStr">
+        <is>
+          <t>lob</t>
+        </is>
+      </c>
+      <c r="B4" s="38" t="inlineStr">
+        <is>
+          <t>CFI</t>
+        </is>
+      </c>
+      <c r="C4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="38" t="n">
+        <v>395</v>
+      </c>
+      <c r="E4" s="39" t="n">
+        <v>32.99916457811194</v>
+      </c>
+      <c r="F4" s="37" t="n"/>
+    </row>
+    <row r="5" ht="25" customHeight="1">
+      <c r="A5" s="38" t="inlineStr">
+        <is>
+          <t>lob</t>
+        </is>
+      </c>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>CFI</t>
+        </is>
+      </c>
+      <c r="C5" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="38" t="n">
+        <v>421</v>
+      </c>
+      <c r="E5" s="39" t="n">
+        <v>35.17126148705096</v>
+      </c>
+      <c r="F5" s="37" t="n"/>
+    </row>
+    <row r="6" ht="25" customHeight="1">
+      <c r="A6" s="38" t="inlineStr">
+        <is>
+          <t>lob</t>
+        </is>
+      </c>
+      <c r="B6" s="38" t="inlineStr">
+        <is>
+          <t>CSI</t>
+        </is>
+      </c>
+      <c r="C6" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="38" t="n">
+        <v>2457</v>
+      </c>
+      <c r="E6" s="39" t="n">
+        <v>33.82433920704846</v>
+      </c>
+      <c r="F6" s="37" t="n"/>
+    </row>
+    <row r="7" ht="25" customHeight="1">
+      <c r="A7" s="38" t="inlineStr">
+        <is>
+          <t>lob</t>
+        </is>
+      </c>
+      <c r="B7" s="38" t="inlineStr">
+        <is>
+          <t>CSI</t>
+        </is>
+      </c>
+      <c r="C7" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="38" t="n">
+        <v>2409</v>
+      </c>
+      <c r="E7" s="39" t="n">
+        <v>33.16354625550661</v>
+      </c>
+      <c r="F7" s="37" t="n"/>
+    </row>
+    <row r="8" ht="25" customHeight="1">
+      <c r="A8" s="38" t="inlineStr">
+        <is>
+          <t>lob</t>
+        </is>
+      </c>
+      <c r="B8" s="38" t="inlineStr">
+        <is>
+          <t>CSI</t>
+        </is>
+      </c>
+      <c r="C8" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="38" t="n">
+        <v>2398</v>
+      </c>
+      <c r="E8" s="39" t="n">
+        <v>33.01211453744494</v>
+      </c>
+      <c r="F8" s="37" t="n"/>
+    </row>
+    <row r="9" ht="25" customHeight="1">
+      <c r="A9" s="38" t="inlineStr">
+        <is>
+          <t>lob</t>
+        </is>
+      </c>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="C9" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="38" t="n">
+        <v>501</v>
+      </c>
+      <c r="E9" s="39" t="n">
+        <v>32.55360623781677</v>
+      </c>
+      <c r="F9" s="37" t="n"/>
+    </row>
+    <row r="10" ht="25" customHeight="1">
+      <c r="A10" s="38" t="inlineStr">
+        <is>
+          <t>lob</t>
+        </is>
+      </c>
+      <c r="B10" s="38" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="C10" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="38" t="n">
+        <v>524</v>
+      </c>
+      <c r="E10" s="39" t="n">
+        <v>34.04808317089019</v>
+      </c>
+      <c r="F10" s="37" t="n"/>
+    </row>
+    <row r="11" ht="25" customHeight="1">
+      <c r="A11" s="40" t="inlineStr">
+        <is>
+          <t>lob</t>
+        </is>
+      </c>
+      <c r="B11" s="40" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="C11" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="40" t="n">
+        <v>514</v>
+      </c>
+      <c r="E11" s="40" t="n">
+        <v>33.39831059129305</v>
+      </c>
+      <c r="F11" s="37" t="n"/>
+    </row>
+    <row r="12" ht="25" customHeight="1">
+      <c r="A12" s="38" t="inlineStr">
+        <is>
+          <t>gender_cd</t>
+        </is>
+      </c>
+      <c r="B12" s="38" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C12" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="38" t="n">
+        <v>1731</v>
+      </c>
+      <c r="E12" s="39" t="n">
+        <v>33.32691567192915</v>
+      </c>
+      <c r="F12" s="37" t="n"/>
+    </row>
+    <row r="13" ht="25" customHeight="1">
+      <c r="A13" s="38" t="inlineStr">
+        <is>
+          <t>gender_cd</t>
+        </is>
+      </c>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="38" t="n">
+        <v>1743</v>
+      </c>
+      <c r="E13" s="39" t="n">
+        <v>33.55795148247979</v>
+      </c>
+      <c r="F13" s="37" t="n"/>
+    </row>
+    <row r="14" ht="25" customHeight="1">
+      <c r="A14" s="38" t="inlineStr">
+        <is>
+          <t>gender_cd</t>
+        </is>
+      </c>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C14" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="38" t="n">
+        <v>1720</v>
+      </c>
+      <c r="E14" s="39" t="n">
+        <v>33.11513284559106</v>
+      </c>
+      <c r="F14" s="37" t="n"/>
+    </row>
+    <row r="15" ht="25" customHeight="1">
+      <c r="A15" s="38" t="inlineStr">
+        <is>
+          <t>gender_cd</t>
+        </is>
+      </c>
+      <c r="B15" s="38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C15" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="38" t="n">
+        <v>1608</v>
+      </c>
+      <c r="E15" s="39" t="n">
+        <v>33.458177278402</v>
+      </c>
+      <c r="F15" s="37" t="n"/>
+    </row>
+    <row r="16" ht="25" customHeight="1">
+      <c r="A16" s="38" t="inlineStr">
+        <is>
+          <t>gender_cd</t>
+        </is>
+      </c>
+      <c r="B16" s="38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C16" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="38" t="n">
+        <v>1585</v>
+      </c>
+      <c r="E16" s="39" t="n">
+        <v>32.97960882230545</v>
+      </c>
+      <c r="F16" s="37" t="n"/>
+    </row>
+    <row r="17" ht="25" customHeight="1">
+      <c r="A17" s="40" t="inlineStr">
+        <is>
+          <t>gender_cd</t>
+        </is>
+      </c>
+      <c r="B17" s="40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C17" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="40" t="n">
+        <v>1613</v>
+      </c>
+      <c r="E17" s="40" t="n">
+        <v>33.56221389929255</v>
+      </c>
+      <c r="F17" s="37" t="n"/>
+    </row>
+    <row r="18" ht="25" customHeight="1">
+      <c r="A18" s="38" t="inlineStr">
+        <is>
+          <t>marital</t>
+        </is>
+      </c>
+      <c r="B18" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="38" t="n">
+        <v>1280</v>
+      </c>
+      <c r="E18" s="39" t="n">
+        <v>33.28998699609883</v>
+      </c>
+      <c r="F18" s="37" t="n"/>
+    </row>
+    <row r="19" ht="25" customHeight="1">
+      <c r="A19" s="38" t="inlineStr">
+        <is>
+          <t>marital</t>
+        </is>
+      </c>
+      <c r="B19" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="38" t="n">
+        <v>1274</v>
+      </c>
+      <c r="E19" s="39" t="n">
+        <v>33.13394018205462</v>
+      </c>
+      <c r="F19" s="37" t="n"/>
+    </row>
+    <row r="20" ht="25" customHeight="1">
+      <c r="A20" s="38" t="inlineStr">
+        <is>
+          <t>marital</t>
+        </is>
+      </c>
+      <c r="B20" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="38" t="n">
+        <v>1291</v>
+      </c>
+      <c r="E20" s="39" t="n">
+        <v>33.57607282184655</v>
+      </c>
+      <c r="F20" s="37" t="n"/>
+    </row>
+    <row r="21" ht="25" customHeight="1">
+      <c r="A21" s="38" t="inlineStr">
+        <is>
+          <t>marital</t>
+        </is>
+      </c>
+      <c r="B21" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="38" t="n">
+        <v>2059</v>
+      </c>
+      <c r="E21" s="39" t="n">
+        <v>33.45247766043867</v>
+      </c>
+      <c r="F21" s="37" t="n"/>
+    </row>
+    <row r="22" ht="25" customHeight="1">
+      <c r="A22" s="38" t="inlineStr">
+        <is>
+          <t>marital</t>
+        </is>
+      </c>
+      <c r="B22" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="38" t="n">
+        <v>2054</v>
+      </c>
+      <c r="E22" s="39" t="n">
+        <v>33.37124289195776</v>
+      </c>
+      <c r="F22" s="37" t="n"/>
+    </row>
+    <row r="23" ht="25" customHeight="1">
+      <c r="A23" s="40" t="inlineStr">
+        <is>
+          <t>marital</t>
+        </is>
+      </c>
+      <c r="B23" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="40" t="n">
+        <v>2042</v>
+      </c>
+      <c r="E23" s="40" t="n">
+        <v>33.17627944760358</v>
+      </c>
+      <c r="F23" s="37" t="n"/>
+    </row>
+    <row r="24" ht="25" customHeight="1">
+      <c r="A24" s="38" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="B24" s="38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C24" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="38" t="n">
+        <v>841</v>
+      </c>
+      <c r="E24" s="39" t="n">
+        <v>33.77510040160643</v>
+      </c>
+      <c r="F24" s="37" t="n"/>
+    </row>
+    <row r="25" ht="25" customHeight="1">
+      <c r="A25" s="38" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="B25" s="38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C25" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="38" t="n">
+        <v>831</v>
+      </c>
+      <c r="E25" s="39" t="n">
+        <v>33.37349397590361</v>
+      </c>
+      <c r="F25" s="37" t="n"/>
+    </row>
+    <row r="26" ht="25" customHeight="1">
+      <c r="A26" s="38" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="B26" s="38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C26" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="38" t="n">
+        <v>818</v>
+      </c>
+      <c r="E26" s="39" t="n">
+        <v>32.85140562248996</v>
+      </c>
+      <c r="F26" s="37" t="n"/>
+    </row>
+    <row r="27" ht="25" customHeight="1">
+      <c r="A27" s="38" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="B27" s="38" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C27" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="38" t="n">
+        <v>1871</v>
+      </c>
+      <c r="E27" s="39" t="n">
+        <v>33.0565371024735</v>
+      </c>
+      <c r="F27" s="37" t="n"/>
+    </row>
+    <row r="28" ht="25" customHeight="1">
+      <c r="A28" s="38" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="B28" s="38" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C28" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="38" t="n">
+        <v>1879</v>
+      </c>
+      <c r="E28" s="39" t="n">
+        <v>33.19787985865725</v>
+      </c>
+      <c r="F28" s="37" t="n"/>
+    </row>
+    <row r="29" ht="25" customHeight="1">
+      <c r="A29" s="38" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="B29" s="38" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C29" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="38" t="n">
+        <v>1910</v>
+      </c>
+      <c r="E29" s="39" t="n">
+        <v>33.74558303886926</v>
+      </c>
+      <c r="F29" s="37" t="n"/>
+    </row>
+    <row r="30" ht="25" customHeight="1">
+      <c r="A30" s="38" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="B30" s="38" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C30" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="39" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="F30" s="37" t="n"/>
+    </row>
+    <row r="31" ht="25" customHeight="1">
+      <c r="A31" s="38" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="B31" s="38" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C31" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="39" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="F31" s="37" t="n"/>
+    </row>
+    <row r="32" ht="25" customHeight="1">
+      <c r="A32" s="38" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="B32" s="38" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C32" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="39" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="F32" s="37" t="n"/>
+    </row>
+    <row r="33" ht="25" customHeight="1">
+      <c r="A33" s="38" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="B33" s="38" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C33" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" s="39" t="n">
+        <v>40</v>
+      </c>
+      <c r="F33" s="37" t="n"/>
+    </row>
+    <row r="34" ht="25" customHeight="1">
+      <c r="A34" s="38" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="B34" s="38" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C34" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E34" s="39" t="n">
+        <v>32</v>
+      </c>
+      <c r="F34" s="37" t="n"/>
+    </row>
+    <row r="35" ht="25" customHeight="1">
+      <c r="A35" s="38" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="B35" s="38" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C35" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="E35" s="39" t="n">
+        <v>28</v>
+      </c>
+      <c r="F35" s="37" t="n"/>
+    </row>
+    <row r="36" ht="25" customHeight="1">
+      <c r="A36" s="38" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C36" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="38" t="n">
+        <v>472</v>
+      </c>
+      <c r="E36" s="39" t="n">
+        <v>33.810888252149</v>
+      </c>
+      <c r="F36" s="37" t="n"/>
+    </row>
+    <row r="37" ht="25" customHeight="1">
+      <c r="A37" s="38" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="B37" s="38" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C37" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="38" t="n">
+        <v>474</v>
+      </c>
+      <c r="E37" s="39" t="n">
+        <v>33.95415472779369</v>
+      </c>
+      <c r="F37" s="37" t="n"/>
+    </row>
+    <row r="38" ht="25" customHeight="1">
+      <c r="A38" s="38" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="B38" s="38" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C38" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" s="38" t="n">
+        <v>450</v>
+      </c>
+      <c r="E38" s="39" t="n">
+        <v>32.23495702005731</v>
+      </c>
+      <c r="F38" s="37" t="n"/>
+    </row>
+    <row r="39" ht="25" customHeight="1">
+      <c r="A39" s="40" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="B39" s="40" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="C39" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" s="40" t="n">
+        <v>100</v>
+      </c>
+      <c r="F39" s="37" t="n"/>
+    </row>
+    <row r="40" ht="25" customHeight="1">
+      <c r="A40" s="38" t="inlineStr">
+        <is>
+          <t>active_medical_ind</t>
+        </is>
+      </c>
+      <c r="B40" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="38" t="n">
+        <v>743</v>
+      </c>
+      <c r="E40" s="39" t="n">
+        <v>33.18445734702992</v>
+      </c>
+      <c r="F40" s="37" t="n"/>
+    </row>
+    <row r="41" ht="25" customHeight="1">
+      <c r="A41" s="38" t="inlineStr">
+        <is>
+          <t>active_medical_ind</t>
+        </is>
+      </c>
+      <c r="B41" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="38" t="n">
+        <v>768</v>
+      </c>
+      <c r="E41" s="39" t="n">
+        <v>34.30102724430549</v>
+      </c>
+      <c r="F41" s="37" t="n"/>
+    </row>
+    <row r="42" ht="25" customHeight="1">
+      <c r="A42" s="38" t="inlineStr">
+        <is>
+          <t>active_medical_ind</t>
+        </is>
+      </c>
+      <c r="B42" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" s="38" t="n">
+        <v>728</v>
+      </c>
+      <c r="E42" s="39" t="n">
+        <v>32.51451540866459</v>
+      </c>
+      <c r="F42" s="37" t="n"/>
+    </row>
+    <row r="43" ht="25" customHeight="1">
+      <c r="A43" s="38" t="inlineStr">
+        <is>
+          <t>active_medical_ind</t>
+        </is>
+      </c>
+      <c r="B43" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="38" t="n">
+        <v>2455</v>
+      </c>
+      <c r="E43" s="39" t="n">
+        <v>33.4423103119466</v>
+      </c>
+      <c r="F43" s="37" t="n"/>
+    </row>
+    <row r="44" ht="25" customHeight="1">
+      <c r="A44" s="38" t="inlineStr">
+        <is>
+          <t>active_medical_ind</t>
+        </is>
+      </c>
+      <c r="B44" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="38" t="n">
+        <v>2427</v>
+      </c>
+      <c r="E44" s="39" t="n">
+        <v>33.06089088680017</v>
+      </c>
+      <c r="F44" s="37" t="n"/>
+    </row>
+    <row r="45" ht="25" customHeight="1">
+      <c r="A45" s="40" t="inlineStr">
+        <is>
+          <t>active_medical_ind</t>
+        </is>
+      </c>
+      <c r="B45" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" s="40" t="n">
+        <v>2459</v>
+      </c>
+      <c r="E45" s="40" t="n">
+        <v>33.49679880125323</v>
+      </c>
+      <c r="F45" s="37" t="n"/>
+    </row>
+    <row r="46" ht="25" customHeight="1">
+      <c r="A46" s="38" t="inlineStr">
+        <is>
+          <t>active_dental_ind</t>
+        </is>
+      </c>
+      <c r="B46" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="38" t="n">
+        <v>2565</v>
+      </c>
+      <c r="E46" s="39" t="n">
+        <v>33.16953316953317</v>
+      </c>
+      <c r="F46" s="37" t="n"/>
+    </row>
+    <row r="47" ht="25" customHeight="1">
+      <c r="A47" s="38" t="inlineStr">
+        <is>
+          <t>active_dental_ind</t>
+        </is>
+      </c>
+      <c r="B47" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="38" t="n">
+        <v>2572</v>
+      </c>
+      <c r="E47" s="39" t="n">
+        <v>33.2600543126859</v>
+      </c>
+      <c r="F47" s="37" t="n"/>
+    </row>
+    <row r="48" ht="25" customHeight="1">
+      <c r="A48" s="38" t="inlineStr">
+        <is>
+          <t>active_dental_ind</t>
+        </is>
+      </c>
+      <c r="B48" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" s="38" t="n">
+        <v>2596</v>
+      </c>
+      <c r="E48" s="39" t="n">
+        <v>33.57041251778094</v>
+      </c>
+      <c r="F48" s="37" t="n"/>
+    </row>
+    <row r="49" ht="25" customHeight="1">
+      <c r="A49" s="38" t="inlineStr">
+        <is>
+          <t>active_dental_ind</t>
+        </is>
+      </c>
+      <c r="B49" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="38" t="n">
+        <v>633</v>
+      </c>
+      <c r="E49" s="39" t="n">
+        <v>34.27179209528966</v>
+      </c>
+      <c r="F49" s="37" t="n"/>
+    </row>
+    <row r="50" ht="25" customHeight="1">
+      <c r="A50" s="38" t="inlineStr">
+        <is>
+          <t>active_dental_ind</t>
+        </is>
+      </c>
+      <c r="B50" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="38" t="n">
+        <v>623</v>
+      </c>
+      <c r="E50" s="39" t="n">
+        <v>33.73037357877639</v>
+      </c>
+      <c r="F50" s="37" t="n"/>
+    </row>
+    <row r="51" ht="25" customHeight="1">
+      <c r="A51" s="40" t="inlineStr">
+        <is>
+          <t>active_dental_ind</t>
+        </is>
+      </c>
+      <c r="B51" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" s="40" t="n">
+        <v>591</v>
+      </c>
+      <c r="E51" s="40" t="n">
+        <v>31.99783432593395</v>
+      </c>
+      <c r="F51" s="37" t="n"/>
+    </row>
+    <row r="52" ht="25" customHeight="1">
+      <c r="A52" s="38" t="inlineStr">
+        <is>
+          <t>active_pharmacy_ind</t>
+        </is>
+      </c>
+      <c r="B52" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="38" t="n">
+        <v>2072</v>
+      </c>
+      <c r="E52" s="39" t="n">
+        <v>33.87835186396337</v>
+      </c>
+      <c r="F52" s="37" t="n"/>
+    </row>
+    <row r="53" ht="25" customHeight="1">
+      <c r="A53" s="38" t="inlineStr">
+        <is>
+          <t>active_pharmacy_ind</t>
+        </is>
+      </c>
+      <c r="B53" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="38" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E53" s="39" t="n">
+        <v>33.07717462393722</v>
+      </c>
+      <c r="F53" s="37" t="n"/>
+    </row>
+    <row r="54" ht="25" customHeight="1">
+      <c r="A54" s="38" t="inlineStr">
+        <is>
+          <t>active_pharmacy_ind</t>
+        </is>
+      </c>
+      <c r="B54" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" s="38" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E54" s="39" t="n">
+        <v>33.04447351209941</v>
+      </c>
+      <c r="F54" s="37" t="n"/>
+    </row>
+    <row r="55" ht="25" customHeight="1">
+      <c r="A55" s="38" t="inlineStr">
+        <is>
+          <t>active_pharmacy_ind</t>
+        </is>
+      </c>
+      <c r="B55" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="38" t="n">
+        <v>1126</v>
+      </c>
+      <c r="E55" s="39" t="n">
+        <v>32.50577367205543</v>
+      </c>
+      <c r="F55" s="37" t="n"/>
+    </row>
+    <row r="56" ht="25" customHeight="1">
+      <c r="A56" s="38" t="inlineStr">
+        <is>
+          <t>active_pharmacy_ind</t>
+        </is>
+      </c>
+      <c r="B56" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="38" t="n">
+        <v>1172</v>
+      </c>
+      <c r="E56" s="39" t="n">
+        <v>33.8337182448037</v>
+      </c>
+      <c r="F56" s="37" t="n"/>
+    </row>
+    <row r="57" ht="25" customHeight="1">
+      <c r="A57" s="40" t="inlineStr">
+        <is>
+          <t>active_pharmacy_ind</t>
+        </is>
+      </c>
+      <c r="B57" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" s="40" t="n">
+        <v>1166</v>
+      </c>
+      <c r="E57" s="40" t="n">
+        <v>33.66050808314088</v>
+      </c>
+      <c r="F57" s="37" t="n"/>
+    </row>
+    <row r="58" ht="25" customHeight="1">
+      <c r="A58" s="38" t="inlineStr">
+        <is>
+          <t>active_vision_ind</t>
+        </is>
+      </c>
+      <c r="B58" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="38" t="n">
+        <v>2882</v>
+      </c>
+      <c r="E58" s="39" t="n">
+        <v>33.34490339002661</v>
+      </c>
+      <c r="F58" s="37" t="n"/>
+    </row>
+    <row r="59" ht="25" customHeight="1">
+      <c r="A59" s="38" t="inlineStr">
+        <is>
+          <t>active_vision_ind</t>
+        </is>
+      </c>
+      <c r="B59" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="38" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E59" s="39" t="n">
+        <v>33.54159435381233</v>
+      </c>
+      <c r="F59" s="37" t="n"/>
+    </row>
+    <row r="60" ht="25" customHeight="1">
+      <c r="A60" s="38" t="inlineStr">
+        <is>
+          <t>active_vision_ind</t>
+        </is>
+      </c>
+      <c r="B60" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" s="38" t="n">
+        <v>2862</v>
+      </c>
+      <c r="E60" s="39" t="n">
+        <v>33.11350225616106</v>
+      </c>
+      <c r="F60" s="37" t="n"/>
+    </row>
+    <row r="61" ht="25" customHeight="1">
+      <c r="A61" s="38" t="inlineStr">
+        <is>
+          <t>active_vision_ind</t>
+        </is>
+      </c>
+      <c r="B61" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="38" t="n">
+        <v>316</v>
+      </c>
+      <c r="E61" s="39" t="n">
+        <v>33.72465314834579</v>
+      </c>
+      <c r="F61" s="37" t="n"/>
+    </row>
+    <row r="62" ht="25" customHeight="1">
+      <c r="A62" s="38" t="inlineStr">
+        <is>
+          <t>active_vision_ind</t>
+        </is>
+      </c>
+      <c r="B62" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="38" t="n">
+        <v>296</v>
+      </c>
+      <c r="E62" s="39" t="n">
+        <v>31.59018143009605</v>
+      </c>
+      <c r="F62" s="37" t="n"/>
+    </row>
+    <row r="63" ht="25" customHeight="1">
+      <c r="A63" s="40" t="inlineStr">
+        <is>
+          <t>active_vision_ind</t>
+        </is>
+      </c>
+      <c r="B63" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" s="40" t="n">
+        <v>325</v>
+      </c>
+      <c r="E63" s="40" t="n">
+        <v>34.68516542155816</v>
+      </c>
+      <c r="F63" s="37" t="n"/>
+    </row>
+    <row r="64" ht="25" customHeight="1">
+      <c r="A64" s="38" t="inlineStr">
+        <is>
+          <t>active_medicare_ind</t>
+        </is>
+      </c>
+      <c r="B64" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" s="38" t="n">
+        <v>2751</v>
+      </c>
+      <c r="E64" s="39" t="n">
+        <v>33.52833638025594</v>
+      </c>
+      <c r="F64" s="37" t="n"/>
+    </row>
+    <row r="65" ht="25" customHeight="1">
+      <c r="A65" s="38" t="inlineStr">
+        <is>
+          <t>active_medicare_ind</t>
+        </is>
+      </c>
+      <c r="B65" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="38" t="n">
+        <v>2730</v>
+      </c>
+      <c r="E65" s="39" t="n">
+        <v>33.27239488117002</v>
+      </c>
+      <c r="F65" s="37" t="n"/>
+    </row>
+    <row r="66" ht="25" customHeight="1">
+      <c r="A66" s="38" t="inlineStr">
+        <is>
+          <t>active_medicare_ind</t>
+        </is>
+      </c>
+      <c r="B66" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" s="38" t="n">
+        <v>2724</v>
+      </c>
+      <c r="E66" s="39" t="n">
+        <v>33.19926873857404</v>
+      </c>
+      <c r="F66" s="37" t="n"/>
+    </row>
+    <row r="67" ht="25" customHeight="1">
+      <c r="A67" s="38" t="inlineStr">
+        <is>
+          <t>active_medicare_ind</t>
+        </is>
+      </c>
+      <c r="B67" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" s="38" t="n">
+        <v>447</v>
+      </c>
+      <c r="E67" s="39" t="n">
+        <v>32.50909090909091</v>
+      </c>
+      <c r="F67" s="37" t="n"/>
+    </row>
+    <row r="68" ht="25" customHeight="1">
+      <c r="A68" s="38" t="inlineStr">
+        <is>
+          <t>active_medicare_ind</t>
+        </is>
+      </c>
+      <c r="B68" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" s="38" t="n">
+        <v>465</v>
+      </c>
+      <c r="E68" s="39" t="n">
+        <v>33.81818181818182</v>
+      </c>
+      <c r="F68" s="37" t="n"/>
+    </row>
+    <row r="69" ht="25" customHeight="1">
+      <c r="A69" s="40" t="inlineStr">
+        <is>
+          <t>active_medicare_ind</t>
+        </is>
+      </c>
+      <c r="B69" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" s="40" t="n">
+        <v>463</v>
+      </c>
+      <c r="E69" s="40" t="n">
+        <v>33.67272727272727</v>
+      </c>
+      <c r="F69" s="37" t="n"/>
+    </row>
+    <row r="70" ht="25" customHeight="1">
+      <c r="A70" s="38" t="inlineStr">
+        <is>
+          <t>a2020_dental_ind</t>
+        </is>
+      </c>
+      <c r="B70" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="38" t="n">
+        <v>2335</v>
+      </c>
+      <c r="E70" s="39" t="n">
+        <v>33.3000570450656</v>
+      </c>
+      <c r="F70" s="37" t="n"/>
+    </row>
+    <row r="71" ht="25" customHeight="1">
+      <c r="A71" s="38" t="inlineStr">
+        <is>
+          <t>a2020_dental_ind</t>
+        </is>
+      </c>
+      <c r="B71" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="38" t="n">
+        <v>2320</v>
+      </c>
+      <c r="E71" s="39" t="n">
+        <v>33.08613804905875</v>
+      </c>
+      <c r="F71" s="37" t="n"/>
+    </row>
+    <row r="72" ht="25" customHeight="1">
+      <c r="A72" s="38" t="inlineStr">
+        <is>
+          <t>a2020_dental_ind</t>
+        </is>
+      </c>
+      <c r="B72" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" s="38" t="n">
+        <v>2357</v>
+      </c>
+      <c r="E72" s="39" t="n">
+        <v>33.61380490587565</v>
+      </c>
+      <c r="F72" s="37" t="n"/>
+    </row>
+    <row r="73" ht="25" customHeight="1">
+      <c r="A73" s="38" t="inlineStr">
+        <is>
+          <t>a2020_dental_ind</t>
+        </is>
+      </c>
+      <c r="B73" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="38" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E73" s="39" t="n">
+        <v>33.60107095046854</v>
+      </c>
+      <c r="F73" s="37" t="n"/>
+    </row>
+    <row r="74" ht="25" customHeight="1">
+      <c r="A74" s="38" t="inlineStr">
+        <is>
+          <t>a2020_dental_ind</t>
+        </is>
+      </c>
+      <c r="B74" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" s="38" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E74" s="39" t="n">
+        <v>33.73493975903614</v>
+      </c>
+      <c r="F74" s="37" t="n"/>
+    </row>
+    <row r="75" ht="25" customHeight="1">
+      <c r="A75" s="40" t="inlineStr">
+        <is>
+          <t>a2020_dental_ind</t>
+        </is>
+      </c>
+      <c r="B75" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" s="40" t="n">
+        <v>976</v>
+      </c>
+      <c r="E75" s="40" t="n">
+        <v>32.66398929049532</v>
+      </c>
+      <c r="F75" s="37" t="n"/>
+    </row>
+    <row r="76" ht="25" customHeight="1">
+      <c r="A76" s="38" t="inlineStr">
+        <is>
+          <t>a2020_vision_ind</t>
+        </is>
+      </c>
+      <c r="B76" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" s="38" t="n">
+        <v>3049</v>
+      </c>
+      <c r="E76" s="39" t="n">
+        <v>33.4576977943597</v>
+      </c>
+      <c r="F76" s="37" t="n"/>
+    </row>
+    <row r="77" ht="25" customHeight="1">
+      <c r="A77" s="38" t="inlineStr">
+        <is>
+          <t>a2020_vision_ind</t>
+        </is>
+      </c>
+      <c r="B77" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" s="38" t="n">
+        <v>3014</v>
+      </c>
+      <c r="E77" s="39" t="n">
+        <v>33.07363107648415</v>
+      </c>
+      <c r="F77" s="37" t="n"/>
+    </row>
+    <row r="78" ht="25" customHeight="1">
+      <c r="A78" s="38" t="inlineStr">
+        <is>
+          <t>a2020_vision_ind</t>
+        </is>
+      </c>
+      <c r="B78" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" s="38" t="n">
+        <v>3050</v>
+      </c>
+      <c r="E78" s="39" t="n">
+        <v>33.46867112915615</v>
+      </c>
+      <c r="F78" s="37" t="n"/>
+    </row>
+    <row r="79" ht="25" customHeight="1">
+      <c r="A79" s="38" t="inlineStr">
+        <is>
+          <t>a2020_vision_ind</t>
+        </is>
+      </c>
+      <c r="B79" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" s="38" t="n">
+        <v>290</v>
+      </c>
+      <c r="E79" s="39" t="n">
+        <v>32.69447576099211</v>
+      </c>
+      <c r="F79" s="37" t="n"/>
+    </row>
+    <row r="80" ht="25" customHeight="1">
+      <c r="A80" s="38" t="inlineStr">
+        <is>
+          <t>a2020_vision_ind</t>
+        </is>
+      </c>
+      <c r="B80" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" s="38" t="n">
+        <v>314</v>
+      </c>
+      <c r="E80" s="39" t="n">
+        <v>35.40022547914317</v>
+      </c>
+      <c r="F80" s="37" t="n"/>
+    </row>
+    <row r="81" ht="25" customHeight="1">
+      <c r="A81" s="40" t="inlineStr">
+        <is>
+          <t>a2020_vision_ind</t>
+        </is>
+      </c>
+      <c r="B81" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" s="40" t="n">
+        <v>283</v>
+      </c>
+      <c r="E81" s="40" t="n">
+        <v>31.90529875986471</v>
+      </c>
+      <c r="F81" s="37" t="n"/>
+    </row>
+    <row r="82" ht="25" customHeight="1">
+      <c r="A82" s="38" t="inlineStr">
+        <is>
+          <t>a2020_rx_ind</t>
+        </is>
+      </c>
+      <c r="B82" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" s="38" t="n">
+        <v>2108</v>
+      </c>
+      <c r="E82" s="39" t="n">
+        <v>34.08796895213454</v>
+      </c>
+      <c r="F82" s="37" t="n"/>
+    </row>
+    <row r="83" ht="25" customHeight="1">
+      <c r="A83" s="38" t="inlineStr">
+        <is>
+          <t>a2020_rx_ind</t>
+        </is>
+      </c>
+      <c r="B83" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" s="38" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E83" s="39" t="n">
+        <v>32.56791720569211</v>
+      </c>
+      <c r="F83" s="37" t="n"/>
+    </row>
+    <row r="84" ht="25" customHeight="1">
+      <c r="A84" s="38" t="inlineStr">
+        <is>
+          <t>a2020_rx_ind</t>
+        </is>
+      </c>
+      <c r="B84" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" s="38" t="n">
+        <v>2062</v>
+      </c>
+      <c r="E84" s="39" t="n">
+        <v>33.34411384217335</v>
+      </c>
+      <c r="F84" s="37" t="n"/>
+    </row>
+    <row r="85" ht="25" customHeight="1">
+      <c r="A85" s="38" t="inlineStr">
+        <is>
+          <t>a2020_rx_ind</t>
+        </is>
+      </c>
+      <c r="B85" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" s="38" t="n">
+        <v>1231</v>
+      </c>
+      <c r="E85" s="39" t="n">
+        <v>32.25890985324947</v>
+      </c>
+      <c r="F85" s="37" t="n"/>
+    </row>
+    <row r="86" ht="25" customHeight="1">
+      <c r="A86" s="38" t="inlineStr">
+        <is>
+          <t>a2020_rx_ind</t>
+        </is>
+      </c>
+      <c r="B86" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" s="38" t="n">
+        <v>1314</v>
+      </c>
+      <c r="E86" s="39" t="n">
+        <v>34.43396226415094</v>
+      </c>
+      <c r="F86" s="37" t="n"/>
+    </row>
+    <row r="87" ht="25" customHeight="1">
+      <c r="A87" s="40" t="inlineStr">
+        <is>
+          <t>a2020_rx_ind</t>
+        </is>
+      </c>
+      <c r="B87" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" s="40" t="n">
+        <v>1271</v>
+      </c>
+      <c r="E87" s="40" t="n">
+        <v>33.30712788259958</v>
+      </c>
+      <c r="F87" s="37" t="n"/>
+    </row>
+    <row r="88" ht="25" customHeight="1">
+      <c r="A88" s="38" t="inlineStr">
+        <is>
+          <t>a2020_medicare_ind</t>
+        </is>
+      </c>
+      <c r="B88" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" s="38" t="n">
+        <v>2838</v>
+      </c>
+      <c r="E88" s="39" t="n">
+        <v>33.54609929078014</v>
+      </c>
+      <c r="F88" s="37" t="n"/>
+    </row>
+    <row r="89" ht="25" customHeight="1">
+      <c r="A89" s="38" t="inlineStr">
+        <is>
+          <t>a2020_medicare_ind</t>
+        </is>
+      </c>
+      <c r="B89" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" s="38" t="n">
+        <v>2803</v>
+      </c>
+      <c r="E89" s="39" t="n">
+        <v>33.13238770685579</v>
+      </c>
+      <c r="F89" s="37" t="n"/>
+    </row>
+    <row r="90" ht="25" customHeight="1">
+      <c r="A90" s="38" t="inlineStr">
+        <is>
+          <t>a2020_medicare_ind</t>
+        </is>
+      </c>
+      <c r="B90" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" s="38" t="n">
+        <v>2819</v>
+      </c>
+      <c r="E90" s="39" t="n">
+        <v>33.32151300236406</v>
+      </c>
+      <c r="F90" s="37" t="n"/>
+    </row>
+    <row r="91" ht="25" customHeight="1">
+      <c r="A91" s="38" t="inlineStr">
+        <is>
+          <t>a2020_medicare_ind</t>
+        </is>
+      </c>
+      <c r="B91" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" s="38" t="n">
+        <v>501</v>
+      </c>
+      <c r="E91" s="39" t="n">
+        <v>32.53246753246754</v>
+      </c>
+      <c r="F91" s="37" t="n"/>
+    </row>
+    <row r="92" ht="25" customHeight="1">
+      <c r="A92" s="38" t="inlineStr">
+        <is>
+          <t>a2020_medicare_ind</t>
+        </is>
+      </c>
+      <c r="B92" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" s="38" t="n">
+        <v>525</v>
+      </c>
+      <c r="E92" s="39" t="n">
+        <v>34.09090909090909</v>
+      </c>
+      <c r="F92" s="37" t="n"/>
+    </row>
+    <row r="93" ht="25" customHeight="1">
+      <c r="A93" s="40" t="inlineStr">
+        <is>
+          <t>a2020_medicare_ind</t>
+        </is>
+      </c>
+      <c r="B93" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" s="40" t="n">
+        <v>514</v>
+      </c>
+      <c r="E93" s="40" t="n">
+        <v>33.37662337662338</v>
+      </c>
+      <c r="F93" s="37" t="n"/>
+    </row>
+    <row r="94" ht="25" customHeight="1">
+      <c r="A94" s="38" t="inlineStr">
+        <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="B94" s="38" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C94" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" s="38" t="n">
+        <v>1290</v>
+      </c>
+      <c r="E94" s="39" t="n">
+        <v>33.23029366306028</v>
+      </c>
+      <c r="F94" s="37" t="n"/>
+    </row>
+    <row r="95" ht="25" customHeight="1">
+      <c r="A95" s="38" t="inlineStr">
+        <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="B95" s="38" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C95" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" s="38" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E95" s="39" t="n">
+        <v>33.48789283874292</v>
+      </c>
+      <c r="F95" s="37" t="n"/>
+    </row>
+    <row r="96" ht="25" customHeight="1">
+      <c r="A96" s="38" t="inlineStr">
+        <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="B96" s="38" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C96" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" s="38" t="n">
+        <v>1292</v>
+      </c>
+      <c r="E96" s="39" t="n">
+        <v>33.2818134981968</v>
+      </c>
+      <c r="F96" s="37" t="n"/>
+    </row>
+    <row r="97" ht="25" customHeight="1">
+      <c r="A97" s="38" t="inlineStr">
+        <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="B97" s="38" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C97" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" s="38" t="n">
+        <v>861</v>
+      </c>
+      <c r="E97" s="39" t="n">
+        <v>34.6897663174859</v>
+      </c>
+      <c r="F97" s="37" t="n"/>
+    </row>
+    <row r="98" ht="25" customHeight="1">
+      <c r="A98" s="38" t="inlineStr">
+        <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="B98" s="38" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C98" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" s="38" t="n">
+        <v>812</v>
+      </c>
+      <c r="E98" s="39" t="n">
+        <v>32.71555197421434</v>
+      </c>
+      <c r="F98" s="37" t="n"/>
+    </row>
+    <row r="99" ht="25" customHeight="1">
+      <c r="A99" s="38" t="inlineStr">
+        <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="B99" s="38" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C99" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" s="38" t="n">
+        <v>809</v>
+      </c>
+      <c r="E99" s="39" t="n">
+        <v>32.59468170829976</v>
+      </c>
+      <c r="F99" s="37" t="n"/>
+    </row>
+    <row r="100" ht="25" customHeight="1">
+      <c r="A100" s="38" t="inlineStr">
+        <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="B100" s="38" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="C100" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" s="38" t="n">
+        <v>1133</v>
+      </c>
+      <c r="E100" s="39" t="n">
+        <v>32.62309242729629</v>
+      </c>
+      <c r="F100" s="37" t="n"/>
+    </row>
+    <row r="101" ht="25" customHeight="1">
+      <c r="A101" s="38" t="inlineStr">
+        <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="B101" s="38" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="C101" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" s="38" t="n">
+        <v>1162</v>
+      </c>
+      <c r="E101" s="39" t="n">
+        <v>33.4581053843939</v>
+      </c>
+      <c r="F101" s="37" t="n"/>
+    </row>
+    <row r="102" ht="25" customHeight="1">
+      <c r="A102" s="40" t="inlineStr">
+        <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="B102" s="40" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="C102" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" s="40" t="n">
+        <v>1178</v>
+      </c>
+      <c r="E102" s="40" t="n">
+        <v>33.91880218830982</v>
+      </c>
+      <c r="F102" s="37" t="n"/>
+    </row>
+    <row r="103" ht="25" customHeight="1">
+      <c r="A103" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B103" s="38" t="inlineStr">
+        <is>
+          <t>AE</t>
+        </is>
+      </c>
+      <c r="C103" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E103" s="39" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="F103" s="37" t="n"/>
+    </row>
+    <row r="104" ht="25" customHeight="1">
+      <c r="A104" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B104" s="38" t="inlineStr">
+        <is>
+          <t>AE</t>
+        </is>
+      </c>
+      <c r="C104" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E104" s="39" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="F104" s="37" t="n"/>
+    </row>
+    <row r="105" ht="25" customHeight="1">
+      <c r="A105" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B105" s="38" t="inlineStr">
+        <is>
+          <t>AE</t>
+        </is>
+      </c>
+      <c r="C105" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E105" s="39" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="F105" s="37" t="n"/>
+    </row>
+    <row r="106" ht="25" customHeight="1">
+      <c r="A106" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B106" s="38" t="inlineStr">
+        <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="C106" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" s="38" t="n">
+        <v>25</v>
+      </c>
+      <c r="E106" s="39" t="n">
+        <v>31.64556962025317</v>
+      </c>
+      <c r="F106" s="37" t="n"/>
+    </row>
+    <row r="107" ht="25" customHeight="1">
+      <c r="A107" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B107" s="38" t="inlineStr">
+        <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="C107" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" s="38" t="n">
+        <v>28</v>
+      </c>
+      <c r="E107" s="39" t="n">
+        <v>35.44303797468354</v>
+      </c>
+      <c r="F107" s="37" t="n"/>
+    </row>
+    <row r="108" ht="25" customHeight="1">
+      <c r="A108" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B108" s="38" t="inlineStr">
+        <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="C108" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D108" s="38" t="n">
+        <v>26</v>
+      </c>
+      <c r="E108" s="39" t="n">
+        <v>32.91139240506329</v>
+      </c>
+      <c r="F108" s="37" t="n"/>
+    </row>
+    <row r="109" ht="25" customHeight="1">
+      <c r="A109" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B109" s="38" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="C109" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" s="38" t="n">
+        <v>11</v>
+      </c>
+      <c r="E109" s="39" t="n">
+        <v>35.48387096774194</v>
+      </c>
+      <c r="F109" s="37" t="n"/>
+    </row>
+    <row r="110" ht="25" customHeight="1">
+      <c r="A110" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B110" s="38" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="C110" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E110" s="39" t="n">
+        <v>32.25806451612903</v>
+      </c>
+      <c r="F110" s="37" t="n"/>
+    </row>
+    <row r="111" ht="25" customHeight="1">
+      <c r="A111" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B111" s="38" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="C111" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E111" s="39" t="n">
+        <v>32.25806451612903</v>
+      </c>
+      <c r="F111" s="37" t="n"/>
+    </row>
+    <row r="112" ht="25" customHeight="1">
+      <c r="A112" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B112" s="38" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="C112" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E112" s="39" t="n">
+        <v>50</v>
+      </c>
+      <c r="F112" s="37" t="n"/>
+    </row>
+    <row r="113" ht="25" customHeight="1">
+      <c r="A113" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B113" s="38" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="C113" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E113" s="39" t="n">
+        <v>50</v>
+      </c>
+      <c r="F113" s="37" t="n"/>
+    </row>
+    <row r="114" ht="25" customHeight="1">
+      <c r="A114" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B114" s="38" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C114" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E114" s="39" t="n">
+        <v>19.04761904761905</v>
+      </c>
+      <c r="F114" s="37" t="n"/>
+    </row>
+    <row r="115" ht="25" customHeight="1">
+      <c r="A115" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B115" s="38" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C115" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" s="38" t="n">
+        <v>13</v>
+      </c>
+      <c r="E115" s="39" t="n">
+        <v>61.90476190476191</v>
+      </c>
+      <c r="F115" s="37" t="n"/>
+    </row>
+    <row r="116" ht="25" customHeight="1">
+      <c r="A116" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B116" s="38" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C116" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D116" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E116" s="39" t="n">
+        <v>19.04761904761905</v>
+      </c>
+      <c r="F116" s="37" t="n"/>
+    </row>
+    <row r="117" ht="25" customHeight="1">
+      <c r="A117" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B117" s="38" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="C117" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" s="38" t="n">
+        <v>99</v>
+      </c>
+      <c r="E117" s="39" t="n">
+        <v>34.73684210526316</v>
+      </c>
+      <c r="F117" s="37" t="n"/>
+    </row>
+    <row r="118" ht="25" customHeight="1">
+      <c r="A118" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B118" s="38" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="C118" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" s="38" t="n">
+        <v>85</v>
+      </c>
+      <c r="E118" s="39" t="n">
+        <v>29.82456140350877</v>
+      </c>
+      <c r="F118" s="37" t="n"/>
+    </row>
+    <row r="119" ht="25" customHeight="1">
+      <c r="A119" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B119" s="38" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="C119" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D119" s="38" t="n">
+        <v>101</v>
+      </c>
+      <c r="E119" s="39" t="n">
+        <v>35.43859649122807</v>
+      </c>
+      <c r="F119" s="37" t="n"/>
+    </row>
+    <row r="120" ht="25" customHeight="1">
+      <c r="A120" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B120" s="38" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C120" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" s="38" t="n">
+        <v>196</v>
+      </c>
+      <c r="E120" s="39" t="n">
+        <v>34.02777777777778</v>
+      </c>
+      <c r="F120" s="37" t="n"/>
+    </row>
+    <row r="121" ht="25" customHeight="1">
+      <c r="A121" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B121" s="38" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C121" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" s="38" t="n">
+        <v>212</v>
+      </c>
+      <c r="E121" s="39" t="n">
+        <v>36.80555555555556</v>
+      </c>
+      <c r="F121" s="37" t="n"/>
+    </row>
+    <row r="122" ht="25" customHeight="1">
+      <c r="A122" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B122" s="38" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C122" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D122" s="38" t="n">
+        <v>168</v>
+      </c>
+      <c r="E122" s="39" t="n">
+        <v>29.16666666666667</v>
+      </c>
+      <c r="F122" s="37" t="n"/>
+    </row>
+    <row r="123" ht="25" customHeight="1">
+      <c r="A123" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B123" s="38" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="C123" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" s="38" t="n">
+        <v>34</v>
+      </c>
+      <c r="E123" s="39" t="n">
+        <v>27.86885245901639</v>
+      </c>
+      <c r="F123" s="37" t="n"/>
+    </row>
+    <row r="124" ht="25" customHeight="1">
+      <c r="A124" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B124" s="38" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="C124" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" s="38" t="n">
+        <v>45</v>
+      </c>
+      <c r="E124" s="39" t="n">
+        <v>36.88524590163934</v>
+      </c>
+      <c r="F124" s="37" t="n"/>
+    </row>
+    <row r="125" ht="25" customHeight="1">
+      <c r="A125" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B125" s="38" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="C125" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D125" s="38" t="n">
+        <v>43</v>
+      </c>
+      <c r="E125" s="39" t="n">
+        <v>35.24590163934426</v>
+      </c>
+      <c r="F125" s="37" t="n"/>
+    </row>
+    <row r="126" ht="25" customHeight="1">
+      <c r="A126" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B126" s="38" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C126" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" s="38" t="n">
+        <v>65</v>
+      </c>
+      <c r="E126" s="39" t="n">
+        <v>33.85416666666667</v>
+      </c>
+      <c r="F126" s="37" t="n"/>
+    </row>
+    <row r="127" ht="25" customHeight="1">
+      <c r="A127" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C127" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" s="38" t="n">
+        <v>58</v>
+      </c>
+      <c r="E127" s="39" t="n">
+        <v>30.20833333333333</v>
+      </c>
+      <c r="F127" s="37" t="n"/>
+    </row>
+    <row r="128" ht="25" customHeight="1">
+      <c r="A128" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B128" s="38" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C128" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D128" s="38" t="n">
+        <v>69</v>
+      </c>
+      <c r="E128" s="39" t="n">
+        <v>35.9375</v>
+      </c>
+      <c r="F128" s="37" t="n"/>
+    </row>
+    <row r="129" ht="25" customHeight="1">
+      <c r="A129" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B129" s="38" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="C129" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" s="38" t="n">
+        <v>9</v>
+      </c>
+      <c r="E129" s="39" t="n">
+        <v>26.47058823529412</v>
+      </c>
+      <c r="F129" s="37" t="n"/>
+    </row>
+    <row r="130" ht="25" customHeight="1">
+      <c r="A130" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B130" s="38" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="C130" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" s="38" t="n">
+        <v>14</v>
+      </c>
+      <c r="E130" s="39" t="n">
+        <v>41.17647058823529</v>
+      </c>
+      <c r="F130" s="37" t="n"/>
+    </row>
+    <row r="131" ht="25" customHeight="1">
+      <c r="A131" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B131" s="38" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="C131" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D131" s="38" t="n">
+        <v>11</v>
+      </c>
+      <c r="E131" s="39" t="n">
+        <v>32.35294117647059</v>
+      </c>
+      <c r="F131" s="37" t="n"/>
+    </row>
+    <row r="132" ht="25" customHeight="1">
+      <c r="A132" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B132" s="38" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C132" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" s="38" t="n">
+        <v>27</v>
+      </c>
+      <c r="E132" s="39" t="n">
+        <v>35.06493506493506</v>
+      </c>
+      <c r="F132" s="37" t="n"/>
+    </row>
+    <row r="133" ht="25" customHeight="1">
+      <c r="A133" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B133" s="38" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C133" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" s="38" t="n">
+        <v>27</v>
+      </c>
+      <c r="E133" s="39" t="n">
+        <v>35.06493506493506</v>
+      </c>
+      <c r="F133" s="37" t="n"/>
+    </row>
+    <row r="134" ht="25" customHeight="1">
+      <c r="A134" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B134" s="38" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C134" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D134" s="38" t="n">
+        <v>23</v>
+      </c>
+      <c r="E134" s="39" t="n">
+        <v>29.87012987012987</v>
+      </c>
+      <c r="F134" s="37" t="n"/>
+    </row>
+    <row r="135" ht="25" customHeight="1">
+      <c r="A135" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B135" s="38" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C135" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" s="38" t="n">
+        <v>354</v>
+      </c>
+      <c r="E135" s="39" t="n">
+        <v>35.57788944723618</v>
+      </c>
+      <c r="F135" s="37" t="n"/>
+    </row>
+    <row r="136" ht="25" customHeight="1">
+      <c r="A136" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B136" s="38" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C136" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" s="38" t="n">
+        <v>324</v>
+      </c>
+      <c r="E136" s="39" t="n">
+        <v>32.56281407035176</v>
+      </c>
+      <c r="F136" s="37" t="n"/>
+    </row>
+    <row r="137" ht="25" customHeight="1">
+      <c r="A137" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B137" s="38" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C137" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D137" s="38" t="n">
+        <v>317</v>
+      </c>
+      <c r="E137" s="39" t="n">
+        <v>31.85929648241206</v>
+      </c>
+      <c r="F137" s="37" t="n"/>
+    </row>
+    <row r="138" ht="25" customHeight="1">
+      <c r="A138" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B138" s="38" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="C138" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" s="38" t="n">
+        <v>110</v>
+      </c>
+      <c r="E138" s="39" t="n">
+        <v>30.13698630136986</v>
+      </c>
+      <c r="F138" s="37" t="n"/>
+    </row>
+    <row r="139" ht="25" customHeight="1">
+      <c r="A139" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B139" s="38" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="C139" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" s="38" t="n">
+        <v>124</v>
+      </c>
+      <c r="E139" s="39" t="n">
+        <v>33.97260273972603</v>
+      </c>
+      <c r="F139" s="37" t="n"/>
+    </row>
+    <row r="140" ht="25" customHeight="1">
+      <c r="A140" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B140" s="38" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="C140" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D140" s="38" t="n">
+        <v>131</v>
+      </c>
+      <c r="E140" s="39" t="n">
+        <v>35.89041095890411</v>
+      </c>
+      <c r="F140" s="37" t="n"/>
+    </row>
+    <row r="141" ht="25" customHeight="1">
+      <c r="A141" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B141" s="38" t="inlineStr">
+        <is>
+          <t>GU</t>
+        </is>
+      </c>
+      <c r="C141" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="E141" s="39" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="F141" s="37" t="n"/>
+    </row>
+    <row r="142" ht="25" customHeight="1">
+      <c r="A142" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B142" s="38" t="inlineStr">
+        <is>
+          <t>GU</t>
+        </is>
+      </c>
+      <c r="C142" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E142" s="39" t="n">
+        <v>35.71428571428572</v>
+      </c>
+      <c r="F142" s="37" t="n"/>
+    </row>
+    <row r="143" ht="25" customHeight="1">
+      <c r="A143" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B143" s="38" t="inlineStr">
+        <is>
+          <t>GU</t>
+        </is>
+      </c>
+      <c r="C143" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D143" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E143" s="39" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="F143" s="37" t="n"/>
+    </row>
+    <row r="144" ht="25" customHeight="1">
+      <c r="A144" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B144" s="38" t="inlineStr">
+        <is>
+          <t>HI</t>
+        </is>
+      </c>
+      <c r="C144" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E144" s="39" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="F144" s="37" t="n"/>
+    </row>
+    <row r="145" ht="25" customHeight="1">
+      <c r="A145" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B145" s="38" t="inlineStr">
+        <is>
+          <t>HI</t>
+        </is>
+      </c>
+      <c r="C145" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" s="39" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="F145" s="37" t="n"/>
+    </row>
+    <row r="146" ht="25" customHeight="1">
+      <c r="A146" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B146" s="38" t="inlineStr">
+        <is>
+          <t>HI</t>
+        </is>
+      </c>
+      <c r="C146" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D146" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" s="39" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="F146" s="37" t="n"/>
+    </row>
+    <row r="147" ht="25" customHeight="1">
+      <c r="A147" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B147" s="38" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="C147" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" s="38" t="n">
+        <v>13</v>
+      </c>
+      <c r="E147" s="39" t="n">
+        <v>27.65957446808511</v>
+      </c>
+      <c r="F147" s="37" t="n"/>
+    </row>
+    <row r="148" ht="25" customHeight="1">
+      <c r="A148" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B148" s="38" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="C148" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" s="38" t="n">
+        <v>19</v>
+      </c>
+      <c r="E148" s="39" t="n">
+        <v>40.42553191489361</v>
+      </c>
+      <c r="F148" s="37" t="n"/>
+    </row>
+    <row r="149" ht="25" customHeight="1">
+      <c r="A149" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B149" s="38" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="C149" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D149" s="38" t="n">
+        <v>15</v>
+      </c>
+      <c r="E149" s="39" t="n">
+        <v>31.91489361702128</v>
+      </c>
+      <c r="F149" s="37" t="n"/>
+    </row>
+    <row r="150" ht="25" customHeight="1">
+      <c r="A150" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B150" s="38" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C150" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" s="38" t="n">
+        <v>13</v>
+      </c>
+      <c r="E150" s="39" t="n">
+        <v>37.14285714285715</v>
+      </c>
+      <c r="F150" s="37" t="n"/>
+    </row>
+    <row r="151" ht="25" customHeight="1">
+      <c r="A151" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B151" s="38" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C151" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" s="38" t="n">
+        <v>12</v>
+      </c>
+      <c r="E151" s="39" t="n">
+        <v>34.28571428571428</v>
+      </c>
+      <c r="F151" s="37" t="n"/>
+    </row>
+    <row r="152" ht="25" customHeight="1">
+      <c r="A152" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B152" s="38" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C152" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D152" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E152" s="39" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="F152" s="37" t="n"/>
+    </row>
+    <row r="153" ht="25" customHeight="1">
+      <c r="A153" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B153" s="38" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="C153" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" s="38" t="n">
+        <v>121</v>
+      </c>
+      <c r="E153" s="39" t="n">
+        <v>34.27762039660057</v>
+      </c>
+      <c r="F153" s="37" t="n"/>
+    </row>
+    <row r="154" ht="25" customHeight="1">
+      <c r="A154" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B154" s="38" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="C154" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" s="38" t="n">
+        <v>119</v>
+      </c>
+      <c r="E154" s="39" t="n">
+        <v>33.71104815864022</v>
+      </c>
+      <c r="F154" s="37" t="n"/>
+    </row>
+    <row r="155" ht="25" customHeight="1">
+      <c r="A155" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B155" s="38" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="C155" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D155" s="38" t="n">
+        <v>113</v>
+      </c>
+      <c r="E155" s="39" t="n">
+        <v>32.01133144475921</v>
+      </c>
+      <c r="F155" s="37" t="n"/>
+    </row>
+    <row r="156" ht="25" customHeight="1">
+      <c r="A156" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B156" s="38" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C156" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" s="38" t="n">
+        <v>29</v>
+      </c>
+      <c r="E156" s="39" t="n">
+        <v>34.93975903614458</v>
+      </c>
+      <c r="F156" s="37" t="n"/>
+    </row>
+    <row r="157" ht="25" customHeight="1">
+      <c r="A157" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B157" s="38" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C157" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" s="38" t="n">
+        <v>22</v>
+      </c>
+      <c r="E157" s="39" t="n">
+        <v>26.50602409638554</v>
+      </c>
+      <c r="F157" s="37" t="n"/>
+    </row>
+    <row r="158" ht="25" customHeight="1">
+      <c r="A158" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B158" s="38" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C158" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D158" s="38" t="n">
+        <v>32</v>
+      </c>
+      <c r="E158" s="39" t="n">
+        <v>38.55421686746988</v>
+      </c>
+      <c r="F158" s="37" t="n"/>
+    </row>
+    <row r="159" ht="25" customHeight="1">
+      <c r="A159" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B159" s="38" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="C159" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" s="38" t="n">
+        <v>27</v>
+      </c>
+      <c r="E159" s="39" t="n">
+        <v>26.21359223300971</v>
+      </c>
+      <c r="F159" s="37" t="n"/>
+    </row>
+    <row r="160" ht="25" customHeight="1">
+      <c r="A160" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B160" s="38" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="C160" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" s="38" t="n">
+        <v>38</v>
+      </c>
+      <c r="E160" s="39" t="n">
+        <v>36.89320388349515</v>
+      </c>
+      <c r="F160" s="37" t="n"/>
+    </row>
+    <row r="161" ht="25" customHeight="1">
+      <c r="A161" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B161" s="38" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="C161" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D161" s="38" t="n">
+        <v>38</v>
+      </c>
+      <c r="E161" s="39" t="n">
+        <v>36.89320388349515</v>
+      </c>
+      <c r="F161" s="37" t="n"/>
+    </row>
+    <row r="162" ht="25" customHeight="1">
+      <c r="A162" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B162" s="38" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="C162" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" s="38" t="n">
+        <v>21</v>
+      </c>
+      <c r="E162" s="39" t="n">
+        <v>31.81818181818182</v>
+      </c>
+      <c r="F162" s="37" t="n"/>
+    </row>
+    <row r="163" ht="25" customHeight="1">
+      <c r="A163" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B163" s="38" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="C163" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" s="38" t="n">
+        <v>24</v>
+      </c>
+      <c r="E163" s="39" t="n">
+        <v>36.36363636363637</v>
+      </c>
+      <c r="F163" s="37" t="n"/>
+    </row>
+    <row r="164" ht="25" customHeight="1">
+      <c r="A164" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B164" s="38" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="C164" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D164" s="38" t="n">
+        <v>21</v>
+      </c>
+      <c r="E164" s="39" t="n">
+        <v>31.81818181818182</v>
+      </c>
+      <c r="F164" s="37" t="n"/>
+    </row>
+    <row r="165" ht="25" customHeight="1">
+      <c r="A165" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B165" s="38" t="inlineStr">
+        <is>
+          <t>LA</t>
+        </is>
+      </c>
+      <c r="C165" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" s="38" t="n">
+        <v>18</v>
+      </c>
+      <c r="E165" s="39" t="n">
+        <v>32.14285714285715</v>
+      </c>
+      <c r="F165" s="37" t="n"/>
+    </row>
+    <row r="166" ht="25" customHeight="1">
+      <c r="A166" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B166" s="38" t="inlineStr">
+        <is>
+          <t>LA</t>
+        </is>
+      </c>
+      <c r="C166" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" s="38" t="n">
+        <v>19</v>
+      </c>
+      <c r="E166" s="39" t="n">
+        <v>33.92857142857143</v>
+      </c>
+      <c r="F166" s="37" t="n"/>
+    </row>
+    <row r="167" ht="25" customHeight="1">
+      <c r="A167" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B167" s="38" t="inlineStr">
+        <is>
+          <t>LA</t>
+        </is>
+      </c>
+      <c r="C167" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D167" s="38" t="n">
+        <v>19</v>
+      </c>
+      <c r="E167" s="39" t="n">
+        <v>33.92857142857143</v>
+      </c>
+      <c r="F167" s="37" t="n"/>
+    </row>
+    <row r="168" ht="25" customHeight="1">
+      <c r="A168" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B168" s="38" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C168" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" s="38" t="n">
+        <v>31</v>
+      </c>
+      <c r="E168" s="39" t="n">
+        <v>30.3921568627451</v>
+      </c>
+      <c r="F168" s="37" t="n"/>
+    </row>
+    <row r="169" ht="25" customHeight="1">
+      <c r="A169" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B169" s="38" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C169" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" s="38" t="n">
+        <v>32</v>
+      </c>
+      <c r="E169" s="39" t="n">
+        <v>31.37254901960784</v>
+      </c>
+      <c r="F169" s="37" t="n"/>
+    </row>
+    <row r="170" ht="25" customHeight="1">
+      <c r="A170" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B170" s="38" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C170" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D170" s="38" t="n">
+        <v>39</v>
+      </c>
+      <c r="E170" s="39" t="n">
+        <v>38.23529411764706</v>
+      </c>
+      <c r="F170" s="37" t="n"/>
+    </row>
+    <row r="171" ht="25" customHeight="1">
+      <c r="A171" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B171" s="38" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C171" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" s="38" t="n">
+        <v>65</v>
+      </c>
+      <c r="E171" s="39" t="n">
+        <v>32.99492385786802</v>
+      </c>
+      <c r="F171" s="37" t="n"/>
+    </row>
+    <row r="172" ht="25" customHeight="1">
+      <c r="A172" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B172" s="38" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C172" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" s="38" t="n">
+        <v>65</v>
+      </c>
+      <c r="E172" s="39" t="n">
+        <v>32.99492385786802</v>
+      </c>
+      <c r="F172" s="37" t="n"/>
+    </row>
+    <row r="173" ht="25" customHeight="1">
+      <c r="A173" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B173" s="38" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C173" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D173" s="38" t="n">
+        <v>67</v>
+      </c>
+      <c r="E173" s="39" t="n">
+        <v>34.01015228426396</v>
+      </c>
+      <c r="F173" s="37" t="n"/>
+    </row>
+    <row r="174" ht="25" customHeight="1">
+      <c r="A174" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B174" s="38" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="C174" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" s="38" t="n">
+        <v>12</v>
+      </c>
+      <c r="E174" s="39" t="n">
+        <v>25</v>
+      </c>
+      <c r="F174" s="37" t="n"/>
+    </row>
+    <row r="175" ht="25" customHeight="1">
+      <c r="A175" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B175" s="38" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="C175" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" s="38" t="n">
+        <v>19</v>
+      </c>
+      <c r="E175" s="39" t="n">
+        <v>39.58333333333333</v>
+      </c>
+      <c r="F175" s="37" t="n"/>
+    </row>
+    <row r="176" ht="25" customHeight="1">
+      <c r="A176" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B176" s="38" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="C176" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D176" s="38" t="n">
+        <v>17</v>
+      </c>
+      <c r="E176" s="39" t="n">
+        <v>35.41666666666667</v>
+      </c>
+      <c r="F176" s="37" t="n"/>
+    </row>
+    <row r="177" ht="25" customHeight="1">
+      <c r="A177" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B177" s="38" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="C177" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" s="38" t="n">
+        <v>42</v>
+      </c>
+      <c r="E177" s="39" t="n">
+        <v>36.84210526315789</v>
+      </c>
+      <c r="F177" s="37" t="n"/>
+    </row>
+    <row r="178" ht="25" customHeight="1">
+      <c r="A178" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B178" s="38" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="C178" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" s="38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E178" s="39" t="n">
+        <v>32.45614035087719</v>
+      </c>
+      <c r="F178" s="37" t="n"/>
+    </row>
+    <row r="179" ht="25" customHeight="1">
+      <c r="A179" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B179" s="38" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="C179" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D179" s="38" t="n">
+        <v>35</v>
+      </c>
+      <c r="E179" s="39" t="n">
+        <v>30.70175438596491</v>
+      </c>
+      <c r="F179" s="37" t="n"/>
+    </row>
+    <row r="180" ht="25" customHeight="1">
+      <c r="A180" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B180" s="38" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="C180" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" s="38" t="n">
+        <v>13</v>
+      </c>
+      <c r="E180" s="39" t="n">
+        <v>31.70731707317073</v>
+      </c>
+      <c r="F180" s="37" t="n"/>
+    </row>
+    <row r="181" ht="25" customHeight="1">
+      <c r="A181" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B181" s="38" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="C181" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" s="38" t="n">
+        <v>13</v>
+      </c>
+      <c r="E181" s="39" t="n">
+        <v>31.70731707317073</v>
+      </c>
+      <c r="F181" s="37" t="n"/>
+    </row>
+    <row r="182" ht="25" customHeight="1">
+      <c r="A182" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B182" s="38" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="C182" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D182" s="38" t="n">
+        <v>15</v>
+      </c>
+      <c r="E182" s="39" t="n">
+        <v>36.58536585365854</v>
+      </c>
+      <c r="F182" s="37" t="n"/>
+    </row>
+    <row r="183" ht="25" customHeight="1">
+      <c r="A183" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B183" s="38" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="C183" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" s="38" t="n">
+        <v>54</v>
+      </c>
+      <c r="E183" s="39" t="n">
+        <v>32.92682926829269</v>
+      </c>
+      <c r="F183" s="37" t="n"/>
+    </row>
+    <row r="184" ht="25" customHeight="1">
+      <c r="A184" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B184" s="38" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="C184" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" s="38" t="n">
+        <v>56</v>
+      </c>
+      <c r="E184" s="39" t="n">
+        <v>34.14634146341464</v>
+      </c>
+      <c r="F184" s="37" t="n"/>
+    </row>
+    <row r="185" ht="25" customHeight="1">
+      <c r="A185" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B185" s="38" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="C185" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D185" s="38" t="n">
+        <v>54</v>
+      </c>
+      <c r="E185" s="39" t="n">
+        <v>32.92682926829269</v>
+      </c>
+      <c r="F185" s="37" t="n"/>
+    </row>
+    <row r="186" ht="25" customHeight="1">
+      <c r="A186" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B186" s="38" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C186" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E186" s="39" t="n">
+        <v>25</v>
+      </c>
+      <c r="F186" s="37" t="n"/>
+    </row>
+    <row r="187" ht="25" customHeight="1">
+      <c r="A187" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B187" s="38" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C187" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E187" s="39" t="n">
+        <v>50</v>
+      </c>
+      <c r="F187" s="37" t="n"/>
+    </row>
+    <row r="188" ht="25" customHeight="1">
+      <c r="A188" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B188" s="38" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C188" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D188" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" s="39" t="n">
+        <v>25</v>
+      </c>
+      <c r="F188" s="37" t="n"/>
+    </row>
+    <row r="189" ht="25" customHeight="1">
+      <c r="A189" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B189" s="38" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C189" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E189" s="39" t="n">
+        <v>38.46153846153847</v>
+      </c>
+      <c r="F189" s="37" t="n"/>
+    </row>
+    <row r="190" ht="25" customHeight="1">
+      <c r="A190" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B190" s="38" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C190" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" s="38" t="n">
+        <v>9</v>
+      </c>
+      <c r="E190" s="39" t="n">
+        <v>34.61538461538461</v>
+      </c>
+      <c r="F190" s="37" t="n"/>
+    </row>
+    <row r="191" ht="25" customHeight="1">
+      <c r="A191" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B191" s="38" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C191" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D191" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="E191" s="39" t="n">
+        <v>26.92307692307692</v>
+      </c>
+      <c r="F191" s="37" t="n"/>
+    </row>
+    <row r="192" ht="25" customHeight="1">
+      <c r="A192" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B192" s="38" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C192" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E192" s="39" t="n">
+        <v>40</v>
+      </c>
+      <c r="F192" s="37" t="n"/>
+    </row>
+    <row r="193" ht="25" customHeight="1">
+      <c r="A193" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B193" s="38" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C193" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F193" s="37" t="n"/>
+    </row>
+    <row r="194" ht="25" customHeight="1">
+      <c r="A194" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B194" s="38" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C194" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D194" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E194" s="39" t="n">
+        <v>50</v>
+      </c>
+      <c r="F194" s="37" t="n"/>
+    </row>
+    <row r="195" ht="25" customHeight="1">
+      <c r="A195" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B195" s="38" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="C195" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" s="38" t="n">
+        <v>82</v>
+      </c>
+      <c r="E195" s="39" t="n">
+        <v>34.8936170212766</v>
+      </c>
+      <c r="F195" s="37" t="n"/>
+    </row>
+    <row r="196" ht="25" customHeight="1">
+      <c r="A196" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B196" s="38" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="C196" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" s="38" t="n">
+        <v>80</v>
+      </c>
+      <c r="E196" s="39" t="n">
+        <v>34.04255319148936</v>
+      </c>
+      <c r="F196" s="37" t="n"/>
+    </row>
+    <row r="197" ht="25" customHeight="1">
+      <c r="A197" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B197" s="38" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="C197" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D197" s="38" t="n">
+        <v>73</v>
+      </c>
+      <c r="E197" s="39" t="n">
+        <v>31.06382978723404</v>
+      </c>
+      <c r="F197" s="37" t="n"/>
+    </row>
+    <row r="198" ht="25" customHeight="1">
+      <c r="A198" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B198" s="38" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="C198" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="39" t="n">
+        <v>100</v>
+      </c>
+      <c r="F198" s="37" t="n"/>
+    </row>
+    <row r="199" ht="25" customHeight="1">
+      <c r="A199" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B199" s="38" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="C199" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" s="38" t="n">
+        <v>18</v>
+      </c>
+      <c r="E199" s="39" t="n">
+        <v>29.03225806451613</v>
+      </c>
+      <c r="F199" s="37" t="n"/>
+    </row>
+    <row r="200" ht="25" customHeight="1">
+      <c r="A200" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B200" s="38" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="C200" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" s="38" t="n">
+        <v>22</v>
+      </c>
+      <c r="E200" s="39" t="n">
+        <v>35.48387096774194</v>
+      </c>
+      <c r="F200" s="37" t="n"/>
+    </row>
+    <row r="201" ht="25" customHeight="1">
+      <c r="A201" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B201" s="38" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="C201" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D201" s="38" t="n">
+        <v>22</v>
+      </c>
+      <c r="E201" s="39" t="n">
+        <v>35.48387096774194</v>
+      </c>
+      <c r="F201" s="37" t="n"/>
+    </row>
+    <row r="202" ht="25" customHeight="1">
+      <c r="A202" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B202" s="38" t="inlineStr">
+        <is>
+          <t>NH</t>
+        </is>
+      </c>
+      <c r="C202" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E202" s="39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F202" s="37" t="n"/>
+    </row>
+    <row r="203" ht="25" customHeight="1">
+      <c r="A203" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B203" s="38" t="inlineStr">
+        <is>
+          <t>NH</t>
+        </is>
+      </c>
+      <c r="C203" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="E203" s="39" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="F203" s="37" t="n"/>
+    </row>
+    <row r="204" ht="25" customHeight="1">
+      <c r="A204" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B204" s="38" t="inlineStr">
+        <is>
+          <t>NH</t>
+        </is>
+      </c>
+      <c r="C204" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D204" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="E204" s="39" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="F204" s="37" t="n"/>
+    </row>
+    <row r="205" ht="25" customHeight="1">
+      <c r="A205" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B205" s="38" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="C205" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" s="38" t="n">
+        <v>240</v>
+      </c>
+      <c r="E205" s="39" t="n">
+        <v>33.2409972299169</v>
+      </c>
+      <c r="F205" s="37" t="n"/>
+    </row>
+    <row r="206" ht="25" customHeight="1">
+      <c r="A206" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B206" s="38" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="C206" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" s="38" t="n">
+        <v>219</v>
+      </c>
+      <c r="E206" s="39" t="n">
+        <v>30.33240997229917</v>
+      </c>
+      <c r="F206" s="37" t="n"/>
+    </row>
+    <row r="207" ht="25" customHeight="1">
+      <c r="A207" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B207" s="38" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="C207" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D207" s="38" t="n">
+        <v>263</v>
+      </c>
+      <c r="E207" s="39" t="n">
+        <v>36.42659279778393</v>
+      </c>
+      <c r="F207" s="37" t="n"/>
+    </row>
+    <row r="208" ht="25" customHeight="1">
+      <c r="A208" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B208" s="38" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="C208" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E208" s="39" t="n">
+        <v>36.36363636363637</v>
+      </c>
+      <c r="F208" s="37" t="n"/>
+    </row>
+    <row r="209" ht="25" customHeight="1">
+      <c r="A209" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B209" s="38" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="C209" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D209" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E209" s="39" t="n">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="F209" s="37" t="n"/>
+    </row>
+    <row r="210" ht="25" customHeight="1">
+      <c r="A210" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B210" s="38" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="C210" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D210" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E210" s="39" t="n">
+        <v>36.36363636363637</v>
+      </c>
+      <c r="F210" s="37" t="n"/>
+    </row>
+    <row r="211" ht="25" customHeight="1">
+      <c r="A211" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B211" s="38" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="C211" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" s="38" t="n">
+        <v>23</v>
+      </c>
+      <c r="E211" s="39" t="n">
+        <v>29.87012987012987</v>
+      </c>
+      <c r="F211" s="37" t="n"/>
+    </row>
+    <row r="212" ht="25" customHeight="1">
+      <c r="A212" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B212" s="38" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="C212" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D212" s="38" t="n">
+        <v>18</v>
+      </c>
+      <c r="E212" s="39" t="n">
+        <v>23.37662337662337</v>
+      </c>
+      <c r="F212" s="37" t="n"/>
+    </row>
+    <row r="213" ht="25" customHeight="1">
+      <c r="A213" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B213" s="38" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="C213" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D213" s="38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E213" s="39" t="n">
+        <v>46.75324675324675</v>
+      </c>
+      <c r="F213" s="37" t="n"/>
+    </row>
+    <row r="214" ht="25" customHeight="1">
+      <c r="A214" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B214" s="38" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="C214" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" s="38" t="n">
+        <v>215</v>
+      </c>
+      <c r="E214" s="39" t="n">
+        <v>31.52492668621701</v>
+      </c>
+      <c r="F214" s="37" t="n"/>
+    </row>
+    <row r="215" ht="25" customHeight="1">
+      <c r="A215" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B215" s="38" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="C215" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D215" s="38" t="n">
+        <v>227</v>
+      </c>
+      <c r="E215" s="39" t="n">
+        <v>33.28445747800586</v>
+      </c>
+      <c r="F215" s="37" t="n"/>
+    </row>
+    <row r="216" ht="25" customHeight="1">
+      <c r="A216" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B216" s="38" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="C216" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D216" s="38" t="n">
+        <v>240</v>
+      </c>
+      <c r="E216" s="39" t="n">
+        <v>35.19061583577713</v>
+      </c>
+      <c r="F216" s="37" t="n"/>
+    </row>
+    <row r="217" ht="25" customHeight="1">
+      <c r="A217" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B217" s="38" t="inlineStr">
+        <is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="C217" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" s="38" t="n">
+        <v>407</v>
+      </c>
+      <c r="E217" s="39" t="n">
+        <v>35.23809523809524</v>
+      </c>
+      <c r="F217" s="37" t="n"/>
+    </row>
+    <row r="218" ht="25" customHeight="1">
+      <c r="A218" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B218" s="38" t="inlineStr">
+        <is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="C218" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D218" s="38" t="n">
+        <v>368</v>
+      </c>
+      <c r="E218" s="39" t="n">
+        <v>31.86147186147186</v>
+      </c>
+      <c r="F218" s="37" t="n"/>
+    </row>
+    <row r="219" ht="25" customHeight="1">
+      <c r="A219" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B219" s="38" t="inlineStr">
+        <is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="C219" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D219" s="38" t="n">
+        <v>380</v>
+      </c>
+      <c r="E219" s="39" t="n">
+        <v>32.9004329004329</v>
+      </c>
+      <c r="F219" s="37" t="n"/>
+    </row>
+    <row r="220" ht="25" customHeight="1">
+      <c r="A220" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B220" s="38" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="C220" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" s="38" t="n">
+        <v>21</v>
+      </c>
+      <c r="E220" s="39" t="n">
+        <v>34.42622950819672</v>
+      </c>
+      <c r="F220" s="37" t="n"/>
+    </row>
+    <row r="221" ht="25" customHeight="1">
+      <c r="A221" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B221" s="38" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="C221" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" s="38" t="n">
+        <v>27</v>
+      </c>
+      <c r="E221" s="39" t="n">
+        <v>44.26229508196721</v>
+      </c>
+      <c r="F221" s="37" t="n"/>
+    </row>
+    <row r="222" ht="25" customHeight="1">
+      <c r="A222" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B222" s="38" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="C222" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D222" s="38" t="n">
+        <v>13</v>
+      </c>
+      <c r="E222" s="39" t="n">
+        <v>21.31147540983606</v>
+      </c>
+      <c r="F222" s="37" t="n"/>
+    </row>
+    <row r="223" ht="25" customHeight="1">
+      <c r="A223" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B223" s="38" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="C223" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" s="38" t="n">
+        <v>19</v>
+      </c>
+      <c r="E223" s="39" t="n">
+        <v>32.20338983050847</v>
+      </c>
+      <c r="F223" s="37" t="n"/>
+    </row>
+    <row r="224" ht="25" customHeight="1">
+      <c r="A224" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B224" s="38" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="C224" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" s="38" t="n">
+        <v>20</v>
+      </c>
+      <c r="E224" s="39" t="n">
+        <v>33.89830508474576</v>
+      </c>
+      <c r="F224" s="37" t="n"/>
+    </row>
+    <row r="225" ht="25" customHeight="1">
+      <c r="A225" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B225" s="38" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="C225" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D225" s="38" t="n">
+        <v>20</v>
+      </c>
+      <c r="E225" s="39" t="n">
+        <v>33.89830508474576</v>
+      </c>
+      <c r="F225" s="37" t="n"/>
+    </row>
+    <row r="226" ht="25" customHeight="1">
+      <c r="A226" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B226" s="38" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="C226" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D226" s="38" t="n">
+        <v>227</v>
+      </c>
+      <c r="E226" s="39" t="n">
+        <v>30.3475935828877</v>
+      </c>
+      <c r="F226" s="37" t="n"/>
+    </row>
+    <row r="227" ht="25" customHeight="1">
+      <c r="A227" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B227" s="38" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="C227" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" s="38" t="n">
+        <v>258</v>
+      </c>
+      <c r="E227" s="39" t="n">
+        <v>34.49197860962567</v>
+      </c>
+      <c r="F227" s="37" t="n"/>
+    </row>
+    <row r="228" ht="25" customHeight="1">
+      <c r="A228" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B228" s="38" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="C228" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D228" s="38" t="n">
+        <v>263</v>
+      </c>
+      <c r="E228" s="39" t="n">
+        <v>35.16042780748663</v>
+      </c>
+      <c r="F228" s="37" t="n"/>
+    </row>
+    <row r="229" ht="25" customHeight="1">
+      <c r="A229" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B229" s="38" t="inlineStr">
+        <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="C229" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E229" s="39" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="F229" s="37" t="n"/>
+    </row>
+    <row r="230" ht="25" customHeight="1">
+      <c r="A230" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B230" s="38" t="inlineStr">
+        <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="C230" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E230" s="39" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="F230" s="37" t="n"/>
+    </row>
+    <row r="231" ht="25" customHeight="1">
+      <c r="A231" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B231" s="38" t="inlineStr">
+        <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="C231" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D231" s="38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E231" s="39" t="n">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="F231" s="37" t="n"/>
+    </row>
+    <row r="232" ht="25" customHeight="1">
+      <c r="A232" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B232" s="38" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="C232" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" s="38" t="n">
+        <v>23</v>
+      </c>
+      <c r="E232" s="39" t="n">
+        <v>34.32835820895522</v>
+      </c>
+      <c r="F232" s="37" t="n"/>
+    </row>
+    <row r="233" ht="25" customHeight="1">
+      <c r="A233" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B233" s="38" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="C233" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" s="38" t="n">
+        <v>17</v>
+      </c>
+      <c r="E233" s="39" t="n">
+        <v>25.37313432835821</v>
+      </c>
+      <c r="F233" s="37" t="n"/>
+    </row>
+    <row r="234" ht="25" customHeight="1">
+      <c r="A234" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B234" s="38" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="C234" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D234" s="38" t="n">
+        <v>27</v>
+      </c>
+      <c r="E234" s="39" t="n">
+        <v>40.29850746268657</v>
+      </c>
+      <c r="F234" s="37" t="n"/>
+    </row>
+    <row r="235" ht="25" customHeight="1">
+      <c r="A235" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B235" s="38" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="C235" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E235" s="39" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="F235" s="37" t="n"/>
+    </row>
+    <row r="236" ht="25" customHeight="1">
+      <c r="A236" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B236" s="38" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="C236" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E236" s="39" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="F236" s="37" t="n"/>
+    </row>
+    <row r="237" ht="25" customHeight="1">
+      <c r="A237" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B237" s="38" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C237" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" s="38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E237" s="39" t="n">
+        <v>33.9622641509434</v>
+      </c>
+      <c r="F237" s="37" t="n"/>
+    </row>
+    <row r="238" ht="25" customHeight="1">
+      <c r="A238" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B238" s="38" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C238" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" s="38" t="n">
+        <v>41</v>
+      </c>
+      <c r="E238" s="39" t="n">
+        <v>38.67924528301887</v>
+      </c>
+      <c r="F238" s="37" t="n"/>
+    </row>
+    <row r="239" ht="25" customHeight="1">
+      <c r="A239" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B239" s="38" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C239" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D239" s="38" t="n">
+        <v>29</v>
+      </c>
+      <c r="E239" s="39" t="n">
+        <v>27.35849056603773</v>
+      </c>
+      <c r="F239" s="37" t="n"/>
+    </row>
+    <row r="240" ht="25" customHeight="1">
+      <c r="A240" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B240" s="38" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="C240" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" s="38" t="n">
+        <v>304</v>
+      </c>
+      <c r="E240" s="39" t="n">
+        <v>35.51401869158878</v>
+      </c>
+      <c r="F240" s="37" t="n"/>
+    </row>
+    <row r="241" ht="25" customHeight="1">
+      <c r="A241" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B241" s="38" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="C241" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D241" s="38" t="n">
+        <v>299</v>
+      </c>
+      <c r="E241" s="39" t="n">
+        <v>34.92990654205607</v>
+      </c>
+      <c r="F241" s="37" t="n"/>
+    </row>
+    <row r="242" ht="25" customHeight="1">
+      <c r="A242" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B242" s="38" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="C242" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D242" s="38" t="n">
+        <v>253</v>
+      </c>
+      <c r="E242" s="39" t="n">
+        <v>29.55607476635514</v>
+      </c>
+      <c r="F242" s="37" t="n"/>
+    </row>
+    <row r="243" ht="25" customHeight="1">
+      <c r="A243" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B243" s="38" t="inlineStr">
+        <is>
+          <t>UT</t>
+        </is>
+      </c>
+      <c r="C243" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" s="38" t="n">
+        <v>30</v>
+      </c>
+      <c r="E243" s="39" t="n">
+        <v>39.47368421052632</v>
+      </c>
+      <c r="F243" s="37" t="n"/>
+    </row>
+    <row r="244" ht="25" customHeight="1">
+      <c r="A244" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B244" s="38" t="inlineStr">
+        <is>
+          <t>UT</t>
+        </is>
+      </c>
+      <c r="C244" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" s="38" t="n">
+        <v>28</v>
+      </c>
+      <c r="E244" s="39" t="n">
+        <v>36.84210526315789</v>
+      </c>
+      <c r="F244" s="37" t="n"/>
+    </row>
+    <row r="245" ht="25" customHeight="1">
+      <c r="A245" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B245" s="38" t="inlineStr">
+        <is>
+          <t>UT</t>
+        </is>
+      </c>
+      <c r="C245" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D245" s="38" t="n">
+        <v>18</v>
+      </c>
+      <c r="E245" s="39" t="n">
+        <v>23.68421052631579</v>
+      </c>
+      <c r="F245" s="37" t="n"/>
+    </row>
+    <row r="246" ht="25" customHeight="1">
+      <c r="A246" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B246" s="38" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="C246" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D246" s="38" t="n">
+        <v>119</v>
+      </c>
+      <c r="E246" s="39" t="n">
+        <v>35.52238805970149</v>
+      </c>
+      <c r="F246" s="37" t="n"/>
+    </row>
+    <row r="247" ht="25" customHeight="1">
+      <c r="A247" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B247" s="38" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="C247" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" s="38" t="n">
+        <v>98</v>
+      </c>
+      <c r="E247" s="39" t="n">
+        <v>29.25373134328358</v>
+      </c>
+      <c r="F247" s="37" t="n"/>
+    </row>
+    <row r="248" ht="25" customHeight="1">
+      <c r="A248" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B248" s="38" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="C248" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D248" s="38" t="n">
+        <v>118</v>
+      </c>
+      <c r="E248" s="39" t="n">
+        <v>35.22388059701493</v>
+      </c>
+      <c r="F248" s="37" t="n"/>
+    </row>
+    <row r="249" ht="25" customHeight="1">
+      <c r="A249" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B249" s="38" t="inlineStr">
+        <is>
+          <t>VT</t>
+        </is>
+      </c>
+      <c r="C249" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E249" s="39" t="n">
+        <v>100</v>
+      </c>
+      <c r="F249" s="37" t="n"/>
+    </row>
+    <row r="250" ht="25" customHeight="1">
+      <c r="A250" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B250" s="38" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="C250" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" s="38" t="n">
+        <v>62</v>
+      </c>
+      <c r="E250" s="39" t="n">
+        <v>29.52380952380953</v>
+      </c>
+      <c r="F250" s="37" t="n"/>
+    </row>
+    <row r="251" ht="25" customHeight="1">
+      <c r="A251" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B251" s="38" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="C251" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" s="38" t="n">
+        <v>73</v>
+      </c>
+      <c r="E251" s="39" t="n">
+        <v>34.76190476190476</v>
+      </c>
+      <c r="F251" s="37" t="n"/>
+    </row>
+    <row r="252" ht="25" customHeight="1">
+      <c r="A252" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B252" s="38" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="C252" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D252" s="38" t="n">
+        <v>75</v>
+      </c>
+      <c r="E252" s="39" t="n">
+        <v>35.71428571428572</v>
+      </c>
+      <c r="F252" s="37" t="n"/>
+    </row>
+    <row r="253" ht="25" customHeight="1">
+      <c r="A253" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B253" s="38" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="C253" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" s="38" t="n">
+        <v>15</v>
+      </c>
+      <c r="E253" s="39" t="n">
+        <v>25.86206896551724</v>
+      </c>
+      <c r="F253" s="37" t="n"/>
+    </row>
+    <row r="254" ht="25" customHeight="1">
+      <c r="A254" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B254" s="38" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="C254" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D254" s="38" t="n">
+        <v>28</v>
+      </c>
+      <c r="E254" s="39" t="n">
+        <v>48.27586206896552</v>
+      </c>
+      <c r="F254" s="37" t="n"/>
+    </row>
+    <row r="255" ht="25" customHeight="1">
+      <c r="A255" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B255" s="38" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="C255" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D255" s="38" t="n">
+        <v>15</v>
+      </c>
+      <c r="E255" s="39" t="n">
+        <v>25.86206896551724</v>
+      </c>
+      <c r="F255" s="37" t="n"/>
+    </row>
+    <row r="256" ht="25" customHeight="1">
+      <c r="A256" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B256" s="38" t="inlineStr">
+        <is>
+          <t>WV</t>
+        </is>
+      </c>
+      <c r="C256" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" s="38" t="n">
+        <v>13</v>
+      </c>
+      <c r="E256" s="39" t="n">
+        <v>28.26086956521739</v>
+      </c>
+      <c r="F256" s="37" t="n"/>
+    </row>
+    <row r="257" ht="25" customHeight="1">
+      <c r="A257" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B257" s="38" t="inlineStr">
+        <is>
+          <t>WV</t>
+        </is>
+      </c>
+      <c r="C257" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D257" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E257" s="39" t="n">
+        <v>21.73913043478261</v>
+      </c>
+      <c r="F257" s="37" t="n"/>
+    </row>
+    <row r="258" ht="25" customHeight="1">
+      <c r="A258" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B258" s="38" t="inlineStr">
+        <is>
+          <t>WV</t>
+        </is>
+      </c>
+      <c r="C258" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D258" s="38" t="n">
+        <v>23</v>
+      </c>
+      <c r="E258" s="39" t="n">
+        <v>50</v>
+      </c>
+      <c r="F258" s="37" t="n"/>
+    </row>
+    <row r="259" ht="25" customHeight="1">
+      <c r="A259" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B259" s="38" t="inlineStr">
+        <is>
+          <t>WY</t>
+        </is>
+      </c>
+      <c r="C259" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="E259" s="39" t="n">
+        <v>75</v>
+      </c>
+      <c r="F259" s="37" t="n"/>
+    </row>
+    <row r="260" ht="25" customHeight="1">
+      <c r="A260" s="38" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B260" s="38" t="inlineStr">
+        <is>
+          <t>WY</t>
+        </is>
+      </c>
+      <c r="C260" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D260" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E260" s="39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F260" s="37" t="n"/>
+    </row>
+    <row r="261" ht="25" customHeight="1">
+      <c r="A261" s="40" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B261" s="40" t="inlineStr">
+        <is>
+          <t>WY</t>
+        </is>
+      </c>
+      <c r="C261" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D261" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" s="40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F261" s="37" t="n"/>
+    </row>
+    <row r="262" ht="25" customHeight="1">
+      <c r="A262" s="38" t="inlineStr">
+        <is>
+          <t>high_pulse</t>
+        </is>
+      </c>
+      <c r="B262" s="38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C262" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" s="38" t="n">
+        <v>2377</v>
+      </c>
+      <c r="E262" s="39" t="n">
+        <v>33.24010627884212</v>
+      </c>
+      <c r="F262" s="37" t="n"/>
+    </row>
+    <row r="263" ht="25" customHeight="1">
+      <c r="A263" s="38" t="inlineStr">
+        <is>
+          <t>high_pulse</t>
+        </is>
+      </c>
+      <c r="B263" s="38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C263" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" s="38" t="n">
+        <v>2411</v>
+      </c>
+      <c r="E263" s="39" t="n">
+        <v>33.71556425674731</v>
+      </c>
+      <c r="F263" s="37" t="n"/>
+    </row>
+    <row r="264" ht="25" customHeight="1">
+      <c r="A264" s="38" t="inlineStr">
+        <is>
+          <t>high_pulse</t>
+        </is>
+      </c>
+      <c r="B264" s="38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C264" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D264" s="38" t="n">
+        <v>2363</v>
+      </c>
+      <c r="E264" s="39" t="n">
+        <v>33.04432946441057</v>
+      </c>
+      <c r="F264" s="37" t="n"/>
+    </row>
+    <row r="265" ht="25" customHeight="1">
+      <c r="A265" s="38" t="inlineStr">
+        <is>
+          <t>high_pulse</t>
+        </is>
+      </c>
+      <c r="B265" s="38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C265" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D265" s="38" t="n">
+        <v>385</v>
+      </c>
+      <c r="E265" s="39" t="n">
+        <v>33.65384615384615</v>
+      </c>
+      <c r="F265" s="37" t="n"/>
+    </row>
+    <row r="266" ht="25" customHeight="1">
+      <c r="A266" s="38" t="inlineStr">
+        <is>
+          <t>high_pulse</t>
+        </is>
+      </c>
+      <c r="B266" s="38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C266" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" s="38" t="n">
+        <v>370</v>
+      </c>
+      <c r="E266" s="39" t="n">
+        <v>32.34265734265735</v>
+      </c>
+      <c r="F266" s="37" t="n"/>
+    </row>
+    <row r="267" ht="25" customHeight="1">
+      <c r="A267" s="40" t="inlineStr">
+        <is>
+          <t>high_pulse</t>
+        </is>
+      </c>
+      <c r="B267" s="40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C267" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D267" s="40" t="n">
+        <v>389</v>
+      </c>
+      <c r="E267" s="40" t="n">
+        <v>34.00349650349651</v>
+      </c>
+      <c r="F267" s="37" t="n"/>
+    </row>
+    <row r="268" ht="25" customHeight="1">
+      <c r="A268" s="38" t="inlineStr">
+        <is>
+          <t>complex_chronic_common_flag</t>
+        </is>
+      </c>
+      <c r="B268" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C268" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" s="38" t="n">
+        <v>587</v>
+      </c>
+      <c r="E268" s="39" t="n">
+        <v>34.69267139479905</v>
+      </c>
+      <c r="F268" s="37" t="n"/>
+    </row>
+    <row r="269" ht="25" customHeight="1">
+      <c r="A269" s="38" t="inlineStr">
+        <is>
+          <t>complex_chronic_common_flag</t>
+        </is>
+      </c>
+      <c r="B269" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C269" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D269" s="38" t="n">
+        <v>529</v>
+      </c>
+      <c r="E269" s="39" t="n">
+        <v>31.26477541371158</v>
+      </c>
+      <c r="F269" s="37" t="n"/>
+    </row>
+    <row r="270" ht="25" customHeight="1">
+      <c r="A270" s="38" t="inlineStr">
+        <is>
+          <t>complex_chronic_common_flag</t>
+        </is>
+      </c>
+      <c r="B270" s="38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C270" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D270" s="38" t="n">
+        <v>576</v>
+      </c>
+      <c r="E270" s="39" t="n">
+        <v>34.04255319148936</v>
+      </c>
+      <c r="F270" s="37" t="n"/>
+    </row>
+    <row r="271" ht="25" customHeight="1">
+      <c r="A271" s="38" t="inlineStr">
+        <is>
+          <t>complex_chronic_common_flag</t>
+        </is>
+      </c>
+      <c r="B271" s="38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C271" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D271" s="38" t="n">
+        <v>705</v>
+      </c>
+      <c r="E271" s="39" t="n">
+        <v>31.94381513366561</v>
+      </c>
+      <c r="F271" s="37" t="n"/>
+    </row>
+    <row r="272" ht="25" customHeight="1">
+      <c r="A272" s="38" t="inlineStr">
+        <is>
+          <t>complex_chronic_common_flag</t>
+        </is>
+      </c>
+      <c r="B272" s="38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C272" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" s="38" t="n">
+        <v>745</v>
+      </c>
+      <c r="E272" s="39" t="n">
+        <v>33.75623017671047</v>
+      </c>
+      <c r="F272" s="37" t="n"/>
+    </row>
+    <row r="273" ht="25" customHeight="1">
+      <c r="A273" s="38" t="inlineStr">
+        <is>
+          <t>complex_chronic_common_flag</t>
+        </is>
+      </c>
+      <c r="B273" s="38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C273" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D273" s="38" t="n">
+        <v>757</v>
+      </c>
+      <c r="E273" s="39" t="n">
+        <v>34.29995468962392</v>
+      </c>
+      <c r="F273" s="37" t="n"/>
+    </row>
+    <row r="274" ht="25" customHeight="1">
+      <c r="A274" s="38" t="inlineStr">
+        <is>
+          <t>complex_chronic_common_flag</t>
+        </is>
+      </c>
+      <c r="B274" s="38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C274" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D274" s="38" t="n">
+        <v>1470</v>
+      </c>
+      <c r="E274" s="39" t="n">
+        <v>33.43949044585987</v>
+      </c>
+      <c r="F274" s="37" t="n"/>
+    </row>
+    <row r="275" ht="25" customHeight="1">
+      <c r="A275" s="38" t="inlineStr">
+        <is>
+          <t>complex_chronic_common_flag</t>
+        </is>
+      </c>
+      <c r="B275" s="38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C275" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D275" s="38" t="n">
+        <v>1507</v>
+      </c>
+      <c r="E275" s="39" t="n">
+        <v>34.28116469517744</v>
+      </c>
+      <c r="F275" s="37" t="n"/>
+    </row>
+    <row r="276" ht="25" customHeight="1">
+      <c r="A276" s="40" t="inlineStr">
+        <is>
+          <t>complex_chronic_common_flag</t>
+        </is>
+      </c>
+      <c r="B276" s="40" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C276" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D276" s="40" t="n">
+        <v>1419</v>
+      </c>
+      <c r="E276" s="40" t="n">
+        <v>32.27934485896269</v>
+      </c>
+      <c r="F276" s="37" t="n"/>
+    </row>
+    <row r="277" ht="25" customHeight="1">
+      <c r="A277" s="38" t="inlineStr">
+        <is>
+          <t>alg</t>
+        </is>
+      </c>
+      <c r="B277" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C277" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D277" s="38" t="n">
+        <v>2595</v>
+      </c>
+      <c r="E277" s="39" t="n">
+        <v>33.26496602999616</v>
+      </c>
+      <c r="F277" s="37" t="n"/>
+    </row>
+    <row r="278" ht="25" customHeight="1">
+      <c r="A278" s="38" t="inlineStr">
+        <is>
+          <t>alg</t>
+        </is>
+      </c>
+      <c r="B278" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C278" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" s="38" t="n">
+        <v>2619</v>
+      </c>
+      <c r="E278" s="39" t="n">
+        <v>33.57261889501346</v>
+      </c>
+      <c r="F278" s="37" t="n"/>
+    </row>
+    <row r="279" ht="25" customHeight="1">
+      <c r="A279" s="38" t="inlineStr">
+        <is>
+          <t>alg</t>
+        </is>
+      </c>
+      <c r="B279" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C279" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D279" s="38" t="n">
+        <v>2587</v>
+      </c>
+      <c r="E279" s="39" t="n">
+        <v>33.16241507499038</v>
+      </c>
+      <c r="F279" s="37" t="n"/>
+    </row>
+    <row r="280" ht="25" customHeight="1">
+      <c r="A280" s="38" t="inlineStr">
+        <is>
+          <t>alg</t>
+        </is>
+      </c>
+      <c r="B280" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C280" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" s="38" t="n">
+        <v>167</v>
+      </c>
+      <c r="E280" s="39" t="n">
+        <v>33.80566801619433</v>
+      </c>
+      <c r="F280" s="37" t="n"/>
+    </row>
+    <row r="281" ht="25" customHeight="1">
+      <c r="A281" s="38" t="inlineStr">
+        <is>
+          <t>alg</t>
+        </is>
+      </c>
+      <c r="B281" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C281" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" s="38" t="n">
+        <v>162</v>
+      </c>
+      <c r="E281" s="39" t="n">
+        <v>32.79352226720648</v>
+      </c>
+      <c r="F281" s="37" t="n"/>
+    </row>
+    <row r="282" ht="25" customHeight="1">
+      <c r="A282" s="40" t="inlineStr">
+        <is>
+          <t>alg</t>
+        </is>
+      </c>
+      <c r="B282" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C282" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D282" s="40" t="n">
+        <v>165</v>
+      </c>
+      <c r="E282" s="40" t="n">
+        <v>33.40080971659919</v>
+      </c>
+      <c r="F282" s="37" t="n"/>
+    </row>
+    <row r="283" ht="25" customHeight="1">
+      <c r="A283" s="38" t="inlineStr">
+        <is>
+          <t>hyp</t>
+        </is>
+      </c>
+      <c r="B283" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C283" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D283" s="38" t="n">
+        <v>2054</v>
+      </c>
+      <c r="E283" s="39" t="n">
+        <v>33.18791404104056</v>
+      </c>
+      <c r="F283" s="37" t="n"/>
+    </row>
+    <row r="284" ht="25" customHeight="1">
+      <c r="A284" s="38" t="inlineStr">
+        <is>
+          <t>hyp</t>
+        </is>
+      </c>
+      <c r="B284" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C284" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" s="38" t="n">
+        <v>2093</v>
+      </c>
+      <c r="E284" s="39" t="n">
+        <v>33.81806430764259</v>
+      </c>
+      <c r="F284" s="37" t="n"/>
+    </row>
+    <row r="285" ht="25" customHeight="1">
+      <c r="A285" s="38" t="inlineStr">
+        <is>
+          <t>hyp</t>
+        </is>
+      </c>
+      <c r="B285" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C285" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D285" s="38" t="n">
+        <v>2042</v>
+      </c>
+      <c r="E285" s="39" t="n">
+        <v>32.99402165131685</v>
+      </c>
+      <c r="F285" s="37" t="n"/>
+    </row>
+    <row r="286" ht="25" customHeight="1">
+      <c r="A286" s="38" t="inlineStr">
+        <is>
+          <t>hyp</t>
+        </is>
+      </c>
+      <c r="B286" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C286" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D286" s="38" t="n">
+        <v>708</v>
+      </c>
+      <c r="E286" s="39" t="n">
+        <v>33.61823361823362</v>
+      </c>
+      <c r="F286" s="37" t="n"/>
+    </row>
+    <row r="287" ht="25" customHeight="1">
+      <c r="A287" s="38" t="inlineStr">
+        <is>
+          <t>hyp</t>
+        </is>
+      </c>
+      <c r="B287" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C287" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D287" s="38" t="n">
+        <v>688</v>
+      </c>
+      <c r="E287" s="39" t="n">
+        <v>32.66856600189934</v>
+      </c>
+      <c r="F287" s="37" t="n"/>
+    </row>
+    <row r="288" ht="25" customHeight="1">
+      <c r="A288" s="40" t="inlineStr">
+        <is>
+          <t>hyp</t>
+        </is>
+      </c>
+      <c r="B288" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C288" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D288" s="40" t="n">
+        <v>710</v>
+      </c>
+      <c r="E288" s="40" t="n">
+        <v>33.71320037986705</v>
+      </c>
+      <c r="F288" s="37" t="n"/>
+    </row>
+    <row r="289" ht="25" customHeight="1">
+      <c r="A289" s="38" t="inlineStr">
+        <is>
+          <t>hyc</t>
+        </is>
+      </c>
+      <c r="B289" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C289" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D289" s="38" t="n">
+        <v>2099</v>
+      </c>
+      <c r="E289" s="39" t="n">
+        <v>33.38635279147447</v>
+      </c>
+      <c r="F289" s="37" t="n"/>
+    </row>
+    <row r="290" ht="25" customHeight="1">
+      <c r="A290" s="38" t="inlineStr">
+        <is>
+          <t>hyc</t>
+        </is>
+      </c>
+      <c r="B290" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C290" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D290" s="38" t="n">
+        <v>2118</v>
+      </c>
+      <c r="E290" s="39" t="n">
+        <v>33.68856370287895</v>
+      </c>
+      <c r="F290" s="37" t="n"/>
+    </row>
+    <row r="291" ht="25" customHeight="1">
+      <c r="A291" s="38" t="inlineStr">
+        <is>
+          <t>hyc</t>
+        </is>
+      </c>
+      <c r="B291" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C291" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D291" s="38" t="n">
+        <v>2070</v>
+      </c>
+      <c r="E291" s="39" t="n">
+        <v>32.92508350564658</v>
+      </c>
+      <c r="F291" s="37" t="n"/>
+    </row>
+    <row r="292" ht="25" customHeight="1">
+      <c r="A292" s="38" t="inlineStr">
+        <is>
+          <t>hyc</t>
+        </is>
+      </c>
+      <c r="B292" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C292" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D292" s="38" t="n">
+        <v>663</v>
+      </c>
+      <c r="E292" s="39" t="n">
+        <v>33.01792828685259</v>
+      </c>
+      <c r="F292" s="37" t="n"/>
+    </row>
+    <row r="293" ht="25" customHeight="1">
+      <c r="A293" s="38" t="inlineStr">
+        <is>
+          <t>hyc</t>
+        </is>
+      </c>
+      <c r="B293" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C293" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" s="38" t="n">
+        <v>663</v>
+      </c>
+      <c r="E293" s="39" t="n">
+        <v>33.01792828685259</v>
+      </c>
+      <c r="F293" s="37" t="n"/>
+    </row>
+    <row r="294" ht="25" customHeight="1">
+      <c r="A294" s="40" t="inlineStr">
+        <is>
+          <t>hyc</t>
+        </is>
+      </c>
+      <c r="B294" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C294" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D294" s="40" t="n">
+        <v>682</v>
+      </c>
+      <c r="E294" s="40" t="n">
+        <v>33.96414342629482</v>
+      </c>
+      <c r="F294" s="37" t="n"/>
+    </row>
+    <row r="295" ht="25" customHeight="1">
+      <c r="A295" s="38" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B295" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C295" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D295" s="38" t="n">
+        <v>2489</v>
+      </c>
+      <c r="E295" s="39" t="n">
+        <v>33.08520537019806</v>
+      </c>
+      <c r="F295" s="37" t="n"/>
+    </row>
+    <row r="296" ht="25" customHeight="1">
+      <c r="A296" s="38" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B296" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C296" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" s="38" t="n">
+        <v>2539</v>
+      </c>
+      <c r="E296" s="39" t="n">
+        <v>33.74983384288183</v>
+      </c>
+      <c r="F296" s="37" t="n"/>
+    </row>
+    <row r="297" ht="25" customHeight="1">
+      <c r="A297" s="38" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B297" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C297" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D297" s="38" t="n">
+        <v>2495</v>
+      </c>
+      <c r="E297" s="39" t="n">
+        <v>33.16496078692011</v>
+      </c>
+      <c r="F297" s="37" t="n"/>
+    </row>
+    <row r="298" ht="25" customHeight="1">
+      <c r="A298" s="38" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B298" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C298" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D298" s="38" t="n">
+        <v>273</v>
+      </c>
+      <c r="E298" s="39" t="n">
+        <v>35.36269430051814</v>
+      </c>
+      <c r="F298" s="37" t="n"/>
+    </row>
+    <row r="299" ht="25" customHeight="1">
+      <c r="A299" s="38" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B299" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C299" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" s="38" t="n">
+        <v>242</v>
+      </c>
+      <c r="E299" s="39" t="n">
+        <v>31.34715025906736</v>
+      </c>
+      <c r="F299" s="37" t="n"/>
+    </row>
+    <row r="300" ht="25" customHeight="1">
+      <c r="A300" s="40" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B300" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C300" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D300" s="40" t="n">
+        <v>257</v>
+      </c>
+      <c r="E300" s="40" t="n">
+        <v>33.29015544041451</v>
+      </c>
+      <c r="F300" s="37" t="n"/>
+    </row>
+    <row r="301" ht="25" customHeight="1">
+      <c r="A301" s="38" t="inlineStr">
+        <is>
+          <t>dep</t>
+        </is>
+      </c>
+      <c r="B301" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C301" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D301" s="38" t="n">
+        <v>2503</v>
+      </c>
+      <c r="E301" s="39" t="n">
+        <v>33.00804430963998</v>
+      </c>
+      <c r="F301" s="37" t="n"/>
+    </row>
+    <row r="302" ht="25" customHeight="1">
+      <c r="A302" s="38" t="inlineStr">
+        <is>
+          <t>dep</t>
+        </is>
+      </c>
+      <c r="B302" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C302" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" s="38" t="n">
+        <v>2551</v>
+      </c>
+      <c r="E302" s="39" t="n">
+        <v>33.64103916655677</v>
+      </c>
+      <c r="F302" s="37" t="n"/>
+    </row>
+    <row r="303" ht="25" customHeight="1">
+      <c r="A303" s="38" t="inlineStr">
+        <is>
+          <t>dep</t>
+        </is>
+      </c>
+      <c r="B303" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C303" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D303" s="38" t="n">
+        <v>2529</v>
+      </c>
+      <c r="E303" s="39" t="n">
+        <v>33.35091652380324</v>
+      </c>
+      <c r="F303" s="37" t="n"/>
+    </row>
+    <row r="304" ht="25" customHeight="1">
+      <c r="A304" s="38" t="inlineStr">
+        <is>
+          <t>dep</t>
+        </is>
+      </c>
+      <c r="B304" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C304" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D304" s="38" t="n">
+        <v>259</v>
+      </c>
+      <c r="E304" s="39" t="n">
+        <v>36.37640449438202</v>
+      </c>
+      <c r="F304" s="37" t="n"/>
+    </row>
+    <row r="305" ht="25" customHeight="1">
+      <c r="A305" s="38" t="inlineStr">
+        <is>
+          <t>dep</t>
+        </is>
+      </c>
+      <c r="B305" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C305" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D305" s="38" t="n">
+        <v>230</v>
+      </c>
+      <c r="E305" s="39" t="n">
+        <v>32.30337078651686</v>
+      </c>
+      <c r="F305" s="37" t="n"/>
+    </row>
+    <row r="306" ht="25" customHeight="1">
+      <c r="A306" s="40" t="inlineStr">
+        <is>
+          <t>dep</t>
+        </is>
+      </c>
+      <c r="B306" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C306" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D306" s="40" t="n">
+        <v>223</v>
+      </c>
+      <c r="E306" s="40" t="n">
+        <v>31.32022471910113</v>
+      </c>
+      <c r="F306" s="37" t="n"/>
+    </row>
+    <row r="307" ht="25" customHeight="1">
+      <c r="A307" s="38" t="inlineStr">
+        <is>
+          <t>anx</t>
+        </is>
+      </c>
+      <c r="B307" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C307" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D307" s="38" t="n">
+        <v>2512</v>
+      </c>
+      <c r="E307" s="39" t="n">
+        <v>33.01787592008412</v>
+      </c>
+      <c r="F307" s="37" t="n"/>
+    </row>
+    <row r="308" ht="25" customHeight="1">
+      <c r="A308" s="38" t="inlineStr">
+        <is>
+          <t>anx</t>
+        </is>
+      </c>
+      <c r="B308" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C308" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D308" s="38" t="n">
+        <v>2576</v>
+      </c>
+      <c r="E308" s="39" t="n">
+        <v>33.85909568874869</v>
+      </c>
+      <c r="F308" s="37" t="n"/>
+    </row>
+    <row r="309" ht="25" customHeight="1">
+      <c r="A309" s="38" t="inlineStr">
+        <is>
+          <t>anx</t>
+        </is>
+      </c>
+      <c r="B309" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C309" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D309" s="38" t="n">
+        <v>2520</v>
+      </c>
+      <c r="E309" s="39" t="n">
+        <v>33.12302839116719</v>
+      </c>
+      <c r="F309" s="37" t="n"/>
+    </row>
+    <row r="310" ht="25" customHeight="1">
+      <c r="A310" s="38" t="inlineStr">
+        <is>
+          <t>anx</t>
+        </is>
+      </c>
+      <c r="B310" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C310" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D310" s="38" t="n">
+        <v>250</v>
+      </c>
+      <c r="E310" s="39" t="n">
+        <v>36.3901018922853</v>
+      </c>
+      <c r="F310" s="37" t="n"/>
+    </row>
+    <row r="311" ht="25" customHeight="1">
+      <c r="A311" s="38" t="inlineStr">
+        <is>
+          <t>anx</t>
+        </is>
+      </c>
+      <c r="B311" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C311" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" s="38" t="n">
+        <v>205</v>
+      </c>
+      <c r="E311" s="39" t="n">
+        <v>29.83988355167395</v>
+      </c>
+      <c r="F311" s="37" t="n"/>
+    </row>
+    <row r="312" ht="25" customHeight="1">
+      <c r="A312" s="40" t="inlineStr">
+        <is>
+          <t>anx</t>
+        </is>
+      </c>
+      <c r="B312" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C312" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D312" s="40" t="n">
+        <v>232</v>
+      </c>
+      <c r="E312" s="40" t="n">
+        <v>33.77001455604076</v>
+      </c>
+      <c r="F312" s="37" t="n"/>
+    </row>
+    <row r="313" ht="25" customHeight="1">
+      <c r="A313" s="38" t="inlineStr">
+        <is>
+          <t>lbp</t>
+        </is>
+      </c>
+      <c r="B313" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C313" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D313" s="38" t="n">
+        <v>2510</v>
+      </c>
+      <c r="E313" s="39" t="n">
+        <v>33.01328422990925</v>
+      </c>
+      <c r="F313" s="37" t="n"/>
+    </row>
+    <row r="314" ht="25" customHeight="1">
+      <c r="A314" s="38" t="inlineStr">
+        <is>
+          <t>lbp</t>
+        </is>
+      </c>
+      <c r="B314" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C314" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" s="38" t="n">
+        <v>2546</v>
+      </c>
+      <c r="E314" s="39" t="n">
+        <v>33.48678153360515</v>
+      </c>
+      <c r="F314" s="37" t="n"/>
+    </row>
+    <row r="315" ht="25" customHeight="1">
+      <c r="A315" s="38" t="inlineStr">
+        <is>
+          <t>lbp</t>
+        </is>
+      </c>
+      <c r="B315" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C315" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D315" s="38" t="n">
+        <v>2547</v>
+      </c>
+      <c r="E315" s="39" t="n">
+        <v>33.49993423648559</v>
+      </c>
+      <c r="F315" s="37" t="n"/>
+    </row>
+    <row r="316" ht="25" customHeight="1">
+      <c r="A316" s="38" t="inlineStr">
+        <is>
+          <t>lbp</t>
+        </is>
+      </c>
+      <c r="B316" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C316" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D316" s="38" t="n">
+        <v>252</v>
+      </c>
+      <c r="E316" s="39" t="n">
+        <v>36.41618497109826</v>
+      </c>
+      <c r="F316" s="37" t="n"/>
+    </row>
+    <row r="317" ht="25" customHeight="1">
+      <c r="A317" s="38" t="inlineStr">
+        <is>
+          <t>lbp</t>
+        </is>
+      </c>
+      <c r="B317" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C317" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" s="38" t="n">
+        <v>235</v>
+      </c>
+      <c r="E317" s="39" t="n">
+        <v>33.95953757225433</v>
+      </c>
+      <c r="F317" s="37" t="n"/>
+    </row>
+    <row r="318" ht="25" customHeight="1">
+      <c r="A318" s="40" t="inlineStr">
+        <is>
+          <t>lbp</t>
+        </is>
+      </c>
+      <c r="B318" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C318" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D318" s="40" t="n">
+        <v>205</v>
+      </c>
+      <c r="E318" s="40" t="n">
+        <v>29.6242774566474</v>
+      </c>
+      <c r="F318" s="37" t="n"/>
+    </row>
+    <row r="319" ht="25" customHeight="1">
+      <c r="A319" s="38" t="inlineStr">
+        <is>
+          <t>ctd</t>
+        </is>
+      </c>
+      <c r="B319" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C319" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D319" s="38" t="n">
+        <v>2522</v>
+      </c>
+      <c r="E319" s="39" t="n">
+        <v>33.50159404888417</v>
+      </c>
+      <c r="F319" s="37" t="n"/>
+    </row>
+    <row r="320" ht="25" customHeight="1">
+      <c r="A320" s="38" t="inlineStr">
+        <is>
+          <t>ctd</t>
+        </is>
+      </c>
+      <c r="B320" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C320" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" s="38" t="n">
+        <v>2522</v>
+      </c>
+      <c r="E320" s="39" t="n">
+        <v>33.50159404888417</v>
+      </c>
+      <c r="F320" s="37" t="n"/>
+    </row>
+    <row r="321" ht="25" customHeight="1">
+      <c r="A321" s="38" t="inlineStr">
+        <is>
+          <t>ctd</t>
+        </is>
+      </c>
+      <c r="B321" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C321" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D321" s="38" t="n">
+        <v>2484</v>
+      </c>
+      <c r="E321" s="39" t="n">
+        <v>32.99681190223167</v>
+      </c>
+      <c r="F321" s="37" t="n"/>
+    </row>
+    <row r="322" ht="25" customHeight="1">
+      <c r="A322" s="38" t="inlineStr">
+        <is>
+          <t>ctd</t>
+        </is>
+      </c>
+      <c r="B322" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C322" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D322" s="38" t="n">
+        <v>240</v>
+      </c>
+      <c r="E322" s="39" t="n">
+        <v>31.29074315514994</v>
+      </c>
+      <c r="F322" s="37" t="n"/>
+    </row>
+    <row r="323" ht="25" customHeight="1">
+      <c r="A323" s="38" t="inlineStr">
+        <is>
+          <t>ctd</t>
+        </is>
+      </c>
+      <c r="B323" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C323" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D323" s="38" t="n">
+        <v>259</v>
+      </c>
+      <c r="E323" s="39" t="n">
+        <v>33.76792698826597</v>
+      </c>
+      <c r="F323" s="37" t="n"/>
+    </row>
+    <row r="324" ht="25" customHeight="1">
+      <c r="A324" s="40" t="inlineStr">
+        <is>
+          <t>ctd</t>
+        </is>
+      </c>
+      <c r="B324" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C324" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D324" s="40" t="n">
+        <v>268</v>
+      </c>
+      <c r="E324" s="40" t="n">
+        <v>34.94132985658409</v>
+      </c>
+      <c r="F324" s="37" t="n"/>
+    </row>
+    <row r="325" ht="25" customHeight="1">
+      <c r="A325" s="38" t="inlineStr">
+        <is>
+          <t>ngd</t>
+        </is>
+      </c>
+      <c r="B325" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C325" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D325" s="38" t="n">
+        <v>2451</v>
+      </c>
+      <c r="E325" s="39" t="n">
+        <v>33.40602426059697</v>
+      </c>
+      <c r="F325" s="37" t="n"/>
+    </row>
+    <row r="326" ht="25" customHeight="1">
+      <c r="A326" s="38" t="inlineStr">
+        <is>
+          <t>ngd</t>
+        </is>
+      </c>
+      <c r="B326" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C326" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D326" s="38" t="n">
+        <v>2456</v>
+      </c>
+      <c r="E326" s="39" t="n">
+        <v>33.47417200490664</v>
+      </c>
+      <c r="F326" s="37" t="n"/>
+    </row>
+    <row r="327" ht="25" customHeight="1">
+      <c r="A327" s="38" t="inlineStr">
+        <is>
+          <t>ngd</t>
+        </is>
+      </c>
+      <c r="B327" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C327" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D327" s="38" t="n">
+        <v>2430</v>
+      </c>
+      <c r="E327" s="39" t="n">
+        <v>33.11980373449639</v>
+      </c>
+      <c r="F327" s="37" t="n"/>
+    </row>
+    <row r="328" ht="25" customHeight="1">
+      <c r="A328" s="38" t="inlineStr">
+        <is>
+          <t>ngd</t>
+        </is>
+      </c>
+      <c r="B328" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C328" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D328" s="38" t="n">
+        <v>311</v>
+      </c>
+      <c r="E328" s="39" t="n">
+        <v>32.46346555323591</v>
+      </c>
+      <c r="F328" s="37" t="n"/>
+    </row>
+    <row r="329" ht="25" customHeight="1">
+      <c r="A329" s="38" t="inlineStr">
+        <is>
+          <t>ngd</t>
+        </is>
+      </c>
+      <c r="B329" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C329" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D329" s="38" t="n">
+        <v>325</v>
+      </c>
+      <c r="E329" s="39" t="n">
+        <v>33.92484342379959</v>
+      </c>
+      <c r="F329" s="37" t="n"/>
+    </row>
+    <row r="330" ht="25" customHeight="1">
+      <c r="A330" s="40" t="inlineStr">
+        <is>
+          <t>ngd</t>
+        </is>
+      </c>
+      <c r="B330" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C330" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D330" s="40" t="n">
+        <v>322</v>
+      </c>
+      <c r="E330" s="40" t="n">
+        <v>33.61169102296451</v>
+      </c>
+      <c r="F330" s="37" t="n"/>
+    </row>
+    <row r="331" ht="25" customHeight="1">
+      <c r="A331" s="38" t="inlineStr">
+        <is>
+          <t>obe</t>
+        </is>
+      </c>
+      <c r="B331" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C331" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D331" s="38" t="n">
+        <v>2474</v>
+      </c>
+      <c r="E331" s="39" t="n">
+        <v>32.96469020652898</v>
+      </c>
+      <c r="F331" s="37" t="n"/>
+    </row>
+    <row r="332" ht="25" customHeight="1">
+      <c r="A332" s="38" t="inlineStr">
+        <is>
+          <t>obe</t>
+        </is>
+      </c>
+      <c r="B332" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C332" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" s="38" t="n">
+        <v>2538</v>
+      </c>
+      <c r="E332" s="39" t="n">
+        <v>33.81745502998002</v>
+      </c>
+      <c r="F332" s="37" t="n"/>
+    </row>
+    <row r="333" ht="25" customHeight="1">
+      <c r="A333" s="38" t="inlineStr">
+        <is>
+          <t>obe</t>
+        </is>
+      </c>
+      <c r="B333" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C333" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D333" s="38" t="n">
+        <v>2493</v>
+      </c>
+      <c r="E333" s="39" t="n">
+        <v>33.217854763491</v>
+      </c>
+      <c r="F333" s="37" t="n"/>
+    </row>
+    <row r="334" ht="25" customHeight="1">
+      <c r="A334" s="38" t="inlineStr">
+        <is>
+          <t>obe</t>
+        </is>
+      </c>
+      <c r="B334" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C334" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D334" s="38" t="n">
+        <v>288</v>
+      </c>
+      <c r="E334" s="39" t="n">
+        <v>36.45569620253165</v>
+      </c>
+      <c r="F334" s="37" t="n"/>
+    </row>
+    <row r="335" ht="25" customHeight="1">
+      <c r="A335" s="38" t="inlineStr">
+        <is>
+          <t>obe</t>
+        </is>
+      </c>
+      <c r="B335" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C335" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D335" s="38" t="n">
+        <v>243</v>
+      </c>
+      <c r="E335" s="39" t="n">
+        <v>30.75949367088607</v>
+      </c>
+      <c r="F335" s="37" t="n"/>
+    </row>
+    <row r="336" ht="25" customHeight="1">
+      <c r="A336" s="40" t="inlineStr">
+        <is>
+          <t>obe</t>
+        </is>
+      </c>
+      <c r="B336" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C336" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D336" s="40" t="n">
+        <v>259</v>
+      </c>
+      <c r="E336" s="40" t="n">
+        <v>32.78481012658228</v>
+      </c>
+      <c r="F336" s="37" t="n"/>
+    </row>
+    <row r="337" ht="25" customHeight="1">
+      <c r="A337" s="38" t="inlineStr">
+        <is>
+          <t>pcp_flag</t>
+        </is>
+      </c>
+      <c r="B337" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C337" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D337" s="38" t="n">
+        <v>1052</v>
+      </c>
+      <c r="E337" s="39" t="n">
+        <v>32.95739348370928</v>
+      </c>
+      <c r="F337" s="37" t="n"/>
+    </row>
+    <row r="338" ht="25" customHeight="1">
+      <c r="A338" s="38" t="inlineStr">
+        <is>
+          <t>pcp_flag</t>
+        </is>
+      </c>
+      <c r="B338" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C338" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D338" s="38" t="n">
+        <v>1046</v>
+      </c>
+      <c r="E338" s="39" t="n">
+        <v>32.76942355889724</v>
+      </c>
+      <c r="F338" s="37" t="n"/>
+    </row>
+    <row r="339" ht="25" customHeight="1">
+      <c r="A339" s="38" t="inlineStr">
+        <is>
+          <t>pcp_flag</t>
+        </is>
+      </c>
+      <c r="B339" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C339" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D339" s="38" t="n">
+        <v>1094</v>
+      </c>
+      <c r="E339" s="39" t="n">
+        <v>34.27318295739348</v>
+      </c>
+      <c r="F339" s="37" t="n"/>
+    </row>
+    <row r="340" ht="25" customHeight="1">
+      <c r="A340" s="38" t="inlineStr">
+        <is>
+          <t>pcp_flag</t>
+        </is>
+      </c>
+      <c r="B340" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C340" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D340" s="38" t="n">
+        <v>2287</v>
+      </c>
+      <c r="E340" s="39" t="n">
+        <v>33.59283196239718</v>
+      </c>
+      <c r="F340" s="37" t="n"/>
+    </row>
+    <row r="341" ht="25" customHeight="1">
+      <c r="A341" s="38" t="inlineStr">
+        <is>
+          <t>pcp_flag</t>
+        </is>
+      </c>
+      <c r="B341" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C341" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D341" s="38" t="n">
+        <v>2282</v>
+      </c>
+      <c r="E341" s="39" t="n">
+        <v>33.51938895417156</v>
+      </c>
+      <c r="F341" s="37" t="n"/>
+    </row>
+    <row r="342" ht="25" customHeight="1">
+      <c r="A342" s="40" t="inlineStr">
+        <is>
+          <t>pcp_flag</t>
+        </is>
+      </c>
+      <c r="B342" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C342" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D342" s="40" t="n">
+        <v>2239</v>
+      </c>
+      <c r="E342" s="40" t="n">
+        <v>32.88777908343125</v>
+      </c>
+      <c r="F342" s="37" t="n"/>
+    </row>
+    <row r="343" ht="25" customHeight="1">
+      <c r="A343" s="38" t="inlineStr">
+        <is>
+          <t>cvs_rx_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B343" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C343" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D343" s="38" t="n">
+        <v>787</v>
+      </c>
+      <c r="E343" s="39" t="n">
+        <v>33.4608843537415</v>
+      </c>
+      <c r="F343" s="37" t="n"/>
+    </row>
+    <row r="344" ht="25" customHeight="1">
+      <c r="A344" s="38" t="inlineStr">
+        <is>
+          <t>cvs_rx_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B344" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C344" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D344" s="38" t="n">
+        <v>762</v>
+      </c>
+      <c r="E344" s="39" t="n">
+        <v>32.39795918367347</v>
+      </c>
+      <c r="F344" s="37" t="n"/>
+    </row>
+    <row r="345" ht="25" customHeight="1">
+      <c r="A345" s="38" t="inlineStr">
+        <is>
+          <t>cvs_rx_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B345" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C345" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D345" s="38" t="n">
+        <v>803</v>
+      </c>
+      <c r="E345" s="39" t="n">
+        <v>34.14115646258503</v>
+      </c>
+      <c r="F345" s="37" t="n"/>
+    </row>
+    <row r="346" ht="25" customHeight="1">
+      <c r="A346" s="38" t="inlineStr">
+        <is>
+          <t>cvs_rx_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B346" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C346" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D346" s="38" t="n">
+        <v>2552</v>
+      </c>
+      <c r="E346" s="39" t="n">
+        <v>33.36820083682008</v>
+      </c>
+      <c r="F346" s="37" t="n"/>
+    </row>
+    <row r="347" ht="25" customHeight="1">
+      <c r="A347" s="38" t="inlineStr">
+        <is>
+          <t>cvs_rx_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B347" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C347" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D347" s="38" t="n">
+        <v>2566</v>
+      </c>
+      <c r="E347" s="39" t="n">
+        <v>33.55125523012552</v>
+      </c>
+      <c r="F347" s="37" t="n"/>
+    </row>
+    <row r="348" ht="25" customHeight="1">
+      <c r="A348" s="40" t="inlineStr">
+        <is>
+          <t>cvs_rx_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B348" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C348" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D348" s="40" t="n">
+        <v>2530</v>
+      </c>
+      <c r="E348" s="40" t="n">
+        <v>33.08054393305439</v>
+      </c>
+      <c r="F348" s="37" t="n"/>
+    </row>
+    <row r="349" ht="25" customHeight="1">
+      <c r="A349" s="38" t="inlineStr">
+        <is>
+          <t>cvs_mc_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B349" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C349" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D349" s="38" t="n">
+        <v>1809</v>
+      </c>
+      <c r="E349" s="39" t="n">
+        <v>33.40720221606649</v>
+      </c>
+      <c r="F349" s="37" t="n"/>
+    </row>
+    <row r="350" ht="25" customHeight="1">
+      <c r="A350" s="38" t="inlineStr">
+        <is>
+          <t>cvs_mc_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B350" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C350" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D350" s="38" t="n">
+        <v>1798</v>
+      </c>
+      <c r="E350" s="39" t="n">
+        <v>33.20406278855032</v>
+      </c>
+      <c r="F350" s="37" t="n"/>
+    </row>
+    <row r="351" ht="25" customHeight="1">
+      <c r="A351" s="38" t="inlineStr">
+        <is>
+          <t>cvs_mc_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B351" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C351" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D351" s="38" t="n">
+        <v>1808</v>
+      </c>
+      <c r="E351" s="39" t="n">
+        <v>33.3887349953832</v>
+      </c>
+      <c r="F351" s="37" t="n"/>
+    </row>
+    <row r="352" ht="25" customHeight="1">
+      <c r="A352" s="38" t="inlineStr">
+        <is>
+          <t>cvs_mc_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B352" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C352" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D352" s="38" t="n">
+        <v>1530</v>
+      </c>
+      <c r="E352" s="39" t="n">
+        <v>33.36968375136314</v>
+      </c>
+      <c r="F352" s="37" t="n"/>
+    </row>
+    <row r="353" ht="25" customHeight="1">
+      <c r="A353" s="38" t="inlineStr">
+        <is>
+          <t>cvs_mc_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B353" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C353" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D353" s="38" t="n">
+        <v>1530</v>
+      </c>
+      <c r="E353" s="39" t="n">
+        <v>33.36968375136314</v>
+      </c>
+      <c r="F353" s="37" t="n"/>
+    </row>
+    <row r="354" ht="25" customHeight="1">
+      <c r="A354" s="40" t="inlineStr">
+        <is>
+          <t>cvs_mc_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B354" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C354" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D354" s="40" t="n">
+        <v>1525</v>
+      </c>
+      <c r="E354" s="40" t="n">
+        <v>33.26063249727372</v>
+      </c>
+      <c r="F354" s="37" t="n"/>
+    </row>
+    <row r="355" ht="25" customHeight="1">
+      <c r="A355" s="38" t="inlineStr">
+        <is>
+          <t>cvs_hh_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B355" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C355" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D355" s="38" t="n">
+        <v>1374</v>
+      </c>
+      <c r="E355" s="39" t="n">
+        <v>33.06063522617902</v>
+      </c>
+      <c r="F355" s="37" t="n"/>
+    </row>
+    <row r="356" ht="25" customHeight="1">
+      <c r="A356" s="38" t="inlineStr">
+        <is>
+          <t>cvs_hh_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B356" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C356" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D356" s="38" t="n">
+        <v>1371</v>
+      </c>
+      <c r="E356" s="39" t="n">
+        <v>32.98845043310876</v>
+      </c>
+      <c r="F356" s="37" t="n"/>
+    </row>
+    <row r="357" ht="25" customHeight="1">
+      <c r="A357" s="38" t="inlineStr">
+        <is>
+          <t>cvs_hh_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B357" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C357" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D357" s="38" t="n">
+        <v>1411</v>
+      </c>
+      <c r="E357" s="39" t="n">
+        <v>33.95091434071222</v>
+      </c>
+      <c r="F357" s="37" t="n"/>
+    </row>
+    <row r="358" ht="25" customHeight="1">
+      <c r="A358" s="38" t="inlineStr">
+        <is>
+          <t>cvs_hh_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B358" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C358" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D358" s="38" t="n">
+        <v>1965</v>
+      </c>
+      <c r="E358" s="39" t="n">
+        <v>33.62422997946612</v>
+      </c>
+      <c r="F358" s="37" t="n"/>
+    </row>
+    <row r="359" ht="25" customHeight="1">
+      <c r="A359" s="38" t="inlineStr">
+        <is>
+          <t>cvs_hh_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B359" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C359" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D359" s="38" t="n">
+        <v>1957</v>
+      </c>
+      <c r="E359" s="39" t="n">
+        <v>33.48733744010951</v>
+      </c>
+    </row>
+    <row r="360" ht="25" customHeight="1">
+      <c r="A360" s="39" t="inlineStr">
+        <is>
+          <t>cvs_hh_inrange_ind</t>
+        </is>
+      </c>
+      <c r="B360" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C360" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D360" s="39" t="n">
+        <v>1922</v>
+      </c>
+      <c r="E360" s="39" t="n">
+        <v>32.88843258042436</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/notebooks/playbook.xlsx
+++ b/notebooks/playbook.xlsx
@@ -21265,10 +21265,10 @@
         </is>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="D3" s="13" t="n">
         <v>0.23</v>
@@ -21309,13 +21309,13 @@
         </is>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>0</v>
@@ -21375,16 +21375,16 @@
         </is>
       </c>
       <c r="B8" s="13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="13" t="n">
         <v>0.21</v>
       </c>
-      <c r="C8" s="13" t="n">
-        <v>0.18</v>
-      </c>
       <c r="D8" s="13" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.19</v>
@@ -21446,7 +21446,7 @@
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
         <is>
-          <t>KMeans</t>
+          <t>Birch</t>
         </is>
       </c>
       <c r="B12" s="13" t="n">
@@ -21456,7 +21456,7 @@
         <v>0.5</v>
       </c>
       <c r="D12" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="13" t="n">
         <v>2</v>
@@ -21465,17 +21465,17 @@
     <row r="13" ht="25" customHeight="1">
       <c r="A13" s="13" t="inlineStr">
         <is>
-          <t>Hierarchical</t>
+          <t>KMeans</t>
         </is>
       </c>
       <c r="B13" s="13" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="C13" s="13" t="n">
         <v>0.5</v>
       </c>
       <c r="D13" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="13" t="n">
         <v>3</v>
@@ -21484,7 +21484,7 @@
     <row r="14" ht="25" customHeight="1">
       <c r="A14" s="13" t="inlineStr">
         <is>
-          <t>Birch</t>
+          <t>Hierarchical</t>
         </is>
       </c>
       <c r="B14" s="13" t="n">
@@ -21535,7 +21535,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -25733,7 +25733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25748,8 +25748,10 @@
     <col width="25" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
     <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="50" max="50"/>
+    <col width="25" customWidth="1" min="51" max="51"/>
+    <col width="25" customWidth="1" min="52" max="52"/>
+    <col width="25" customWidth="1" min="53" max="53"/>
     <col width="25" customWidth="1" min="122" max="122"/>
     <col width="25" customWidth="1" min="123" max="123"/>
   </cols>
@@ -29060,31 +29062,31 @@
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="13" t="inlineStr">
         <is>
-          <t>medical_paid_pmpm_processed</t>
+          <t>op_rehab_allowed_amt_processed</t>
         </is>
       </c>
       <c r="B125" s="13" t="n">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="13" t="inlineStr">
         <is>
-          <t>medical_copay_pmpm_processed</t>
+          <t>medical_paid_pmpm_processed</t>
         </is>
       </c>
       <c r="B126" s="13" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="13" t="inlineStr">
         <is>
-          <t>op_rehab_allowed_amt_processed</t>
+          <t>medical_copay_pmpm_processed</t>
         </is>
       </c>
       <c r="B127" s="13" t="n">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="128" ht="25" customHeight="1">
@@ -29098,88 +29100,528 @@
       </c>
     </row>
     <row r="129" ht="25" customHeight="1">
-      <c r="A129" s="33" t="inlineStr">
-        <is>
-          <t>Cramers Matrix</t>
-        </is>
+      <c r="A129" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_AE</t>
+        </is>
+      </c>
+      <c r="B129" s="13" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="130" ht="25" customHeight="1">
-      <c r="A130" s="34" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="B130" s="34" t="inlineStr">
-        <is>
-          <t>lob</t>
-        </is>
-      </c>
-      <c r="C130" s="34" t="inlineStr">
-        <is>
-          <t>urbsubr</t>
-        </is>
-      </c>
-      <c r="D130" s="34" t="inlineStr">
-        <is>
-          <t>state_cd</t>
-        </is>
+      <c r="A130" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_AK</t>
+        </is>
+      </c>
+      <c r="B130" s="13" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="13" t="inlineStr">
         <is>
-          <t>lob</t>
+          <t>state_cd_AL</t>
         </is>
       </c>
       <c r="B131" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C131" s="13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D131" s="13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="13" t="inlineStr">
         <is>
-          <t>urbsubr</t>
+          <t>state_cd_AP</t>
         </is>
       </c>
       <c r="B132" s="13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C132" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D132" s="13" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="13" t="inlineStr">
         <is>
+          <t>state_cd_AR</t>
+        </is>
+      </c>
+      <c r="B133" s="13" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="134" ht="25" customHeight="1">
+      <c r="A134" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_CO</t>
+        </is>
+      </c>
+      <c r="B134" s="13" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="135" ht="25" customHeight="1">
+      <c r="A135" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_CT</t>
+        </is>
+      </c>
+      <c r="B135" s="13" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="136" ht="25" customHeight="1">
+      <c r="A136" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_DC</t>
+        </is>
+      </c>
+      <c r="B136" s="13" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="137" ht="25" customHeight="1">
+      <c r="A137" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_DE</t>
+        </is>
+      </c>
+      <c r="B137" s="13" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="138" ht="25" customHeight="1">
+      <c r="A138" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_GU</t>
+        </is>
+      </c>
+      <c r="B138" s="13" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="139" ht="25" customHeight="1">
+      <c r="A139" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_HI</t>
+        </is>
+      </c>
+      <c r="B139" s="13" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="140" ht="25" customHeight="1">
+      <c r="A140" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_IA</t>
+        </is>
+      </c>
+      <c r="B140" s="13" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="141" ht="25" customHeight="1">
+      <c r="A141" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_ID</t>
+        </is>
+      </c>
+      <c r="B141" s="13" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="142" ht="25" customHeight="1">
+      <c r="A142" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_IN</t>
+        </is>
+      </c>
+      <c r="B142" s="13" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="143" ht="25" customHeight="1">
+      <c r="A143" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_KS</t>
+        </is>
+      </c>
+      <c r="B143" s="13" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="144" ht="25" customHeight="1">
+      <c r="A144" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_KY</t>
+        </is>
+      </c>
+      <c r="B144" s="13" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="145" ht="25" customHeight="1">
+      <c r="A145" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_LA</t>
+        </is>
+      </c>
+      <c r="B145" s="13" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="146" ht="25" customHeight="1">
+      <c r="A146" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_MA</t>
+        </is>
+      </c>
+      <c r="B146" s="13" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="147" ht="25" customHeight="1">
+      <c r="A147" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_MD</t>
+        </is>
+      </c>
+      <c r="B147" s="13" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="148" ht="25" customHeight="1">
+      <c r="A148" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_ME</t>
+        </is>
+      </c>
+      <c r="B148" s="13" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="149" ht="25" customHeight="1">
+      <c r="A149" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_MI</t>
+        </is>
+      </c>
+      <c r="B149" s="13" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="150" ht="25" customHeight="1">
+      <c r="A150" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_MN</t>
+        </is>
+      </c>
+      <c r="B150" s="13" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="151" ht="25" customHeight="1">
+      <c r="A151" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_MO</t>
+        </is>
+      </c>
+      <c r="B151" s="13" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="152" ht="25" customHeight="1">
+      <c r="A152" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_MP</t>
+        </is>
+      </c>
+      <c r="B152" s="13" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="153" ht="25" customHeight="1">
+      <c r="A153" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_MS</t>
+        </is>
+      </c>
+      <c r="B153" s="13" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="154" ht="25" customHeight="1">
+      <c r="A154" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_MT</t>
+        </is>
+      </c>
+      <c r="B154" s="13" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="155" ht="25" customHeight="1">
+      <c r="A155" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_NC</t>
+        </is>
+      </c>
+      <c r="B155" s="13" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="156" ht="25" customHeight="1">
+      <c r="A156" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_ND</t>
+        </is>
+      </c>
+      <c r="B156" s="13" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="157" ht="25" customHeight="1">
+      <c r="A157" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_NE</t>
+        </is>
+      </c>
+      <c r="B157" s="13" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="158" ht="25" customHeight="1">
+      <c r="A158" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_NH</t>
+        </is>
+      </c>
+      <c r="B158" s="13" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="159" ht="25" customHeight="1">
+      <c r="A159" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_NM</t>
+        </is>
+      </c>
+      <c r="B159" s="13" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="160" ht="25" customHeight="1">
+      <c r="A160" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_NV</t>
+        </is>
+      </c>
+      <c r="B160" s="13" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="161" ht="25" customHeight="1">
+      <c r="A161" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_OK</t>
+        </is>
+      </c>
+      <c r="B161" s="13" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="162" ht="25" customHeight="1">
+      <c r="A162" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_OR</t>
+        </is>
+      </c>
+      <c r="B162" s="13" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="163" ht="25" customHeight="1">
+      <c r="A163" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_RI</t>
+        </is>
+      </c>
+      <c r="B163" s="13" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="164" ht="25" customHeight="1">
+      <c r="A164" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_SC</t>
+        </is>
+      </c>
+      <c r="B164" s="13" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="165" ht="25" customHeight="1">
+      <c r="A165" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_SD</t>
+        </is>
+      </c>
+      <c r="B165" s="13" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="166" ht="25" customHeight="1">
+      <c r="A166" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_TN</t>
+        </is>
+      </c>
+      <c r="B166" s="13" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="167" ht="25" customHeight="1">
+      <c r="A167" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_UT</t>
+        </is>
+      </c>
+      <c r="B167" s="13" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="168" ht="25" customHeight="1">
+      <c r="A168" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_VT</t>
+        </is>
+      </c>
+      <c r="B168" s="13" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="169" ht="25" customHeight="1">
+      <c r="A169" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_WA</t>
+        </is>
+      </c>
+      <c r="B169" s="13" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="170" ht="25" customHeight="1">
+      <c r="A170" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_WI</t>
+        </is>
+      </c>
+      <c r="B170" s="13" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="171" ht="25" customHeight="1">
+      <c r="A171" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_WV</t>
+        </is>
+      </c>
+      <c r="B171" s="13" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="172" ht="25" customHeight="1">
+      <c r="A172" s="13" t="inlineStr">
+        <is>
+          <t>state_cd_WY</t>
+        </is>
+      </c>
+      <c r="B172" s="13" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="173" ht="25" customHeight="1">
+      <c r="A173" s="33" t="inlineStr">
+        <is>
+          <t>Cramers Matrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="174" ht="25" customHeight="1">
+      <c r="A174" s="34" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="B174" s="34" t="inlineStr">
+        <is>
           <t>state_cd</t>
         </is>
       </c>
-      <c r="B133" s="13" t="n">
+      <c r="C174" s="34" t="inlineStr">
+        <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="D174" s="34" t="inlineStr">
+        <is>
+          <t>lob</t>
+        </is>
+      </c>
+    </row>
+    <row r="175" ht="25" customHeight="1">
+      <c r="A175" s="13" t="inlineStr">
+        <is>
+          <t>state_cd</t>
+        </is>
+      </c>
+      <c r="B175" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" s="13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D175" s="13" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="C133" s="13" t="n">
+    </row>
+    <row r="176" ht="25" customHeight="1">
+      <c r="A176" s="13" t="inlineStr">
+        <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="B176" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="D133" s="13" t="n">
+      <c r="C176" s="13" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" ht="25" customHeight="1"/>
+      <c r="D176" s="13" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="177" ht="25" customHeight="1">
+      <c r="A177" s="13" t="inlineStr">
+        <is>
+          <t>lob</t>
+        </is>
+      </c>
+      <c r="B177" s="13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C177" s="13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D177" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" ht="25" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A173:D173"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29210,7 +29652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29270,19 +29712,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>42.12848158131177</v>
+        <v>42.08738738738739</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>100950.4507659882</v>
+        <v>101057.4967374889</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>8.112627299058651</v>
+        <v>8.111282746095169</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>8.155929817661786</v>
+        <v>8.154192037302728</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>8.442924873280226</v>
+        <v>8.44145154377043</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1">
@@ -29290,19 +29732,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>42.47776442307692</v>
+        <v>42.51243632004795</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>98526.81742952489</v>
+        <v>98498.4996381953</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>8.102436389787842</v>
+        <v>8.102171961276438</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>8.16999586305278</v>
+        <v>8.170389829302986</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>8.4301362099964</v>
+        <v>8.430578809609175</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1">
@@ -29310,24 +29752,224 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>42.8949894989499</v>
+        <v>42.9003900390039</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>100501.1697362975</v>
+        <v>100429.2418187579</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>8.11049923691861</v>
+        <v>8.112142063203784</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>8.167467158804449</v>
+        <v>8.168767746580262</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>8.445163081395346</v>
+        <v>8.446224373410825</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1">
+      <c r="A7" s="33" t="inlineStr">
+        <is>
+          <t>Cluster Median of Best Clustering Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1">
+      <c r="A8" s="34" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="B8" s="34" t="inlineStr">
+        <is>
+          <t>age_nbr</t>
+        </is>
+      </c>
+      <c r="C8" s="34" t="inlineStr">
+        <is>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="D8" s="34" t="inlineStr">
+        <is>
+          <t>first_pulse</t>
+        </is>
+      </c>
+      <c r="E8" s="34" t="inlineStr">
+        <is>
+          <t>pulse</t>
+        </is>
+      </c>
+      <c r="F8" s="34" t="inlineStr">
+        <is>
+          <t>max_pulse</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1">
+      <c r="A9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>43</v>
+      </c>
+      <c r="C9" s="13" t="n">
+        <v>87052.8882</v>
+      </c>
+      <c r="D9" s="13" t="n">
+        <v>7.9862</v>
+      </c>
+      <c r="E9" s="13" t="n">
+        <v>8.053900000000001</v>
+      </c>
+      <c r="F9" s="13" t="n">
+        <v>8.331899999999999</v>
+      </c>
+    </row>
+    <row r="10" ht="25" customHeight="1">
+      <c r="A10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13" t="n">
+        <v>43</v>
+      </c>
+      <c r="C10" s="13" t="n">
+        <v>86000</v>
+      </c>
+      <c r="D10" s="13" t="n">
+        <v>7.9906</v>
+      </c>
+      <c r="E10" s="13" t="n">
+        <v>8.08225</v>
+      </c>
+      <c r="F10" s="13" t="n">
+        <v>8.334199999999999</v>
+      </c>
+    </row>
+    <row r="11" ht="25" customHeight="1">
+      <c r="A11" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="13" t="n">
+        <v>44</v>
+      </c>
+      <c r="C11" s="13" t="n">
+        <v>87000</v>
+      </c>
+      <c r="D11" s="13" t="n">
+        <v>7.9975</v>
+      </c>
+      <c r="E11" s="13" t="n">
+        <v>8.081700000000001</v>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>8.3268</v>
+      </c>
+    </row>
+    <row r="13" ht="25" customHeight="1">
+      <c r="A13" s="33" t="inlineStr">
+        <is>
+          <t>Cluster standard deviation of Best Clustering Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="25" customHeight="1">
+      <c r="A14" s="34" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="B14" s="34" t="inlineStr">
+        <is>
+          <t>age_nbr</t>
+        </is>
+      </c>
+      <c r="C14" s="34" t="inlineStr">
+        <is>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="D14" s="34" t="inlineStr">
+        <is>
+          <t>first_pulse</t>
+        </is>
+      </c>
+      <c r="E14" s="34" t="inlineStr">
+        <is>
+          <t>pulse</t>
+        </is>
+      </c>
+      <c r="F14" s="34" t="inlineStr">
+        <is>
+          <t>max_pulse</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="25" customHeight="1">
+      <c r="A15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="13" t="n">
+        <v>22.84155705788373</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>73545.68294018554</v>
+      </c>
+      <c r="D15" s="13" t="n">
+        <v>1.037500083211408</v>
+      </c>
+      <c r="E15" s="13" t="n">
+        <v>1.068305932562551</v>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>1.03046234586642</v>
+      </c>
+    </row>
+    <row r="16" ht="25" customHeight="1">
+      <c r="A16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="13" t="n">
+        <v>22.91712818736963</v>
+      </c>
+      <c r="C16" s="13" t="n">
+        <v>70128.91883378659</v>
+      </c>
+      <c r="D16" s="13" t="n">
+        <v>1.028339726752856</v>
+      </c>
+      <c r="E16" s="13" t="n">
+        <v>1.038986704598944</v>
+      </c>
+      <c r="F16" s="13" t="n">
+        <v>1.018712833798931</v>
+      </c>
+    </row>
+    <row r="17" ht="25" customHeight="1">
+      <c r="A17" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="13" t="n">
+        <v>22.83334455346578</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>75219.94545702668</v>
+      </c>
+      <c r="D17" s="13" t="n">
+        <v>1.052174742823852</v>
+      </c>
+      <c r="E17" s="13" t="n">
+        <v>1.072659035987919</v>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>1.02828499148421</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A13:F13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29408,10 +30050,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="38" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E3" s="39" t="n">
-        <v>31.82957393483709</v>
+        <v>31.74603174603174</v>
       </c>
       <c r="F3" s="37" t="n"/>
     </row>
@@ -29430,10 +30072,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="38" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E4" s="39" t="n">
-        <v>32.99916457811194</v>
+        <v>33.24979114452798</v>
       </c>
       <c r="F4" s="37" t="n"/>
     </row>
@@ -29452,10 +30094,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="38" t="n">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E5" s="39" t="n">
-        <v>35.17126148705096</v>
+        <v>35.00417710944026</v>
       </c>
       <c r="F5" s="37" t="n"/>
     </row>
@@ -29474,10 +30116,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="38" t="n">
-        <v>2457</v>
+        <v>2452</v>
       </c>
       <c r="E6" s="39" t="n">
-        <v>33.82433920704846</v>
+        <v>33.75550660792951</v>
       </c>
       <c r="F6" s="37" t="n"/>
     </row>
@@ -29496,10 +30138,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="38" t="n">
-        <v>2409</v>
+        <v>2414</v>
       </c>
       <c r="E7" s="39" t="n">
-        <v>33.16354625550661</v>
+        <v>33.23237885462555</v>
       </c>
       <c r="F7" s="37" t="n"/>
     </row>
@@ -29540,10 +30182,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="38" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E9" s="39" t="n">
-        <v>32.55360623781677</v>
+        <v>32.35867446393762</v>
       </c>
       <c r="F9" s="37" t="n"/>
     </row>
@@ -29562,10 +30204,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="38" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E10" s="39" t="n">
-        <v>34.04808317089019</v>
+        <v>34.1130604288499</v>
       </c>
       <c r="F10" s="37" t="n"/>
     </row>
@@ -29584,10 +30226,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="40" t="n">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E11" s="40" t="n">
-        <v>33.39831059129305</v>
+        <v>33.52826510721248</v>
       </c>
       <c r="F11" s="37" t="n"/>
     </row>
@@ -29606,10 +30248,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="38" t="n">
-        <v>1731</v>
+        <v>1724</v>
       </c>
       <c r="E12" s="39" t="n">
-        <v>33.32691567192915</v>
+        <v>33.19214478244128</v>
       </c>
       <c r="F12" s="37" t="n"/>
     </row>
@@ -29628,10 +30270,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="38" t="n">
-        <v>1743</v>
+        <v>1748</v>
       </c>
       <c r="E13" s="39" t="n">
-        <v>33.55795148247979</v>
+        <v>33.65421640354255</v>
       </c>
       <c r="F13" s="37" t="n"/>
     </row>
@@ -29650,10 +30292,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="38" t="n">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="E14" s="39" t="n">
-        <v>33.11513284559106</v>
+        <v>33.15363881401618</v>
       </c>
       <c r="F14" s="37" t="n"/>
     </row>
@@ -29672,10 +30314,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="38" t="n">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="E15" s="39" t="n">
-        <v>33.458177278402</v>
+        <v>33.41656263004577</v>
       </c>
       <c r="F15" s="37" t="n"/>
     </row>
@@ -29694,10 +30336,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="38" t="n">
-        <v>1585</v>
+        <v>1589</v>
       </c>
       <c r="E16" s="39" t="n">
-        <v>32.97960882230545</v>
+        <v>33.0628381190179</v>
       </c>
       <c r="F16" s="37" t="n"/>
     </row>
@@ -29716,10 +30358,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="40" t="n">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E17" s="40" t="n">
-        <v>33.56221389929255</v>
+        <v>33.52059925093633</v>
       </c>
       <c r="F17" s="37" t="n"/>
     </row>
@@ -29736,10 +30378,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="38" t="n">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="E18" s="39" t="n">
-        <v>33.28998699609883</v>
+        <v>33.21196358907672</v>
       </c>
       <c r="F18" s="37" t="n"/>
     </row>
@@ -29756,10 +30398,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="38" t="n">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="E19" s="39" t="n">
-        <v>33.13394018205462</v>
+        <v>33.15994798439532</v>
       </c>
       <c r="F19" s="37" t="n"/>
     </row>
@@ -29776,10 +30418,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="38" t="n">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E20" s="39" t="n">
-        <v>33.57607282184655</v>
+        <v>33.62808842652796</v>
       </c>
       <c r="F20" s="37" t="n"/>
     </row>
@@ -29796,10 +30438,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="38" t="n">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="E21" s="39" t="n">
-        <v>33.45247766043867</v>
+        <v>33.35499593826158</v>
       </c>
       <c r="F21" s="37" t="n"/>
     </row>
@@ -29816,10 +30458,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="38" t="n">
-        <v>2054</v>
+        <v>2062</v>
       </c>
       <c r="E22" s="39" t="n">
-        <v>33.37124289195776</v>
+        <v>33.50121852152721</v>
       </c>
       <c r="F22" s="37" t="n"/>
     </row>
@@ -29836,10 +30478,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="40" t="n">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="E23" s="40" t="n">
-        <v>33.17627944760358</v>
+        <v>33.14378554021121</v>
       </c>
       <c r="F23" s="37" t="n"/>
     </row>
@@ -29880,10 +30522,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="38" t="n">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="E25" s="39" t="n">
-        <v>33.37349397590361</v>
+        <v>33.45381526104418</v>
       </c>
       <c r="F25" s="37" t="n"/>
     </row>
@@ -29902,10 +30544,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="38" t="n">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E26" s="39" t="n">
-        <v>32.85140562248996</v>
+        <v>32.7710843373494</v>
       </c>
       <c r="F26" s="37" t="n"/>
     </row>
@@ -29924,10 +30566,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="38" t="n">
-        <v>1871</v>
+        <v>1862</v>
       </c>
       <c r="E27" s="39" t="n">
-        <v>33.0565371024735</v>
+        <v>32.89752650176678</v>
       </c>
       <c r="F27" s="37" t="n"/>
     </row>
@@ -29946,10 +30588,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="38" t="n">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="E28" s="39" t="n">
-        <v>33.19787985865725</v>
+        <v>33.26855123674912</v>
       </c>
       <c r="F28" s="37" t="n"/>
     </row>
@@ -29968,10 +30610,10 @@
         <v>2</v>
       </c>
       <c r="D29" s="38" t="n">
-        <v>1910</v>
+        <v>1915</v>
       </c>
       <c r="E29" s="39" t="n">
-        <v>33.74558303886926</v>
+        <v>33.8339222614841</v>
       </c>
       <c r="F29" s="37" t="n"/>
     </row>
@@ -30144,10 +30786,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="38" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>33.95415472779369</v>
+        <v>34.16905444126074</v>
       </c>
       <c r="F37" s="37" t="n"/>
     </row>
@@ -30166,10 +30808,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="38" t="n">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E38" s="39" t="n">
-        <v>32.23495702005731</v>
+        <v>32.02005730659026</v>
       </c>
       <c r="F38" s="37" t="n"/>
     </row>
@@ -30208,10 +30850,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="38" t="n">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E40" s="39" t="n">
-        <v>33.18445734702992</v>
+        <v>33.09513175524788</v>
       </c>
       <c r="F40" s="37" t="n"/>
     </row>
@@ -30228,10 +30870,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="38" t="n">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E41" s="39" t="n">
-        <v>34.30102724430549</v>
+        <v>34.34569004019652</v>
       </c>
       <c r="F41" s="37" t="n"/>
     </row>
@@ -30248,10 +30890,10 @@
         <v>2</v>
       </c>
       <c r="D42" s="38" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E42" s="39" t="n">
-        <v>32.51451540866459</v>
+        <v>32.55917820455561</v>
       </c>
       <c r="F42" s="37" t="n"/>
     </row>
@@ -30268,10 +30910,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="38" t="n">
-        <v>2455</v>
+        <v>2448</v>
       </c>
       <c r="E43" s="39" t="n">
-        <v>33.4423103119466</v>
+        <v>33.34695545565999</v>
       </c>
       <c r="F43" s="37" t="n"/>
     </row>
@@ -30288,10 +30930,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="38" t="n">
-        <v>2427</v>
+        <v>2435</v>
       </c>
       <c r="E44" s="39" t="n">
-        <v>33.06089088680017</v>
+        <v>33.16986786541343</v>
       </c>
       <c r="F44" s="37" t="n"/>
     </row>
@@ -30308,10 +30950,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="40" t="n">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="E45" s="40" t="n">
-        <v>33.49679880125323</v>
+        <v>33.48317667892658</v>
       </c>
       <c r="F45" s="37" t="n"/>
     </row>
@@ -30328,10 +30970,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="38" t="n">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="E46" s="39" t="n">
-        <v>33.16953316953317</v>
+        <v>33.06608043450149</v>
       </c>
       <c r="F46" s="37" t="n"/>
     </row>
@@ -30348,10 +30990,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="38" t="n">
-        <v>2572</v>
+        <v>2581</v>
       </c>
       <c r="E47" s="39" t="n">
-        <v>33.2600543126859</v>
+        <v>33.37643863959654</v>
       </c>
       <c r="F47" s="37" t="n"/>
     </row>
@@ -30368,10 +31010,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="38" t="n">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="E48" s="39" t="n">
-        <v>33.57041251778094</v>
+        <v>33.55748092590198</v>
       </c>
       <c r="F48" s="37" t="n"/>
     </row>
@@ -30388,10 +31030,10 @@
         <v>0</v>
       </c>
       <c r="D49" s="38" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E49" s="39" t="n">
-        <v>34.27179209528966</v>
+        <v>34.21765024363833</v>
       </c>
       <c r="F49" s="37" t="n"/>
     </row>
@@ -30428,10 +31070,10 @@
         <v>2</v>
       </c>
       <c r="D51" s="40" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E51" s="40" t="n">
-        <v>31.99783432593395</v>
+        <v>32.05197617758527</v>
       </c>
       <c r="F51" s="37" t="n"/>
     </row>
@@ -30448,10 +31090,10 @@
         <v>0</v>
       </c>
       <c r="D52" s="38" t="n">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="E52" s="39" t="n">
-        <v>33.87835186396337</v>
+        <v>33.79659908436886</v>
       </c>
       <c r="F52" s="37" t="n"/>
     </row>
@@ -30468,10 +31110,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="38" t="n">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="E53" s="39" t="n">
-        <v>33.07717462393722</v>
+        <v>33.14257684761282</v>
       </c>
       <c r="F53" s="37" t="n"/>
     </row>
@@ -30488,10 +31130,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="38" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E54" s="39" t="n">
-        <v>33.04447351209941</v>
+        <v>33.06082406801831</v>
       </c>
       <c r="F54" s="37" t="n"/>
     </row>
@@ -30508,10 +31150,10 @@
         <v>0</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E55" s="39" t="n">
-        <v>32.50577367205543</v>
+        <v>32.39030023094688</v>
       </c>
       <c r="F55" s="37" t="n"/>
     </row>
@@ -30528,10 +31170,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="38" t="n">
-        <v>1172</v>
+        <v>1177</v>
       </c>
       <c r="E56" s="39" t="n">
-        <v>33.8337182448037</v>
+        <v>33.97806004618938</v>
       </c>
       <c r="F56" s="37" t="n"/>
     </row>
@@ -30548,10 +31190,10 @@
         <v>2</v>
       </c>
       <c r="D57" s="40" t="n">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E57" s="40" t="n">
-        <v>33.66050808314088</v>
+        <v>33.63163972286375</v>
       </c>
       <c r="F57" s="37" t="n"/>
     </row>
@@ -30568,10 +31210,10 @@
         <v>0</v>
       </c>
       <c r="D58" s="38" t="n">
-        <v>2882</v>
+        <v>2873</v>
       </c>
       <c r="E58" s="39" t="n">
-        <v>33.34490339002661</v>
+        <v>33.24077287978711</v>
       </c>
       <c r="F58" s="37" t="n"/>
     </row>
@@ -30588,10 +31230,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="38" t="n">
-        <v>2899</v>
+        <v>2908</v>
       </c>
       <c r="E59" s="39" t="n">
-        <v>33.54159435381233</v>
+        <v>33.64572486405184</v>
       </c>
       <c r="F59" s="37" t="n"/>
     </row>
@@ -30688,10 +31330,10 @@
         <v>0</v>
       </c>
       <c r="D64" s="38" t="n">
-        <v>2751</v>
+        <v>2745</v>
       </c>
       <c r="E64" s="39" t="n">
-        <v>33.52833638025594</v>
+        <v>33.45521023765997</v>
       </c>
       <c r="F64" s="37" t="n"/>
     </row>
@@ -30708,10 +31350,10 @@
         <v>1</v>
       </c>
       <c r="D65" s="38" t="n">
-        <v>2730</v>
+        <v>2738</v>
       </c>
       <c r="E65" s="39" t="n">
-        <v>33.27239488117002</v>
+        <v>33.36989640463132</v>
       </c>
       <c r="F65" s="37" t="n"/>
     </row>
@@ -30728,10 +31370,10 @@
         <v>2</v>
       </c>
       <c r="D66" s="38" t="n">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>33.19926873857404</v>
+        <v>33.17489335770871</v>
       </c>
       <c r="F66" s="37" t="n"/>
     </row>
@@ -30748,10 +31390,10 @@
         <v>0</v>
       </c>
       <c r="D67" s="38" t="n">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E67" s="39" t="n">
-        <v>32.50909090909091</v>
+        <v>32.29090909090909</v>
       </c>
       <c r="F67" s="37" t="n"/>
     </row>
@@ -30768,10 +31410,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="38" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E68" s="39" t="n">
-        <v>33.81818181818182</v>
+        <v>33.89090909090909</v>
       </c>
       <c r="F68" s="37" t="n"/>
     </row>
@@ -30788,10 +31430,10 @@
         <v>2</v>
       </c>
       <c r="D69" s="40" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E69" s="40" t="n">
-        <v>33.67272727272727</v>
+        <v>33.81818181818182</v>
       </c>
       <c r="F69" s="37" t="n"/>
     </row>
@@ -30808,10 +31450,10 @@
         <v>0</v>
       </c>
       <c r="D70" s="38" t="n">
-        <v>2335</v>
+        <v>2328</v>
       </c>
       <c r="E70" s="39" t="n">
-        <v>33.3000570450656</v>
+        <v>33.20022818026241</v>
       </c>
       <c r="F70" s="37" t="n"/>
     </row>
@@ -30828,10 +31470,10 @@
         <v>1</v>
       </c>
       <c r="D71" s="38" t="n">
-        <v>2320</v>
+        <v>2329</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>33.08613804905875</v>
+        <v>33.21448944666287</v>
       </c>
       <c r="F71" s="37" t="n"/>
     </row>
@@ -30848,10 +31490,10 @@
         <v>2</v>
       </c>
       <c r="D72" s="38" t="n">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="E72" s="39" t="n">
-        <v>33.61380490587565</v>
+        <v>33.58528237307473</v>
       </c>
       <c r="F72" s="37" t="n"/>
     </row>
@@ -30868,10 +31510,10 @@
         <v>0</v>
       </c>
       <c r="D73" s="38" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E73" s="39" t="n">
-        <v>33.60107095046854</v>
+        <v>33.53413654618474</v>
       </c>
       <c r="F73" s="37" t="n"/>
     </row>
@@ -30908,10 +31550,10 @@
         <v>2</v>
       </c>
       <c r="D75" s="40" t="n">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E75" s="40" t="n">
-        <v>32.66398929049532</v>
+        <v>32.73092369477911</v>
       </c>
       <c r="F75" s="37" t="n"/>
     </row>
@@ -30928,10 +31570,10 @@
         <v>0</v>
       </c>
       <c r="D76" s="38" t="n">
-        <v>3049</v>
+        <v>3042</v>
       </c>
       <c r="E76" s="39" t="n">
-        <v>33.4576977943597</v>
+        <v>33.38088445078459</v>
       </c>
       <c r="F76" s="37" t="n"/>
     </row>
@@ -30948,10 +31590,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="38" t="n">
-        <v>3014</v>
+        <v>3022</v>
       </c>
       <c r="E77" s="39" t="n">
-        <v>33.07363107648415</v>
+        <v>33.1614177548557</v>
       </c>
       <c r="F77" s="37" t="n"/>
     </row>
@@ -30968,10 +31610,10 @@
         <v>2</v>
       </c>
       <c r="D78" s="38" t="n">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="E78" s="39" t="n">
-        <v>33.46867112915615</v>
+        <v>33.4576977943597</v>
       </c>
       <c r="F78" s="37" t="n"/>
     </row>
@@ -30988,10 +31630,10 @@
         <v>0</v>
       </c>
       <c r="D79" s="38" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E79" s="39" t="n">
-        <v>32.69447576099211</v>
+        <v>32.46899661781285</v>
       </c>
       <c r="F79" s="37" t="n"/>
     </row>
@@ -31008,10 +31650,10 @@
         <v>1</v>
       </c>
       <c r="D80" s="38" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E80" s="39" t="n">
-        <v>35.40022547914317</v>
+        <v>35.51296505073281</v>
       </c>
       <c r="F80" s="37" t="n"/>
     </row>
@@ -31028,10 +31670,10 @@
         <v>2</v>
       </c>
       <c r="D81" s="40" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E81" s="40" t="n">
-        <v>31.90529875986471</v>
+        <v>32.01803833145434</v>
       </c>
       <c r="F81" s="37" t="n"/>
     </row>
@@ -31048,10 +31690,10 @@
         <v>0</v>
       </c>
       <c r="D82" s="38" t="n">
-        <v>2108</v>
+        <v>2102</v>
       </c>
       <c r="E82" s="39" t="n">
-        <v>34.08796895213454</v>
+        <v>33.99094437257438</v>
       </c>
       <c r="F82" s="37" t="n"/>
     </row>
@@ -31068,10 +31710,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="38" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E83" s="39" t="n">
-        <v>32.56791720569211</v>
+        <v>32.63260025873221</v>
       </c>
       <c r="F83" s="37" t="n"/>
     </row>
@@ -31088,10 +31730,10 @@
         <v>2</v>
       </c>
       <c r="D84" s="38" t="n">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="E84" s="39" t="n">
-        <v>33.34411384217335</v>
+        <v>33.3764553686934</v>
       </c>
       <c r="F84" s="37" t="n"/>
     </row>
@@ -31108,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="D85" s="38" t="n">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E85" s="39" t="n">
-        <v>32.25890985324947</v>
+        <v>32.18029350104822</v>
       </c>
       <c r="F85" s="37" t="n"/>
     </row>
@@ -31128,10 +31770,10 @@
         <v>1</v>
       </c>
       <c r="D86" s="38" t="n">
-        <v>1314</v>
+        <v>1319</v>
       </c>
       <c r="E86" s="39" t="n">
-        <v>34.43396226415094</v>
+        <v>34.5649895178197</v>
       </c>
       <c r="F86" s="37" t="n"/>
     </row>
@@ -31148,10 +31790,10 @@
         <v>2</v>
       </c>
       <c r="D87" s="40" t="n">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="E87" s="40" t="n">
-        <v>33.30712788259958</v>
+        <v>33.25471698113208</v>
       </c>
       <c r="F87" s="37" t="n"/>
     </row>
@@ -31168,10 +31810,10 @@
         <v>0</v>
       </c>
       <c r="D88" s="38" t="n">
-        <v>2838</v>
+        <v>2832</v>
       </c>
       <c r="E88" s="39" t="n">
-        <v>33.54609929078014</v>
+        <v>33.47517730496454</v>
       </c>
       <c r="F88" s="37" t="n"/>
     </row>
@@ -31188,10 +31830,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="38" t="n">
-        <v>2803</v>
+        <v>2811</v>
       </c>
       <c r="E89" s="39" t="n">
-        <v>33.13238770685579</v>
+        <v>33.22695035460993</v>
       </c>
       <c r="F89" s="37" t="n"/>
     </row>
@@ -31208,10 +31850,10 @@
         <v>2</v>
       </c>
       <c r="D90" s="38" t="n">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="E90" s="39" t="n">
-        <v>33.32151300236406</v>
+        <v>33.29787234042553</v>
       </c>
       <c r="F90" s="37" t="n"/>
     </row>
@@ -31228,10 +31870,10 @@
         <v>0</v>
       </c>
       <c r="D91" s="38" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E91" s="39" t="n">
-        <v>32.53246753246754</v>
+        <v>32.33766233766234</v>
       </c>
       <c r="F91" s="37" t="n"/>
     </row>
@@ -31248,10 +31890,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="38" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E92" s="39" t="n">
-        <v>34.09090909090909</v>
+        <v>34.15584415584416</v>
       </c>
       <c r="F92" s="37" t="n"/>
     </row>
@@ -31268,10 +31910,10 @@
         <v>2</v>
       </c>
       <c r="D93" s="40" t="n">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E93" s="40" t="n">
-        <v>33.37662337662338</v>
+        <v>33.50649350649351</v>
       </c>
       <c r="F93" s="37" t="n"/>
     </row>
@@ -31290,10 +31932,10 @@
         <v>0</v>
       </c>
       <c r="D94" s="38" t="n">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="E94" s="39" t="n">
-        <v>33.23029366306028</v>
+        <v>33.10149407521896</v>
       </c>
       <c r="F94" s="37" t="n"/>
     </row>
@@ -31312,10 +31954,10 @@
         <v>1</v>
       </c>
       <c r="D95" s="38" t="n">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="E95" s="39" t="n">
-        <v>33.48789283874292</v>
+        <v>33.61669242658423</v>
       </c>
       <c r="F95" s="37" t="n"/>
     </row>
@@ -31356,10 +31998,10 @@
         <v>0</v>
       </c>
       <c r="D97" s="38" t="n">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E97" s="39" t="n">
-        <v>34.6897663174859</v>
+        <v>34.6494762288477</v>
       </c>
       <c r="F97" s="37" t="n"/>
     </row>
@@ -31378,10 +32020,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="38" t="n">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E98" s="39" t="n">
-        <v>32.71555197421434</v>
+        <v>32.79613215149073</v>
       </c>
       <c r="F98" s="37" t="n"/>
     </row>
@@ -31400,10 +32042,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="38" t="n">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E99" s="39" t="n">
-        <v>32.59468170829976</v>
+        <v>32.55439161966157</v>
       </c>
       <c r="F99" s="37" t="n"/>
     </row>
@@ -31422,10 +32064,10 @@
         <v>0</v>
       </c>
       <c r="D100" s="38" t="n">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="E100" s="39" t="n">
-        <v>32.62309242729629</v>
+        <v>32.53671177656205</v>
       </c>
       <c r="F100" s="37" t="n"/>
     </row>
@@ -31444,10 +32086,10 @@
         <v>1</v>
       </c>
       <c r="D101" s="38" t="n">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="E101" s="39" t="n">
-        <v>33.4581053843939</v>
+        <v>33.51569248488339</v>
       </c>
       <c r="F101" s="37" t="n"/>
     </row>
@@ -31466,10 +32108,10 @@
         <v>2</v>
       </c>
       <c r="D102" s="40" t="n">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E102" s="40" t="n">
-        <v>33.91880218830982</v>
+        <v>33.94759573855456</v>
       </c>
       <c r="F102" s="37" t="n"/>
     </row>
@@ -31796,10 +32438,10 @@
         <v>0</v>
       </c>
       <c r="D117" s="38" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E117" s="39" t="n">
-        <v>34.73684210526316</v>
+        <v>34.38596491228071</v>
       </c>
       <c r="F117" s="37" t="n"/>
     </row>
@@ -31840,10 +32482,10 @@
         <v>2</v>
       </c>
       <c r="D119" s="38" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E119" s="39" t="n">
-        <v>35.43859649122807</v>
+        <v>35.78947368421053</v>
       </c>
       <c r="F119" s="37" t="n"/>
     </row>
@@ -32016,10 +32658,10 @@
         <v>1</v>
       </c>
       <c r="D127" s="38" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E127" s="39" t="n">
-        <v>30.20833333333333</v>
+        <v>30.72916666666667</v>
       </c>
       <c r="F127" s="37" t="n"/>
     </row>
@@ -32038,10 +32680,10 @@
         <v>2</v>
       </c>
       <c r="D128" s="38" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E128" s="39" t="n">
-        <v>35.9375</v>
+        <v>35.41666666666667</v>
       </c>
       <c r="F128" s="37" t="n"/>
     </row>
@@ -32060,10 +32702,10 @@
         <v>0</v>
       </c>
       <c r="D129" s="38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E129" s="39" t="n">
-        <v>26.47058823529412</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="F129" s="37" t="n"/>
     </row>
@@ -32104,10 +32746,10 @@
         <v>2</v>
       </c>
       <c r="D131" s="38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E131" s="39" t="n">
-        <v>32.35294117647059</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="F131" s="37" t="n"/>
     </row>
@@ -32214,10 +32856,10 @@
         <v>1</v>
       </c>
       <c r="D136" s="38" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E136" s="39" t="n">
-        <v>32.56281407035176</v>
+        <v>32.66331658291458</v>
       </c>
       <c r="F136" s="37" t="n"/>
     </row>
@@ -32236,10 +32878,10 @@
         <v>2</v>
       </c>
       <c r="D137" s="38" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E137" s="39" t="n">
-        <v>31.85929648241206</v>
+        <v>31.75879396984925</v>
       </c>
       <c r="F137" s="37" t="n"/>
     </row>
@@ -32258,10 +32900,10 @@
         <v>0</v>
       </c>
       <c r="D138" s="38" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E138" s="39" t="n">
-        <v>30.13698630136986</v>
+        <v>29.86301369863014</v>
       </c>
       <c r="F138" s="37" t="n"/>
     </row>
@@ -32302,10 +32944,10 @@
         <v>2</v>
       </c>
       <c r="D140" s="38" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E140" s="39" t="n">
-        <v>35.89041095890411</v>
+        <v>36.16438356164384</v>
       </c>
       <c r="F140" s="37" t="n"/>
     </row>
@@ -32588,10 +33230,10 @@
         <v>0</v>
       </c>
       <c r="D153" s="38" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E153" s="39" t="n">
-        <v>34.27762039660057</v>
+        <v>33.9943342776204</v>
       </c>
       <c r="F153" s="37" t="n"/>
     </row>
@@ -32632,10 +33274,10 @@
         <v>2</v>
       </c>
       <c r="D155" s="38" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E155" s="39" t="n">
-        <v>32.01133144475921</v>
+        <v>32.29461756373937</v>
       </c>
       <c r="F155" s="37" t="n"/>
     </row>
@@ -32874,10 +33516,10 @@
         <v>1</v>
       </c>
       <c r="D166" s="38" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E166" s="39" t="n">
-        <v>33.92857142857143</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="F166" s="37" t="n"/>
     </row>
@@ -32896,10 +33538,10 @@
         <v>2</v>
       </c>
       <c r="D167" s="38" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E167" s="39" t="n">
-        <v>33.92857142857143</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="F167" s="37" t="n"/>
     </row>
@@ -32984,10 +33626,10 @@
         <v>0</v>
       </c>
       <c r="D171" s="38" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E171" s="39" t="n">
-        <v>32.99492385786802</v>
+        <v>32.48730964467005</v>
       </c>
       <c r="F171" s="37" t="n"/>
     </row>
@@ -33028,10 +33670,10 @@
         <v>2</v>
       </c>
       <c r="D173" s="38" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E173" s="39" t="n">
-        <v>34.01015228426396</v>
+        <v>34.51776649746193</v>
       </c>
       <c r="F173" s="37" t="n"/>
     </row>
@@ -33754,10 +34396,10 @@
         <v>1</v>
       </c>
       <c r="D206" s="38" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E206" s="39" t="n">
-        <v>30.33240997229917</v>
+        <v>30.47091412742382</v>
       </c>
       <c r="F206" s="37" t="n"/>
     </row>
@@ -33776,10 +34418,10 @@
         <v>2</v>
       </c>
       <c r="D207" s="38" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E207" s="39" t="n">
-        <v>36.42659279778393</v>
+        <v>36.28808864265928</v>
       </c>
       <c r="F207" s="37" t="n"/>
     </row>
@@ -33952,10 +34594,10 @@
         <v>1</v>
       </c>
       <c r="D215" s="38" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E215" s="39" t="n">
-        <v>33.28445747800586</v>
+        <v>33.43108504398827</v>
       </c>
       <c r="F215" s="37" t="n"/>
     </row>
@@ -33974,10 +34616,10 @@
         <v>2</v>
       </c>
       <c r="D216" s="38" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E216" s="39" t="n">
-        <v>35.19061583577713</v>
+        <v>35.04398826979472</v>
       </c>
       <c r="F216" s="37" t="n"/>
     </row>
@@ -33996,10 +34638,10 @@
         <v>0</v>
       </c>
       <c r="D217" s="38" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E217" s="39" t="n">
-        <v>35.23809523809524</v>
+        <v>35.15151515151515</v>
       </c>
       <c r="F217" s="37" t="n"/>
     </row>
@@ -34040,10 +34682,10 @@
         <v>2</v>
       </c>
       <c r="D219" s="38" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E219" s="39" t="n">
-        <v>32.9004329004329</v>
+        <v>32.98701298701299</v>
       </c>
       <c r="F219" s="37" t="n"/>
     </row>
@@ -34194,10 +34836,10 @@
         <v>0</v>
       </c>
       <c r="D226" s="38" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E226" s="39" t="n">
-        <v>30.3475935828877</v>
+        <v>30.08021390374331</v>
       </c>
       <c r="F226" s="37" t="n"/>
     </row>
@@ -34216,10 +34858,10 @@
         <v>1</v>
       </c>
       <c r="D227" s="38" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E227" s="39" t="n">
-        <v>34.49197860962567</v>
+        <v>34.62566844919786</v>
       </c>
       <c r="F227" s="37" t="n"/>
     </row>
@@ -34238,10 +34880,10 @@
         <v>2</v>
       </c>
       <c r="D228" s="38" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E228" s="39" t="n">
-        <v>35.16042780748663</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="F228" s="37" t="n"/>
     </row>
@@ -34502,10 +35144,10 @@
         <v>0</v>
       </c>
       <c r="D240" s="38" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E240" s="39" t="n">
-        <v>35.51401869158878</v>
+        <v>35.39719626168225</v>
       </c>
       <c r="F240" s="37" t="n"/>
     </row>
@@ -34524,10 +35166,10 @@
         <v>1</v>
       </c>
       <c r="D241" s="38" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E241" s="39" t="n">
-        <v>34.92990654205607</v>
+        <v>35.04672897196262</v>
       </c>
       <c r="F241" s="37" t="n"/>
     </row>
@@ -34656,10 +35298,10 @@
         <v>1</v>
       </c>
       <c r="D247" s="38" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E247" s="39" t="n">
-        <v>29.25373134328358</v>
+        <v>29.85074626865671</v>
       </c>
       <c r="F247" s="37" t="n"/>
     </row>
@@ -34678,10 +35320,10 @@
         <v>2</v>
       </c>
       <c r="D248" s="38" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E248" s="39" t="n">
-        <v>35.22388059701493</v>
+        <v>34.6268656716418</v>
       </c>
       <c r="F248" s="37" t="n"/>
     </row>
@@ -34986,10 +35628,10 @@
         <v>0</v>
       </c>
       <c r="D262" s="38" t="n">
-        <v>2377</v>
+        <v>2370</v>
       </c>
       <c r="E262" s="39" t="n">
-        <v>33.24010627884212</v>
+        <v>33.14221787162634</v>
       </c>
       <c r="F262" s="37" t="n"/>
     </row>
@@ -35008,10 +35650,10 @@
         <v>1</v>
       </c>
       <c r="D263" s="38" t="n">
-        <v>2411</v>
+        <v>2418</v>
       </c>
       <c r="E263" s="39" t="n">
-        <v>33.71556425674731</v>
+        <v>33.81345266396308</v>
       </c>
       <c r="F263" s="37" t="n"/>
     </row>
@@ -35052,10 +35694,10 @@
         <v>0</v>
       </c>
       <c r="D265" s="38" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E265" s="39" t="n">
-        <v>33.65384615384615</v>
+        <v>33.47902097902098</v>
       </c>
       <c r="F265" s="37" t="n"/>
     </row>
@@ -35074,10 +35716,10 @@
         <v>1</v>
       </c>
       <c r="D266" s="38" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E266" s="39" t="n">
-        <v>32.34265734265735</v>
+        <v>32.43006993006993</v>
       </c>
       <c r="F266" s="37" t="n"/>
     </row>
@@ -35096,10 +35738,10 @@
         <v>2</v>
       </c>
       <c r="D267" s="40" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E267" s="40" t="n">
-        <v>34.00349650349651</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="F267" s="37" t="n"/>
     </row>
@@ -35118,10 +35760,10 @@
         <v>0</v>
       </c>
       <c r="D268" s="38" t="n">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E268" s="39" t="n">
-        <v>34.69267139479905</v>
+        <v>34.51536643026004</v>
       </c>
       <c r="F268" s="37" t="n"/>
     </row>
@@ -35140,10 +35782,10 @@
         <v>1</v>
       </c>
       <c r="D269" s="38" t="n">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E269" s="39" t="n">
-        <v>31.26477541371158</v>
+        <v>31.38297872340425</v>
       </c>
       <c r="F269" s="37" t="n"/>
     </row>
@@ -35162,10 +35804,10 @@
         <v>2</v>
       </c>
       <c r="D270" s="38" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E270" s="39" t="n">
-        <v>34.04255319148936</v>
+        <v>34.1016548463357</v>
       </c>
       <c r="F270" s="37" t="n"/>
     </row>
@@ -35184,10 +35826,10 @@
         <v>0</v>
       </c>
       <c r="D271" s="38" t="n">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E271" s="39" t="n">
-        <v>31.94381513366561</v>
+        <v>31.85319438151337</v>
       </c>
       <c r="F271" s="37" t="n"/>
     </row>
@@ -35206,10 +35848,10 @@
         <v>1</v>
       </c>
       <c r="D272" s="38" t="n">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="E272" s="39" t="n">
-        <v>33.75623017671047</v>
+        <v>33.89216130493883</v>
       </c>
       <c r="F272" s="37" t="n"/>
     </row>
@@ -35228,10 +35870,10 @@
         <v>2</v>
       </c>
       <c r="D273" s="38" t="n">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E273" s="39" t="n">
-        <v>34.29995468962392</v>
+        <v>34.25464431354781</v>
       </c>
       <c r="F273" s="37" t="n"/>
     </row>
@@ -35250,10 +35892,10 @@
         <v>0</v>
       </c>
       <c r="D274" s="38" t="n">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="E274" s="39" t="n">
-        <v>33.43949044585987</v>
+        <v>33.34849863512284</v>
       </c>
       <c r="F274" s="37" t="n"/>
     </row>
@@ -35272,10 +35914,10 @@
         <v>1</v>
       </c>
       <c r="D275" s="38" t="n">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="E275" s="39" t="n">
-        <v>34.28116469517744</v>
+        <v>34.34940855323021</v>
       </c>
       <c r="F275" s="37" t="n"/>
     </row>
@@ -35294,10 +35936,10 @@
         <v>2</v>
       </c>
       <c r="D276" s="40" t="n">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E276" s="40" t="n">
-        <v>32.27934485896269</v>
+        <v>32.30209281164696</v>
       </c>
       <c r="F276" s="37" t="n"/>
     </row>
@@ -35314,10 +35956,10 @@
         <v>0</v>
       </c>
       <c r="D277" s="38" t="n">
-        <v>2595</v>
+        <v>2586</v>
       </c>
       <c r="E277" s="39" t="n">
-        <v>33.26496602999616</v>
+        <v>33.14959620561466</v>
       </c>
       <c r="F277" s="37" t="n"/>
     </row>
@@ -35334,10 +35976,10 @@
         <v>1</v>
       </c>
       <c r="D278" s="38" t="n">
-        <v>2619</v>
+        <v>2626</v>
       </c>
       <c r="E278" s="39" t="n">
-        <v>33.57261889501346</v>
+        <v>33.66235098064351</v>
       </c>
       <c r="F278" s="37" t="n"/>
     </row>
@@ -35354,10 +35996,10 @@
         <v>2</v>
       </c>
       <c r="D279" s="38" t="n">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="E279" s="39" t="n">
-        <v>33.16241507499038</v>
+        <v>33.18805281374183</v>
       </c>
       <c r="F279" s="37" t="n"/>
     </row>
@@ -35394,10 +36036,10 @@
         <v>1</v>
       </c>
       <c r="D281" s="38" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E281" s="39" t="n">
-        <v>32.79352226720648</v>
+        <v>32.99595141700405</v>
       </c>
       <c r="F281" s="37" t="n"/>
     </row>
@@ -35414,10 +36056,10 @@
         <v>2</v>
       </c>
       <c r="D282" s="40" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E282" s="40" t="n">
-        <v>33.40080971659919</v>
+        <v>33.19838056680162</v>
       </c>
       <c r="F282" s="37" t="n"/>
     </row>
@@ -35434,10 +36076,10 @@
         <v>0</v>
       </c>
       <c r="D283" s="38" t="n">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="E283" s="39" t="n">
-        <v>33.18791404104056</v>
+        <v>33.12328324446599</v>
       </c>
       <c r="F283" s="37" t="n"/>
     </row>
@@ -35454,10 +36096,10 @@
         <v>1</v>
       </c>
       <c r="D284" s="38" t="n">
-        <v>2093</v>
+        <v>2097</v>
       </c>
       <c r="E284" s="39" t="n">
-        <v>33.81806430764259</v>
+        <v>33.88269510421716</v>
       </c>
       <c r="F284" s="37" t="n"/>
     </row>
@@ -35494,10 +36136,10 @@
         <v>0</v>
       </c>
       <c r="D286" s="38" t="n">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E286" s="39" t="n">
-        <v>33.61823361823362</v>
+        <v>33.38081671415004</v>
       </c>
       <c r="F286" s="37" t="n"/>
     </row>
@@ -35514,10 +36156,10 @@
         <v>1</v>
       </c>
       <c r="D287" s="38" t="n">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="E287" s="39" t="n">
-        <v>32.66856600189934</v>
+        <v>32.85849952516619</v>
       </c>
       <c r="F287" s="37" t="n"/>
     </row>
@@ -35534,10 +36176,10 @@
         <v>2</v>
       </c>
       <c r="D288" s="40" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E288" s="40" t="n">
-        <v>33.71320037986705</v>
+        <v>33.76068376068376</v>
       </c>
       <c r="F288" s="37" t="n"/>
     </row>
@@ -35554,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="D289" s="38" t="n">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="E289" s="39" t="n">
-        <v>33.38635279147447</v>
+        <v>33.30682360426277</v>
       </c>
       <c r="F289" s="37" t="n"/>
     </row>
@@ -35574,10 +36216,10 @@
         <v>1</v>
       </c>
       <c r="D290" s="38" t="n">
-        <v>2118</v>
+        <v>2123</v>
       </c>
       <c r="E290" s="39" t="n">
-        <v>33.68856370287895</v>
+        <v>33.76809289009066</v>
       </c>
       <c r="F290" s="37" t="n"/>
     </row>
@@ -35614,10 +36256,10 @@
         <v>0</v>
       </c>
       <c r="D292" s="38" t="n">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E292" s="39" t="n">
-        <v>33.01792828685259</v>
+        <v>32.81872509960159</v>
       </c>
       <c r="F292" s="37" t="n"/>
     </row>
@@ -35634,10 +36276,10 @@
         <v>1</v>
       </c>
       <c r="D293" s="38" t="n">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="E293" s="39" t="n">
-        <v>33.01792828685259</v>
+        <v>33.16733067729083</v>
       </c>
       <c r="F293" s="37" t="n"/>
     </row>
@@ -35654,10 +36296,10 @@
         <v>2</v>
       </c>
       <c r="D294" s="40" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E294" s="40" t="n">
-        <v>33.96414342629482</v>
+        <v>34.01394422310756</v>
       </c>
       <c r="F294" s="37" t="n"/>
     </row>
@@ -35674,10 +36316,10 @@
         <v>0</v>
       </c>
       <c r="D295" s="38" t="n">
-        <v>2489</v>
+        <v>2482</v>
       </c>
       <c r="E295" s="39" t="n">
-        <v>33.08520537019806</v>
+        <v>32.99215738402233</v>
       </c>
       <c r="F295" s="37" t="n"/>
     </row>
@@ -35694,10 +36336,10 @@
         <v>1</v>
       </c>
       <c r="D296" s="38" t="n">
-        <v>2539</v>
+        <v>2547</v>
       </c>
       <c r="E296" s="39" t="n">
-        <v>33.74983384288183</v>
+        <v>33.85617439851123</v>
       </c>
       <c r="F296" s="37" t="n"/>
     </row>
@@ -35714,10 +36356,10 @@
         <v>2</v>
       </c>
       <c r="D297" s="38" t="n">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="E297" s="39" t="n">
-        <v>33.16496078692011</v>
+        <v>33.15166821746644</v>
       </c>
       <c r="F297" s="37" t="n"/>
     </row>
@@ -35734,10 +36376,10 @@
         <v>0</v>
       </c>
       <c r="D298" s="38" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E298" s="39" t="n">
-        <v>35.36269430051814</v>
+        <v>35.10362694300518</v>
       </c>
       <c r="F298" s="37" t="n"/>
     </row>
@@ -35774,10 +36416,10 @@
         <v>2</v>
       </c>
       <c r="D300" s="40" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E300" s="40" t="n">
-        <v>33.29015544041451</v>
+        <v>33.54922279792746</v>
       </c>
       <c r="F300" s="37" t="n"/>
     </row>
@@ -35794,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="D301" s="38" t="n">
-        <v>2503</v>
+        <v>2496</v>
       </c>
       <c r="E301" s="39" t="n">
-        <v>33.00804430963998</v>
+        <v>32.91573255967295</v>
       </c>
       <c r="F301" s="37" t="n"/>
     </row>
@@ -35814,10 +36456,10 @@
         <v>1</v>
       </c>
       <c r="D302" s="38" t="n">
-        <v>2551</v>
+        <v>2559</v>
       </c>
       <c r="E302" s="39" t="n">
-        <v>33.64103916655677</v>
+        <v>33.74653830937623</v>
       </c>
       <c r="F302" s="37" t="n"/>
     </row>
@@ -35834,10 +36476,10 @@
         <v>2</v>
       </c>
       <c r="D303" s="38" t="n">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="E303" s="39" t="n">
-        <v>33.35091652380324</v>
+        <v>33.33772913095081</v>
       </c>
       <c r="F303" s="37" t="n"/>
     </row>
@@ -35854,10 +36496,10 @@
         <v>0</v>
       </c>
       <c r="D304" s="38" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E304" s="39" t="n">
-        <v>36.37640449438202</v>
+        <v>36.09550561797753</v>
       </c>
       <c r="F304" s="37" t="n"/>
     </row>
@@ -35894,10 +36536,10 @@
         <v>2</v>
       </c>
       <c r="D306" s="40" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E306" s="40" t="n">
-        <v>31.32022471910113</v>
+        <v>31.60112359550562</v>
       </c>
       <c r="F306" s="37" t="n"/>
     </row>
@@ -35914,10 +36556,10 @@
         <v>0</v>
       </c>
       <c r="D307" s="38" t="n">
-        <v>2512</v>
+        <v>2504</v>
       </c>
       <c r="E307" s="39" t="n">
-        <v>33.01787592008412</v>
+        <v>32.91272344900105</v>
       </c>
       <c r="F307" s="37" t="n"/>
     </row>
@@ -35934,10 +36576,10 @@
         <v>1</v>
       </c>
       <c r="D308" s="38" t="n">
-        <v>2576</v>
+        <v>2583</v>
       </c>
       <c r="E308" s="39" t="n">
-        <v>33.85909568874869</v>
+        <v>33.95110410094637</v>
       </c>
       <c r="F308" s="37" t="n"/>
     </row>
@@ -35954,10 +36596,10 @@
         <v>2</v>
       </c>
       <c r="D309" s="38" t="n">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="E309" s="39" t="n">
-        <v>33.12302839116719</v>
+        <v>33.13617245005258</v>
       </c>
       <c r="F309" s="37" t="n"/>
     </row>
@@ -35974,10 +36616,10 @@
         <v>0</v>
       </c>
       <c r="D310" s="38" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E310" s="39" t="n">
-        <v>36.3901018922853</v>
+        <v>36.24454148471616</v>
       </c>
       <c r="F310" s="37" t="n"/>
     </row>
@@ -35994,10 +36636,10 @@
         <v>1</v>
       </c>
       <c r="D311" s="38" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E311" s="39" t="n">
-        <v>29.83988355167395</v>
+        <v>29.98544395924309</v>
       </c>
       <c r="F311" s="37" t="n"/>
     </row>
@@ -36034,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="D313" s="38" t="n">
-        <v>2510</v>
+        <v>2502</v>
       </c>
       <c r="E313" s="39" t="n">
-        <v>33.01328422990925</v>
+        <v>32.90806260686571</v>
       </c>
       <c r="F313" s="37" t="n"/>
     </row>
@@ -36054,10 +36696,10 @@
         <v>1</v>
       </c>
       <c r="D314" s="38" t="n">
-        <v>2546</v>
+        <v>2554</v>
       </c>
       <c r="E314" s="39" t="n">
-        <v>33.48678153360515</v>
+        <v>33.59200315664869</v>
       </c>
       <c r="F314" s="37" t="n"/>
     </row>
@@ -36094,10 +36736,10 @@
         <v>0</v>
       </c>
       <c r="D316" s="38" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E316" s="39" t="n">
-        <v>36.41618497109826</v>
+        <v>36.27167630057804</v>
       </c>
       <c r="F316" s="37" t="n"/>
     </row>
@@ -36134,10 +36776,10 @@
         <v>2</v>
       </c>
       <c r="D318" s="40" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E318" s="40" t="n">
-        <v>29.6242774566474</v>
+        <v>29.76878612716763</v>
       </c>
       <c r="F318" s="37" t="n"/>
     </row>
@@ -36154,10 +36796,10 @@
         <v>0</v>
       </c>
       <c r="D319" s="38" t="n">
-        <v>2522</v>
+        <v>2517</v>
       </c>
       <c r="E319" s="39" t="n">
-        <v>33.50159404888417</v>
+        <v>33.43517534537726</v>
       </c>
       <c r="F319" s="37" t="n"/>
     </row>
@@ -36174,10 +36816,10 @@
         <v>1</v>
       </c>
       <c r="D320" s="38" t="n">
-        <v>2522</v>
+        <v>2529</v>
       </c>
       <c r="E320" s="39" t="n">
-        <v>33.50159404888417</v>
+        <v>33.59458023379383</v>
       </c>
       <c r="F320" s="37" t="n"/>
     </row>
@@ -36194,10 +36836,10 @@
         <v>2</v>
       </c>
       <c r="D321" s="38" t="n">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="E321" s="39" t="n">
-        <v>32.99681190223167</v>
+        <v>32.97024442082891</v>
       </c>
       <c r="F321" s="37" t="n"/>
     </row>
@@ -36214,10 +36856,10 @@
         <v>0</v>
       </c>
       <c r="D322" s="38" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E322" s="39" t="n">
-        <v>31.29074315514994</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="F322" s="37" t="n"/>
     </row>
@@ -36234,10 +36876,10 @@
         <v>1</v>
       </c>
       <c r="D323" s="38" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E323" s="39" t="n">
-        <v>33.76792698826597</v>
+        <v>33.89830508474576</v>
       </c>
       <c r="F323" s="37" t="n"/>
     </row>
@@ -36254,10 +36896,10 @@
         <v>2</v>
       </c>
       <c r="D324" s="40" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E324" s="40" t="n">
-        <v>34.94132985658409</v>
+        <v>35.33246414602347</v>
       </c>
       <c r="F324" s="37" t="n"/>
     </row>
@@ -36274,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="D325" s="38" t="n">
-        <v>2451</v>
+        <v>2443</v>
       </c>
       <c r="E325" s="39" t="n">
-        <v>33.40602426059697</v>
+        <v>33.29698786970151</v>
       </c>
       <c r="F325" s="37" t="n"/>
     </row>
@@ -36294,10 +36936,10 @@
         <v>1</v>
       </c>
       <c r="D326" s="38" t="n">
-        <v>2456</v>
+        <v>2463</v>
       </c>
       <c r="E326" s="39" t="n">
-        <v>33.47417200490664</v>
+        <v>33.56957884694017</v>
       </c>
       <c r="F326" s="37" t="n"/>
     </row>
@@ -36314,10 +36956,10 @@
         <v>2</v>
       </c>
       <c r="D327" s="38" t="n">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="E327" s="39" t="n">
-        <v>33.11980373449639</v>
+        <v>33.13343328335832</v>
       </c>
       <c r="F327" s="37" t="n"/>
     </row>
@@ -36334,10 +36976,10 @@
         <v>0</v>
       </c>
       <c r="D328" s="38" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E328" s="39" t="n">
-        <v>32.46346555323591</v>
+        <v>32.35908141962422</v>
       </c>
       <c r="F328" s="37" t="n"/>
     </row>
@@ -36354,10 +36996,10 @@
         <v>1</v>
       </c>
       <c r="D329" s="38" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E329" s="39" t="n">
-        <v>33.92484342379959</v>
+        <v>34.02922755741128</v>
       </c>
       <c r="F329" s="37" t="n"/>
     </row>
@@ -36394,10 +37036,10 @@
         <v>0</v>
       </c>
       <c r="D331" s="38" t="n">
-        <v>2474</v>
+        <v>2467</v>
       </c>
       <c r="E331" s="39" t="n">
-        <v>32.96469020652898</v>
+        <v>32.87141905396403</v>
       </c>
       <c r="F331" s="37" t="n"/>
     </row>
@@ -36414,10 +37056,10 @@
         <v>1</v>
       </c>
       <c r="D332" s="38" t="n">
-        <v>2538</v>
+        <v>2545</v>
       </c>
       <c r="E332" s="39" t="n">
-        <v>33.81745502998002</v>
+        <v>33.91072618254497</v>
       </c>
       <c r="F332" s="37" t="n"/>
     </row>
@@ -36454,10 +37096,10 @@
         <v>0</v>
       </c>
       <c r="D334" s="38" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E334" s="39" t="n">
-        <v>36.45569620253165</v>
+        <v>36.20253164556962</v>
       </c>
       <c r="F334" s="37" t="n"/>
     </row>
@@ -36474,10 +37116,10 @@
         <v>1</v>
       </c>
       <c r="D335" s="38" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E335" s="39" t="n">
-        <v>30.75949367088607</v>
+        <v>30.88607594936709</v>
       </c>
       <c r="F335" s="37" t="n"/>
     </row>
@@ -36494,10 +37136,10 @@
         <v>2</v>
       </c>
       <c r="D336" s="40" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E336" s="40" t="n">
-        <v>32.78481012658228</v>
+        <v>32.91139240506329</v>
       </c>
       <c r="F336" s="37" t="n"/>
     </row>
@@ -36514,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="D337" s="38" t="n">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E337" s="39" t="n">
-        <v>32.95739348370928</v>
+        <v>32.89473684210527</v>
       </c>
       <c r="F337" s="37" t="n"/>
     </row>
@@ -36534,10 +37176,10 @@
         <v>1</v>
       </c>
       <c r="D338" s="38" t="n">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="E338" s="39" t="n">
-        <v>32.76942355889724</v>
+        <v>32.86340852130326</v>
       </c>
       <c r="F338" s="37" t="n"/>
     </row>
@@ -36554,10 +37196,10 @@
         <v>2</v>
       </c>
       <c r="D339" s="38" t="n">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E339" s="39" t="n">
-        <v>34.27318295739348</v>
+        <v>34.24185463659148</v>
       </c>
       <c r="F339" s="37" t="n"/>
     </row>
@@ -36574,10 +37216,10 @@
         <v>0</v>
       </c>
       <c r="D340" s="38" t="n">
-        <v>2287</v>
+        <v>2280</v>
       </c>
       <c r="E340" s="39" t="n">
-        <v>33.59283196239718</v>
+        <v>33.49001175088132</v>
       </c>
       <c r="F340" s="37" t="n"/>
     </row>
@@ -36594,10 +37236,10 @@
         <v>1</v>
       </c>
       <c r="D341" s="38" t="n">
-        <v>2282</v>
+        <v>2288</v>
       </c>
       <c r="E341" s="39" t="n">
-        <v>33.51938895417156</v>
+        <v>33.6075205640423</v>
       </c>
       <c r="F341" s="37" t="n"/>
     </row>
@@ -36614,10 +37256,10 @@
         <v>2</v>
       </c>
       <c r="D342" s="40" t="n">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="E342" s="40" t="n">
-        <v>32.88777908343125</v>
+        <v>32.90246768507638</v>
       </c>
       <c r="F342" s="37" t="n"/>
     </row>
@@ -36634,10 +37276,10 @@
         <v>0</v>
       </c>
       <c r="D343" s="38" t="n">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E343" s="39" t="n">
-        <v>33.4608843537415</v>
+        <v>33.41836734693878</v>
       </c>
       <c r="F343" s="37" t="n"/>
     </row>
@@ -36654,10 +37296,10 @@
         <v>1</v>
       </c>
       <c r="D344" s="38" t="n">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E344" s="39" t="n">
-        <v>32.39795918367347</v>
+        <v>32.48299319727892</v>
       </c>
       <c r="F344" s="37" t="n"/>
     </row>
@@ -36674,10 +37316,10 @@
         <v>2</v>
       </c>
       <c r="D345" s="38" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E345" s="39" t="n">
-        <v>34.14115646258503</v>
+        <v>34.09863945578231</v>
       </c>
       <c r="F345" s="37" t="n"/>
     </row>
@@ -36694,10 +37336,10 @@
         <v>0</v>
       </c>
       <c r="D346" s="38" t="n">
-        <v>2552</v>
+        <v>2544</v>
       </c>
       <c r="E346" s="39" t="n">
-        <v>33.36820083682008</v>
+        <v>33.26359832635983</v>
       </c>
       <c r="F346" s="37" t="n"/>
     </row>
@@ -36714,10 +37356,10 @@
         <v>1</v>
       </c>
       <c r="D347" s="38" t="n">
-        <v>2566</v>
+        <v>2573</v>
       </c>
       <c r="E347" s="39" t="n">
-        <v>33.55125523012552</v>
+        <v>33.64278242677825</v>
       </c>
       <c r="F347" s="37" t="n"/>
     </row>
@@ -36734,10 +37376,10 @@
         <v>2</v>
       </c>
       <c r="D348" s="40" t="n">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="E348" s="40" t="n">
-        <v>33.08054393305439</v>
+        <v>33.09361924686193</v>
       </c>
       <c r="F348" s="37" t="n"/>
     </row>
@@ -36754,10 +37396,10 @@
         <v>0</v>
       </c>
       <c r="D349" s="38" t="n">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="E349" s="39" t="n">
-        <v>33.40720221606649</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F349" s="37" t="n"/>
     </row>
@@ -36774,10 +37416,10 @@
         <v>1</v>
       </c>
       <c r="D350" s="38" t="n">
-        <v>1798</v>
+        <v>1804</v>
       </c>
       <c r="E350" s="39" t="n">
-        <v>33.20406278855032</v>
+        <v>33.31486611265005</v>
       </c>
       <c r="F350" s="37" t="n"/>
     </row>
@@ -36794,10 +37436,10 @@
         <v>2</v>
       </c>
       <c r="D351" s="38" t="n">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="E351" s="39" t="n">
-        <v>33.3887349953832</v>
+        <v>33.35180055401662</v>
       </c>
       <c r="F351" s="37" t="n"/>
     </row>
@@ -36814,10 +37456,10 @@
         <v>0</v>
       </c>
       <c r="D352" s="38" t="n">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="E352" s="39" t="n">
-        <v>33.36968375136314</v>
+        <v>33.26063249727372</v>
       </c>
       <c r="F352" s="37" t="n"/>
     </row>
@@ -36834,10 +37476,10 @@
         <v>1</v>
       </c>
       <c r="D353" s="38" t="n">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="E353" s="39" t="n">
-        <v>33.36968375136314</v>
+        <v>33.43511450381679</v>
       </c>
       <c r="F353" s="37" t="n"/>
     </row>
@@ -36854,10 +37496,10 @@
         <v>2</v>
       </c>
       <c r="D354" s="40" t="n">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="E354" s="40" t="n">
-        <v>33.26063249727372</v>
+        <v>33.30425299890949</v>
       </c>
       <c r="F354" s="37" t="n"/>
     </row>
@@ -36874,10 +37516,10 @@
         <v>0</v>
       </c>
       <c r="D355" s="38" t="n">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="E355" s="39" t="n">
-        <v>33.06063522617902</v>
+        <v>32.96438883541867</v>
       </c>
       <c r="F355" s="37" t="n"/>
     </row>
@@ -36894,10 +37536,10 @@
         <v>1</v>
       </c>
       <c r="D356" s="38" t="n">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="E356" s="39" t="n">
-        <v>32.98845043310876</v>
+        <v>33.13282001924927</v>
       </c>
       <c r="F356" s="37" t="n"/>
     </row>
@@ -36914,10 +37556,10 @@
         <v>2</v>
       </c>
       <c r="D357" s="38" t="n">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="E357" s="39" t="n">
-        <v>33.95091434071222</v>
+        <v>33.90279114533205</v>
       </c>
       <c r="F357" s="37" t="n"/>
     </row>
@@ -36934,10 +37576,10 @@
         <v>0</v>
       </c>
       <c r="D358" s="38" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="E358" s="39" t="n">
-        <v>33.62422997946612</v>
+        <v>33.53867214236824</v>
       </c>
       <c r="F358" s="37" t="n"/>
     </row>
@@ -36954,10 +37596,10 @@
         <v>1</v>
       </c>
       <c r="D359" s="38" t="n">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="E359" s="39" t="n">
-        <v>33.48733744010951</v>
+        <v>33.53867214236824</v>
       </c>
     </row>
     <row r="360" ht="25" customHeight="1">
@@ -36973,10 +37615,10 @@
         <v>2</v>
       </c>
       <c r="D360" s="39" t="n">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="E360" s="39" t="n">
-        <v>32.88843258042436</v>
+        <v>32.92265571526352</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/playbook.xlsx
+++ b/notebooks/playbook.xlsx
@@ -12,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Describe" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Analysis" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Charts" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster Average" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster wise Feature Statistics" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster-wise Feature Analysis" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
@@ -21265,13 +21265,13 @@
         </is>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="E3" s="13" t="n">
         <v>0</v>
@@ -21309,13 +21309,13 @@
         </is>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>0</v>
@@ -21378,16 +21378,16 @@
         <v>0.2</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -21459,7 +21459,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
@@ -21478,7 +21478,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
@@ -21488,7 +21488,7 @@
         </is>
       </c>
       <c r="B14" s="13" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="C14" s="13" t="n">
         <v>0.5</v>
@@ -21497,7 +21497,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
@@ -21516,7 +21516,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -21535,7 +21535,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -29062,27 +29062,27 @@
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="13" t="inlineStr">
         <is>
-          <t>op_rehab_allowed_amt_processed</t>
+          <t>tot_paid_amt_processed</t>
         </is>
       </c>
       <c r="B125" s="13" t="n">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="13" t="inlineStr">
         <is>
-          <t>medical_paid_pmpm_processed</t>
+          <t>op_rehab_allowed_amt_processed</t>
         </is>
       </c>
       <c r="B126" s="13" t="n">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="13" t="inlineStr">
         <is>
-          <t>medical_copay_pmpm_processed</t>
+          <t>srv_copay_amt_processed</t>
         </is>
       </c>
       <c r="B127" s="13" t="n">
@@ -29559,12 +29559,12 @@
       </c>
       <c r="C174" s="34" t="inlineStr">
         <is>
+          <t>lob</t>
+        </is>
+      </c>
+      <c r="D174" s="34" t="inlineStr">
+        <is>
           <t>urbsubr</t>
-        </is>
-      </c>
-      <c r="D174" s="34" t="inlineStr">
-        <is>
-          <t>lob</t>
         </is>
       </c>
     </row>
@@ -29578,20 +29578,20 @@
         <v>1</v>
       </c>
       <c r="C175" s="13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D175" s="13" t="n">
         <v>0.1</v>
-      </c>
-      <c r="D175" s="13" t="n">
-        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="176" ht="25" customHeight="1">
       <c r="A176" s="13" t="inlineStr">
         <is>
-          <t>urbsubr</t>
+          <t>lob</t>
         </is>
       </c>
       <c r="B176" s="13" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C176" s="13" t="n">
         <v>1</v>
@@ -29603,11 +29603,11 @@
     <row r="177" ht="25" customHeight="1">
       <c r="A177" s="13" t="inlineStr">
         <is>
-          <t>lob</t>
+          <t>urbsubr</t>
         </is>
       </c>
       <c r="B177" s="13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C177" s="13" t="n">
         <v>0.01</v>
@@ -29693,12 +29693,12 @@
       </c>
       <c r="D2" s="34" t="inlineStr">
         <is>
+          <t>pulse</t>
+        </is>
+      </c>
+      <c r="E2" s="34" t="inlineStr">
+        <is>
           <t>first_pulse</t>
-        </is>
-      </c>
-      <c r="E2" s="34" t="inlineStr">
-        <is>
-          <t>pulse</t>
         </is>
       </c>
       <c r="F2" s="34" t="inlineStr">
@@ -29718,10 +29718,10 @@
         <v>101057.4967374889</v>
       </c>
       <c r="D3" s="13" t="n">
+        <v>8.154192037302728</v>
+      </c>
+      <c r="E3" s="13" t="n">
         <v>8.111282746095169</v>
-      </c>
-      <c r="E3" s="13" t="n">
-        <v>8.154192037302728</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>8.44145154377043</v>
@@ -29732,19 +29732,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>42.51243632004795</v>
+        <v>42.89262147570486</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>98498.4996381953</v>
+        <v>100429.4765846274</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>8.102171961276438</v>
+        <v>8.168298380712471</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>8.170389829302986</v>
+        <v>8.111726652142346</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>8.430578809609175</v>
+        <v>8.445715613652867</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1">
@@ -29752,19 +29752,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>42.9003900390039</v>
+        <v>42.52008393285372</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>100429.2418187579</v>
+        <v>98497.67837738623</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>8.112142063203784</v>
+        <v>8.170854429028813</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>8.168767746580262</v>
+        <v>8.102578730272592</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>8.446224373410825</v>
+        <v>8.431075753228118</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
@@ -29792,12 +29792,12 @@
       </c>
       <c r="D8" s="34" t="inlineStr">
         <is>
+          <t>pulse</t>
+        </is>
+      </c>
+      <c r="E8" s="34" t="inlineStr">
+        <is>
           <t>first_pulse</t>
-        </is>
-      </c>
-      <c r="E8" s="34" t="inlineStr">
-        <is>
-          <t>pulse</t>
         </is>
       </c>
       <c r="F8" s="34" t="inlineStr">
@@ -29817,10 +29817,10 @@
         <v>87052.8882</v>
       </c>
       <c r="D9" s="13" t="n">
+        <v>8.053900000000001</v>
+      </c>
+      <c r="E9" s="13" t="n">
         <v>7.9862</v>
-      </c>
-      <c r="E9" s="13" t="n">
-        <v>8.053900000000001</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>8.331899999999999</v>
@@ -29831,19 +29831,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>86000</v>
+        <v>87000</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>7.9906</v>
+        <v>8.081300000000001</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>8.08225</v>
+        <v>7.997199999999999</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>8.334199999999999</v>
+        <v>8.3268</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -29851,19 +29851,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="13" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="13" t="n">
-        <v>87000</v>
+        <v>86000</v>
       </c>
       <c r="D11" s="13" t="n">
-        <v>7.9975</v>
+        <v>8.0823</v>
       </c>
       <c r="E11" s="13" t="n">
-        <v>8.081700000000001</v>
+        <v>7.991400000000001</v>
       </c>
       <c r="F11" s="13" t="n">
-        <v>8.3268</v>
+        <v>8.336099999999998</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
@@ -29891,12 +29891,12 @@
       </c>
       <c r="D14" s="34" t="inlineStr">
         <is>
+          <t>pulse</t>
+        </is>
+      </c>
+      <c r="E14" s="34" t="inlineStr">
+        <is>
           <t>first_pulse</t>
-        </is>
-      </c>
-      <c r="E14" s="34" t="inlineStr">
-        <is>
-          <t>pulse</t>
         </is>
       </c>
       <c r="F14" s="34" t="inlineStr">
@@ -29916,10 +29916,10 @@
         <v>73545.68294018554</v>
       </c>
       <c r="D15" s="13" t="n">
+        <v>1.068305932562551</v>
+      </c>
+      <c r="E15" s="13" t="n">
         <v>1.037500083211408</v>
-      </c>
-      <c r="E15" s="13" t="n">
-        <v>1.068305932562551</v>
       </c>
       <c r="F15" s="13" t="n">
         <v>1.03046234586642</v>
@@ -29930,19 +29930,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="n">
-        <v>22.91712818736963</v>
+        <v>22.83432521856754</v>
       </c>
       <c r="C16" s="13" t="n">
-        <v>70128.91883378659</v>
+        <v>75208.49330007608</v>
       </c>
       <c r="D16" s="13" t="n">
-        <v>1.028339726752856</v>
+        <v>1.072751346423613</v>
       </c>
       <c r="E16" s="13" t="n">
-        <v>1.038986704598944</v>
+        <v>1.05220948690419</v>
       </c>
       <c r="F16" s="13" t="n">
-        <v>1.018712833798931</v>
+        <v>1.028444835766027</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
@@ -29950,19 +29950,19 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="n">
-        <v>22.83334455346578</v>
+        <v>22.91630462801646</v>
       </c>
       <c r="C17" s="13" t="n">
-        <v>75219.94545702668</v>
+        <v>70139.56332630484</v>
       </c>
       <c r="D17" s="13" t="n">
-        <v>1.052174742823852</v>
+        <v>1.038879367058452</v>
       </c>
       <c r="E17" s="13" t="n">
-        <v>1.072659035987919</v>
+        <v>1.028299757501135</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>1.02828499148421</v>
+        <v>1.01855741216003</v>
       </c>
     </row>
   </sheetData>
@@ -30072,10 +30072,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="38" t="n">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="E4" s="39" t="n">
-        <v>33.24979114452798</v>
+        <v>35.00417710944026</v>
       </c>
       <c r="F4" s="37" t="n"/>
     </row>
@@ -30094,10 +30094,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="38" t="n">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E5" s="39" t="n">
-        <v>35.00417710944026</v>
+        <v>33.24979114452798</v>
       </c>
       <c r="F5" s="37" t="n"/>
     </row>
@@ -30138,10 +30138,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="38" t="n">
-        <v>2414</v>
+        <v>2399</v>
       </c>
       <c r="E7" s="39" t="n">
-        <v>33.23237885462555</v>
+        <v>33.02588105726873</v>
       </c>
       <c r="F7" s="37" t="n"/>
     </row>
@@ -30160,10 +30160,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="38" t="n">
-        <v>2398</v>
+        <v>2413</v>
       </c>
       <c r="E8" s="39" t="n">
-        <v>33.01211453744494</v>
+        <v>33.21861233480176</v>
       </c>
       <c r="F8" s="37" t="n"/>
     </row>
@@ -30204,10 +30204,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="38" t="n">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="E10" s="39" t="n">
-        <v>34.1130604288499</v>
+        <v>33.52826510721248</v>
       </c>
       <c r="F10" s="37" t="n"/>
     </row>
@@ -30226,10 +30226,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="40" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="E11" s="40" t="n">
-        <v>33.52826510721248</v>
+        <v>34.1130604288499</v>
       </c>
       <c r="F11" s="37" t="n"/>
     </row>
@@ -30270,10 +30270,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="38" t="n">
-        <v>1748</v>
+        <v>1723</v>
       </c>
       <c r="E13" s="39" t="n">
-        <v>33.65421640354255</v>
+        <v>33.17289179822873</v>
       </c>
       <c r="F13" s="37" t="n"/>
     </row>
@@ -30292,10 +30292,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="38" t="n">
-        <v>1722</v>
+        <v>1747</v>
       </c>
       <c r="E14" s="39" t="n">
-        <v>33.15363881401618</v>
+        <v>33.63496341932999</v>
       </c>
       <c r="F14" s="37" t="n"/>
     </row>
@@ -30336,10 +30336,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="38" t="n">
-        <v>1589</v>
+        <v>1611</v>
       </c>
       <c r="E16" s="39" t="n">
-        <v>33.0628381190179</v>
+        <v>33.52059925093633</v>
       </c>
       <c r="F16" s="37" t="n"/>
     </row>
@@ -30358,10 +30358,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="40" t="n">
-        <v>1611</v>
+        <v>1589</v>
       </c>
       <c r="E17" s="40" t="n">
-        <v>33.52059925093633</v>
+        <v>33.0628381190179</v>
       </c>
       <c r="F17" s="37" t="n"/>
     </row>
@@ -30398,10 +30398,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="38" t="n">
-        <v>1275</v>
+        <v>1293</v>
       </c>
       <c r="E19" s="39" t="n">
-        <v>33.15994798439532</v>
+        <v>33.62808842652796</v>
       </c>
       <c r="F19" s="37" t="n"/>
     </row>
@@ -30418,10 +30418,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="38" t="n">
-        <v>1293</v>
+        <v>1275</v>
       </c>
       <c r="E20" s="39" t="n">
-        <v>33.62808842652796</v>
+        <v>33.15994798439532</v>
       </c>
       <c r="F20" s="37" t="n"/>
     </row>
@@ -30458,10 +30458,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="38" t="n">
-        <v>2062</v>
+        <v>2041</v>
       </c>
       <c r="E22" s="39" t="n">
-        <v>33.50121852152721</v>
+        <v>33.16003249390739</v>
       </c>
       <c r="F22" s="37" t="n"/>
     </row>
@@ -30478,10 +30478,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="40" t="n">
-        <v>2040</v>
+        <v>2061</v>
       </c>
       <c r="E23" s="40" t="n">
-        <v>33.14378554021121</v>
+        <v>33.48497156783103</v>
       </c>
       <c r="F23" s="37" t="n"/>
     </row>
@@ -30522,10 +30522,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="38" t="n">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="E25" s="39" t="n">
-        <v>33.45381526104418</v>
+        <v>32.81124497991968</v>
       </c>
       <c r="F25" s="37" t="n"/>
     </row>
@@ -30544,10 +30544,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="38" t="n">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="E26" s="39" t="n">
-        <v>32.7710843373494</v>
+        <v>33.4136546184739</v>
       </c>
       <c r="F26" s="37" t="n"/>
     </row>
@@ -30588,10 +30588,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="38" t="n">
-        <v>1883</v>
+        <v>1915</v>
       </c>
       <c r="E28" s="39" t="n">
-        <v>33.26855123674912</v>
+        <v>33.8339222614841</v>
       </c>
       <c r="F28" s="37" t="n"/>
     </row>
@@ -30610,10 +30610,10 @@
         <v>2</v>
       </c>
       <c r="D29" s="38" t="n">
-        <v>1915</v>
+        <v>1883</v>
       </c>
       <c r="E29" s="39" t="n">
-        <v>33.8339222614841</v>
+        <v>33.26855123674912</v>
       </c>
       <c r="F29" s="37" t="n"/>
     </row>
@@ -30654,10 +30654,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="39" t="n">
-        <v>42.85714285714285</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F31" s="37" t="n"/>
     </row>
@@ -30676,10 +30676,10 @@
         <v>2</v>
       </c>
       <c r="D32" s="38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="39" t="n">
-        <v>28.57142857142857</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="F32" s="37" t="n"/>
     </row>
@@ -30720,10 +30720,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" s="39" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F34" s="37" t="n"/>
     </row>
@@ -30742,10 +30742,10 @@
         <v>2</v>
       </c>
       <c r="D35" s="38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" s="39" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F35" s="37" t="n"/>
     </row>
@@ -30786,10 +30786,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="38" t="n">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>34.16905444126074</v>
+        <v>32.02005730659026</v>
       </c>
       <c r="F37" s="37" t="n"/>
     </row>
@@ -30808,10 +30808,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="38" t="n">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="E38" s="39" t="n">
-        <v>32.02005730659026</v>
+        <v>34.16905444126074</v>
       </c>
       <c r="F38" s="37" t="n"/>
     </row>
@@ -30870,10 +30870,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="38" t="n">
-        <v>769</v>
+        <v>729</v>
       </c>
       <c r="E41" s="39" t="n">
-        <v>34.34569004019652</v>
+        <v>32.55917820455561</v>
       </c>
       <c r="F41" s="37" t="n"/>
     </row>
@@ -30890,10 +30890,10 @@
         <v>2</v>
       </c>
       <c r="D42" s="38" t="n">
-        <v>729</v>
+        <v>769</v>
       </c>
       <c r="E42" s="39" t="n">
-        <v>32.55917820455561</v>
+        <v>34.34569004019652</v>
       </c>
       <c r="F42" s="37" t="n"/>
     </row>
@@ -30930,10 +30930,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="38" t="n">
-        <v>2435</v>
+        <v>2459</v>
       </c>
       <c r="E44" s="39" t="n">
-        <v>33.16986786541343</v>
+        <v>33.49679880125323</v>
       </c>
       <c r="F44" s="37" t="n"/>
     </row>
@@ -30950,10 +30950,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="40" t="n">
-        <v>2458</v>
+        <v>2434</v>
       </c>
       <c r="E45" s="40" t="n">
-        <v>33.48317667892658</v>
+        <v>33.15624574308677</v>
       </c>
       <c r="F45" s="37" t="n"/>
     </row>
@@ -30990,10 +30990,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="38" t="n">
-        <v>2581</v>
+        <v>2596</v>
       </c>
       <c r="E47" s="39" t="n">
-        <v>33.37643863959654</v>
+        <v>33.57041251778094</v>
       </c>
       <c r="F47" s="37" t="n"/>
     </row>
@@ -31010,10 +31010,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="38" t="n">
-        <v>2595</v>
+        <v>2580</v>
       </c>
       <c r="E48" s="39" t="n">
-        <v>33.55748092590198</v>
+        <v>33.36350704771757</v>
       </c>
       <c r="F48" s="37" t="n"/>
     </row>
@@ -31050,10 +31050,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="38" t="n">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="E50" s="39" t="n">
-        <v>33.73037357877639</v>
+        <v>32.05197617758527</v>
       </c>
       <c r="F50" s="37" t="n"/>
     </row>
@@ -31070,10 +31070,10 @@
         <v>2</v>
       </c>
       <c r="D51" s="40" t="n">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="E51" s="40" t="n">
-        <v>32.05197617758527</v>
+        <v>33.73037357877639</v>
       </c>
       <c r="F51" s="37" t="n"/>
     </row>
@@ -31110,10 +31110,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="38" t="n">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="E53" s="39" t="n">
-        <v>33.14257684761282</v>
+        <v>33.06082406801831</v>
       </c>
       <c r="F53" s="37" t="n"/>
     </row>
@@ -31130,10 +31130,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="38" t="n">
-        <v>2022</v>
+        <v>2027</v>
       </c>
       <c r="E54" s="39" t="n">
-        <v>33.06082406801831</v>
+        <v>33.14257684761282</v>
       </c>
       <c r="F54" s="37" t="n"/>
     </row>
@@ -31170,10 +31170,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="38" t="n">
-        <v>1177</v>
+        <v>1166</v>
       </c>
       <c r="E56" s="39" t="n">
-        <v>33.97806004618938</v>
+        <v>33.66050808314088</v>
       </c>
       <c r="F56" s="37" t="n"/>
     </row>
@@ -31190,10 +31190,10 @@
         <v>2</v>
       </c>
       <c r="D57" s="40" t="n">
-        <v>1165</v>
+        <v>1176</v>
       </c>
       <c r="E57" s="40" t="n">
-        <v>33.63163972286375</v>
+        <v>33.94919168591224</v>
       </c>
       <c r="F57" s="37" t="n"/>
     </row>
@@ -31230,10 +31230,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="38" t="n">
-        <v>2908</v>
+        <v>2863</v>
       </c>
       <c r="E59" s="39" t="n">
-        <v>33.64572486405184</v>
+        <v>33.12507231285433</v>
       </c>
       <c r="F59" s="37" t="n"/>
     </row>
@@ -31250,10 +31250,10 @@
         <v>2</v>
       </c>
       <c r="D60" s="38" t="n">
-        <v>2862</v>
+        <v>2907</v>
       </c>
       <c r="E60" s="39" t="n">
-        <v>33.11350225616106</v>
+        <v>33.63415480735856</v>
       </c>
       <c r="F60" s="37" t="n"/>
     </row>
@@ -31290,10 +31290,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="38" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="E62" s="39" t="n">
-        <v>31.59018143009605</v>
+        <v>34.68516542155816</v>
       </c>
       <c r="F62" s="37" t="n"/>
     </row>
@@ -31310,10 +31310,10 @@
         <v>2</v>
       </c>
       <c r="D63" s="40" t="n">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="E63" s="40" t="n">
-        <v>34.68516542155816</v>
+        <v>31.59018143009605</v>
       </c>
       <c r="F63" s="37" t="n"/>
     </row>
@@ -31350,10 +31350,10 @@
         <v>1</v>
       </c>
       <c r="D65" s="38" t="n">
-        <v>2738</v>
+        <v>2723</v>
       </c>
       <c r="E65" s="39" t="n">
-        <v>33.36989640463132</v>
+        <v>33.18708104814137</v>
       </c>
       <c r="F65" s="37" t="n"/>
     </row>
@@ -31370,10 +31370,10 @@
         <v>2</v>
       </c>
       <c r="D66" s="38" t="n">
-        <v>2722</v>
+        <v>2737</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>33.17489335770871</v>
+        <v>33.35770871419866</v>
       </c>
       <c r="F66" s="37" t="n"/>
     </row>
@@ -31410,10 +31410,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="38" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E68" s="39" t="n">
-        <v>33.89090909090909</v>
+        <v>33.81818181818182</v>
       </c>
       <c r="F68" s="37" t="n"/>
     </row>
@@ -31430,10 +31430,10 @@
         <v>2</v>
       </c>
       <c r="D69" s="40" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E69" s="40" t="n">
-        <v>33.81818181818182</v>
+        <v>33.89090909090909</v>
       </c>
       <c r="F69" s="37" t="n"/>
     </row>
@@ -31470,10 +31470,10 @@
         <v>1</v>
       </c>
       <c r="D71" s="38" t="n">
-        <v>2329</v>
+        <v>2356</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>33.21448944666287</v>
+        <v>33.59954363947519</v>
       </c>
       <c r="F71" s="37" t="n"/>
     </row>
@@ -31490,10 +31490,10 @@
         <v>2</v>
       </c>
       <c r="D72" s="38" t="n">
-        <v>2355</v>
+        <v>2328</v>
       </c>
       <c r="E72" s="39" t="n">
-        <v>33.58528237307473</v>
+        <v>33.20022818026241</v>
       </c>
       <c r="F72" s="37" t="n"/>
     </row>
@@ -31530,10 +31530,10 @@
         <v>1</v>
       </c>
       <c r="D74" s="38" t="n">
-        <v>1008</v>
+        <v>978</v>
       </c>
       <c r="E74" s="39" t="n">
-        <v>33.73493975903614</v>
+        <v>32.73092369477911</v>
       </c>
       <c r="F74" s="37" t="n"/>
     </row>
@@ -31550,10 +31550,10 @@
         <v>2</v>
       </c>
       <c r="D75" s="40" t="n">
-        <v>978</v>
+        <v>1008</v>
       </c>
       <c r="E75" s="40" t="n">
-        <v>32.73092369477911</v>
+        <v>33.73493975903614</v>
       </c>
       <c r="F75" s="37" t="n"/>
     </row>
@@ -31590,10 +31590,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="38" t="n">
-        <v>3022</v>
+        <v>3050</v>
       </c>
       <c r="E77" s="39" t="n">
-        <v>33.1614177548557</v>
+        <v>33.46867112915615</v>
       </c>
       <c r="F77" s="37" t="n"/>
     </row>
@@ -31610,10 +31610,10 @@
         <v>2</v>
       </c>
       <c r="D78" s="38" t="n">
-        <v>3049</v>
+        <v>3021</v>
       </c>
       <c r="E78" s="39" t="n">
-        <v>33.4576977943597</v>
+        <v>33.15044442005926</v>
       </c>
       <c r="F78" s="37" t="n"/>
     </row>
@@ -31650,10 +31650,10 @@
         <v>1</v>
       </c>
       <c r="D80" s="38" t="n">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="E80" s="39" t="n">
-        <v>35.51296505073281</v>
+        <v>32.01803833145434</v>
       </c>
       <c r="F80" s="37" t="n"/>
     </row>
@@ -31670,10 +31670,10 @@
         <v>2</v>
       </c>
       <c r="D81" s="40" t="n">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="E81" s="40" t="n">
-        <v>32.01803833145434</v>
+        <v>35.51296505073281</v>
       </c>
       <c r="F81" s="37" t="n"/>
     </row>
@@ -31710,10 +31710,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="38" t="n">
-        <v>2018</v>
+        <v>2064</v>
       </c>
       <c r="E83" s="39" t="n">
-        <v>32.63260025873221</v>
+        <v>33.3764553686934</v>
       </c>
       <c r="F83" s="37" t="n"/>
     </row>
@@ -31730,10 +31730,10 @@
         <v>2</v>
       </c>
       <c r="D84" s="38" t="n">
-        <v>2064</v>
+        <v>2018</v>
       </c>
       <c r="E84" s="39" t="n">
-        <v>33.3764553686934</v>
+        <v>32.63260025873221</v>
       </c>
       <c r="F84" s="37" t="n"/>
     </row>
@@ -31770,10 +31770,10 @@
         <v>1</v>
       </c>
       <c r="D86" s="38" t="n">
-        <v>1319</v>
+        <v>1270</v>
       </c>
       <c r="E86" s="39" t="n">
-        <v>34.5649895178197</v>
+        <v>33.28092243186583</v>
       </c>
       <c r="F86" s="37" t="n"/>
     </row>
@@ -31790,10 +31790,10 @@
         <v>2</v>
       </c>
       <c r="D87" s="40" t="n">
-        <v>1269</v>
+        <v>1318</v>
       </c>
       <c r="E87" s="40" t="n">
-        <v>33.25471698113208</v>
+        <v>34.53878406708596</v>
       </c>
       <c r="F87" s="37" t="n"/>
     </row>
@@ -31830,10 +31830,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="38" t="n">
-        <v>2811</v>
+        <v>2818</v>
       </c>
       <c r="E89" s="39" t="n">
-        <v>33.22695035460993</v>
+        <v>33.3096926713948</v>
       </c>
       <c r="F89" s="37" t="n"/>
     </row>
@@ -31850,10 +31850,10 @@
         <v>2</v>
       </c>
       <c r="D90" s="38" t="n">
-        <v>2817</v>
+        <v>2810</v>
       </c>
       <c r="E90" s="39" t="n">
-        <v>33.29787234042553</v>
+        <v>33.21513002364066</v>
       </c>
       <c r="F90" s="37" t="n"/>
     </row>
@@ -31890,10 +31890,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="38" t="n">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E92" s="39" t="n">
-        <v>34.15584415584416</v>
+        <v>33.50649350649351</v>
       </c>
       <c r="F92" s="37" t="n"/>
     </row>
@@ -31910,10 +31910,10 @@
         <v>2</v>
       </c>
       <c r="D93" s="40" t="n">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="E93" s="40" t="n">
-        <v>33.50649350649351</v>
+        <v>34.15584415584416</v>
       </c>
       <c r="F93" s="37" t="n"/>
     </row>
@@ -31954,10 +31954,10 @@
         <v>1</v>
       </c>
       <c r="D95" s="38" t="n">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="E95" s="39" t="n">
-        <v>33.61669242658423</v>
+        <v>33.30757341576507</v>
       </c>
       <c r="F95" s="37" t="n"/>
     </row>
@@ -31976,10 +31976,10 @@
         <v>2</v>
       </c>
       <c r="D96" s="38" t="n">
-        <v>1292</v>
+        <v>1304</v>
       </c>
       <c r="E96" s="39" t="n">
-        <v>33.2818134981968</v>
+        <v>33.59093250901597</v>
       </c>
       <c r="F96" s="37" t="n"/>
     </row>
@@ -32020,10 +32020,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="38" t="n">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="E98" s="39" t="n">
-        <v>32.79613215149073</v>
+        <v>32.55439161966157</v>
       </c>
       <c r="F98" s="37" t="n"/>
     </row>
@@ -32042,10 +32042,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="38" t="n">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="E99" s="39" t="n">
-        <v>32.55439161966157</v>
+        <v>32.79613215149073</v>
       </c>
       <c r="F99" s="37" t="n"/>
     </row>
@@ -32086,10 +32086,10 @@
         <v>1</v>
       </c>
       <c r="D101" s="38" t="n">
-        <v>1164</v>
+        <v>1179</v>
       </c>
       <c r="E101" s="39" t="n">
-        <v>33.51569248488339</v>
+        <v>33.94759573855456</v>
       </c>
       <c r="F101" s="37" t="n"/>
     </row>
@@ -32108,10 +32108,10 @@
         <v>2</v>
       </c>
       <c r="D102" s="40" t="n">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="E102" s="40" t="n">
-        <v>33.94759573855456</v>
+        <v>33.51569248488339</v>
       </c>
       <c r="F102" s="37" t="n"/>
     </row>
@@ -32218,10 +32218,10 @@
         <v>1</v>
       </c>
       <c r="D107" s="38" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E107" s="39" t="n">
-        <v>35.44303797468354</v>
+        <v>32.91139240506329</v>
       </c>
       <c r="F107" s="37" t="n"/>
     </row>
@@ -32240,10 +32240,10 @@
         <v>2</v>
       </c>
       <c r="D108" s="38" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E108" s="39" t="n">
-        <v>32.91139240506329</v>
+        <v>35.44303797468354</v>
       </c>
       <c r="F108" s="37" t="n"/>
     </row>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="C113" s="38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113" s="38" t="n">
         <v>3</v>
@@ -32394,10 +32394,10 @@
         <v>1</v>
       </c>
       <c r="D115" s="38" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E115" s="39" t="n">
-        <v>61.90476190476191</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="F115" s="37" t="n"/>
     </row>
@@ -32416,10 +32416,10 @@
         <v>2</v>
       </c>
       <c r="D116" s="38" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E116" s="39" t="n">
-        <v>19.04761904761905</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="F116" s="37" t="n"/>
     </row>
@@ -32460,10 +32460,10 @@
         <v>1</v>
       </c>
       <c r="D118" s="38" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E118" s="39" t="n">
-        <v>29.82456140350877</v>
+        <v>35.78947368421053</v>
       </c>
       <c r="F118" s="37" t="n"/>
     </row>
@@ -32482,10 +32482,10 @@
         <v>2</v>
       </c>
       <c r="D119" s="38" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E119" s="39" t="n">
-        <v>35.78947368421053</v>
+        <v>29.82456140350877</v>
       </c>
       <c r="F119" s="37" t="n"/>
     </row>
@@ -32526,10 +32526,10 @@
         <v>1</v>
       </c>
       <c r="D121" s="38" t="n">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="E121" s="39" t="n">
-        <v>36.80555555555556</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="F121" s="37" t="n"/>
     </row>
@@ -32548,10 +32548,10 @@
         <v>2</v>
       </c>
       <c r="D122" s="38" t="n">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="E122" s="39" t="n">
-        <v>29.16666666666667</v>
+        <v>36.80555555555556</v>
       </c>
       <c r="F122" s="37" t="n"/>
     </row>
@@ -32592,10 +32592,10 @@
         <v>1</v>
       </c>
       <c r="D124" s="38" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E124" s="39" t="n">
-        <v>36.88524590163934</v>
+        <v>35.24590163934426</v>
       </c>
       <c r="F124" s="37" t="n"/>
     </row>
@@ -32614,10 +32614,10 @@
         <v>2</v>
       </c>
       <c r="D125" s="38" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E125" s="39" t="n">
-        <v>35.24590163934426</v>
+        <v>36.88524590163934</v>
       </c>
       <c r="F125" s="37" t="n"/>
     </row>
@@ -32658,10 +32658,10 @@
         <v>1</v>
       </c>
       <c r="D127" s="38" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E127" s="39" t="n">
-        <v>30.72916666666667</v>
+        <v>35.9375</v>
       </c>
       <c r="F127" s="37" t="n"/>
     </row>
@@ -32680,10 +32680,10 @@
         <v>2</v>
       </c>
       <c r="D128" s="38" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E128" s="39" t="n">
-        <v>35.41666666666667</v>
+        <v>30.20833333333333</v>
       </c>
       <c r="F128" s="37" t="n"/>
     </row>
@@ -32724,10 +32724,10 @@
         <v>1</v>
       </c>
       <c r="D130" s="38" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E130" s="39" t="n">
-        <v>41.17647058823529</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="F130" s="37" t="n"/>
     </row>
@@ -32746,10 +32746,10 @@
         <v>2</v>
       </c>
       <c r="D131" s="38" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E131" s="39" t="n">
-        <v>35.29411764705883</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="F131" s="37" t="n"/>
     </row>
@@ -32790,10 +32790,10 @@
         <v>1</v>
       </c>
       <c r="D133" s="38" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E133" s="39" t="n">
-        <v>35.06493506493506</v>
+        <v>29.87012987012987</v>
       </c>
       <c r="F133" s="37" t="n"/>
     </row>
@@ -32812,10 +32812,10 @@
         <v>2</v>
       </c>
       <c r="D134" s="38" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E134" s="39" t="n">
-        <v>29.87012987012987</v>
+        <v>35.06493506493506</v>
       </c>
       <c r="F134" s="37" t="n"/>
     </row>
@@ -32856,10 +32856,10 @@
         <v>1</v>
       </c>
       <c r="D136" s="38" t="n">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E136" s="39" t="n">
-        <v>32.66331658291458</v>
+        <v>31.75879396984925</v>
       </c>
       <c r="F136" s="37" t="n"/>
     </row>
@@ -32878,10 +32878,10 @@
         <v>2</v>
       </c>
       <c r="D137" s="38" t="n">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="E137" s="39" t="n">
-        <v>31.75879396984925</v>
+        <v>32.66331658291458</v>
       </c>
       <c r="F137" s="37" t="n"/>
     </row>
@@ -32922,10 +32922,10 @@
         <v>1</v>
       </c>
       <c r="D139" s="38" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E139" s="39" t="n">
-        <v>33.97260273972603</v>
+        <v>36.16438356164384</v>
       </c>
       <c r="F139" s="37" t="n"/>
     </row>
@@ -32944,10 +32944,10 @@
         <v>2</v>
       </c>
       <c r="D140" s="38" t="n">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E140" s="39" t="n">
-        <v>36.16438356164384</v>
+        <v>33.97260273972603</v>
       </c>
       <c r="F140" s="37" t="n"/>
     </row>
@@ -32988,10 +32988,10 @@
         <v>1</v>
       </c>
       <c r="D142" s="38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E142" s="39" t="n">
-        <v>35.71428571428572</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="F142" s="37" t="n"/>
     </row>
@@ -33010,10 +33010,10 @@
         <v>2</v>
       </c>
       <c r="D143" s="38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E143" s="39" t="n">
-        <v>21.42857142857143</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="F143" s="37" t="n"/>
     </row>
@@ -33120,10 +33120,10 @@
         <v>1</v>
       </c>
       <c r="D148" s="38" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E148" s="39" t="n">
-        <v>40.42553191489361</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="F148" s="37" t="n"/>
     </row>
@@ -33142,10 +33142,10 @@
         <v>2</v>
       </c>
       <c r="D149" s="38" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E149" s="39" t="n">
-        <v>31.91489361702128</v>
+        <v>40.42553191489361</v>
       </c>
       <c r="F149" s="37" t="n"/>
     </row>
@@ -33186,10 +33186,10 @@
         <v>1</v>
       </c>
       <c r="D151" s="38" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E151" s="39" t="n">
-        <v>34.28571428571428</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F151" s="37" t="n"/>
     </row>
@@ -33208,10 +33208,10 @@
         <v>2</v>
       </c>
       <c r="D152" s="38" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E152" s="39" t="n">
-        <v>28.57142857142857</v>
+        <v>34.28571428571428</v>
       </c>
       <c r="F152" s="37" t="n"/>
     </row>
@@ -33252,10 +33252,10 @@
         <v>1</v>
       </c>
       <c r="D154" s="38" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E154" s="39" t="n">
-        <v>33.71104815864022</v>
+        <v>32.29461756373937</v>
       </c>
       <c r="F154" s="37" t="n"/>
     </row>
@@ -33274,10 +33274,10 @@
         <v>2</v>
       </c>
       <c r="D155" s="38" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E155" s="39" t="n">
-        <v>32.29461756373937</v>
+        <v>33.71104815864022</v>
       </c>
       <c r="F155" s="37" t="n"/>
     </row>
@@ -33318,10 +33318,10 @@
         <v>1</v>
       </c>
       <c r="D157" s="38" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E157" s="39" t="n">
-        <v>26.50602409638554</v>
+        <v>38.55421686746988</v>
       </c>
       <c r="F157" s="37" t="n"/>
     </row>
@@ -33340,10 +33340,10 @@
         <v>2</v>
       </c>
       <c r="D158" s="38" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E158" s="39" t="n">
-        <v>38.55421686746988</v>
+        <v>26.50602409638554</v>
       </c>
       <c r="F158" s="37" t="n"/>
     </row>
@@ -33450,10 +33450,10 @@
         <v>1</v>
       </c>
       <c r="D163" s="38" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E163" s="39" t="n">
-        <v>36.36363636363637</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="F163" s="37" t="n"/>
     </row>
@@ -33472,10 +33472,10 @@
         <v>2</v>
       </c>
       <c r="D164" s="38" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E164" s="39" t="n">
-        <v>31.81818181818182</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="F164" s="37" t="n"/>
     </row>
@@ -33516,10 +33516,10 @@
         <v>1</v>
       </c>
       <c r="D166" s="38" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E166" s="39" t="n">
-        <v>35.71428571428572</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="F166" s="37" t="n"/>
     </row>
@@ -33538,10 +33538,10 @@
         <v>2</v>
       </c>
       <c r="D167" s="38" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E167" s="39" t="n">
-        <v>32.14285714285715</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="F167" s="37" t="n"/>
     </row>
@@ -33582,10 +33582,10 @@
         <v>1</v>
       </c>
       <c r="D169" s="38" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E169" s="39" t="n">
-        <v>31.37254901960784</v>
+        <v>38.23529411764706</v>
       </c>
       <c r="F169" s="37" t="n"/>
     </row>
@@ -33604,10 +33604,10 @@
         <v>2</v>
       </c>
       <c r="D170" s="38" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E170" s="39" t="n">
-        <v>38.23529411764706</v>
+        <v>31.37254901960784</v>
       </c>
       <c r="F170" s="37" t="n"/>
     </row>
@@ -33648,10 +33648,10 @@
         <v>1</v>
       </c>
       <c r="D172" s="38" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E172" s="39" t="n">
-        <v>32.99492385786802</v>
+        <v>34.51776649746193</v>
       </c>
       <c r="F172" s="37" t="n"/>
     </row>
@@ -33670,10 +33670,10 @@
         <v>2</v>
       </c>
       <c r="D173" s="38" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E173" s="39" t="n">
-        <v>34.51776649746193</v>
+        <v>32.99492385786802</v>
       </c>
       <c r="F173" s="37" t="n"/>
     </row>
@@ -33714,10 +33714,10 @@
         <v>1</v>
       </c>
       <c r="D175" s="38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E175" s="39" t="n">
-        <v>39.58333333333333</v>
+        <v>35.41666666666667</v>
       </c>
       <c r="F175" s="37" t="n"/>
     </row>
@@ -33736,10 +33736,10 @@
         <v>2</v>
       </c>
       <c r="D176" s="38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E176" s="39" t="n">
-        <v>35.41666666666667</v>
+        <v>39.58333333333333</v>
       </c>
       <c r="F176" s="37" t="n"/>
     </row>
@@ -33780,10 +33780,10 @@
         <v>1</v>
       </c>
       <c r="D178" s="38" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E178" s="39" t="n">
-        <v>32.45614035087719</v>
+        <v>30.70175438596491</v>
       </c>
       <c r="F178" s="37" t="n"/>
     </row>
@@ -33802,10 +33802,10 @@
         <v>2</v>
       </c>
       <c r="D179" s="38" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E179" s="39" t="n">
-        <v>30.70175438596491</v>
+        <v>32.45614035087719</v>
       </c>
       <c r="F179" s="37" t="n"/>
     </row>
@@ -33846,10 +33846,10 @@
         <v>1</v>
       </c>
       <c r="D181" s="38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E181" s="39" t="n">
-        <v>31.70731707317073</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="F181" s="37" t="n"/>
     </row>
@@ -33868,10 +33868,10 @@
         <v>2</v>
       </c>
       <c r="D182" s="38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E182" s="39" t="n">
-        <v>36.58536585365854</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="F182" s="37" t="n"/>
     </row>
@@ -33912,10 +33912,10 @@
         <v>1</v>
       </c>
       <c r="D184" s="38" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E184" s="39" t="n">
-        <v>34.14634146341464</v>
+        <v>32.92682926829269</v>
       </c>
       <c r="F184" s="37" t="n"/>
     </row>
@@ -33934,10 +33934,10 @@
         <v>2</v>
       </c>
       <c r="D185" s="38" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E185" s="39" t="n">
-        <v>32.92682926829269</v>
+        <v>34.14634146341464</v>
       </c>
       <c r="F185" s="37" t="n"/>
     </row>
@@ -33978,10 +33978,10 @@
         <v>1</v>
       </c>
       <c r="D187" s="38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E187" s="39" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F187" s="37" t="n"/>
     </row>
@@ -34000,10 +34000,10 @@
         <v>2</v>
       </c>
       <c r="D188" s="38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188" s="39" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F188" s="37" t="n"/>
     </row>
@@ -34044,10 +34044,10 @@
         <v>1</v>
       </c>
       <c r="D190" s="38" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E190" s="39" t="n">
-        <v>34.61538461538461</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="F190" s="37" t="n"/>
     </row>
@@ -34066,10 +34066,10 @@
         <v>2</v>
       </c>
       <c r="D191" s="38" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E191" s="39" t="n">
-        <v>26.92307692307692</v>
+        <v>34.61538461538461</v>
       </c>
       <c r="F191" s="37" t="n"/>
     </row>
@@ -34110,10 +34110,10 @@
         <v>1</v>
       </c>
       <c r="D193" s="38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E193" s="39" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F193" s="37" t="n"/>
     </row>
@@ -34132,10 +34132,10 @@
         <v>2</v>
       </c>
       <c r="D194" s="38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E194" s="39" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F194" s="37" t="n"/>
     </row>
@@ -34176,10 +34176,10 @@
         <v>1</v>
       </c>
       <c r="D196" s="38" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E196" s="39" t="n">
-        <v>34.04255319148936</v>
+        <v>31.06382978723404</v>
       </c>
       <c r="F196" s="37" t="n"/>
     </row>
@@ -34198,10 +34198,10 @@
         <v>2</v>
       </c>
       <c r="D197" s="38" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E197" s="39" t="n">
-        <v>31.06382978723404</v>
+        <v>34.04255319148936</v>
       </c>
       <c r="F197" s="37" t="n"/>
     </row>
@@ -34396,10 +34396,10 @@
         <v>1</v>
       </c>
       <c r="D206" s="38" t="n">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="E206" s="39" t="n">
-        <v>30.47091412742382</v>
+        <v>36.28808864265928</v>
       </c>
       <c r="F206" s="37" t="n"/>
     </row>
@@ -34418,10 +34418,10 @@
         <v>2</v>
       </c>
       <c r="D207" s="38" t="n">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="E207" s="39" t="n">
-        <v>36.28808864265928</v>
+        <v>30.47091412742382</v>
       </c>
       <c r="F207" s="37" t="n"/>
     </row>
@@ -34462,10 +34462,10 @@
         <v>1</v>
       </c>
       <c r="D209" s="38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E209" s="39" t="n">
-        <v>27.27272727272727</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="F209" s="37" t="n"/>
     </row>
@@ -34484,10 +34484,10 @@
         <v>2</v>
       </c>
       <c r="D210" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E210" s="39" t="n">
-        <v>36.36363636363637</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="F210" s="37" t="n"/>
     </row>
@@ -34528,10 +34528,10 @@
         <v>1</v>
       </c>
       <c r="D212" s="38" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E212" s="39" t="n">
-        <v>23.37662337662337</v>
+        <v>46.75324675324675</v>
       </c>
       <c r="F212" s="37" t="n"/>
     </row>
@@ -34550,10 +34550,10 @@
         <v>2</v>
       </c>
       <c r="D213" s="38" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E213" s="39" t="n">
-        <v>46.75324675324675</v>
+        <v>23.37662337662337</v>
       </c>
       <c r="F213" s="37" t="n"/>
     </row>
@@ -34594,10 +34594,10 @@
         <v>1</v>
       </c>
       <c r="D215" s="38" t="n">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E215" s="39" t="n">
-        <v>33.43108504398827</v>
+        <v>35.04398826979472</v>
       </c>
       <c r="F215" s="37" t="n"/>
     </row>
@@ -34616,10 +34616,10 @@
         <v>2</v>
       </c>
       <c r="D216" s="38" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E216" s="39" t="n">
-        <v>35.04398826979472</v>
+        <v>33.43108504398827</v>
       </c>
       <c r="F216" s="37" t="n"/>
     </row>
@@ -34660,10 +34660,10 @@
         <v>1</v>
       </c>
       <c r="D218" s="38" t="n">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="E218" s="39" t="n">
-        <v>31.86147186147186</v>
+        <v>32.98701298701299</v>
       </c>
       <c r="F218" s="37" t="n"/>
     </row>
@@ -34682,10 +34682,10 @@
         <v>2</v>
       </c>
       <c r="D219" s="38" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="E219" s="39" t="n">
-        <v>32.98701298701299</v>
+        <v>31.86147186147186</v>
       </c>
       <c r="F219" s="37" t="n"/>
     </row>
@@ -34726,10 +34726,10 @@
         <v>1</v>
       </c>
       <c r="D221" s="38" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E221" s="39" t="n">
-        <v>44.26229508196721</v>
+        <v>21.31147540983606</v>
       </c>
       <c r="F221" s="37" t="n"/>
     </row>
@@ -34748,10 +34748,10 @@
         <v>2</v>
       </c>
       <c r="D222" s="38" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E222" s="39" t="n">
-        <v>21.31147540983606</v>
+        <v>44.26229508196721</v>
       </c>
       <c r="F222" s="37" t="n"/>
     </row>
@@ -34858,10 +34858,10 @@
         <v>1</v>
       </c>
       <c r="D227" s="38" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E227" s="39" t="n">
-        <v>34.62566844919786</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="F227" s="37" t="n"/>
     </row>
@@ -34880,10 +34880,10 @@
         <v>2</v>
       </c>
       <c r="D228" s="38" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E228" s="39" t="n">
-        <v>35.29411764705883</v>
+        <v>34.62566844919786</v>
       </c>
       <c r="F228" s="37" t="n"/>
     </row>
@@ -34924,10 +34924,10 @@
         <v>1</v>
       </c>
       <c r="D230" s="38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E230" s="39" t="n">
-        <v>14.28571428571428</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="F230" s="37" t="n"/>
     </row>
@@ -34946,10 +34946,10 @@
         <v>2</v>
       </c>
       <c r="D231" s="38" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E231" s="39" t="n">
-        <v>57.14285714285714</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="F231" s="37" t="n"/>
     </row>
@@ -34990,10 +34990,10 @@
         <v>1</v>
       </c>
       <c r="D233" s="38" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E233" s="39" t="n">
-        <v>25.37313432835821</v>
+        <v>40.29850746268657</v>
       </c>
       <c r="F233" s="37" t="n"/>
     </row>
@@ -35012,10 +35012,10 @@
         <v>2</v>
       </c>
       <c r="D234" s="38" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E234" s="39" t="n">
-        <v>40.29850746268657</v>
+        <v>25.37313432835821</v>
       </c>
       <c r="F234" s="37" t="n"/>
     </row>
@@ -35053,7 +35053,7 @@
         </is>
       </c>
       <c r="C236" s="38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236" s="38" t="n">
         <v>1</v>
@@ -35100,10 +35100,10 @@
         <v>1</v>
       </c>
       <c r="D238" s="38" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E238" s="39" t="n">
-        <v>38.67924528301887</v>
+        <v>27.35849056603773</v>
       </c>
       <c r="F238" s="37" t="n"/>
     </row>
@@ -35122,10 +35122,10 @@
         <v>2</v>
       </c>
       <c r="D239" s="38" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E239" s="39" t="n">
-        <v>27.35849056603773</v>
+        <v>38.67924528301887</v>
       </c>
       <c r="F239" s="37" t="n"/>
     </row>
@@ -35166,10 +35166,10 @@
         <v>1</v>
       </c>
       <c r="D241" s="38" t="n">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="E241" s="39" t="n">
-        <v>35.04672897196262</v>
+        <v>29.55607476635514</v>
       </c>
       <c r="F241" s="37" t="n"/>
     </row>
@@ -35188,10 +35188,10 @@
         <v>2</v>
       </c>
       <c r="D242" s="38" t="n">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="E242" s="39" t="n">
-        <v>29.55607476635514</v>
+        <v>35.04672897196262</v>
       </c>
       <c r="F242" s="37" t="n"/>
     </row>
@@ -35232,10 +35232,10 @@
         <v>1</v>
       </c>
       <c r="D244" s="38" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E244" s="39" t="n">
-        <v>36.84210526315789</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="F244" s="37" t="n"/>
     </row>
@@ -35254,10 +35254,10 @@
         <v>2</v>
       </c>
       <c r="D245" s="38" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E245" s="39" t="n">
-        <v>23.68421052631579</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="F245" s="37" t="n"/>
     </row>
@@ -35298,10 +35298,10 @@
         <v>1</v>
       </c>
       <c r="D247" s="38" t="n">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E247" s="39" t="n">
-        <v>29.85074626865671</v>
+        <v>34.6268656716418</v>
       </c>
       <c r="F247" s="37" t="n"/>
     </row>
@@ -35320,10 +35320,10 @@
         <v>2</v>
       </c>
       <c r="D248" s="38" t="n">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E248" s="39" t="n">
-        <v>34.6268656716418</v>
+        <v>29.85074626865671</v>
       </c>
       <c r="F248" s="37" t="n"/>
     </row>
@@ -35339,7 +35339,7 @@
         </is>
       </c>
       <c r="C249" s="38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D249" s="38" t="n">
         <v>1</v>
@@ -35386,10 +35386,10 @@
         <v>1</v>
       </c>
       <c r="D251" s="38" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E251" s="39" t="n">
-        <v>34.76190476190476</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="F251" s="37" t="n"/>
     </row>
@@ -35408,10 +35408,10 @@
         <v>2</v>
       </c>
       <c r="D252" s="38" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E252" s="39" t="n">
-        <v>35.71428571428572</v>
+        <v>34.76190476190476</v>
       </c>
       <c r="F252" s="37" t="n"/>
     </row>
@@ -35452,10 +35452,10 @@
         <v>1</v>
       </c>
       <c r="D254" s="38" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E254" s="39" t="n">
-        <v>48.27586206896552</v>
+        <v>25.86206896551724</v>
       </c>
       <c r="F254" s="37" t="n"/>
     </row>
@@ -35474,10 +35474,10 @@
         <v>2</v>
       </c>
       <c r="D255" s="38" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E255" s="39" t="n">
-        <v>25.86206896551724</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="F255" s="37" t="n"/>
     </row>
@@ -35518,10 +35518,10 @@
         <v>1</v>
       </c>
       <c r="D257" s="38" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E257" s="39" t="n">
-        <v>21.73913043478261</v>
+        <v>50</v>
       </c>
       <c r="F257" s="37" t="n"/>
     </row>
@@ -35540,10 +35540,10 @@
         <v>2</v>
       </c>
       <c r="D258" s="38" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E258" s="39" t="n">
-        <v>50</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="F258" s="37" t="n"/>
     </row>
@@ -35650,10 +35650,10 @@
         <v>1</v>
       </c>
       <c r="D263" s="38" t="n">
-        <v>2418</v>
+        <v>2364</v>
       </c>
       <c r="E263" s="39" t="n">
-        <v>33.81345266396308</v>
+        <v>33.05831352258426</v>
       </c>
       <c r="F263" s="37" t="n"/>
     </row>
@@ -35672,10 +35672,10 @@
         <v>2</v>
       </c>
       <c r="D264" s="38" t="n">
-        <v>2363</v>
+        <v>2417</v>
       </c>
       <c r="E264" s="39" t="n">
-        <v>33.04432946441057</v>
+        <v>33.7994686057894</v>
       </c>
       <c r="F264" s="37" t="n"/>
     </row>
@@ -35716,10 +35716,10 @@
         <v>1</v>
       </c>
       <c r="D266" s="38" t="n">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="E266" s="39" t="n">
-        <v>32.43006993006993</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="F266" s="37" t="n"/>
     </row>
@@ -35738,10 +35738,10 @@
         <v>2</v>
       </c>
       <c r="D267" s="40" t="n">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="E267" s="40" t="n">
-        <v>34.09090909090909</v>
+        <v>32.43006993006993</v>
       </c>
       <c r="F267" s="37" t="n"/>
     </row>
@@ -35782,10 +35782,10 @@
         <v>1</v>
       </c>
       <c r="D269" s="38" t="n">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="E269" s="39" t="n">
-        <v>31.38297872340425</v>
+        <v>34.1016548463357</v>
       </c>
       <c r="F269" s="37" t="n"/>
     </row>
@@ -35804,10 +35804,10 @@
         <v>2</v>
       </c>
       <c r="D270" s="38" t="n">
-        <v>577</v>
+        <v>531</v>
       </c>
       <c r="E270" s="39" t="n">
-        <v>34.1016548463357</v>
+        <v>31.38297872340425</v>
       </c>
       <c r="F270" s="37" t="n"/>
     </row>
@@ -35848,10 +35848,10 @@
         <v>1</v>
       </c>
       <c r="D272" s="38" t="n">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="E272" s="39" t="n">
-        <v>33.89216130493883</v>
+        <v>34.25464431354781</v>
       </c>
       <c r="F272" s="37" t="n"/>
     </row>
@@ -35870,10 +35870,10 @@
         <v>2</v>
       </c>
       <c r="D273" s="38" t="n">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="E273" s="39" t="n">
-        <v>34.25464431354781</v>
+        <v>33.89216130493883</v>
       </c>
       <c r="F273" s="37" t="n"/>
     </row>
@@ -35914,10 +35914,10 @@
         <v>1</v>
       </c>
       <c r="D275" s="38" t="n">
-        <v>1510</v>
+        <v>1421</v>
       </c>
       <c r="E275" s="39" t="n">
-        <v>34.34940855323021</v>
+        <v>32.32484076433121</v>
       </c>
       <c r="F275" s="37" t="n"/>
     </row>
@@ -35936,10 +35936,10 @@
         <v>2</v>
       </c>
       <c r="D276" s="40" t="n">
-        <v>1420</v>
+        <v>1509</v>
       </c>
       <c r="E276" s="40" t="n">
-        <v>32.30209281164696</v>
+        <v>34.32666060054595</v>
       </c>
       <c r="F276" s="37" t="n"/>
     </row>
@@ -35976,10 +35976,10 @@
         <v>1</v>
       </c>
       <c r="D278" s="38" t="n">
-        <v>2626</v>
+        <v>2590</v>
       </c>
       <c r="E278" s="39" t="n">
-        <v>33.66235098064351</v>
+        <v>33.20087168311755</v>
       </c>
       <c r="F278" s="37" t="n"/>
     </row>
@@ -35996,10 +35996,10 @@
         <v>2</v>
       </c>
       <c r="D279" s="38" t="n">
-        <v>2589</v>
+        <v>2625</v>
       </c>
       <c r="E279" s="39" t="n">
-        <v>33.18805281374183</v>
+        <v>33.64953211126779</v>
       </c>
       <c r="F279" s="37" t="n"/>
     </row>
@@ -36036,10 +36036,10 @@
         <v>1</v>
       </c>
       <c r="D281" s="38" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E281" s="39" t="n">
-        <v>32.99595141700405</v>
+        <v>33.19838056680162</v>
       </c>
       <c r="F281" s="37" t="n"/>
     </row>
@@ -36056,10 +36056,10 @@
         <v>2</v>
       </c>
       <c r="D282" s="40" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E282" s="40" t="n">
-        <v>33.19838056680162</v>
+        <v>32.99595141700405</v>
       </c>
       <c r="F282" s="37" t="n"/>
     </row>
@@ -36096,10 +36096,10 @@
         <v>1</v>
       </c>
       <c r="D284" s="38" t="n">
-        <v>2097</v>
+        <v>2043</v>
       </c>
       <c r="E284" s="39" t="n">
-        <v>33.88269510421716</v>
+        <v>33.0101793504605</v>
       </c>
       <c r="F284" s="37" t="n"/>
     </row>
@@ -36116,10 +36116,10 @@
         <v>2</v>
       </c>
       <c r="D285" s="38" t="n">
-        <v>2042</v>
+        <v>2096</v>
       </c>
       <c r="E285" s="39" t="n">
-        <v>32.99402165131685</v>
+        <v>33.86653740507352</v>
       </c>
       <c r="F285" s="37" t="n"/>
     </row>
@@ -36156,10 +36156,10 @@
         <v>1</v>
       </c>
       <c r="D287" s="38" t="n">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="E287" s="39" t="n">
-        <v>32.85849952516619</v>
+        <v>33.76068376068376</v>
       </c>
       <c r="F287" s="37" t="n"/>
     </row>
@@ -36176,10 +36176,10 @@
         <v>2</v>
       </c>
       <c r="D288" s="40" t="n">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="E288" s="40" t="n">
-        <v>33.76068376068376</v>
+        <v>32.85849952516619</v>
       </c>
       <c r="F288" s="37" t="n"/>
     </row>
@@ -36216,10 +36216,10 @@
         <v>1</v>
       </c>
       <c r="D290" s="38" t="n">
-        <v>2123</v>
+        <v>2071</v>
       </c>
       <c r="E290" s="39" t="n">
-        <v>33.76809289009066</v>
+        <v>32.94098934308891</v>
       </c>
       <c r="F290" s="37" t="n"/>
     </row>
@@ -36236,10 +36236,10 @@
         <v>2</v>
       </c>
       <c r="D291" s="38" t="n">
-        <v>2070</v>
+        <v>2122</v>
       </c>
       <c r="E291" s="39" t="n">
-        <v>32.92508350564658</v>
+        <v>33.75218705264832</v>
       </c>
       <c r="F291" s="37" t="n"/>
     </row>
@@ -36276,10 +36276,10 @@
         <v>1</v>
       </c>
       <c r="D293" s="38" t="n">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="E293" s="39" t="n">
-        <v>33.16733067729083</v>
+        <v>34.01394422310756</v>
       </c>
       <c r="F293" s="37" t="n"/>
     </row>
@@ -36296,10 +36296,10 @@
         <v>2</v>
       </c>
       <c r="D294" s="40" t="n">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="E294" s="40" t="n">
-        <v>34.01394422310756</v>
+        <v>33.16733067729083</v>
       </c>
       <c r="F294" s="37" t="n"/>
     </row>
@@ -36336,10 +36336,10 @@
         <v>1</v>
       </c>
       <c r="D296" s="38" t="n">
-        <v>2547</v>
+        <v>2495</v>
       </c>
       <c r="E296" s="39" t="n">
-        <v>33.85617439851123</v>
+        <v>33.16496078692011</v>
       </c>
       <c r="F296" s="37" t="n"/>
     </row>
@@ -36356,10 +36356,10 @@
         <v>2</v>
       </c>
       <c r="D297" s="38" t="n">
-        <v>2494</v>
+        <v>2546</v>
       </c>
       <c r="E297" s="39" t="n">
-        <v>33.15166821746644</v>
+        <v>33.84288182905756</v>
       </c>
       <c r="F297" s="37" t="n"/>
     </row>
@@ -36396,10 +36396,10 @@
         <v>1</v>
       </c>
       <c r="D299" s="38" t="n">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="E299" s="39" t="n">
-        <v>31.34715025906736</v>
+        <v>33.54922279792746</v>
       </c>
       <c r="F299" s="37" t="n"/>
     </row>
@@ -36416,10 +36416,10 @@
         <v>2</v>
       </c>
       <c r="D300" s="40" t="n">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E300" s="40" t="n">
-        <v>33.54922279792746</v>
+        <v>31.34715025906736</v>
       </c>
       <c r="F300" s="37" t="n"/>
     </row>
@@ -36456,10 +36456,10 @@
         <v>1</v>
       </c>
       <c r="D302" s="38" t="n">
-        <v>2559</v>
+        <v>2529</v>
       </c>
       <c r="E302" s="39" t="n">
-        <v>33.74653830937623</v>
+        <v>33.35091652380324</v>
       </c>
       <c r="F302" s="37" t="n"/>
     </row>
@@ -36476,10 +36476,10 @@
         <v>2</v>
       </c>
       <c r="D303" s="38" t="n">
-        <v>2528</v>
+        <v>2558</v>
       </c>
       <c r="E303" s="39" t="n">
-        <v>33.33772913095081</v>
+        <v>33.7333509165238</v>
       </c>
       <c r="F303" s="37" t="n"/>
     </row>
@@ -36516,10 +36516,10 @@
         <v>1</v>
       </c>
       <c r="D305" s="38" t="n">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E305" s="39" t="n">
-        <v>32.30337078651686</v>
+        <v>31.60112359550562</v>
       </c>
       <c r="F305" s="37" t="n"/>
     </row>
@@ -36536,10 +36536,10 @@
         <v>2</v>
       </c>
       <c r="D306" s="40" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E306" s="40" t="n">
-        <v>31.60112359550562</v>
+        <v>32.30337078651686</v>
       </c>
       <c r="F306" s="37" t="n"/>
     </row>
@@ -36576,10 +36576,10 @@
         <v>1</v>
       </c>
       <c r="D308" s="38" t="n">
-        <v>2583</v>
+        <v>2522</v>
       </c>
       <c r="E308" s="39" t="n">
-        <v>33.95110410094637</v>
+        <v>33.14931650893796</v>
       </c>
       <c r="F308" s="37" t="n"/>
     </row>
@@ -36596,10 +36596,10 @@
         <v>2</v>
       </c>
       <c r="D309" s="38" t="n">
-        <v>2521</v>
+        <v>2582</v>
       </c>
       <c r="E309" s="39" t="n">
-        <v>33.13617245005258</v>
+        <v>33.93796004206099</v>
       </c>
       <c r="F309" s="37" t="n"/>
     </row>
@@ -36636,10 +36636,10 @@
         <v>1</v>
       </c>
       <c r="D311" s="38" t="n">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="E311" s="39" t="n">
-        <v>29.98544395924309</v>
+        <v>33.77001455604076</v>
       </c>
       <c r="F311" s="37" t="n"/>
     </row>
@@ -36656,10 +36656,10 @@
         <v>2</v>
       </c>
       <c r="D312" s="40" t="n">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="E312" s="40" t="n">
-        <v>33.77001455604076</v>
+        <v>29.98544395924309</v>
       </c>
       <c r="F312" s="37" t="n"/>
     </row>
@@ -36696,10 +36696,10 @@
         <v>1</v>
       </c>
       <c r="D314" s="38" t="n">
-        <v>2554</v>
+        <v>2548</v>
       </c>
       <c r="E314" s="39" t="n">
-        <v>33.59200315664869</v>
+        <v>33.51308693936604</v>
       </c>
       <c r="F314" s="37" t="n"/>
     </row>
@@ -36716,10 +36716,10 @@
         <v>2</v>
       </c>
       <c r="D315" s="38" t="n">
-        <v>2547</v>
+        <v>2553</v>
       </c>
       <c r="E315" s="39" t="n">
-        <v>33.49993423648559</v>
+        <v>33.57885045376825</v>
       </c>
       <c r="F315" s="37" t="n"/>
     </row>
@@ -36756,10 +36756,10 @@
         <v>1</v>
       </c>
       <c r="D317" s="38" t="n">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="E317" s="39" t="n">
-        <v>33.95953757225433</v>
+        <v>29.76878612716763</v>
       </c>
       <c r="F317" s="37" t="n"/>
     </row>
@@ -36776,10 +36776,10 @@
         <v>2</v>
       </c>
       <c r="D318" s="40" t="n">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="E318" s="40" t="n">
-        <v>29.76878612716763</v>
+        <v>33.95953757225433</v>
       </c>
       <c r="F318" s="37" t="n"/>
     </row>
@@ -36816,10 +36816,10 @@
         <v>1</v>
       </c>
       <c r="D320" s="38" t="n">
-        <v>2529</v>
+        <v>2483</v>
       </c>
       <c r="E320" s="39" t="n">
-        <v>33.59458023379383</v>
+        <v>32.98352816153029</v>
       </c>
       <c r="F320" s="37" t="n"/>
     </row>
@@ -36836,10 +36836,10 @@
         <v>2</v>
       </c>
       <c r="D321" s="38" t="n">
-        <v>2482</v>
+        <v>2528</v>
       </c>
       <c r="E321" s="39" t="n">
-        <v>32.97024442082891</v>
+        <v>33.58129649309245</v>
       </c>
       <c r="F321" s="37" t="n"/>
     </row>
@@ -36876,10 +36876,10 @@
         <v>1</v>
       </c>
       <c r="D323" s="38" t="n">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E323" s="39" t="n">
-        <v>33.89830508474576</v>
+        <v>35.33246414602347</v>
       </c>
       <c r="F323" s="37" t="n"/>
     </row>
@@ -36896,10 +36896,10 @@
         <v>2</v>
       </c>
       <c r="D324" s="40" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E324" s="40" t="n">
-        <v>35.33246414602347</v>
+        <v>33.89830508474576</v>
       </c>
       <c r="F324" s="37" t="n"/>
     </row>
@@ -36936,10 +36936,10 @@
         <v>1</v>
       </c>
       <c r="D326" s="38" t="n">
-        <v>2463</v>
+        <v>2432</v>
       </c>
       <c r="E326" s="39" t="n">
-        <v>33.56957884694017</v>
+        <v>33.14706283222025</v>
       </c>
       <c r="F326" s="37" t="n"/>
     </row>
@@ -36956,10 +36956,10 @@
         <v>2</v>
       </c>
       <c r="D327" s="38" t="n">
-        <v>2431</v>
+        <v>2462</v>
       </c>
       <c r="E327" s="39" t="n">
-        <v>33.13343328335832</v>
+        <v>33.55594929807823</v>
       </c>
       <c r="F327" s="37" t="n"/>
     </row>
@@ -36996,10 +36996,10 @@
         <v>1</v>
       </c>
       <c r="D329" s="38" t="n">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E329" s="39" t="n">
-        <v>34.02922755741128</v>
+        <v>33.61169102296451</v>
       </c>
       <c r="F329" s="37" t="n"/>
     </row>
@@ -37016,10 +37016,10 @@
         <v>2</v>
       </c>
       <c r="D330" s="40" t="n">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E330" s="40" t="n">
-        <v>33.61169102296451</v>
+        <v>34.02922755741128</v>
       </c>
       <c r="F330" s="37" t="n"/>
     </row>
@@ -37056,10 +37056,10 @@
         <v>1</v>
       </c>
       <c r="D332" s="38" t="n">
-        <v>2545</v>
+        <v>2494</v>
       </c>
       <c r="E332" s="39" t="n">
-        <v>33.91072618254497</v>
+        <v>33.23117921385742</v>
       </c>
       <c r="F332" s="37" t="n"/>
     </row>
@@ -37076,10 +37076,10 @@
         <v>2</v>
       </c>
       <c r="D333" s="38" t="n">
-        <v>2493</v>
+        <v>2544</v>
       </c>
       <c r="E333" s="39" t="n">
-        <v>33.217854763491</v>
+        <v>33.89740173217855</v>
       </c>
       <c r="F333" s="37" t="n"/>
     </row>
@@ -37116,10 +37116,10 @@
         <v>1</v>
       </c>
       <c r="D335" s="38" t="n">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E335" s="39" t="n">
-        <v>30.88607594936709</v>
+        <v>32.91139240506329</v>
       </c>
       <c r="F335" s="37" t="n"/>
     </row>
@@ -37136,10 +37136,10 @@
         <v>2</v>
       </c>
       <c r="D336" s="40" t="n">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E336" s="40" t="n">
-        <v>32.91139240506329</v>
+        <v>30.88607594936709</v>
       </c>
       <c r="F336" s="37" t="n"/>
     </row>
@@ -37176,10 +37176,10 @@
         <v>1</v>
       </c>
       <c r="D338" s="38" t="n">
-        <v>1049</v>
+        <v>1093</v>
       </c>
       <c r="E338" s="39" t="n">
-        <v>32.86340852130326</v>
+        <v>34.24185463659148</v>
       </c>
       <c r="F338" s="37" t="n"/>
     </row>
@@ -37196,10 +37196,10 @@
         <v>2</v>
       </c>
       <c r="D339" s="38" t="n">
-        <v>1093</v>
+        <v>1049</v>
       </c>
       <c r="E339" s="39" t="n">
-        <v>34.24185463659148</v>
+        <v>32.86340852130326</v>
       </c>
       <c r="F339" s="37" t="n"/>
     </row>
@@ -37236,10 +37236,10 @@
         <v>1</v>
       </c>
       <c r="D341" s="38" t="n">
-        <v>2288</v>
+        <v>2241</v>
       </c>
       <c r="E341" s="39" t="n">
-        <v>33.6075205640423</v>
+        <v>32.91715628672151</v>
       </c>
       <c r="F341" s="37" t="n"/>
     </row>
@@ -37256,10 +37256,10 @@
         <v>2</v>
       </c>
       <c r="D342" s="40" t="n">
-        <v>2240</v>
+        <v>2287</v>
       </c>
       <c r="E342" s="40" t="n">
-        <v>32.90246768507638</v>
+        <v>33.59283196239718</v>
       </c>
       <c r="F342" s="37" t="n"/>
     </row>
@@ -37296,10 +37296,10 @@
         <v>1</v>
       </c>
       <c r="D344" s="38" t="n">
-        <v>764</v>
+        <v>802</v>
       </c>
       <c r="E344" s="39" t="n">
-        <v>32.48299319727892</v>
+        <v>34.09863945578231</v>
       </c>
       <c r="F344" s="37" t="n"/>
     </row>
@@ -37316,10 +37316,10 @@
         <v>2</v>
       </c>
       <c r="D345" s="38" t="n">
-        <v>802</v>
+        <v>764</v>
       </c>
       <c r="E345" s="39" t="n">
-        <v>34.09863945578231</v>
+        <v>32.48299319727892</v>
       </c>
       <c r="F345" s="37" t="n"/>
     </row>
@@ -37356,10 +37356,10 @@
         <v>1</v>
       </c>
       <c r="D347" s="38" t="n">
-        <v>2573</v>
+        <v>2532</v>
       </c>
       <c r="E347" s="39" t="n">
-        <v>33.64278242677825</v>
+        <v>33.10669456066946</v>
       </c>
       <c r="F347" s="37" t="n"/>
     </row>
@@ -37376,10 +37376,10 @@
         <v>2</v>
       </c>
       <c r="D348" s="40" t="n">
-        <v>2531</v>
+        <v>2572</v>
       </c>
       <c r="E348" s="40" t="n">
-        <v>33.09361924686193</v>
+        <v>33.62970711297071</v>
       </c>
       <c r="F348" s="37" t="n"/>
     </row>
@@ -37416,10 +37416,10 @@
         <v>1</v>
       </c>
       <c r="D350" s="38" t="n">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="E350" s="39" t="n">
-        <v>33.31486611265005</v>
+        <v>33.35180055401662</v>
       </c>
       <c r="F350" s="37" t="n"/>
     </row>
@@ -37436,10 +37436,10 @@
         <v>2</v>
       </c>
       <c r="D351" s="38" t="n">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="E351" s="39" t="n">
-        <v>33.35180055401662</v>
+        <v>33.31486611265005</v>
       </c>
       <c r="F351" s="37" t="n"/>
     </row>
@@ -37476,10 +37476,10 @@
         <v>1</v>
       </c>
       <c r="D353" s="38" t="n">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="E353" s="39" t="n">
-        <v>33.43511450381679</v>
+        <v>33.32606324972737</v>
       </c>
       <c r="F353" s="37" t="n"/>
     </row>
@@ -37496,10 +37496,10 @@
         <v>2</v>
       </c>
       <c r="D354" s="40" t="n">
-        <v>1527</v>
+        <v>1532</v>
       </c>
       <c r="E354" s="40" t="n">
-        <v>33.30425299890949</v>
+        <v>33.41330425299891</v>
       </c>
       <c r="F354" s="37" t="n"/>
     </row>
@@ -37536,10 +37536,10 @@
         <v>1</v>
       </c>
       <c r="D356" s="38" t="n">
-        <v>1377</v>
+        <v>1409</v>
       </c>
       <c r="E356" s="39" t="n">
-        <v>33.13282001924927</v>
+        <v>33.90279114533205</v>
       </c>
       <c r="F356" s="37" t="n"/>
     </row>
@@ -37556,10 +37556,10 @@
         <v>2</v>
       </c>
       <c r="D357" s="38" t="n">
-        <v>1409</v>
+        <v>1377</v>
       </c>
       <c r="E357" s="39" t="n">
-        <v>33.90279114533205</v>
+        <v>33.13282001924927</v>
       </c>
       <c r="F357" s="37" t="n"/>
     </row>
@@ -37596,10 +37596,10 @@
         <v>1</v>
       </c>
       <c r="D359" s="38" t="n">
-        <v>1960</v>
+        <v>1925</v>
       </c>
       <c r="E359" s="39" t="n">
-        <v>33.53867214236824</v>
+        <v>32.93976728268309</v>
       </c>
     </row>
     <row r="360" ht="25" customHeight="1">
@@ -37615,10 +37615,10 @@
         <v>2</v>
       </c>
       <c r="D360" s="39" t="n">
-        <v>1924</v>
+        <v>1959</v>
       </c>
       <c r="E360" s="39" t="n">
-        <v>32.92265571526352</v>
+        <v>33.52156057494867</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/playbook.xlsx
+++ b/notebooks/playbook.xlsx
@@ -21265,13 +21265,13 @@
         </is>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="E3" s="13" t="n">
         <v>0</v>
@@ -21309,13 +21309,13 @@
         </is>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>0</v>
@@ -21375,19 +21375,19 @@
         </is>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="D8" s="13" t="n">
         <v>0.18</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -21446,7 +21446,7 @@
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
         <is>
-          <t>Birch</t>
+          <t>Hierarchical</t>
         </is>
       </c>
       <c r="B12" s="13" t="n">
@@ -21459,7 +21459,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
@@ -21478,17 +21478,17 @@
         <v>4</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
       <c r="A14" s="13" t="inlineStr">
         <is>
-          <t>Hierarchical</t>
+          <t>Birch</t>
         </is>
       </c>
       <c r="B14" s="13" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C14" s="13" t="n">
         <v>0.5</v>
@@ -21497,7 +21497,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
@@ -21516,7 +21516,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -21535,7 +21535,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -29082,7 +29082,7 @@
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="13" t="inlineStr">
         <is>
-          <t>srv_copay_amt_processed</t>
+          <t>medical_copay_pmpm_processed</t>
         </is>
       </c>
       <c r="B127" s="13" t="n">
@@ -29559,12 +29559,12 @@
       </c>
       <c r="C174" s="34" t="inlineStr">
         <is>
+          <t>urbsubr</t>
+        </is>
+      </c>
+      <c r="D174" s="34" t="inlineStr">
+        <is>
           <t>lob</t>
-        </is>
-      </c>
-      <c r="D174" s="34" t="inlineStr">
-        <is>
-          <t>urbsubr</t>
         </is>
       </c>
     </row>
@@ -29578,20 +29578,20 @@
         <v>1</v>
       </c>
       <c r="C175" s="13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D175" s="13" t="n">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="D175" s="13" t="n">
-        <v>0.1</v>
       </c>
     </row>
     <row r="176" ht="25" customHeight="1">
       <c r="A176" s="13" t="inlineStr">
         <is>
-          <t>lob</t>
+          <t>urbsubr</t>
         </is>
       </c>
       <c r="B176" s="13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C176" s="13" t="n">
         <v>1</v>
@@ -29603,11 +29603,11 @@
     <row r="177" ht="25" customHeight="1">
       <c r="A177" s="13" t="inlineStr">
         <is>
-          <t>urbsubr</t>
+          <t>lob</t>
         </is>
       </c>
       <c r="B177" s="13" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C177" s="13" t="n">
         <v>0.01</v>
@@ -29712,19 +29712,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>42.08738738738739</v>
+        <v>42.52008393285372</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>101057.4967374889</v>
+        <v>98497.67837738623</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>8.154192037302728</v>
+        <v>8.170854429028813</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>8.111282746095169</v>
+        <v>8.102578730272592</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>8.44145154377043</v>
+        <v>8.431075753228118</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1">
@@ -29732,19 +29732,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>42.89262147570486</v>
+        <v>42.08738738738739</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>100429.4765846274</v>
+        <v>101057.4967374889</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>8.168298380712471</v>
+        <v>8.154192037302728</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>8.111726652142346</v>
+        <v>8.111282746095169</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>8.445715613652867</v>
+        <v>8.44145154377043</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1">
@@ -29752,19 +29752,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>42.52008393285372</v>
+        <v>42.89262147570486</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>98497.67837738623</v>
+        <v>100429.4765846274</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>8.170854429028813</v>
+        <v>8.168298380712471</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>8.102578730272592</v>
+        <v>8.111726652142346</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>8.431075753228118</v>
+        <v>8.445715613652867</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
@@ -29814,16 +29814,16 @@
         <v>43</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>87052.8882</v>
+        <v>86000</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>8.053900000000001</v>
+        <v>8.0823</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>7.9862</v>
+        <v>7.991400000000001</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>8.331899999999999</v>
+        <v>8.336099999999998</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
@@ -29831,19 +29831,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>87000</v>
+        <v>87052.8882</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>8.081300000000001</v>
+        <v>8.053900000000001</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>7.997199999999999</v>
+        <v>7.9862</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>8.3268</v>
+        <v>8.331899999999999</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -29851,19 +29851,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="13" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="13" t="n">
-        <v>86000</v>
+        <v>87000</v>
       </c>
       <c r="D11" s="13" t="n">
-        <v>8.0823</v>
+        <v>8.081300000000001</v>
       </c>
       <c r="E11" s="13" t="n">
-        <v>7.991400000000001</v>
+        <v>7.997199999999999</v>
       </c>
       <c r="F11" s="13" t="n">
-        <v>8.336099999999998</v>
+        <v>8.3268</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
@@ -29910,19 +29910,19 @@
         <v>0</v>
       </c>
       <c r="B15" s="13" t="n">
-        <v>22.84155705788373</v>
+        <v>22.91630462801646</v>
       </c>
       <c r="C15" s="13" t="n">
-        <v>73545.68294018554</v>
+        <v>70139.56332630484</v>
       </c>
       <c r="D15" s="13" t="n">
-        <v>1.068305932562551</v>
+        <v>1.038879367058452</v>
       </c>
       <c r="E15" s="13" t="n">
-        <v>1.037500083211408</v>
+        <v>1.028299757501135</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>1.03046234586642</v>
+        <v>1.01855741216003</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -29930,19 +29930,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="n">
-        <v>22.83432521856754</v>
+        <v>22.84155705788373</v>
       </c>
       <c r="C16" s="13" t="n">
-        <v>75208.49330007608</v>
+        <v>73545.68294018554</v>
       </c>
       <c r="D16" s="13" t="n">
-        <v>1.072751346423613</v>
+        <v>1.068305932562551</v>
       </c>
       <c r="E16" s="13" t="n">
-        <v>1.05220948690419</v>
+        <v>1.037500083211408</v>
       </c>
       <c r="F16" s="13" t="n">
-        <v>1.028444835766027</v>
+        <v>1.03046234586642</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
@@ -29950,19 +29950,19 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="n">
-        <v>22.91630462801646</v>
+        <v>22.83432521856754</v>
       </c>
       <c r="C17" s="13" t="n">
-        <v>70139.56332630484</v>
+        <v>75208.49330007608</v>
       </c>
       <c r="D17" s="13" t="n">
-        <v>1.038879367058452</v>
+        <v>1.072751346423613</v>
       </c>
       <c r="E17" s="13" t="n">
-        <v>1.028299757501135</v>
+        <v>1.05220948690419</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>1.01855741216003</v>
+        <v>1.028444835766027</v>
       </c>
     </row>
   </sheetData>
@@ -30050,10 +30050,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="38" t="n">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="E3" s="39" t="n">
-        <v>31.74603174603174</v>
+        <v>33.24979114452798</v>
       </c>
       <c r="F3" s="37" t="n"/>
     </row>
@@ -30072,10 +30072,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="38" t="n">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="E4" s="39" t="n">
-        <v>35.00417710944026</v>
+        <v>31.74603174603174</v>
       </c>
       <c r="F4" s="37" t="n"/>
     </row>
@@ -30094,10 +30094,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="38" t="n">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="E5" s="39" t="n">
-        <v>33.24979114452798</v>
+        <v>35.00417710944026</v>
       </c>
       <c r="F5" s="37" t="n"/>
     </row>
@@ -30116,10 +30116,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="38" t="n">
-        <v>2452</v>
+        <v>2413</v>
       </c>
       <c r="E6" s="39" t="n">
-        <v>33.75550660792951</v>
+        <v>33.21861233480176</v>
       </c>
       <c r="F6" s="37" t="n"/>
     </row>
@@ -30138,10 +30138,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="38" t="n">
-        <v>2399</v>
+        <v>2452</v>
       </c>
       <c r="E7" s="39" t="n">
-        <v>33.02588105726873</v>
+        <v>33.75550660792951</v>
       </c>
       <c r="F7" s="37" t="n"/>
     </row>
@@ -30160,10 +30160,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="38" t="n">
-        <v>2413</v>
+        <v>2399</v>
       </c>
       <c r="E8" s="39" t="n">
-        <v>33.21861233480176</v>
+        <v>33.02588105726873</v>
       </c>
       <c r="F8" s="37" t="n"/>
     </row>
@@ -30182,10 +30182,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="38" t="n">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="E9" s="39" t="n">
-        <v>32.35867446393762</v>
+        <v>34.1130604288499</v>
       </c>
       <c r="F9" s="37" t="n"/>
     </row>
@@ -30204,10 +30204,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="38" t="n">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="E10" s="39" t="n">
-        <v>33.52826510721248</v>
+        <v>32.35867446393762</v>
       </c>
       <c r="F10" s="37" t="n"/>
     </row>
@@ -30226,10 +30226,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="40" t="n">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="E11" s="40" t="n">
-        <v>34.1130604288499</v>
+        <v>33.52826510721248</v>
       </c>
       <c r="F11" s="37" t="n"/>
     </row>
@@ -30248,10 +30248,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="38" t="n">
-        <v>1724</v>
+        <v>1747</v>
       </c>
       <c r="E12" s="39" t="n">
-        <v>33.19214478244128</v>
+        <v>33.63496341932999</v>
       </c>
       <c r="F12" s="37" t="n"/>
     </row>
@@ -30270,10 +30270,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="38" t="n">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="E13" s="39" t="n">
-        <v>33.17289179822873</v>
+        <v>33.19214478244128</v>
       </c>
       <c r="F13" s="37" t="n"/>
     </row>
@@ -30292,10 +30292,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="38" t="n">
-        <v>1747</v>
+        <v>1723</v>
       </c>
       <c r="E14" s="39" t="n">
-        <v>33.63496341932999</v>
+        <v>33.17289179822873</v>
       </c>
       <c r="F14" s="37" t="n"/>
     </row>
@@ -30314,10 +30314,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="38" t="n">
-        <v>1606</v>
+        <v>1589</v>
       </c>
       <c r="E15" s="39" t="n">
-        <v>33.41656263004577</v>
+        <v>33.0628381190179</v>
       </c>
       <c r="F15" s="37" t="n"/>
     </row>
@@ -30336,10 +30336,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="38" t="n">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="E16" s="39" t="n">
-        <v>33.52059925093633</v>
+        <v>33.41656263004577</v>
       </c>
       <c r="F16" s="37" t="n"/>
     </row>
@@ -30358,10 +30358,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="40" t="n">
-        <v>1589</v>
+        <v>1611</v>
       </c>
       <c r="E17" s="40" t="n">
-        <v>33.0628381190179</v>
+        <v>33.52059925093633</v>
       </c>
       <c r="F17" s="37" t="n"/>
     </row>
@@ -30378,10 +30378,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="38" t="n">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E18" s="39" t="n">
-        <v>33.21196358907672</v>
+        <v>33.15994798439532</v>
       </c>
       <c r="F18" s="37" t="n"/>
     </row>
@@ -30398,10 +30398,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="38" t="n">
-        <v>1293</v>
+        <v>1277</v>
       </c>
       <c r="E19" s="39" t="n">
-        <v>33.62808842652796</v>
+        <v>33.21196358907672</v>
       </c>
       <c r="F19" s="37" t="n"/>
     </row>
@@ -30418,10 +30418,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="38" t="n">
-        <v>1275</v>
+        <v>1293</v>
       </c>
       <c r="E20" s="39" t="n">
-        <v>33.15994798439532</v>
+        <v>33.62808842652796</v>
       </c>
       <c r="F20" s="37" t="n"/>
     </row>
@@ -30438,10 +30438,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="38" t="n">
-        <v>2053</v>
+        <v>2061</v>
       </c>
       <c r="E21" s="39" t="n">
-        <v>33.35499593826158</v>
+        <v>33.48497156783103</v>
       </c>
       <c r="F21" s="37" t="n"/>
     </row>
@@ -30458,10 +30458,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="38" t="n">
-        <v>2041</v>
+        <v>2053</v>
       </c>
       <c r="E22" s="39" t="n">
-        <v>33.16003249390739</v>
+        <v>33.35499593826158</v>
       </c>
       <c r="F22" s="37" t="n"/>
     </row>
@@ -30478,10 +30478,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="40" t="n">
-        <v>2061</v>
+        <v>2041</v>
       </c>
       <c r="E23" s="40" t="n">
-        <v>33.48497156783103</v>
+        <v>33.16003249390739</v>
       </c>
       <c r="F23" s="37" t="n"/>
     </row>
@@ -30500,10 +30500,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="38" t="n">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="E24" s="39" t="n">
-        <v>33.77510040160643</v>
+        <v>33.4136546184739</v>
       </c>
       <c r="F24" s="37" t="n"/>
     </row>
@@ -30522,10 +30522,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="38" t="n">
-        <v>817</v>
+        <v>841</v>
       </c>
       <c r="E25" s="39" t="n">
-        <v>32.81124497991968</v>
+        <v>33.77510040160643</v>
       </c>
       <c r="F25" s="37" t="n"/>
     </row>
@@ -30544,10 +30544,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="38" t="n">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="E26" s="39" t="n">
-        <v>33.4136546184739</v>
+        <v>32.81124497991968</v>
       </c>
       <c r="F26" s="37" t="n"/>
     </row>
@@ -30566,10 +30566,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="38" t="n">
-        <v>1862</v>
+        <v>1883</v>
       </c>
       <c r="E27" s="39" t="n">
-        <v>32.89752650176678</v>
+        <v>33.26855123674912</v>
       </c>
       <c r="F27" s="37" t="n"/>
     </row>
@@ -30588,10 +30588,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="38" t="n">
-        <v>1915</v>
+        <v>1862</v>
       </c>
       <c r="E28" s="39" t="n">
-        <v>33.8339222614841</v>
+        <v>32.89752650176678</v>
       </c>
       <c r="F28" s="37" t="n"/>
     </row>
@@ -30610,10 +30610,10 @@
         <v>2</v>
       </c>
       <c r="D29" s="38" t="n">
-        <v>1883</v>
+        <v>1915</v>
       </c>
       <c r="E29" s="39" t="n">
-        <v>33.26855123674912</v>
+        <v>33.8339222614841</v>
       </c>
       <c r="F29" s="37" t="n"/>
     </row>
@@ -30632,10 +30632,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="39" t="n">
-        <v>28.57142857142857</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="F30" s="37" t="n"/>
     </row>
@@ -30676,10 +30676,10 @@
         <v>2</v>
       </c>
       <c r="D32" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" s="39" t="n">
-        <v>42.85714285714285</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F32" s="37" t="n"/>
     </row>
@@ -30698,10 +30698,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="38" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33" s="39" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F33" s="37" t="n"/>
     </row>
@@ -30720,10 +30720,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="38" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E34" s="39" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F34" s="37" t="n"/>
     </row>
@@ -30742,10 +30742,10 @@
         <v>2</v>
       </c>
       <c r="D35" s="38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" s="39" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F35" s="37" t="n"/>
     </row>
@@ -30764,10 +30764,10 @@
         <v>0</v>
       </c>
       <c r="D36" s="38" t="n">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="E36" s="39" t="n">
-        <v>33.810888252149</v>
+        <v>34.16905444126074</v>
       </c>
       <c r="F36" s="37" t="n"/>
     </row>
@@ -30786,10 +30786,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="38" t="n">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>32.02005730659026</v>
+        <v>33.810888252149</v>
       </c>
       <c r="F37" s="37" t="n"/>
     </row>
@@ -30808,10 +30808,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="38" t="n">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="E38" s="39" t="n">
-        <v>34.16905444126074</v>
+        <v>32.02005730659026</v>
       </c>
       <c r="F38" s="37" t="n"/>
     </row>
@@ -30827,7 +30827,7 @@
         </is>
       </c>
       <c r="C39" s="40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="40" t="n">
         <v>2</v>
@@ -30850,10 +30850,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="38" t="n">
-        <v>741</v>
+        <v>769</v>
       </c>
       <c r="E40" s="39" t="n">
-        <v>33.09513175524788</v>
+        <v>34.34569004019652</v>
       </c>
       <c r="F40" s="37" t="n"/>
     </row>
@@ -30870,10 +30870,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="38" t="n">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="E41" s="39" t="n">
-        <v>32.55917820455561</v>
+        <v>33.09513175524788</v>
       </c>
       <c r="F41" s="37" t="n"/>
     </row>
@@ -30890,10 +30890,10 @@
         <v>2</v>
       </c>
       <c r="D42" s="38" t="n">
-        <v>769</v>
+        <v>729</v>
       </c>
       <c r="E42" s="39" t="n">
-        <v>34.34569004019652</v>
+        <v>32.55917820455561</v>
       </c>
       <c r="F42" s="37" t="n"/>
     </row>
@@ -30910,10 +30910,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="38" t="n">
-        <v>2448</v>
+        <v>2434</v>
       </c>
       <c r="E43" s="39" t="n">
-        <v>33.34695545565999</v>
+        <v>33.15624574308677</v>
       </c>
       <c r="F43" s="37" t="n"/>
     </row>
@@ -30930,10 +30930,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="38" t="n">
-        <v>2459</v>
+        <v>2448</v>
       </c>
       <c r="E44" s="39" t="n">
-        <v>33.49679880125323</v>
+        <v>33.34695545565999</v>
       </c>
       <c r="F44" s="37" t="n"/>
     </row>
@@ -30950,10 +30950,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="40" t="n">
-        <v>2434</v>
+        <v>2459</v>
       </c>
       <c r="E45" s="40" t="n">
-        <v>33.15624574308677</v>
+        <v>33.49679880125323</v>
       </c>
       <c r="F45" s="37" t="n"/>
     </row>
@@ -30970,10 +30970,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="38" t="n">
-        <v>2557</v>
+        <v>2580</v>
       </c>
       <c r="E46" s="39" t="n">
-        <v>33.06608043450149</v>
+        <v>33.36350704771757</v>
       </c>
       <c r="F46" s="37" t="n"/>
     </row>
@@ -30990,10 +30990,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="38" t="n">
-        <v>2596</v>
+        <v>2557</v>
       </c>
       <c r="E47" s="39" t="n">
-        <v>33.57041251778094</v>
+        <v>33.06608043450149</v>
       </c>
       <c r="F47" s="37" t="n"/>
     </row>
@@ -31010,10 +31010,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="38" t="n">
-        <v>2580</v>
+        <v>2596</v>
       </c>
       <c r="E48" s="39" t="n">
-        <v>33.36350704771757</v>
+        <v>33.57041251778094</v>
       </c>
       <c r="F48" s="37" t="n"/>
     </row>
@@ -31030,10 +31030,10 @@
         <v>0</v>
       </c>
       <c r="D49" s="38" t="n">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E49" s="39" t="n">
-        <v>34.21765024363833</v>
+        <v>33.73037357877639</v>
       </c>
       <c r="F49" s="37" t="n"/>
     </row>
@@ -31050,10 +31050,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="38" t="n">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="E50" s="39" t="n">
-        <v>32.05197617758527</v>
+        <v>34.21765024363833</v>
       </c>
       <c r="F50" s="37" t="n"/>
     </row>
@@ -31070,10 +31070,10 @@
         <v>2</v>
       </c>
       <c r="D51" s="40" t="n">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="E51" s="40" t="n">
-        <v>33.73037357877639</v>
+        <v>32.05197617758527</v>
       </c>
       <c r="F51" s="37" t="n"/>
     </row>
@@ -31090,10 +31090,10 @@
         <v>0</v>
       </c>
       <c r="D52" s="38" t="n">
-        <v>2067</v>
+        <v>2027</v>
       </c>
       <c r="E52" s="39" t="n">
-        <v>33.79659908436886</v>
+        <v>33.14257684761282</v>
       </c>
       <c r="F52" s="37" t="n"/>
     </row>
@@ -31110,10 +31110,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="38" t="n">
-        <v>2022</v>
+        <v>2067</v>
       </c>
       <c r="E53" s="39" t="n">
-        <v>33.06082406801831</v>
+        <v>33.79659908436886</v>
       </c>
       <c r="F53" s="37" t="n"/>
     </row>
@@ -31130,10 +31130,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="38" t="n">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="E54" s="39" t="n">
-        <v>33.14257684761282</v>
+        <v>33.06082406801831</v>
       </c>
       <c r="F54" s="37" t="n"/>
     </row>
@@ -31150,10 +31150,10 @@
         <v>0</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>1122</v>
+        <v>1176</v>
       </c>
       <c r="E55" s="39" t="n">
-        <v>32.39030023094688</v>
+        <v>33.94919168591224</v>
       </c>
       <c r="F55" s="37" t="n"/>
     </row>
@@ -31170,10 +31170,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="38" t="n">
-        <v>1166</v>
+        <v>1122</v>
       </c>
       <c r="E56" s="39" t="n">
-        <v>33.66050808314088</v>
+        <v>32.39030023094688</v>
       </c>
       <c r="F56" s="37" t="n"/>
     </row>
@@ -31190,10 +31190,10 @@
         <v>2</v>
       </c>
       <c r="D57" s="40" t="n">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="E57" s="40" t="n">
-        <v>33.94919168591224</v>
+        <v>33.66050808314088</v>
       </c>
       <c r="F57" s="37" t="n"/>
     </row>
@@ -31210,10 +31210,10 @@
         <v>0</v>
       </c>
       <c r="D58" s="38" t="n">
-        <v>2873</v>
+        <v>2907</v>
       </c>
       <c r="E58" s="39" t="n">
-        <v>33.24077287978711</v>
+        <v>33.63415480735856</v>
       </c>
       <c r="F58" s="37" t="n"/>
     </row>
@@ -31230,10 +31230,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="38" t="n">
-        <v>2863</v>
+        <v>2873</v>
       </c>
       <c r="E59" s="39" t="n">
-        <v>33.12507231285433</v>
+        <v>33.24077287978711</v>
       </c>
       <c r="F59" s="37" t="n"/>
     </row>
@@ -31250,10 +31250,10 @@
         <v>2</v>
       </c>
       <c r="D60" s="38" t="n">
-        <v>2907</v>
+        <v>2863</v>
       </c>
       <c r="E60" s="39" t="n">
-        <v>33.63415480735856</v>
+        <v>33.12507231285433</v>
       </c>
       <c r="F60" s="37" t="n"/>
     </row>
@@ -31270,10 +31270,10 @@
         <v>0</v>
       </c>
       <c r="D61" s="38" t="n">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E61" s="39" t="n">
-        <v>33.72465314834579</v>
+        <v>31.59018143009605</v>
       </c>
       <c r="F61" s="37" t="n"/>
     </row>
@@ -31290,10 +31290,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="38" t="n">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E62" s="39" t="n">
-        <v>34.68516542155816</v>
+        <v>33.72465314834579</v>
       </c>
       <c r="F62" s="37" t="n"/>
     </row>
@@ -31310,10 +31310,10 @@
         <v>2</v>
       </c>
       <c r="D63" s="40" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="E63" s="40" t="n">
-        <v>31.59018143009605</v>
+        <v>34.68516542155816</v>
       </c>
       <c r="F63" s="37" t="n"/>
     </row>
@@ -31330,10 +31330,10 @@
         <v>0</v>
       </c>
       <c r="D64" s="38" t="n">
-        <v>2745</v>
+        <v>2737</v>
       </c>
       <c r="E64" s="39" t="n">
-        <v>33.45521023765997</v>
+        <v>33.35770871419866</v>
       </c>
       <c r="F64" s="37" t="n"/>
     </row>
@@ -31350,10 +31350,10 @@
         <v>1</v>
       </c>
       <c r="D65" s="38" t="n">
-        <v>2723</v>
+        <v>2745</v>
       </c>
       <c r="E65" s="39" t="n">
-        <v>33.18708104814137</v>
+        <v>33.45521023765997</v>
       </c>
       <c r="F65" s="37" t="n"/>
     </row>
@@ -31370,10 +31370,10 @@
         <v>2</v>
       </c>
       <c r="D66" s="38" t="n">
-        <v>2737</v>
+        <v>2723</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>33.35770871419866</v>
+        <v>33.18708104814137</v>
       </c>
       <c r="F66" s="37" t="n"/>
     </row>
@@ -31390,10 +31390,10 @@
         <v>0</v>
       </c>
       <c r="D67" s="38" t="n">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="E67" s="39" t="n">
-        <v>32.29090909090909</v>
+        <v>33.89090909090909</v>
       </c>
       <c r="F67" s="37" t="n"/>
     </row>
@@ -31410,10 +31410,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="38" t="n">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="E68" s="39" t="n">
-        <v>33.81818181818182</v>
+        <v>32.29090909090909</v>
       </c>
       <c r="F68" s="37" t="n"/>
     </row>
@@ -31430,10 +31430,10 @@
         <v>2</v>
       </c>
       <c r="D69" s="40" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E69" s="40" t="n">
-        <v>33.89090909090909</v>
+        <v>33.81818181818182</v>
       </c>
       <c r="F69" s="37" t="n"/>
     </row>
@@ -31470,10 +31470,10 @@
         <v>1</v>
       </c>
       <c r="D71" s="38" t="n">
-        <v>2356</v>
+        <v>2328</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>33.59954363947519</v>
+        <v>33.20022818026241</v>
       </c>
       <c r="F71" s="37" t="n"/>
     </row>
@@ -31490,10 +31490,10 @@
         <v>2</v>
       </c>
       <c r="D72" s="38" t="n">
-        <v>2328</v>
+        <v>2356</v>
       </c>
       <c r="E72" s="39" t="n">
-        <v>33.20022818026241</v>
+        <v>33.59954363947519</v>
       </c>
       <c r="F72" s="37" t="n"/>
     </row>
@@ -31510,10 +31510,10 @@
         <v>0</v>
       </c>
       <c r="D73" s="38" t="n">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="E73" s="39" t="n">
-        <v>33.53413654618474</v>
+        <v>33.73493975903614</v>
       </c>
       <c r="F73" s="37" t="n"/>
     </row>
@@ -31530,10 +31530,10 @@
         <v>1</v>
       </c>
       <c r="D74" s="38" t="n">
-        <v>978</v>
+        <v>1002</v>
       </c>
       <c r="E74" s="39" t="n">
-        <v>32.73092369477911</v>
+        <v>33.53413654618474</v>
       </c>
       <c r="F74" s="37" t="n"/>
     </row>
@@ -31550,10 +31550,10 @@
         <v>2</v>
       </c>
       <c r="D75" s="40" t="n">
-        <v>1008</v>
+        <v>978</v>
       </c>
       <c r="E75" s="40" t="n">
-        <v>33.73493975903614</v>
+        <v>32.73092369477911</v>
       </c>
       <c r="F75" s="37" t="n"/>
     </row>
@@ -31570,10 +31570,10 @@
         <v>0</v>
       </c>
       <c r="D76" s="38" t="n">
-        <v>3042</v>
+        <v>3021</v>
       </c>
       <c r="E76" s="39" t="n">
-        <v>33.38088445078459</v>
+        <v>33.15044442005926</v>
       </c>
       <c r="F76" s="37" t="n"/>
     </row>
@@ -31590,10 +31590,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="38" t="n">
-        <v>3050</v>
+        <v>3042</v>
       </c>
       <c r="E77" s="39" t="n">
-        <v>33.46867112915615</v>
+        <v>33.38088445078459</v>
       </c>
       <c r="F77" s="37" t="n"/>
     </row>
@@ -31610,10 +31610,10 @@
         <v>2</v>
       </c>
       <c r="D78" s="38" t="n">
-        <v>3021</v>
+        <v>3050</v>
       </c>
       <c r="E78" s="39" t="n">
-        <v>33.15044442005926</v>
+        <v>33.46867112915615</v>
       </c>
       <c r="F78" s="37" t="n"/>
     </row>
@@ -31630,10 +31630,10 @@
         <v>0</v>
       </c>
       <c r="D79" s="38" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="E79" s="39" t="n">
-        <v>32.46899661781285</v>
+        <v>35.51296505073281</v>
       </c>
       <c r="F79" s="37" t="n"/>
     </row>
@@ -31650,10 +31650,10 @@
         <v>1</v>
       </c>
       <c r="D80" s="38" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E80" s="39" t="n">
-        <v>32.01803833145434</v>
+        <v>32.46899661781285</v>
       </c>
       <c r="F80" s="37" t="n"/>
     </row>
@@ -31670,10 +31670,10 @@
         <v>2</v>
       </c>
       <c r="D81" s="40" t="n">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="E81" s="40" t="n">
-        <v>35.51296505073281</v>
+        <v>32.01803833145434</v>
       </c>
       <c r="F81" s="37" t="n"/>
     </row>
@@ -31690,10 +31690,10 @@
         <v>0</v>
       </c>
       <c r="D82" s="38" t="n">
-        <v>2102</v>
+        <v>2018</v>
       </c>
       <c r="E82" s="39" t="n">
-        <v>33.99094437257438</v>
+        <v>32.63260025873221</v>
       </c>
       <c r="F82" s="37" t="n"/>
     </row>
@@ -31710,10 +31710,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="38" t="n">
-        <v>2064</v>
+        <v>2102</v>
       </c>
       <c r="E83" s="39" t="n">
-        <v>33.3764553686934</v>
+        <v>33.99094437257438</v>
       </c>
       <c r="F83" s="37" t="n"/>
     </row>
@@ -31730,10 +31730,10 @@
         <v>2</v>
       </c>
       <c r="D84" s="38" t="n">
-        <v>2018</v>
+        <v>2064</v>
       </c>
       <c r="E84" s="39" t="n">
-        <v>32.63260025873221</v>
+        <v>33.3764553686934</v>
       </c>
       <c r="F84" s="37" t="n"/>
     </row>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="D85" s="38" t="n">
-        <v>1228</v>
+        <v>1318</v>
       </c>
       <c r="E85" s="39" t="n">
-        <v>32.18029350104822</v>
+        <v>34.53878406708596</v>
       </c>
       <c r="F85" s="37" t="n"/>
     </row>
@@ -31770,10 +31770,10 @@
         <v>1</v>
       </c>
       <c r="D86" s="38" t="n">
-        <v>1270</v>
+        <v>1228</v>
       </c>
       <c r="E86" s="39" t="n">
-        <v>33.28092243186583</v>
+        <v>32.18029350104822</v>
       </c>
       <c r="F86" s="37" t="n"/>
     </row>
@@ -31790,10 +31790,10 @@
         <v>2</v>
       </c>
       <c r="D87" s="40" t="n">
-        <v>1318</v>
+        <v>1270</v>
       </c>
       <c r="E87" s="40" t="n">
-        <v>34.53878406708596</v>
+        <v>33.28092243186583</v>
       </c>
       <c r="F87" s="37" t="n"/>
     </row>
@@ -31810,10 +31810,10 @@
         <v>0</v>
       </c>
       <c r="D88" s="38" t="n">
-        <v>2832</v>
+        <v>2810</v>
       </c>
       <c r="E88" s="39" t="n">
-        <v>33.47517730496454</v>
+        <v>33.21513002364066</v>
       </c>
       <c r="F88" s="37" t="n"/>
     </row>
@@ -31830,10 +31830,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="38" t="n">
-        <v>2818</v>
+        <v>2832</v>
       </c>
       <c r="E89" s="39" t="n">
-        <v>33.3096926713948</v>
+        <v>33.47517730496454</v>
       </c>
       <c r="F89" s="37" t="n"/>
     </row>
@@ -31850,10 +31850,10 @@
         <v>2</v>
       </c>
       <c r="D90" s="38" t="n">
-        <v>2810</v>
+        <v>2818</v>
       </c>
       <c r="E90" s="39" t="n">
-        <v>33.21513002364066</v>
+        <v>33.3096926713948</v>
       </c>
       <c r="F90" s="37" t="n"/>
     </row>
@@ -31870,10 +31870,10 @@
         <v>0</v>
       </c>
       <c r="D91" s="38" t="n">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="E91" s="39" t="n">
-        <v>32.33766233766234</v>
+        <v>34.15584415584416</v>
       </c>
       <c r="F91" s="37" t="n"/>
     </row>
@@ -31890,10 +31890,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="38" t="n">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="E92" s="39" t="n">
-        <v>33.50649350649351</v>
+        <v>32.33766233766234</v>
       </c>
       <c r="F92" s="37" t="n"/>
     </row>
@@ -31910,10 +31910,10 @@
         <v>2</v>
       </c>
       <c r="D93" s="40" t="n">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E93" s="40" t="n">
-        <v>34.15584415584416</v>
+        <v>33.50649350649351</v>
       </c>
       <c r="F93" s="37" t="n"/>
     </row>
@@ -31932,10 +31932,10 @@
         <v>0</v>
       </c>
       <c r="D94" s="38" t="n">
-        <v>1285</v>
+        <v>1304</v>
       </c>
       <c r="E94" s="39" t="n">
-        <v>33.10149407521896</v>
+        <v>33.59093250901597</v>
       </c>
       <c r="F94" s="37" t="n"/>
     </row>
@@ -31954,10 +31954,10 @@
         <v>1</v>
       </c>
       <c r="D95" s="38" t="n">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="E95" s="39" t="n">
-        <v>33.30757341576507</v>
+        <v>33.10149407521896</v>
       </c>
       <c r="F95" s="37" t="n"/>
     </row>
@@ -31976,10 +31976,10 @@
         <v>2</v>
       </c>
       <c r="D96" s="38" t="n">
-        <v>1304</v>
+        <v>1293</v>
       </c>
       <c r="E96" s="39" t="n">
-        <v>33.59093250901597</v>
+        <v>33.30757341576507</v>
       </c>
       <c r="F96" s="37" t="n"/>
     </row>
@@ -31998,10 +31998,10 @@
         <v>0</v>
       </c>
       <c r="D97" s="38" t="n">
-        <v>860</v>
+        <v>814</v>
       </c>
       <c r="E97" s="39" t="n">
-        <v>34.6494762288477</v>
+        <v>32.79613215149073</v>
       </c>
       <c r="F97" s="37" t="n"/>
     </row>
@@ -32020,10 +32020,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="38" t="n">
-        <v>808</v>
+        <v>860</v>
       </c>
       <c r="E98" s="39" t="n">
-        <v>32.55439161966157</v>
+        <v>34.6494762288477</v>
       </c>
       <c r="F98" s="37" t="n"/>
     </row>
@@ -32042,10 +32042,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="38" t="n">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="E99" s="39" t="n">
-        <v>32.79613215149073</v>
+        <v>32.55439161966157</v>
       </c>
       <c r="F99" s="37" t="n"/>
     </row>
@@ -32064,10 +32064,10 @@
         <v>0</v>
       </c>
       <c r="D100" s="38" t="n">
-        <v>1130</v>
+        <v>1164</v>
       </c>
       <c r="E100" s="39" t="n">
-        <v>32.53671177656205</v>
+        <v>33.51569248488339</v>
       </c>
       <c r="F100" s="37" t="n"/>
     </row>
@@ -32086,10 +32086,10 @@
         <v>1</v>
       </c>
       <c r="D101" s="38" t="n">
-        <v>1179</v>
+        <v>1130</v>
       </c>
       <c r="E101" s="39" t="n">
-        <v>33.94759573855456</v>
+        <v>32.53671177656205</v>
       </c>
       <c r="F101" s="37" t="n"/>
     </row>
@@ -32108,10 +32108,10 @@
         <v>2</v>
       </c>
       <c r="D102" s="40" t="n">
-        <v>1164</v>
+        <v>1179</v>
       </c>
       <c r="E102" s="40" t="n">
-        <v>33.51569248488339</v>
+        <v>33.94759573855456</v>
       </c>
       <c r="F102" s="37" t="n"/>
     </row>
@@ -32196,10 +32196,10 @@
         <v>0</v>
       </c>
       <c r="D106" s="38" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E106" s="39" t="n">
-        <v>31.64556962025317</v>
+        <v>35.44303797468354</v>
       </c>
       <c r="F106" s="37" t="n"/>
     </row>
@@ -32218,10 +32218,10 @@
         <v>1</v>
       </c>
       <c r="D107" s="38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E107" s="39" t="n">
-        <v>32.91139240506329</v>
+        <v>31.64556962025317</v>
       </c>
       <c r="F107" s="37" t="n"/>
     </row>
@@ -32240,10 +32240,10 @@
         <v>2</v>
       </c>
       <c r="D108" s="38" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E108" s="39" t="n">
-        <v>35.44303797468354</v>
+        <v>32.91139240506329</v>
       </c>
       <c r="F108" s="37" t="n"/>
     </row>
@@ -32262,10 +32262,10 @@
         <v>0</v>
       </c>
       <c r="D109" s="38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E109" s="39" t="n">
-        <v>35.48387096774194</v>
+        <v>32.25806451612903</v>
       </c>
       <c r="F109" s="37" t="n"/>
     </row>
@@ -32284,10 +32284,10 @@
         <v>1</v>
       </c>
       <c r="D110" s="38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" s="39" t="n">
-        <v>32.25806451612903</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="F110" s="37" t="n"/>
     </row>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="C113" s="38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113" s="38" t="n">
         <v>3</v>
@@ -32372,10 +32372,10 @@
         <v>0</v>
       </c>
       <c r="D114" s="38" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E114" s="39" t="n">
-        <v>19.04761904761905</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="F114" s="37" t="n"/>
     </row>
@@ -32416,10 +32416,10 @@
         <v>2</v>
       </c>
       <c r="D116" s="38" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E116" s="39" t="n">
-        <v>61.90476190476191</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="F116" s="37" t="n"/>
     </row>
@@ -32438,10 +32438,10 @@
         <v>0</v>
       </c>
       <c r="D117" s="38" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E117" s="39" t="n">
-        <v>34.38596491228071</v>
+        <v>29.82456140350877</v>
       </c>
       <c r="F117" s="37" t="n"/>
     </row>
@@ -32460,10 +32460,10 @@
         <v>1</v>
       </c>
       <c r="D118" s="38" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E118" s="39" t="n">
-        <v>35.78947368421053</v>
+        <v>34.38596491228071</v>
       </c>
       <c r="F118" s="37" t="n"/>
     </row>
@@ -32482,10 +32482,10 @@
         <v>2</v>
       </c>
       <c r="D119" s="38" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E119" s="39" t="n">
-        <v>29.82456140350877</v>
+        <v>35.78947368421053</v>
       </c>
       <c r="F119" s="37" t="n"/>
     </row>
@@ -32504,10 +32504,10 @@
         <v>0</v>
       </c>
       <c r="D120" s="38" t="n">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E120" s="39" t="n">
-        <v>34.02777777777778</v>
+        <v>36.80555555555556</v>
       </c>
       <c r="F120" s="37" t="n"/>
     </row>
@@ -32526,10 +32526,10 @@
         <v>1</v>
       </c>
       <c r="D121" s="38" t="n">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="E121" s="39" t="n">
-        <v>29.16666666666667</v>
+        <v>34.02777777777778</v>
       </c>
       <c r="F121" s="37" t="n"/>
     </row>
@@ -32548,10 +32548,10 @@
         <v>2</v>
       </c>
       <c r="D122" s="38" t="n">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="E122" s="39" t="n">
-        <v>36.80555555555556</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="F122" s="37" t="n"/>
     </row>
@@ -32570,10 +32570,10 @@
         <v>0</v>
       </c>
       <c r="D123" s="38" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E123" s="39" t="n">
-        <v>27.86885245901639</v>
+        <v>36.88524590163934</v>
       </c>
       <c r="F123" s="37" t="n"/>
     </row>
@@ -32592,10 +32592,10 @@
         <v>1</v>
       </c>
       <c r="D124" s="38" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E124" s="39" t="n">
-        <v>35.24590163934426</v>
+        <v>27.86885245901639</v>
       </c>
       <c r="F124" s="37" t="n"/>
     </row>
@@ -32614,10 +32614,10 @@
         <v>2</v>
       </c>
       <c r="D125" s="38" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E125" s="39" t="n">
-        <v>36.88524590163934</v>
+        <v>35.24590163934426</v>
       </c>
       <c r="F125" s="37" t="n"/>
     </row>
@@ -32636,10 +32636,10 @@
         <v>0</v>
       </c>
       <c r="D126" s="38" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E126" s="39" t="n">
-        <v>33.85416666666667</v>
+        <v>30.20833333333333</v>
       </c>
       <c r="F126" s="37" t="n"/>
     </row>
@@ -32658,10 +32658,10 @@
         <v>1</v>
       </c>
       <c r="D127" s="38" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E127" s="39" t="n">
-        <v>35.9375</v>
+        <v>33.85416666666667</v>
       </c>
       <c r="F127" s="37" t="n"/>
     </row>
@@ -32680,10 +32680,10 @@
         <v>2</v>
       </c>
       <c r="D128" s="38" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E128" s="39" t="n">
-        <v>30.20833333333333</v>
+        <v>35.9375</v>
       </c>
       <c r="F128" s="37" t="n"/>
     </row>
@@ -32702,10 +32702,10 @@
         <v>0</v>
       </c>
       <c r="D129" s="38" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E129" s="39" t="n">
-        <v>23.52941176470588</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="F129" s="37" t="n"/>
     </row>
@@ -32724,10 +32724,10 @@
         <v>1</v>
       </c>
       <c r="D130" s="38" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E130" s="39" t="n">
-        <v>35.29411764705883</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="F130" s="37" t="n"/>
     </row>
@@ -32746,10 +32746,10 @@
         <v>2</v>
       </c>
       <c r="D131" s="38" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E131" s="39" t="n">
-        <v>41.17647058823529</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="F131" s="37" t="n"/>
     </row>
@@ -32790,10 +32790,10 @@
         <v>1</v>
       </c>
       <c r="D133" s="38" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E133" s="39" t="n">
-        <v>29.87012987012987</v>
+        <v>35.06493506493506</v>
       </c>
       <c r="F133" s="37" t="n"/>
     </row>
@@ -32812,10 +32812,10 @@
         <v>2</v>
       </c>
       <c r="D134" s="38" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E134" s="39" t="n">
-        <v>35.06493506493506</v>
+        <v>29.87012987012987</v>
       </c>
       <c r="F134" s="37" t="n"/>
     </row>
@@ -32834,10 +32834,10 @@
         <v>0</v>
       </c>
       <c r="D135" s="38" t="n">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="E135" s="39" t="n">
-        <v>35.57788944723618</v>
+        <v>32.66331658291458</v>
       </c>
       <c r="F135" s="37" t="n"/>
     </row>
@@ -32856,10 +32856,10 @@
         <v>1</v>
       </c>
       <c r="D136" s="38" t="n">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="E136" s="39" t="n">
-        <v>31.75879396984925</v>
+        <v>35.57788944723618</v>
       </c>
       <c r="F136" s="37" t="n"/>
     </row>
@@ -32878,10 +32878,10 @@
         <v>2</v>
       </c>
       <c r="D137" s="38" t="n">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E137" s="39" t="n">
-        <v>32.66331658291458</v>
+        <v>31.75879396984925</v>
       </c>
       <c r="F137" s="37" t="n"/>
     </row>
@@ -32900,10 +32900,10 @@
         <v>0</v>
       </c>
       <c r="D138" s="38" t="n">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E138" s="39" t="n">
-        <v>29.86301369863014</v>
+        <v>33.97260273972603</v>
       </c>
       <c r="F138" s="37" t="n"/>
     </row>
@@ -32922,10 +32922,10 @@
         <v>1</v>
       </c>
       <c r="D139" s="38" t="n">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E139" s="39" t="n">
-        <v>36.16438356164384</v>
+        <v>29.86301369863014</v>
       </c>
       <c r="F139" s="37" t="n"/>
     </row>
@@ -32944,10 +32944,10 @@
         <v>2</v>
       </c>
       <c r="D140" s="38" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E140" s="39" t="n">
-        <v>33.97260273972603</v>
+        <v>36.16438356164384</v>
       </c>
       <c r="F140" s="37" t="n"/>
     </row>
@@ -32966,10 +32966,10 @@
         <v>0</v>
       </c>
       <c r="D141" s="38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E141" s="39" t="n">
-        <v>42.85714285714285</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="F141" s="37" t="n"/>
     </row>
@@ -32988,10 +32988,10 @@
         <v>1</v>
       </c>
       <c r="D142" s="38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E142" s="39" t="n">
-        <v>21.42857142857143</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="F142" s="37" t="n"/>
     </row>
@@ -33010,10 +33010,10 @@
         <v>2</v>
       </c>
       <c r="D143" s="38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E143" s="39" t="n">
-        <v>35.71428571428572</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="F143" s="37" t="n"/>
     </row>
@@ -33032,10 +33032,10 @@
         <v>0</v>
       </c>
       <c r="D144" s="38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E144" s="39" t="n">
-        <v>66.66666666666666</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F144" s="37" t="n"/>
     </row>
@@ -33054,10 +33054,10 @@
         <v>1</v>
       </c>
       <c r="D145" s="38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E145" s="39" t="n">
-        <v>16.66666666666666</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="F145" s="37" t="n"/>
     </row>
@@ -33098,10 +33098,10 @@
         <v>0</v>
       </c>
       <c r="D147" s="38" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E147" s="39" t="n">
-        <v>27.65957446808511</v>
+        <v>40.42553191489361</v>
       </c>
       <c r="F147" s="37" t="n"/>
     </row>
@@ -33120,10 +33120,10 @@
         <v>1</v>
       </c>
       <c r="D148" s="38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E148" s="39" t="n">
-        <v>31.91489361702128</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="F148" s="37" t="n"/>
     </row>
@@ -33142,10 +33142,10 @@
         <v>2</v>
       </c>
       <c r="D149" s="38" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E149" s="39" t="n">
-        <v>40.42553191489361</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="F149" s="37" t="n"/>
     </row>
@@ -33164,10 +33164,10 @@
         <v>0</v>
       </c>
       <c r="D150" s="38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E150" s="39" t="n">
-        <v>37.14285714285715</v>
+        <v>34.28571428571428</v>
       </c>
       <c r="F150" s="37" t="n"/>
     </row>
@@ -33186,10 +33186,10 @@
         <v>1</v>
       </c>
       <c r="D151" s="38" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E151" s="39" t="n">
-        <v>28.57142857142857</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="F151" s="37" t="n"/>
     </row>
@@ -33208,10 +33208,10 @@
         <v>2</v>
       </c>
       <c r="D152" s="38" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E152" s="39" t="n">
-        <v>34.28571428571428</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F152" s="37" t="n"/>
     </row>
@@ -33230,10 +33230,10 @@
         <v>0</v>
       </c>
       <c r="D153" s="38" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E153" s="39" t="n">
-        <v>33.9943342776204</v>
+        <v>33.71104815864022</v>
       </c>
       <c r="F153" s="37" t="n"/>
     </row>
@@ -33252,10 +33252,10 @@
         <v>1</v>
       </c>
       <c r="D154" s="38" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E154" s="39" t="n">
-        <v>32.29461756373937</v>
+        <v>33.9943342776204</v>
       </c>
       <c r="F154" s="37" t="n"/>
     </row>
@@ -33274,10 +33274,10 @@
         <v>2</v>
       </c>
       <c r="D155" s="38" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E155" s="39" t="n">
-        <v>33.71104815864022</v>
+        <v>32.29461756373937</v>
       </c>
       <c r="F155" s="37" t="n"/>
     </row>
@@ -33296,10 +33296,10 @@
         <v>0</v>
       </c>
       <c r="D156" s="38" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E156" s="39" t="n">
-        <v>34.93975903614458</v>
+        <v>26.50602409638554</v>
       </c>
       <c r="F156" s="37" t="n"/>
     </row>
@@ -33318,10 +33318,10 @@
         <v>1</v>
       </c>
       <c r="D157" s="38" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E157" s="39" t="n">
-        <v>38.55421686746988</v>
+        <v>34.93975903614458</v>
       </c>
       <c r="F157" s="37" t="n"/>
     </row>
@@ -33340,10 +33340,10 @@
         <v>2</v>
       </c>
       <c r="D158" s="38" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E158" s="39" t="n">
-        <v>26.50602409638554</v>
+        <v>38.55421686746988</v>
       </c>
       <c r="F158" s="37" t="n"/>
     </row>
@@ -33362,10 +33362,10 @@
         <v>0</v>
       </c>
       <c r="D159" s="38" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E159" s="39" t="n">
-        <v>26.21359223300971</v>
+        <v>36.89320388349515</v>
       </c>
       <c r="F159" s="37" t="n"/>
     </row>
@@ -33384,10 +33384,10 @@
         <v>1</v>
       </c>
       <c r="D160" s="38" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E160" s="39" t="n">
-        <v>36.89320388349515</v>
+        <v>26.21359223300971</v>
       </c>
       <c r="F160" s="37" t="n"/>
     </row>
@@ -33428,10 +33428,10 @@
         <v>0</v>
       </c>
       <c r="D162" s="38" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E162" s="39" t="n">
-        <v>31.81818181818182</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="F162" s="37" t="n"/>
     </row>
@@ -33472,10 +33472,10 @@
         <v>2</v>
       </c>
       <c r="D164" s="38" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E164" s="39" t="n">
-        <v>36.36363636363637</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="F164" s="37" t="n"/>
     </row>
@@ -33494,10 +33494,10 @@
         <v>0</v>
       </c>
       <c r="D165" s="38" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E165" s="39" t="n">
-        <v>32.14285714285715</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="F165" s="37" t="n"/>
     </row>
@@ -33538,10 +33538,10 @@
         <v>2</v>
       </c>
       <c r="D167" s="38" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E167" s="39" t="n">
-        <v>35.71428571428572</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="F167" s="37" t="n"/>
     </row>
@@ -33560,10 +33560,10 @@
         <v>0</v>
       </c>
       <c r="D168" s="38" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E168" s="39" t="n">
-        <v>30.3921568627451</v>
+        <v>31.37254901960784</v>
       </c>
       <c r="F168" s="37" t="n"/>
     </row>
@@ -33582,10 +33582,10 @@
         <v>1</v>
       </c>
       <c r="D169" s="38" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E169" s="39" t="n">
-        <v>38.23529411764706</v>
+        <v>30.3921568627451</v>
       </c>
       <c r="F169" s="37" t="n"/>
     </row>
@@ -33604,10 +33604,10 @@
         <v>2</v>
       </c>
       <c r="D170" s="38" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E170" s="39" t="n">
-        <v>31.37254901960784</v>
+        <v>38.23529411764706</v>
       </c>
       <c r="F170" s="37" t="n"/>
     </row>
@@ -33626,10 +33626,10 @@
         <v>0</v>
       </c>
       <c r="D171" s="38" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E171" s="39" t="n">
-        <v>32.48730964467005</v>
+        <v>32.99492385786802</v>
       </c>
       <c r="F171" s="37" t="n"/>
     </row>
@@ -33648,10 +33648,10 @@
         <v>1</v>
       </c>
       <c r="D172" s="38" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E172" s="39" t="n">
-        <v>34.51776649746193</v>
+        <v>32.48730964467005</v>
       </c>
       <c r="F172" s="37" t="n"/>
     </row>
@@ -33670,10 +33670,10 @@
         <v>2</v>
       </c>
       <c r="D173" s="38" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E173" s="39" t="n">
-        <v>32.99492385786802</v>
+        <v>34.51776649746193</v>
       </c>
       <c r="F173" s="37" t="n"/>
     </row>
@@ -33692,10 +33692,10 @@
         <v>0</v>
       </c>
       <c r="D174" s="38" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E174" s="39" t="n">
-        <v>25</v>
+        <v>39.58333333333333</v>
       </c>
       <c r="F174" s="37" t="n"/>
     </row>
@@ -33714,10 +33714,10 @@
         <v>1</v>
       </c>
       <c r="D175" s="38" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E175" s="39" t="n">
-        <v>35.41666666666667</v>
+        <v>25</v>
       </c>
       <c r="F175" s="37" t="n"/>
     </row>
@@ -33736,10 +33736,10 @@
         <v>2</v>
       </c>
       <c r="D176" s="38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E176" s="39" t="n">
-        <v>39.58333333333333</v>
+        <v>35.41666666666667</v>
       </c>
       <c r="F176" s="37" t="n"/>
     </row>
@@ -33758,10 +33758,10 @@
         <v>0</v>
       </c>
       <c r="D177" s="38" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E177" s="39" t="n">
-        <v>36.84210526315789</v>
+        <v>32.45614035087719</v>
       </c>
       <c r="F177" s="37" t="n"/>
     </row>
@@ -33780,10 +33780,10 @@
         <v>1</v>
       </c>
       <c r="D178" s="38" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E178" s="39" t="n">
-        <v>30.70175438596491</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="F178" s="37" t="n"/>
     </row>
@@ -33802,10 +33802,10 @@
         <v>2</v>
       </c>
       <c r="D179" s="38" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E179" s="39" t="n">
-        <v>32.45614035087719</v>
+        <v>30.70175438596491</v>
       </c>
       <c r="F179" s="37" t="n"/>
     </row>
@@ -33846,10 +33846,10 @@
         <v>1</v>
       </c>
       <c r="D181" s="38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E181" s="39" t="n">
-        <v>36.58536585365854</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="F181" s="37" t="n"/>
     </row>
@@ -33868,10 +33868,10 @@
         <v>2</v>
       </c>
       <c r="D182" s="38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E182" s="39" t="n">
-        <v>31.70731707317073</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="F182" s="37" t="n"/>
     </row>
@@ -33890,10 +33890,10 @@
         <v>0</v>
       </c>
       <c r="D183" s="38" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E183" s="39" t="n">
-        <v>32.92682926829269</v>
+        <v>34.14634146341464</v>
       </c>
       <c r="F183" s="37" t="n"/>
     </row>
@@ -33934,10 +33934,10 @@
         <v>2</v>
       </c>
       <c r="D185" s="38" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E185" s="39" t="n">
-        <v>34.14634146341464</v>
+        <v>32.92682926829269</v>
       </c>
       <c r="F185" s="37" t="n"/>
     </row>
@@ -33956,10 +33956,10 @@
         <v>0</v>
       </c>
       <c r="D186" s="38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186" s="39" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F186" s="37" t="n"/>
     </row>
@@ -34000,10 +34000,10 @@
         <v>2</v>
       </c>
       <c r="D188" s="38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E188" s="39" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F188" s="37" t="n"/>
     </row>
@@ -34022,10 +34022,10 @@
         <v>0</v>
       </c>
       <c r="D189" s="38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E189" s="39" t="n">
-        <v>38.46153846153847</v>
+        <v>34.61538461538461</v>
       </c>
       <c r="F189" s="37" t="n"/>
     </row>
@@ -34044,10 +34044,10 @@
         <v>1</v>
       </c>
       <c r="D190" s="38" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E190" s="39" t="n">
-        <v>26.92307692307692</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="F190" s="37" t="n"/>
     </row>
@@ -34066,10 +34066,10 @@
         <v>2</v>
       </c>
       <c r="D191" s="38" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E191" s="39" t="n">
-        <v>34.61538461538461</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="F191" s="37" t="n"/>
     </row>
@@ -34088,10 +34088,10 @@
         <v>0</v>
       </c>
       <c r="D192" s="38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E192" s="39" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F192" s="37" t="n"/>
     </row>
@@ -34110,10 +34110,10 @@
         <v>1</v>
       </c>
       <c r="D193" s="38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E193" s="39" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F193" s="37" t="n"/>
     </row>
@@ -34132,10 +34132,10 @@
         <v>2</v>
       </c>
       <c r="D194" s="38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E194" s="39" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F194" s="37" t="n"/>
     </row>
@@ -34154,10 +34154,10 @@
         <v>0</v>
       </c>
       <c r="D195" s="38" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E195" s="39" t="n">
-        <v>34.8936170212766</v>
+        <v>34.04255319148936</v>
       </c>
       <c r="F195" s="37" t="n"/>
     </row>
@@ -34176,10 +34176,10 @@
         <v>1</v>
       </c>
       <c r="D196" s="38" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E196" s="39" t="n">
-        <v>31.06382978723404</v>
+        <v>34.8936170212766</v>
       </c>
       <c r="F196" s="37" t="n"/>
     </row>
@@ -34198,10 +34198,10 @@
         <v>2</v>
       </c>
       <c r="D197" s="38" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E197" s="39" t="n">
-        <v>34.04255319148936</v>
+        <v>31.06382978723404</v>
       </c>
       <c r="F197" s="37" t="n"/>
     </row>
@@ -34217,7 +34217,7 @@
         </is>
       </c>
       <c r="C198" s="38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" s="38" t="n">
         <v>1</v>
@@ -34242,10 +34242,10 @@
         <v>0</v>
       </c>
       <c r="D199" s="38" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E199" s="39" t="n">
-        <v>29.03225806451613</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="F199" s="37" t="n"/>
     </row>
@@ -34264,10 +34264,10 @@
         <v>1</v>
       </c>
       <c r="D200" s="38" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E200" s="39" t="n">
-        <v>35.48387096774194</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="F200" s="37" t="n"/>
     </row>
@@ -34308,10 +34308,10 @@
         <v>0</v>
       </c>
       <c r="D202" s="38" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E202" s="39" t="n">
-        <v>12.5</v>
+        <v>43.75</v>
       </c>
       <c r="F202" s="37" t="n"/>
     </row>
@@ -34330,10 +34330,10 @@
         <v>1</v>
       </c>
       <c r="D203" s="38" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E203" s="39" t="n">
-        <v>43.75</v>
+        <v>12.5</v>
       </c>
       <c r="F203" s="37" t="n"/>
     </row>
@@ -34374,10 +34374,10 @@
         <v>0</v>
       </c>
       <c r="D205" s="38" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E205" s="39" t="n">
-        <v>33.2409972299169</v>
+        <v>30.47091412742382</v>
       </c>
       <c r="F205" s="37" t="n"/>
     </row>
@@ -34396,10 +34396,10 @@
         <v>1</v>
       </c>
       <c r="D206" s="38" t="n">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="E206" s="39" t="n">
-        <v>36.28808864265928</v>
+        <v>33.2409972299169</v>
       </c>
       <c r="F206" s="37" t="n"/>
     </row>
@@ -34418,10 +34418,10 @@
         <v>2</v>
       </c>
       <c r="D207" s="38" t="n">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="E207" s="39" t="n">
-        <v>30.47091412742382</v>
+        <v>36.28808864265928</v>
       </c>
       <c r="F207" s="37" t="n"/>
     </row>
@@ -34440,10 +34440,10 @@
         <v>0</v>
       </c>
       <c r="D208" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E208" s="39" t="n">
-        <v>36.36363636363637</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="F208" s="37" t="n"/>
     </row>
@@ -34484,10 +34484,10 @@
         <v>2</v>
       </c>
       <c r="D210" s="38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E210" s="39" t="n">
-        <v>27.27272727272727</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="F210" s="37" t="n"/>
     </row>
@@ -34506,10 +34506,10 @@
         <v>0</v>
       </c>
       <c r="D211" s="38" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E211" s="39" t="n">
-        <v>29.87012987012987</v>
+        <v>23.37662337662337</v>
       </c>
       <c r="F211" s="37" t="n"/>
     </row>
@@ -34528,10 +34528,10 @@
         <v>1</v>
       </c>
       <c r="D212" s="38" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E212" s="39" t="n">
-        <v>46.75324675324675</v>
+        <v>29.87012987012987</v>
       </c>
       <c r="F212" s="37" t="n"/>
     </row>
@@ -34550,10 +34550,10 @@
         <v>2</v>
       </c>
       <c r="D213" s="38" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E213" s="39" t="n">
-        <v>23.37662337662337</v>
+        <v>46.75324675324675</v>
       </c>
       <c r="F213" s="37" t="n"/>
     </row>
@@ -34572,10 +34572,10 @@
         <v>0</v>
       </c>
       <c r="D214" s="38" t="n">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="E214" s="39" t="n">
-        <v>31.52492668621701</v>
+        <v>33.43108504398827</v>
       </c>
       <c r="F214" s="37" t="n"/>
     </row>
@@ -34594,10 +34594,10 @@
         <v>1</v>
       </c>
       <c r="D215" s="38" t="n">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="E215" s="39" t="n">
-        <v>35.04398826979472</v>
+        <v>31.52492668621701</v>
       </c>
       <c r="F215" s="37" t="n"/>
     </row>
@@ -34616,10 +34616,10 @@
         <v>2</v>
       </c>
       <c r="D216" s="38" t="n">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E216" s="39" t="n">
-        <v>33.43108504398827</v>
+        <v>35.04398826979472</v>
       </c>
       <c r="F216" s="37" t="n"/>
     </row>
@@ -34638,10 +34638,10 @@
         <v>0</v>
       </c>
       <c r="D217" s="38" t="n">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="E217" s="39" t="n">
-        <v>35.15151515151515</v>
+        <v>31.86147186147186</v>
       </c>
       <c r="F217" s="37" t="n"/>
     </row>
@@ -34660,10 +34660,10 @@
         <v>1</v>
       </c>
       <c r="D218" s="38" t="n">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="E218" s="39" t="n">
-        <v>32.98701298701299</v>
+        <v>35.15151515151515</v>
       </c>
       <c r="F218" s="37" t="n"/>
     </row>
@@ -34682,10 +34682,10 @@
         <v>2</v>
       </c>
       <c r="D219" s="38" t="n">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="E219" s="39" t="n">
-        <v>31.86147186147186</v>
+        <v>32.98701298701299</v>
       </c>
       <c r="F219" s="37" t="n"/>
     </row>
@@ -34704,10 +34704,10 @@
         <v>0</v>
       </c>
       <c r="D220" s="38" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E220" s="39" t="n">
-        <v>34.42622950819672</v>
+        <v>44.26229508196721</v>
       </c>
       <c r="F220" s="37" t="n"/>
     </row>
@@ -34726,10 +34726,10 @@
         <v>1</v>
       </c>
       <c r="D221" s="38" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E221" s="39" t="n">
-        <v>21.31147540983606</v>
+        <v>34.42622950819672</v>
       </c>
       <c r="F221" s="37" t="n"/>
     </row>
@@ -34748,10 +34748,10 @@
         <v>2</v>
       </c>
       <c r="D222" s="38" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E222" s="39" t="n">
-        <v>44.26229508196721</v>
+        <v>21.31147540983606</v>
       </c>
       <c r="F222" s="37" t="n"/>
     </row>
@@ -34770,10 +34770,10 @@
         <v>0</v>
       </c>
       <c r="D223" s="38" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E223" s="39" t="n">
-        <v>32.20338983050847</v>
+        <v>33.89830508474576</v>
       </c>
       <c r="F223" s="37" t="n"/>
     </row>
@@ -34792,10 +34792,10 @@
         <v>1</v>
       </c>
       <c r="D224" s="38" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E224" s="39" t="n">
-        <v>33.89830508474576</v>
+        <v>32.20338983050847</v>
       </c>
       <c r="F224" s="37" t="n"/>
     </row>
@@ -34836,10 +34836,10 @@
         <v>0</v>
       </c>
       <c r="D226" s="38" t="n">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="E226" s="39" t="n">
-        <v>30.08021390374331</v>
+        <v>34.62566844919786</v>
       </c>
       <c r="F226" s="37" t="n"/>
     </row>
@@ -34858,10 +34858,10 @@
         <v>1</v>
       </c>
       <c r="D227" s="38" t="n">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="E227" s="39" t="n">
-        <v>35.29411764705883</v>
+        <v>30.08021390374331</v>
       </c>
       <c r="F227" s="37" t="n"/>
     </row>
@@ -34880,10 +34880,10 @@
         <v>2</v>
       </c>
       <c r="D228" s="38" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E228" s="39" t="n">
-        <v>34.62566844919786</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="F228" s="37" t="n"/>
     </row>
@@ -34902,10 +34902,10 @@
         <v>0</v>
       </c>
       <c r="D229" s="38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E229" s="39" t="n">
-        <v>28.57142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="F229" s="37" t="n"/>
     </row>
@@ -34924,10 +34924,10 @@
         <v>1</v>
       </c>
       <c r="D230" s="38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E230" s="39" t="n">
-        <v>57.14285714285714</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F230" s="37" t="n"/>
     </row>
@@ -34946,10 +34946,10 @@
         <v>2</v>
       </c>
       <c r="D231" s="38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E231" s="39" t="n">
-        <v>14.28571428571428</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="F231" s="37" t="n"/>
     </row>
@@ -34968,10 +34968,10 @@
         <v>0</v>
       </c>
       <c r="D232" s="38" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E232" s="39" t="n">
-        <v>34.32835820895522</v>
+        <v>25.37313432835821</v>
       </c>
       <c r="F232" s="37" t="n"/>
     </row>
@@ -34990,10 +34990,10 @@
         <v>1</v>
       </c>
       <c r="D233" s="38" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E233" s="39" t="n">
-        <v>40.29850746268657</v>
+        <v>34.32835820895522</v>
       </c>
       <c r="F233" s="37" t="n"/>
     </row>
@@ -35012,10 +35012,10 @@
         <v>2</v>
       </c>
       <c r="D234" s="38" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E234" s="39" t="n">
-        <v>25.37313432835821</v>
+        <v>40.29850746268657</v>
       </c>
       <c r="F234" s="37" t="n"/>
     </row>
@@ -35034,10 +35034,10 @@
         <v>0</v>
       </c>
       <c r="D235" s="38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E235" s="39" t="n">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F235" s="37" t="n"/>
     </row>
@@ -35053,13 +35053,13 @@
         </is>
       </c>
       <c r="C236" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="D236" s="38" t="n">
-        <v>1</v>
-      </c>
       <c r="E236" s="39" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="F236" s="37" t="n"/>
     </row>
@@ -35078,10 +35078,10 @@
         <v>0</v>
       </c>
       <c r="D237" s="38" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E237" s="39" t="n">
-        <v>33.9622641509434</v>
+        <v>38.67924528301887</v>
       </c>
       <c r="F237" s="37" t="n"/>
     </row>
@@ -35100,10 +35100,10 @@
         <v>1</v>
       </c>
       <c r="D238" s="38" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E238" s="39" t="n">
-        <v>27.35849056603773</v>
+        <v>33.9622641509434</v>
       </c>
       <c r="F238" s="37" t="n"/>
     </row>
@@ -35122,10 +35122,10 @@
         <v>2</v>
       </c>
       <c r="D239" s="38" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E239" s="39" t="n">
-        <v>38.67924528301887</v>
+        <v>27.35849056603773</v>
       </c>
       <c r="F239" s="37" t="n"/>
     </row>
@@ -35144,10 +35144,10 @@
         <v>0</v>
       </c>
       <c r="D240" s="38" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E240" s="39" t="n">
-        <v>35.39719626168225</v>
+        <v>35.04672897196262</v>
       </c>
       <c r="F240" s="37" t="n"/>
     </row>
@@ -35166,10 +35166,10 @@
         <v>1</v>
       </c>
       <c r="D241" s="38" t="n">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="E241" s="39" t="n">
-        <v>29.55607476635514</v>
+        <v>35.39719626168225</v>
       </c>
       <c r="F241" s="37" t="n"/>
     </row>
@@ -35188,10 +35188,10 @@
         <v>2</v>
       </c>
       <c r="D242" s="38" t="n">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="E242" s="39" t="n">
-        <v>35.04672897196262</v>
+        <v>29.55607476635514</v>
       </c>
       <c r="F242" s="37" t="n"/>
     </row>
@@ -35210,10 +35210,10 @@
         <v>0</v>
       </c>
       <c r="D243" s="38" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E243" s="39" t="n">
-        <v>39.47368421052632</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="F243" s="37" t="n"/>
     </row>
@@ -35232,10 +35232,10 @@
         <v>1</v>
       </c>
       <c r="D244" s="38" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E244" s="39" t="n">
-        <v>23.68421052631579</v>
+        <v>39.47368421052632</v>
       </c>
       <c r="F244" s="37" t="n"/>
     </row>
@@ -35254,10 +35254,10 @@
         <v>2</v>
       </c>
       <c r="D245" s="38" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E245" s="39" t="n">
-        <v>36.84210526315789</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="F245" s="37" t="n"/>
     </row>
@@ -35276,10 +35276,10 @@
         <v>0</v>
       </c>
       <c r="D246" s="38" t="n">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E246" s="39" t="n">
-        <v>35.52238805970149</v>
+        <v>29.85074626865671</v>
       </c>
       <c r="F246" s="37" t="n"/>
     </row>
@@ -35298,10 +35298,10 @@
         <v>1</v>
       </c>
       <c r="D247" s="38" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E247" s="39" t="n">
-        <v>34.6268656716418</v>
+        <v>35.52238805970149</v>
       </c>
       <c r="F247" s="37" t="n"/>
     </row>
@@ -35320,10 +35320,10 @@
         <v>2</v>
       </c>
       <c r="D248" s="38" t="n">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E248" s="39" t="n">
-        <v>29.85074626865671</v>
+        <v>34.6268656716418</v>
       </c>
       <c r="F248" s="37" t="n"/>
     </row>
@@ -35339,7 +35339,7 @@
         </is>
       </c>
       <c r="C249" s="38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D249" s="38" t="n">
         <v>1</v>
@@ -35364,10 +35364,10 @@
         <v>0</v>
       </c>
       <c r="D250" s="38" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E250" s="39" t="n">
-        <v>29.52380952380953</v>
+        <v>34.76190476190476</v>
       </c>
       <c r="F250" s="37" t="n"/>
     </row>
@@ -35386,10 +35386,10 @@
         <v>1</v>
       </c>
       <c r="D251" s="38" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E251" s="39" t="n">
-        <v>35.71428571428572</v>
+        <v>29.52380952380953</v>
       </c>
       <c r="F251" s="37" t="n"/>
     </row>
@@ -35408,10 +35408,10 @@
         <v>2</v>
       </c>
       <c r="D252" s="38" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E252" s="39" t="n">
-        <v>34.76190476190476</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="F252" s="37" t="n"/>
     </row>
@@ -35430,10 +35430,10 @@
         <v>0</v>
       </c>
       <c r="D253" s="38" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E253" s="39" t="n">
-        <v>25.86206896551724</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="F253" s="37" t="n"/>
     </row>
@@ -35474,10 +35474,10 @@
         <v>2</v>
       </c>
       <c r="D255" s="38" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E255" s="39" t="n">
-        <v>48.27586206896552</v>
+        <v>25.86206896551724</v>
       </c>
       <c r="F255" s="37" t="n"/>
     </row>
@@ -35496,10 +35496,10 @@
         <v>0</v>
       </c>
       <c r="D256" s="38" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E256" s="39" t="n">
-        <v>28.26086956521739</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="F256" s="37" t="n"/>
     </row>
@@ -35518,10 +35518,10 @@
         <v>1</v>
       </c>
       <c r="D257" s="38" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E257" s="39" t="n">
-        <v>50</v>
+        <v>28.26086956521739</v>
       </c>
       <c r="F257" s="37" t="n"/>
     </row>
@@ -35540,10 +35540,10 @@
         <v>2</v>
       </c>
       <c r="D258" s="38" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E258" s="39" t="n">
-        <v>21.73913043478261</v>
+        <v>50</v>
       </c>
       <c r="F258" s="37" t="n"/>
     </row>
@@ -35562,10 +35562,10 @@
         <v>0</v>
       </c>
       <c r="D259" s="38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E259" s="39" t="n">
-        <v>75</v>
+        <v>12.5</v>
       </c>
       <c r="F259" s="37" t="n"/>
     </row>
@@ -35584,10 +35584,10 @@
         <v>1</v>
       </c>
       <c r="D260" s="38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E260" s="39" t="n">
-        <v>12.5</v>
+        <v>75</v>
       </c>
       <c r="F260" s="37" t="n"/>
     </row>
@@ -35628,10 +35628,10 @@
         <v>0</v>
       </c>
       <c r="D262" s="38" t="n">
-        <v>2370</v>
+        <v>2417</v>
       </c>
       <c r="E262" s="39" t="n">
-        <v>33.14221787162634</v>
+        <v>33.7994686057894</v>
       </c>
       <c r="F262" s="37" t="n"/>
     </row>
@@ -35650,10 +35650,10 @@
         <v>1</v>
       </c>
       <c r="D263" s="38" t="n">
-        <v>2364</v>
+        <v>2370</v>
       </c>
       <c r="E263" s="39" t="n">
-        <v>33.05831352258426</v>
+        <v>33.14221787162634</v>
       </c>
       <c r="F263" s="37" t="n"/>
     </row>
@@ -35672,10 +35672,10 @@
         <v>2</v>
       </c>
       <c r="D264" s="38" t="n">
-        <v>2417</v>
+        <v>2364</v>
       </c>
       <c r="E264" s="39" t="n">
-        <v>33.7994686057894</v>
+        <v>33.05831352258426</v>
       </c>
       <c r="F264" s="37" t="n"/>
     </row>
@@ -35694,10 +35694,10 @@
         <v>0</v>
       </c>
       <c r="D265" s="38" t="n">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E265" s="39" t="n">
-        <v>33.47902097902098</v>
+        <v>32.43006993006993</v>
       </c>
       <c r="F265" s="37" t="n"/>
     </row>
@@ -35716,10 +35716,10 @@
         <v>1</v>
       </c>
       <c r="D266" s="38" t="n">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E266" s="39" t="n">
-        <v>34.09090909090909</v>
+        <v>33.47902097902098</v>
       </c>
       <c r="F266" s="37" t="n"/>
     </row>
@@ -35738,10 +35738,10 @@
         <v>2</v>
       </c>
       <c r="D267" s="40" t="n">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="E267" s="40" t="n">
-        <v>32.43006993006993</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="F267" s="37" t="n"/>
     </row>
@@ -35760,10 +35760,10 @@
         <v>0</v>
       </c>
       <c r="D268" s="38" t="n">
-        <v>584</v>
+        <v>531</v>
       </c>
       <c r="E268" s="39" t="n">
-        <v>34.51536643026004</v>
+        <v>31.38297872340425</v>
       </c>
       <c r="F268" s="37" t="n"/>
     </row>
@@ -35782,10 +35782,10 @@
         <v>1</v>
       </c>
       <c r="D269" s="38" t="n">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E269" s="39" t="n">
-        <v>34.1016548463357</v>
+        <v>34.51536643026004</v>
       </c>
       <c r="F269" s="37" t="n"/>
     </row>
@@ -35804,10 +35804,10 @@
         <v>2</v>
       </c>
       <c r="D270" s="38" t="n">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="E270" s="39" t="n">
-        <v>31.38297872340425</v>
+        <v>34.1016548463357</v>
       </c>
       <c r="F270" s="37" t="n"/>
     </row>
@@ -35826,10 +35826,10 @@
         <v>0</v>
       </c>
       <c r="D271" s="38" t="n">
-        <v>703</v>
+        <v>748</v>
       </c>
       <c r="E271" s="39" t="n">
-        <v>31.85319438151337</v>
+        <v>33.89216130493883</v>
       </c>
       <c r="F271" s="37" t="n"/>
     </row>
@@ -35848,10 +35848,10 @@
         <v>1</v>
       </c>
       <c r="D272" s="38" t="n">
-        <v>756</v>
+        <v>703</v>
       </c>
       <c r="E272" s="39" t="n">
-        <v>34.25464431354781</v>
+        <v>31.85319438151337</v>
       </c>
       <c r="F272" s="37" t="n"/>
     </row>
@@ -35870,10 +35870,10 @@
         <v>2</v>
       </c>
       <c r="D273" s="38" t="n">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="E273" s="39" t="n">
-        <v>33.89216130493883</v>
+        <v>34.25464431354781</v>
       </c>
       <c r="F273" s="37" t="n"/>
     </row>
@@ -35892,10 +35892,10 @@
         <v>0</v>
       </c>
       <c r="D274" s="38" t="n">
-        <v>1466</v>
+        <v>1509</v>
       </c>
       <c r="E274" s="39" t="n">
-        <v>33.34849863512284</v>
+        <v>34.32666060054595</v>
       </c>
       <c r="F274" s="37" t="n"/>
     </row>
@@ -35914,10 +35914,10 @@
         <v>1</v>
       </c>
       <c r="D275" s="38" t="n">
-        <v>1421</v>
+        <v>1466</v>
       </c>
       <c r="E275" s="39" t="n">
-        <v>32.32484076433121</v>
+        <v>33.34849863512284</v>
       </c>
       <c r="F275" s="37" t="n"/>
     </row>
@@ -35936,10 +35936,10 @@
         <v>2</v>
       </c>
       <c r="D276" s="40" t="n">
-        <v>1509</v>
+        <v>1421</v>
       </c>
       <c r="E276" s="40" t="n">
-        <v>34.32666060054595</v>
+        <v>32.32484076433121</v>
       </c>
       <c r="F276" s="37" t="n"/>
     </row>
@@ -35956,10 +35956,10 @@
         <v>0</v>
       </c>
       <c r="D277" s="38" t="n">
-        <v>2586</v>
+        <v>2625</v>
       </c>
       <c r="E277" s="39" t="n">
-        <v>33.14959620561466</v>
+        <v>33.64953211126779</v>
       </c>
       <c r="F277" s="37" t="n"/>
     </row>
@@ -35976,10 +35976,10 @@
         <v>1</v>
       </c>
       <c r="D278" s="38" t="n">
-        <v>2590</v>
+        <v>2586</v>
       </c>
       <c r="E278" s="39" t="n">
-        <v>33.20087168311755</v>
+        <v>33.14959620561466</v>
       </c>
       <c r="F278" s="37" t="n"/>
     </row>
@@ -35996,10 +35996,10 @@
         <v>2</v>
       </c>
       <c r="D279" s="38" t="n">
-        <v>2625</v>
+        <v>2590</v>
       </c>
       <c r="E279" s="39" t="n">
-        <v>33.64953211126779</v>
+        <v>33.20087168311755</v>
       </c>
       <c r="F279" s="37" t="n"/>
     </row>
@@ -36016,10 +36016,10 @@
         <v>0</v>
       </c>
       <c r="D280" s="38" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E280" s="39" t="n">
-        <v>33.80566801619433</v>
+        <v>32.99595141700405</v>
       </c>
       <c r="F280" s="37" t="n"/>
     </row>
@@ -36036,10 +36036,10 @@
         <v>1</v>
       </c>
       <c r="D281" s="38" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E281" s="39" t="n">
-        <v>33.19838056680162</v>
+        <v>33.80566801619433</v>
       </c>
       <c r="F281" s="37" t="n"/>
     </row>
@@ -36056,10 +36056,10 @@
         <v>2</v>
       </c>
       <c r="D282" s="40" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E282" s="40" t="n">
-        <v>32.99595141700405</v>
+        <v>33.19838056680162</v>
       </c>
       <c r="F282" s="37" t="n"/>
     </row>
@@ -36076,10 +36076,10 @@
         <v>0</v>
       </c>
       <c r="D283" s="38" t="n">
-        <v>2050</v>
+        <v>2096</v>
       </c>
       <c r="E283" s="39" t="n">
-        <v>33.12328324446599</v>
+        <v>33.86653740507352</v>
       </c>
       <c r="F283" s="37" t="n"/>
     </row>
@@ -36096,10 +36096,10 @@
         <v>1</v>
       </c>
       <c r="D284" s="38" t="n">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="E284" s="39" t="n">
-        <v>33.0101793504605</v>
+        <v>33.12328324446599</v>
       </c>
       <c r="F284" s="37" t="n"/>
     </row>
@@ -36116,10 +36116,10 @@
         <v>2</v>
       </c>
       <c r="D285" s="38" t="n">
-        <v>2096</v>
+        <v>2043</v>
       </c>
       <c r="E285" s="39" t="n">
-        <v>33.86653740507352</v>
+        <v>33.0101793504605</v>
       </c>
       <c r="F285" s="37" t="n"/>
     </row>
@@ -36136,10 +36136,10 @@
         <v>0</v>
       </c>
       <c r="D286" s="38" t="n">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="E286" s="39" t="n">
-        <v>33.38081671415004</v>
+        <v>32.85849952516619</v>
       </c>
       <c r="F286" s="37" t="n"/>
     </row>
@@ -36156,10 +36156,10 @@
         <v>1</v>
       </c>
       <c r="D287" s="38" t="n">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E287" s="39" t="n">
-        <v>33.76068376068376</v>
+        <v>33.38081671415004</v>
       </c>
       <c r="F287" s="37" t="n"/>
     </row>
@@ -36176,10 +36176,10 @@
         <v>2</v>
       </c>
       <c r="D288" s="40" t="n">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="E288" s="40" t="n">
-        <v>32.85849952516619</v>
+        <v>33.76068376068376</v>
       </c>
       <c r="F288" s="37" t="n"/>
     </row>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="D289" s="38" t="n">
-        <v>2094</v>
+        <v>2122</v>
       </c>
       <c r="E289" s="39" t="n">
-        <v>33.30682360426277</v>
+        <v>33.75218705264832</v>
       </c>
       <c r="F289" s="37" t="n"/>
     </row>
@@ -36216,10 +36216,10 @@
         <v>1</v>
       </c>
       <c r="D290" s="38" t="n">
-        <v>2071</v>
+        <v>2094</v>
       </c>
       <c r="E290" s="39" t="n">
-        <v>32.94098934308891</v>
+        <v>33.30682360426277</v>
       </c>
       <c r="F290" s="37" t="n"/>
     </row>
@@ -36236,10 +36236,10 @@
         <v>2</v>
       </c>
       <c r="D291" s="38" t="n">
-        <v>2122</v>
+        <v>2071</v>
       </c>
       <c r="E291" s="39" t="n">
-        <v>33.75218705264832</v>
+        <v>32.94098934308891</v>
       </c>
       <c r="F291" s="37" t="n"/>
     </row>
@@ -36256,10 +36256,10 @@
         <v>0</v>
       </c>
       <c r="D292" s="38" t="n">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="E292" s="39" t="n">
-        <v>32.81872509960159</v>
+        <v>33.16733067729083</v>
       </c>
       <c r="F292" s="37" t="n"/>
     </row>
@@ -36276,10 +36276,10 @@
         <v>1</v>
       </c>
       <c r="D293" s="38" t="n">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="E293" s="39" t="n">
-        <v>34.01394422310756</v>
+        <v>32.81872509960159</v>
       </c>
       <c r="F293" s="37" t="n"/>
     </row>
@@ -36296,10 +36296,10 @@
         <v>2</v>
       </c>
       <c r="D294" s="40" t="n">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="E294" s="40" t="n">
-        <v>33.16733067729083</v>
+        <v>34.01394422310756</v>
       </c>
       <c r="F294" s="37" t="n"/>
     </row>
@@ -36316,10 +36316,10 @@
         <v>0</v>
       </c>
       <c r="D295" s="38" t="n">
-        <v>2482</v>
+        <v>2546</v>
       </c>
       <c r="E295" s="39" t="n">
-        <v>32.99215738402233</v>
+        <v>33.84288182905756</v>
       </c>
       <c r="F295" s="37" t="n"/>
     </row>
@@ -36336,10 +36336,10 @@
         <v>1</v>
       </c>
       <c r="D296" s="38" t="n">
-        <v>2495</v>
+        <v>2482</v>
       </c>
       <c r="E296" s="39" t="n">
-        <v>33.16496078692011</v>
+        <v>32.99215738402233</v>
       </c>
       <c r="F296" s="37" t="n"/>
     </row>
@@ -36356,10 +36356,10 @@
         <v>2</v>
       </c>
       <c r="D297" s="38" t="n">
-        <v>2546</v>
+        <v>2495</v>
       </c>
       <c r="E297" s="39" t="n">
-        <v>33.84288182905756</v>
+        <v>33.16496078692011</v>
       </c>
       <c r="F297" s="37" t="n"/>
     </row>
@@ -36376,10 +36376,10 @@
         <v>0</v>
       </c>
       <c r="D298" s="38" t="n">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="E298" s="39" t="n">
-        <v>35.10362694300518</v>
+        <v>31.34715025906736</v>
       </c>
       <c r="F298" s="37" t="n"/>
     </row>
@@ -36396,10 +36396,10 @@
         <v>1</v>
       </c>
       <c r="D299" s="38" t="n">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="E299" s="39" t="n">
-        <v>33.54922279792746</v>
+        <v>35.10362694300518</v>
       </c>
       <c r="F299" s="37" t="n"/>
     </row>
@@ -36416,10 +36416,10 @@
         <v>2</v>
       </c>
       <c r="D300" s="40" t="n">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="E300" s="40" t="n">
-        <v>31.34715025906736</v>
+        <v>33.54922279792746</v>
       </c>
       <c r="F300" s="37" t="n"/>
     </row>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="D301" s="38" t="n">
-        <v>2496</v>
+        <v>2558</v>
       </c>
       <c r="E301" s="39" t="n">
-        <v>32.91573255967295</v>
+        <v>33.7333509165238</v>
       </c>
       <c r="F301" s="37" t="n"/>
     </row>
@@ -36456,10 +36456,10 @@
         <v>1</v>
       </c>
       <c r="D302" s="38" t="n">
-        <v>2529</v>
+        <v>2496</v>
       </c>
       <c r="E302" s="39" t="n">
-        <v>33.35091652380324</v>
+        <v>32.91573255967295</v>
       </c>
       <c r="F302" s="37" t="n"/>
     </row>
@@ -36476,10 +36476,10 @@
         <v>2</v>
       </c>
       <c r="D303" s="38" t="n">
-        <v>2558</v>
+        <v>2529</v>
       </c>
       <c r="E303" s="39" t="n">
-        <v>33.7333509165238</v>
+        <v>33.35091652380324</v>
       </c>
       <c r="F303" s="37" t="n"/>
     </row>
@@ -36496,10 +36496,10 @@
         <v>0</v>
       </c>
       <c r="D304" s="38" t="n">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="E304" s="39" t="n">
-        <v>36.09550561797753</v>
+        <v>32.30337078651686</v>
       </c>
       <c r="F304" s="37" t="n"/>
     </row>
@@ -36516,10 +36516,10 @@
         <v>1</v>
       </c>
       <c r="D305" s="38" t="n">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="E305" s="39" t="n">
-        <v>31.60112359550562</v>
+        <v>36.09550561797753</v>
       </c>
       <c r="F305" s="37" t="n"/>
     </row>
@@ -36536,10 +36536,10 @@
         <v>2</v>
       </c>
       <c r="D306" s="40" t="n">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E306" s="40" t="n">
-        <v>32.30337078651686</v>
+        <v>31.60112359550562</v>
       </c>
       <c r="F306" s="37" t="n"/>
     </row>
@@ -36556,10 +36556,10 @@
         <v>0</v>
       </c>
       <c r="D307" s="38" t="n">
-        <v>2504</v>
+        <v>2582</v>
       </c>
       <c r="E307" s="39" t="n">
-        <v>32.91272344900105</v>
+        <v>33.93796004206099</v>
       </c>
       <c r="F307" s="37" t="n"/>
     </row>
@@ -36576,10 +36576,10 @@
         <v>1</v>
       </c>
       <c r="D308" s="38" t="n">
-        <v>2522</v>
+        <v>2504</v>
       </c>
       <c r="E308" s="39" t="n">
-        <v>33.14931650893796</v>
+        <v>32.91272344900105</v>
       </c>
       <c r="F308" s="37" t="n"/>
     </row>
@@ -36596,10 +36596,10 @@
         <v>2</v>
       </c>
       <c r="D309" s="38" t="n">
-        <v>2582</v>
+        <v>2522</v>
       </c>
       <c r="E309" s="39" t="n">
-        <v>33.93796004206099</v>
+        <v>33.14931650893796</v>
       </c>
       <c r="F309" s="37" t="n"/>
     </row>
@@ -36616,10 +36616,10 @@
         <v>0</v>
       </c>
       <c r="D310" s="38" t="n">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E310" s="39" t="n">
-        <v>36.24454148471616</v>
+        <v>29.98544395924309</v>
       </c>
       <c r="F310" s="37" t="n"/>
     </row>
@@ -36636,10 +36636,10 @@
         <v>1</v>
       </c>
       <c r="D311" s="38" t="n">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E311" s="39" t="n">
-        <v>33.77001455604076</v>
+        <v>36.24454148471616</v>
       </c>
       <c r="F311" s="37" t="n"/>
     </row>
@@ -36656,10 +36656,10 @@
         <v>2</v>
       </c>
       <c r="D312" s="40" t="n">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="E312" s="40" t="n">
-        <v>29.98544395924309</v>
+        <v>33.77001455604076</v>
       </c>
       <c r="F312" s="37" t="n"/>
     </row>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="D313" s="38" t="n">
-        <v>2502</v>
+        <v>2553</v>
       </c>
       <c r="E313" s="39" t="n">
-        <v>32.90806260686571</v>
+        <v>33.57885045376825</v>
       </c>
       <c r="F313" s="37" t="n"/>
     </row>
@@ -36696,10 +36696,10 @@
         <v>1</v>
       </c>
       <c r="D314" s="38" t="n">
-        <v>2548</v>
+        <v>2502</v>
       </c>
       <c r="E314" s="39" t="n">
-        <v>33.51308693936604</v>
+        <v>32.90806260686571</v>
       </c>
       <c r="F314" s="37" t="n"/>
     </row>
@@ -36716,10 +36716,10 @@
         <v>2</v>
       </c>
       <c r="D315" s="38" t="n">
-        <v>2553</v>
+        <v>2548</v>
       </c>
       <c r="E315" s="39" t="n">
-        <v>33.57885045376825</v>
+        <v>33.51308693936604</v>
       </c>
       <c r="F315" s="37" t="n"/>
     </row>
@@ -36736,10 +36736,10 @@
         <v>0</v>
       </c>
       <c r="D316" s="38" t="n">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="E316" s="39" t="n">
-        <v>36.27167630057804</v>
+        <v>33.95953757225433</v>
       </c>
       <c r="F316" s="37" t="n"/>
     </row>
@@ -36756,10 +36756,10 @@
         <v>1</v>
       </c>
       <c r="D317" s="38" t="n">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="E317" s="39" t="n">
-        <v>29.76878612716763</v>
+        <v>36.27167630057804</v>
       </c>
       <c r="F317" s="37" t="n"/>
     </row>
@@ -36776,10 +36776,10 @@
         <v>2</v>
       </c>
       <c r="D318" s="40" t="n">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="E318" s="40" t="n">
-        <v>33.95953757225433</v>
+        <v>29.76878612716763</v>
       </c>
       <c r="F318" s="37" t="n"/>
     </row>
@@ -36796,10 +36796,10 @@
         <v>0</v>
       </c>
       <c r="D319" s="38" t="n">
-        <v>2517</v>
+        <v>2528</v>
       </c>
       <c r="E319" s="39" t="n">
-        <v>33.43517534537726</v>
+        <v>33.58129649309245</v>
       </c>
       <c r="F319" s="37" t="n"/>
     </row>
@@ -36816,10 +36816,10 @@
         <v>1</v>
       </c>
       <c r="D320" s="38" t="n">
-        <v>2483</v>
+        <v>2517</v>
       </c>
       <c r="E320" s="39" t="n">
-        <v>32.98352816153029</v>
+        <v>33.43517534537726</v>
       </c>
       <c r="F320" s="37" t="n"/>
     </row>
@@ -36836,10 +36836,10 @@
         <v>2</v>
       </c>
       <c r="D321" s="38" t="n">
-        <v>2528</v>
+        <v>2483</v>
       </c>
       <c r="E321" s="39" t="n">
-        <v>33.58129649309245</v>
+        <v>32.98352816153029</v>
       </c>
       <c r="F321" s="37" t="n"/>
     </row>
@@ -36856,10 +36856,10 @@
         <v>0</v>
       </c>
       <c r="D322" s="38" t="n">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="E322" s="39" t="n">
-        <v>30.76923076923077</v>
+        <v>33.89830508474576</v>
       </c>
       <c r="F322" s="37" t="n"/>
     </row>
@@ -36876,10 +36876,10 @@
         <v>1</v>
       </c>
       <c r="D323" s="38" t="n">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="E323" s="39" t="n">
-        <v>35.33246414602347</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="F323" s="37" t="n"/>
     </row>
@@ -36896,10 +36896,10 @@
         <v>2</v>
       </c>
       <c r="D324" s="40" t="n">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E324" s="40" t="n">
-        <v>33.89830508474576</v>
+        <v>35.33246414602347</v>
       </c>
       <c r="F324" s="37" t="n"/>
     </row>
@@ -36916,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="D325" s="38" t="n">
-        <v>2443</v>
+        <v>2462</v>
       </c>
       <c r="E325" s="39" t="n">
-        <v>33.29698786970151</v>
+        <v>33.55594929807823</v>
       </c>
       <c r="F325" s="37" t="n"/>
     </row>
@@ -36936,10 +36936,10 @@
         <v>1</v>
       </c>
       <c r="D326" s="38" t="n">
-        <v>2432</v>
+        <v>2443</v>
       </c>
       <c r="E326" s="39" t="n">
-        <v>33.14706283222025</v>
+        <v>33.29698786970151</v>
       </c>
       <c r="F326" s="37" t="n"/>
     </row>
@@ -36956,10 +36956,10 @@
         <v>2</v>
       </c>
       <c r="D327" s="38" t="n">
-        <v>2462</v>
+        <v>2432</v>
       </c>
       <c r="E327" s="39" t="n">
-        <v>33.55594929807823</v>
+        <v>33.14706283222025</v>
       </c>
       <c r="F327" s="37" t="n"/>
     </row>
@@ -36976,10 +36976,10 @@
         <v>0</v>
       </c>
       <c r="D328" s="38" t="n">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="E328" s="39" t="n">
-        <v>32.35908141962422</v>
+        <v>34.02922755741128</v>
       </c>
       <c r="F328" s="37" t="n"/>
     </row>
@@ -36996,10 +36996,10 @@
         <v>1</v>
       </c>
       <c r="D329" s="38" t="n">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E329" s="39" t="n">
-        <v>33.61169102296451</v>
+        <v>32.35908141962422</v>
       </c>
       <c r="F329" s="37" t="n"/>
     </row>
@@ -37016,10 +37016,10 @@
         <v>2</v>
       </c>
       <c r="D330" s="40" t="n">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E330" s="40" t="n">
-        <v>34.02922755741128</v>
+        <v>33.61169102296451</v>
       </c>
       <c r="F330" s="37" t="n"/>
     </row>
@@ -37036,10 +37036,10 @@
         <v>0</v>
       </c>
       <c r="D331" s="38" t="n">
-        <v>2467</v>
+        <v>2544</v>
       </c>
       <c r="E331" s="39" t="n">
-        <v>32.87141905396403</v>
+        <v>33.89740173217855</v>
       </c>
       <c r="F331" s="37" t="n"/>
     </row>
@@ -37056,10 +37056,10 @@
         <v>1</v>
       </c>
       <c r="D332" s="38" t="n">
-        <v>2494</v>
+        <v>2467</v>
       </c>
       <c r="E332" s="39" t="n">
-        <v>33.23117921385742</v>
+        <v>32.87141905396403</v>
       </c>
       <c r="F332" s="37" t="n"/>
     </row>
@@ -37076,10 +37076,10 @@
         <v>2</v>
       </c>
       <c r="D333" s="38" t="n">
-        <v>2544</v>
+        <v>2494</v>
       </c>
       <c r="E333" s="39" t="n">
-        <v>33.89740173217855</v>
+        <v>33.23117921385742</v>
       </c>
       <c r="F333" s="37" t="n"/>
     </row>
@@ -37096,10 +37096,10 @@
         <v>0</v>
       </c>
       <c r="D334" s="38" t="n">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="E334" s="39" t="n">
-        <v>36.20253164556962</v>
+        <v>30.88607594936709</v>
       </c>
       <c r="F334" s="37" t="n"/>
     </row>
@@ -37116,10 +37116,10 @@
         <v>1</v>
       </c>
       <c r="D335" s="38" t="n">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="E335" s="39" t="n">
-        <v>32.91139240506329</v>
+        <v>36.20253164556962</v>
       </c>
       <c r="F335" s="37" t="n"/>
     </row>
@@ -37136,10 +37136,10 @@
         <v>2</v>
       </c>
       <c r="D336" s="40" t="n">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E336" s="40" t="n">
-        <v>30.88607594936709</v>
+        <v>32.91139240506329</v>
       </c>
       <c r="F336" s="37" t="n"/>
     </row>
@@ -37156,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="D337" s="38" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E337" s="39" t="n">
-        <v>32.89473684210527</v>
+        <v>32.86340852130326</v>
       </c>
       <c r="F337" s="37" t="n"/>
     </row>
@@ -37176,10 +37176,10 @@
         <v>1</v>
       </c>
       <c r="D338" s="38" t="n">
-        <v>1093</v>
+        <v>1050</v>
       </c>
       <c r="E338" s="39" t="n">
-        <v>34.24185463659148</v>
+        <v>32.89473684210527</v>
       </c>
       <c r="F338" s="37" t="n"/>
     </row>
@@ -37196,10 +37196,10 @@
         <v>2</v>
       </c>
       <c r="D339" s="38" t="n">
-        <v>1049</v>
+        <v>1093</v>
       </c>
       <c r="E339" s="39" t="n">
-        <v>32.86340852130326</v>
+        <v>34.24185463659148</v>
       </c>
       <c r="F339" s="37" t="n"/>
     </row>
@@ -37216,10 +37216,10 @@
         <v>0</v>
       </c>
       <c r="D340" s="38" t="n">
-        <v>2280</v>
+        <v>2287</v>
       </c>
       <c r="E340" s="39" t="n">
-        <v>33.49001175088132</v>
+        <v>33.59283196239718</v>
       </c>
       <c r="F340" s="37" t="n"/>
     </row>
@@ -37236,10 +37236,10 @@
         <v>1</v>
       </c>
       <c r="D341" s="38" t="n">
-        <v>2241</v>
+        <v>2280</v>
       </c>
       <c r="E341" s="39" t="n">
-        <v>32.91715628672151</v>
+        <v>33.49001175088132</v>
       </c>
       <c r="F341" s="37" t="n"/>
     </row>
@@ -37256,10 +37256,10 @@
         <v>2</v>
       </c>
       <c r="D342" s="40" t="n">
-        <v>2287</v>
+        <v>2241</v>
       </c>
       <c r="E342" s="40" t="n">
-        <v>33.59283196239718</v>
+        <v>32.91715628672151</v>
       </c>
       <c r="F342" s="37" t="n"/>
     </row>
@@ -37276,10 +37276,10 @@
         <v>0</v>
       </c>
       <c r="D343" s="38" t="n">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="E343" s="39" t="n">
-        <v>33.41836734693878</v>
+        <v>32.48299319727892</v>
       </c>
       <c r="F343" s="37" t="n"/>
     </row>
@@ -37296,10 +37296,10 @@
         <v>1</v>
       </c>
       <c r="D344" s="38" t="n">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="E344" s="39" t="n">
-        <v>34.09863945578231</v>
+        <v>33.41836734693878</v>
       </c>
       <c r="F344" s="37" t="n"/>
     </row>
@@ -37316,10 +37316,10 @@
         <v>2</v>
       </c>
       <c r="D345" s="38" t="n">
-        <v>764</v>
+        <v>802</v>
       </c>
       <c r="E345" s="39" t="n">
-        <v>32.48299319727892</v>
+        <v>34.09863945578231</v>
       </c>
       <c r="F345" s="37" t="n"/>
     </row>
@@ -37336,10 +37336,10 @@
         <v>0</v>
       </c>
       <c r="D346" s="38" t="n">
-        <v>2544</v>
+        <v>2572</v>
       </c>
       <c r="E346" s="39" t="n">
-        <v>33.26359832635983</v>
+        <v>33.62970711297071</v>
       </c>
       <c r="F346" s="37" t="n"/>
     </row>
@@ -37356,10 +37356,10 @@
         <v>1</v>
       </c>
       <c r="D347" s="38" t="n">
-        <v>2532</v>
+        <v>2544</v>
       </c>
       <c r="E347" s="39" t="n">
-        <v>33.10669456066946</v>
+        <v>33.26359832635983</v>
       </c>
       <c r="F347" s="37" t="n"/>
     </row>
@@ -37376,10 +37376,10 @@
         <v>2</v>
       </c>
       <c r="D348" s="40" t="n">
-        <v>2572</v>
+        <v>2532</v>
       </c>
       <c r="E348" s="40" t="n">
-        <v>33.62970711297071</v>
+        <v>33.10669456066946</v>
       </c>
       <c r="F348" s="37" t="n"/>
     </row>
@@ -37396,10 +37396,10 @@
         <v>0</v>
       </c>
       <c r="D349" s="38" t="n">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E349" s="39" t="n">
-        <v>33.33333333333333</v>
+        <v>33.31486611265005</v>
       </c>
       <c r="F349" s="37" t="n"/>
     </row>
@@ -37416,10 +37416,10 @@
         <v>1</v>
       </c>
       <c r="D350" s="38" t="n">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E350" s="39" t="n">
-        <v>33.35180055401662</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F350" s="37" t="n"/>
     </row>
@@ -37436,10 +37436,10 @@
         <v>2</v>
       </c>
       <c r="D351" s="38" t="n">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="E351" s="39" t="n">
-        <v>33.31486611265005</v>
+        <v>33.35180055401662</v>
       </c>
       <c r="F351" s="37" t="n"/>
     </row>
@@ -37456,10 +37456,10 @@
         <v>0</v>
       </c>
       <c r="D352" s="38" t="n">
-        <v>1525</v>
+        <v>1532</v>
       </c>
       <c r="E352" s="39" t="n">
-        <v>33.26063249727372</v>
+        <v>33.41330425299891</v>
       </c>
       <c r="F352" s="37" t="n"/>
     </row>
@@ -37476,10 +37476,10 @@
         <v>1</v>
       </c>
       <c r="D353" s="38" t="n">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="E353" s="39" t="n">
-        <v>33.32606324972737</v>
+        <v>33.26063249727372</v>
       </c>
       <c r="F353" s="37" t="n"/>
     </row>
@@ -37496,10 +37496,10 @@
         <v>2</v>
       </c>
       <c r="D354" s="40" t="n">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="E354" s="40" t="n">
-        <v>33.41330425299891</v>
+        <v>33.32606324972737</v>
       </c>
       <c r="F354" s="37" t="n"/>
     </row>
@@ -37516,10 +37516,10 @@
         <v>0</v>
       </c>
       <c r="D355" s="38" t="n">
-        <v>1370</v>
+        <v>1377</v>
       </c>
       <c r="E355" s="39" t="n">
-        <v>32.96438883541867</v>
+        <v>33.13282001924927</v>
       </c>
       <c r="F355" s="37" t="n"/>
     </row>
@@ -37536,10 +37536,10 @@
         <v>1</v>
       </c>
       <c r="D356" s="38" t="n">
-        <v>1409</v>
+        <v>1370</v>
       </c>
       <c r="E356" s="39" t="n">
-        <v>33.90279114533205</v>
+        <v>32.96438883541867</v>
       </c>
       <c r="F356" s="37" t="n"/>
     </row>
@@ -37556,10 +37556,10 @@
         <v>2</v>
       </c>
       <c r="D357" s="38" t="n">
-        <v>1377</v>
+        <v>1409</v>
       </c>
       <c r="E357" s="39" t="n">
-        <v>33.13282001924927</v>
+        <v>33.90279114533205</v>
       </c>
       <c r="F357" s="37" t="n"/>
     </row>
@@ -37576,10 +37576,10 @@
         <v>0</v>
       </c>
       <c r="D358" s="38" t="n">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E358" s="39" t="n">
-        <v>33.53867214236824</v>
+        <v>33.52156057494867</v>
       </c>
       <c r="F358" s="37" t="n"/>
     </row>
@@ -37596,10 +37596,10 @@
         <v>1</v>
       </c>
       <c r="D359" s="38" t="n">
-        <v>1925</v>
+        <v>1960</v>
       </c>
       <c r="E359" s="39" t="n">
-        <v>32.93976728268309</v>
+        <v>33.53867214236824</v>
       </c>
     </row>
     <row r="360" ht="25" customHeight="1">
@@ -37615,10 +37615,10 @@
         <v>2</v>
       </c>
       <c r="D360" s="39" t="n">
-        <v>1959</v>
+        <v>1925</v>
       </c>
       <c r="E360" s="39" t="n">
-        <v>33.52156057494867</v>
+        <v>32.93976728268309</v>
       </c>
     </row>
   </sheetData>
